--- a/CustomLocalization/Localization/RogueTech/RU/BT_Advanced_Pilots/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/BT_Advanced_Pilots/LocalizationDef.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="150" yWindow="570" windowWidth="28455" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="Localization" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="125725" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -20,20 +22,21 @@
     <t>Axle</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>pilot_at_Axle.Description.Details</t>
   </si>
   <si>
     <t xml:space="preserve">Battlemechs may rule the day in 31st century combat, but the brick and mortar of many a militia and even professional military are the dedicated tread-heads; those men and women who willingly and ably fire up their trusty Vedettes or Galleons in defense of hearth and home, or for the glory of their ruling House. Being part of the conventional side of things is often a thankless, fruitless endeavor that leaves many crews bitter as the Mechwarriors hog the spotlight. But sometimes, tankers get lucky. Sometimes they get the right shot at the right time, winning the salvage lottery, and joining the illustrious ranks of the Mechwarriors; the knights of the modern era. But sometimes weird shit happens and you end up sitting in the cockpit of a Cicada, still wondering how all this could have happened.
+ That’s Axle’s story. She was the commander of one of many Vedettes assigned to garrison duty on St. Andre, then in the Chaos March. As is often the case, her company was set to engage raiders who sought to pick at the corpse of an ancient Star League base there called Fort Ravengale. The battle met, and as the chaos set in, she was manning her cupola when an enemy Cicada bore down on her Vedette suddenly, landing a kick and throwing her from her perch while detonating the autocannon ammunition stored inside the tank. Just after, a friendly shot destroyed the head of the marauding ‘Mech, sending it toppling down beside her wrecked tank. The friendly that made the shot was then obliterated by a stray particle cannon bolt, and the rest was a blur as she fell unconscious. When she woke, she was in the hospital with a concussion, broken ribs, a ruptured disc, and the sole remaining professionally trained person within 1000 klicks that had any kind of shot at strapping into and utilizing the 40-ton war machine that had died right next to her. She didn’t have a choice then, and still doesn’t now; the bills won’t pay themselves, and the Capellans didn’t want to keep her, so she struck out to the Periphery to make ends meet. And most Merc outfits are too fancy for treads. 
+  &lt;b&gt;&lt;color=#00ffff&gt;Can Command Tanks and Pilot Mechs.&lt;/color&gt;&lt;/b&gt;
+---
+Battlemechs may rule the day in 31st century combat, but the brick and mortar of many a militia and even professional military are the dedicated tread-heads; those men and women who willingly and ably fire up their trusty Vedettes or Galleons in defense of hearth and home, or for the glory of their ruling House. Being part of the conventional side of things is often a thankless, fruitless endeavor that leaves many crews bitter as the Mechwarriors hog the spotlight. But sometimes, tankers get lucky. Sometimes they get the right shot at the right time, winning the salvage lottery, and joining the illustrious ranks of the Mechwarriors; the knights of the modern era. But sometimes weird shit happens and you end up sitting in the cockpit of a Cicada, still wondering how all this could have happened.
 That’s Axle’s story. She was the commander of one of many Vedettes assigned to garrison duty on St. Andre, then in the Chaos March. As is often the case, her company was set to engage raiders who sought to pick at the corpse of an ancient Star League base there called Fort Ravengale. The battle met, and as the chaos set in, she was manning her cupola when an enemy Cicada bore down on her Vedette suddenly, landing a kick and throwing her from her perch while detonating the autocannon ammunition stored inside the tank. Just after, a friendly shot destroyed the head of the marauding ‘Mech, sending it toppling down beside her wrecked tank. The friendly that made the shot was then obliterated by a stray particle cannon bolt, and the rest was a blur as she fell unconscious. When she woke, she was in the hospital with a concussion, broken ribs, a ruptured disc, and the sole remaining professionally trained person within 1000 klicks that had any kind of shot at strapping into and utilizing the 40-ton war machine that had died right next to her. She didn’t have a choice then, and still doesn’t now; the bills won’t pay themselves, and the Capellans didn’t want to keep her, so she struck out to the Periphery to make ends meet. And most Merc outfits are too fancy for treads. 
  &lt;b&gt;&lt;color=#00ffff&gt;Can Command Tanks and Pilot Mechs.&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Battlemechs may rule the day in 31st century combat, but the brick and mortar of many a militia and even professional military are the dedicated tread-heads; those men and women who willingly and ably fire up their trusty Vedettes or Galleons in defense of hearth and home, or for the glory of their ruling House. Being part of the conventional side of things is often a thankless, fruitless endeavor that leaves many crews bitter as the Mechwarriors hog the spotlight. But sometimes, tankers get lucky. Sometimes they get the right shot at the right time, winning the salvage lottery, and joining the illustrious ranks of the Mechwarriors; the knights of the modern era. But sometimes weird shit happens and you end up sitting in the cockpit of a Cicada, still wondering how all this could have happened.
-That’s Axle’s story. She was the commander of one of many Vedettes assigned to garrison duty on St. Andre, then in the Chaos March. As is often the case, her company was set to engage raiders who sought to pick at the corpse of an ancient Star League base there called Fort Ravengale. The battle met, and as the chaos set in, she was manning her cupola when an enemy Cicada bore down on her Vedette suddenly, landing a kick and throwing her from her perch while detonating the autocannon ammunition stored inside the tank. Just after, a friendly shot destroyed the head of the marauding ‘Mech, sending it toppling down beside her wrecked tank. The friendly that made the shot was then obliterated by a stray particle cannon bolt, and the rest was a blur as she fell unconscious. When she woke, she was in the hospital with a concussion, broken ribs, a ruptured disc, and the sole remaining professionally trained person within 1000 klicks that had any kind of shot at strapping into and utilizing the 40-ton war machine that had died right next to her. She didn’t have a choice then, and still doesn’t now; the bills won’t pay themselves, and the Capellans didn’t want to keep her, so she struck out to the Periphery to make ends meet. And most Merc outfits are too fancy for treads. 
- &lt;b&gt;&lt;color=#00ffff&gt;Can Command Tanks and Pilot Mechs.&lt;/color&gt;&lt;/b&gt;</t>
+ That’s Axle’s story. She was the commander of one of many Vedettes assigned to garrison duty on St. Andre, then in the Chaos March. As is often the case, her company was set to engage raiders who sought to pick at the corpse of an ancient Star League base there called Fort Ravengale. The battle met, and as the chaos set in, she was manning her cupola when an enemy Cicada bore down on her Vedette suddenly, landing a kick and throwing her from her perch while detonating the autocannon ammunition stored inside the tank. Just after, a friendly shot destroyed the head of the marauding ‘Mech, sending it toppling down beside her wrecked tank. The friendly that made the shot was then obliterated by a stray particle cannon bolt, and the rest was a blur as she fell unconscious. When she woke, she was in the hospital with a concussion, broken ribs, a ruptured disc, and the sole remaining professionally trained person within 1000 klicks that had any kind of shot at strapping into and utilizing the 40-ton war machine that had died right next to her. She didn’t have a choice then, and still doesn’t now; the bills won’t pay themselves, and the Capellans didn’t want to keep her, so she struck out to the Periphery to make ends meet. And most Merc outfits are too fancy for treads. 
+  &lt;b&gt;&lt;color=#00ffff&gt;Can Command Tanks and Pilot Mechs.&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>pilot_at_Axle.Description.FirstName</t>
@@ -61,11 +64,14 @@
   </si>
   <si>
     <t xml:space="preserve">The Magistracy of Canopus may be blessed with its first proper martial academy in several centuries, thanks to the Trinity Alliance and its partners the Capellan Confederation and the Taurian Concordat, but not every Mechwarrior is given the chance to attend. And some who qualify choose not to, thinking the new alliance to be a farce. Sharon is one of those latter folks. She graduated from a provinical academy, and recieved the very best, roughest, most experience-driven training the undefunded MAF could muster with scant subsidy. Her assignment had been to a Spider 5D, and she loved every moment of it. The speed was what appealed to her most, and it always will. She believes that not only is speed armor, it is also life.
+ Unfortunately for her, she talks as fast as she likes her 'Mechs to run, and her scathing opinions regarding the Capellan Confederation attracted the wrong sort of attention. She was discharged without pension (thought not dishonorably) to avoid any undue friction between the MAF and their new advisiors, and so struck out on her own, looking for like-minded soldiers to sign on with; preferably those who dislike the Confederation.
+---
+The Magistracy of Canopus may be blessed with its first proper martial academy in several centuries, thanks to the Trinity Alliance and its partners the Capellan Confederation and the Taurian Concordat, but not every Mechwarrior is given the chance to attend. And some who qualify choose not to, thinking the new alliance to be a farce. Sharon is one of those latter folks. She graduated from a provinical academy, and recieved the very best, roughest, most experience-driven training the undefunded MAF could muster with scant subsidy. Her assignment had been to a Spider 5D, and she loved every moment of it. The speed was what appealed to her most, and it always will. She believes that not only is speed armor, it is also life.
 Unfortunately for her, she talks as fast as she likes her 'Mechs to run, and her scathing opinions regarding the Capellan Confederation attracted the wrong sort of attention. She was discharged without pension (thought not dishonorably) to avoid any undue friction between the MAF and their new advisiors, and so struck out on her own, looking for like-minded soldiers to sign on with; preferably those who dislike the Confederation.</t>
   </si>
   <si>
     <t xml:space="preserve">The Magistracy of Canopus may be blessed with its first proper martial academy in several centuries, thanks to the Trinity Alliance and its partners the Capellan Confederation and the Taurian Concordat, but not every Mechwarrior is given the chance to attend. And some who qualify choose not to, thinking the new alliance to be a farce. Sharon is one of those latter folks. She graduated from a provinical academy, and recieved the very best, roughest, most experience-driven training the undefunded MAF could muster with scant subsidy. Her assignment had been to a Spider 5D, and she loved every moment of it. The speed was what appealed to her most, and it always will. She believes that not only is speed armor, it is also life.
-Unfortunately for her, she talks as fast as she likes her 'Mechs to run, and her scathing opinions regarding the Capellan Confederation attracted the wrong sort of attention. She was discharged without pension (thought not dishonorably) to avoid any undue friction between the MAF and their new advisiors, and so struck out on her own, looking for like-minded soldiers to sign on with; preferably those who dislike the Confederation.</t>
+ Unfortunately for her, she talks as fast as she likes her 'Mechs to run, and her scathing opinions regarding the Capellan Confederation attracted the wrong sort of attention. She was discharged without pension (thought not dishonorably) to avoid any undue friction between the MAF and their new advisiors, and so struck out on her own, looking for like-minded soldiers to sign on with; preferably those who dislike the Confederation.</t>
   </si>
   <si>
     <t>pilot_at_Blaze.Description.FirstName</t>
@@ -93,11 +99,14 @@
   </si>
   <si>
     <t xml:space="preserve">Grigori Izzo wasn’t born, he was built. At least, that what it father told him. “No kid as big as you came from anything but a box!” he’d exclaim, and Grigori would giggle. And he was a big kid. Not too quick on the uptake though. He spent a long time getting bullied before he realized what his size meant, but once he did, he used it to full advantage. And the same thing applied to his schooling. Once he got his teeth into a subject, he absorbed it like a sponge. So when it came time to do something with himself after school, he wanted to go big. And nothing was big like a Battlemech. He wanted to make the Inner Sphere his playground, and so he enrolled in the Hero Training Institute; racking up significant debt, but determined to be a Mechwarrior.
+ Training at HTI was spotty to put it politely, but after nearly being thrown out for getting into a fistfight with his Tactics and Strategy 112 “professor”, he graduated along with a class of fourteen other Mechwarriors, and promptly fell into the ranks of the Dispossessed. There were more men than machines, and even though Izzo had a talent for using every ounce of armor on his ‘Mech weathering enemy fire, and a fair grasp of shooting straight, he was stuck waiting with so many others, hoping for his big break with a Merc outfit in the Rimward Periphery.
+---
+Grigori Izzo wasn’t born, he was built. At least, that what it father told him. “No kid as big as you came from anything but a box!” he’d exclaim, and Grigori would giggle. And he was a big kid. Not too quick on the uptake though. He spent a long time getting bullied before he realized what his size meant, but once he did, he used it to full advantage. And the same thing applied to his schooling. Once he got his teeth into a subject, he absorbed it like a sponge. So when it came time to do something with himself after school, he wanted to go big. And nothing was big like a Battlemech. He wanted to make the Inner Sphere his playground, and so he enrolled in the Hero Training Institute; racking up significant debt, but determined to be a Mechwarrior.
 Training at HTI was spotty to put it politely, but after nearly being thrown out for getting into a fistfight with his Tactics and Strategy 112 “professor”, he graduated along with a class of fourteen other Mechwarriors, and promptly fell into the ranks of the Dispossessed. There were more men than machines, and even though Izzo had a talent for using every ounce of armor on his ‘Mech weathering enemy fire, and a fair grasp of shooting straight, he was stuck waiting with so many others, hoping for his big break with a Merc outfit in the Rimward Periphery.</t>
   </si>
   <si>
     <t xml:space="preserve">Grigori Izzo wasn’t born, he was built. At least, that what it father told him. “No kid as big as you came from anything but a box!” he’d exclaim, and Grigori would giggle. And he was a big kid. Not too quick on the uptake though. He spent a long time getting bullied before he realized what his size meant, but once he did, he used it to full advantage. And the same thing applied to his schooling. Once he got his teeth into a subject, he absorbed it like a sponge. So when it came time to do something with himself after school, he wanted to go big. And nothing was big like a Battlemech. He wanted to make the Inner Sphere his playground, and so he enrolled in the Hero Training Institute; racking up significant debt, but determined to be a Mechwarrior.
-Training at HTI was spotty to put it politely, but after nearly being thrown out for getting into a fistfight with his Tactics and Strategy 112 “professor”, he graduated along with a class of fourteen other Mechwarriors, and promptly fell into the ranks of the Dispossessed. There were more men than machines, and even though Izzo had a talent for using every ounce of armor on his ‘Mech weathering enemy fire, and a fair grasp of shooting straight, he was stuck waiting with so many others, hoping for his big break with a Merc outfit in the Rimward Periphery.</t>
+ Training at HTI was spotty to put it politely, but after nearly being thrown out for getting into a fistfight with his Tactics and Strategy 112 “professor”, he graduated along with a class of fourteen other Mechwarriors, and promptly fell into the ranks of the Dispossessed. There were more men than machines, and even though Izzo had a talent for using every ounce of armor on his ‘Mech weathering enemy fire, and a fair grasp of shooting straight, he was stuck waiting with so many others, hoping for his big break with a Merc outfit in the Rimward Periphery.</t>
   </si>
   <si>
     <t>pilot_at_Brick.Description.FirstName</t>
@@ -125,11 +134,14 @@
   </si>
   <si>
     <t xml:space="preserve">There are those who grow up knowing what it means to want, and then there are those as blessed as Diego Velazquez. The only child of a wealthy Lyran mercantile family, Diego dreamt of ruling the battlefield as a war hero, at the controls of a gilded Zeus; a legend in his own right. When his schooling revealed an easily distracted child with trouble navigating his lessons, his parents knew he would be ill-suited to inherit the family business, but never had the heart to tell him. When he said he wanted to be a Mechwarrior, they knew he needed better grades, and more discipline, and didn’t have the heart to tell him. In the end, money made everything right, and his parents secured him a Battlemech; a washed-up Merc needed cash and they wanted the best for their only boy, so he was hired to train the teenage Diego to be a ‘Mech pilot, and eventually turn his Blackjack over to the Velazquez scion.
+ Diego never did learn discipline, and never took no for an answer from his mentor. For two years the aging soldier tried to tutor the boy, and mold him into something resembling a Mechwarrior. But more often than not, the two ended up butting heads, with the elder calling the younger a ‘stubborn goat’, and the youth storming off to do something else less demanding. Eventually, the Mechwarrior’s health started to fail, and while resting in bed he officially turned his decrepit ‘Mech over to Diego, handing him a set of dog tags with ‘Capricorn’ stamped into them, and wishing him luck. Diego never saw the old man die, as he paid passage as soon as he could to Outreach, to find adventure and glory. Unsurprisingly, the headstrong, naive young man lost his ‘Mech, and finally, his misplaced pride. Life had slapped him in the face, and now that his eyes were open to reality, he felt humble, and wished for nothing more than to actually earn himself a spot among a real Mercenary command, and a chance to really earn that which was unfairly bought.
+---
+There are those who grow up knowing what it means to want, and then there are those as blessed as Diego Velazquez. The only child of a wealthy Lyran mercantile family, Diego dreamt of ruling the battlefield as a war hero, at the controls of a gilded Zeus; a legend in his own right. When his schooling revealed an easily distracted child with trouble navigating his lessons, his parents knew he would be ill-suited to inherit the family business, but never had the heart to tell him. When he said he wanted to be a Mechwarrior, they knew he needed better grades, and more discipline, and didn’t have the heart to tell him. In the end, money made everything right, and his parents secured him a Battlemech; a washed-up Merc needed cash and they wanted the best for their only boy, so he was hired to train the teenage Diego to be a ‘Mech pilot, and eventually turn his Blackjack over to the Velazquez scion.
 Diego never did learn discipline, and never took no for an answer from his mentor. For two years the aging soldier tried to tutor the boy, and mold him into something resembling a Mechwarrior. But more often than not, the two ended up butting heads, with the elder calling the younger a ‘stubborn goat’, and the youth storming off to do something else less demanding. Eventually, the Mechwarrior’s health started to fail, and while resting in bed he officially turned his decrepit ‘Mech over to Diego, handing him a set of dog tags with ‘Capricorn’ stamped into them, and wishing him luck. Diego never saw the old man die, as he paid passage as soon as he could to Outreach, to find adventure and glory. Unsurprisingly, the headstrong, naive young man lost his ‘Mech, and finally, his misplaced pride. Life had slapped him in the face, and now that his eyes were open to reality, he felt humble, and wished for nothing more than to actually earn himself a spot among a real Mercenary command, and a chance to really earn that which was unfairly bought.</t>
   </si>
   <si>
     <t xml:space="preserve">There are those who grow up knowing what it means to want, and then there are those as blessed as Diego Velazquez. The only child of a wealthy Lyran mercantile family, Diego dreamt of ruling the battlefield as a war hero, at the controls of a gilded Zeus; a legend in his own right. When his schooling revealed an easily distracted child with trouble navigating his lessons, his parents knew he would be ill-suited to inherit the family business, but never had the heart to tell him. When he said he wanted to be a Mechwarrior, they knew he needed better grades, and more discipline, and didn’t have the heart to tell him. In the end, money made everything right, and his parents secured him a Battlemech; a washed-up Merc needed cash and they wanted the best for their only boy, so he was hired to train the teenage Diego to be a ‘Mech pilot, and eventually turn his Blackjack over to the Velazquez scion.
-Diego never did learn discipline, and never took no for an answer from his mentor. For two years the aging soldier tried to tutor the boy, and mold him into something resembling a Mechwarrior. But more often than not, the two ended up butting heads, with the elder calling the younger a ‘stubborn goat’, and the youth storming off to do something else less demanding. Eventually, the Mechwarrior’s health started to fail, and while resting in bed he officially turned his decrepit ‘Mech over to Diego, handing him a set of dog tags with ‘Capricorn’ stamped into them, and wishing him luck. Diego never saw the old man die, as he paid passage as soon as he could to Outreach, to find adventure and glory. Unsurprisingly, the headstrong, naive young man lost his ‘Mech, and finally, his misplaced pride. Life had slapped him in the face, and now that his eyes were open to reality, he felt humble, and wished for nothing more than to actually earn himself a spot among a real Mercenary command, and a chance to really earn that which was unfairly bought.</t>
+ Diego never did learn discipline, and never took no for an answer from his mentor. For two years the aging soldier tried to tutor the boy, and mold him into something resembling a Mechwarrior. But more often than not, the two ended up butting heads, with the elder calling the younger a ‘stubborn goat’, and the youth storming off to do something else less demanding. Eventually, the Mechwarrior’s health started to fail, and while resting in bed he officially turned his decrepit ‘Mech over to Diego, handing him a set of dog tags with ‘Capricorn’ stamped into them, and wishing him luck. Diego never saw the old man die, as he paid passage as soon as he could to Outreach, to find adventure and glory. Unsurprisingly, the headstrong, naive young man lost his ‘Mech, and finally, his misplaced pride. Life had slapped him in the face, and now that his eyes were open to reality, he felt humble, and wished for nothing more than to actually earn himself a spot among a real Mercenary command, and a chance to really earn that which was unfairly bought.</t>
   </si>
   <si>
     <t>pilot_at_Capricorn.Description.FirstName</t>
@@ -157,11 +169,14 @@
   </si>
   <si>
     <t xml:space="preserve">It’s pretty easy to get Giselle Armand to open up about how she acquired her callsign; “Crash”. She’ll happily tell the tale of her bravely running an old, beat-up Shadow Hawk into a pirate Stinger head-on, taking out the enemy ‘Mech and chasing off a band of raiders on her home planet back in the Magistracy. It’s a pretty good drinking story, honestly. But that’s where the story always ends, and when pressed, “Crash” really doesn’t have much else to say.
+ In fact, she doesn’t like talking about her past much at all, aside from that. She’ll admit to working with some no-name band of Mercs who you can’t even find in the MRB database, saying that’s where she learned to fight. And she’s a decent pilot, but there isn’t much military behind whatever training she got. Her trigger finger is twitchy. That can be fixed. She’s not particularly tough, but that’s nothing the regular exercise that comes from being stuck in transit between contracts won’t help. She’s got a decent mind for tactics, but it’s more flash-in-the-pan sort of brilliance than the long-game sort of tact that a competent commander needs or looks for. No, there’s just something about her that doesn’t add up, but she hasn’t gotten anyone killed yet, at least nobody on her team at any rate, so all the typical jargon that comes with the job flying completely over her head just seems like an oddity more than a detriment. Though it’s hard not to wonder what her story really is, and if it’s worth all the effort it’ll take to get her up to snuff.
+---
+It’s pretty easy to get Giselle Armand to open up about how she acquired her callsign; “Crash”. She’ll happily tell the tale of her bravely running an old, beat-up Shadow Hawk into a pirate Stinger head-on, taking out the enemy ‘Mech and chasing off a band of raiders on her home planet back in the Magistracy. It’s a pretty good drinking story, honestly. But that’s where the story always ends, and when pressed, “Crash” really doesn’t have much else to say.
 In fact, she doesn’t like talking about her past much at all, aside from that. She’ll admit to working with some no-name band of Mercs who you can’t even find in the MRB database, saying that’s where she learned to fight. And she’s a decent pilot, but there isn’t much military behind whatever training she got. Her trigger finger is twitchy. That can be fixed. She’s not particularly tough, but that’s nothing the regular exercise that comes from being stuck in transit between contracts won’t help. She’s got a decent mind for tactics, but it’s more flash-in-the-pan sort of brilliance than the long-game sort of tact that a competent commander needs or looks for. No, there’s just something about her that doesn’t add up, but she hasn’t gotten anyone killed yet, at least nobody on her team at any rate, so all the typical jargon that comes with the job flying completely over her head just seems like an oddity more than a detriment. Though it’s hard not to wonder what her story really is, and if it’s worth all the effort it’ll take to get her up to snuff.</t>
   </si>
   <si>
     <t xml:space="preserve">It’s pretty easy to get Giselle Armand to open up about how she acquired her callsign; “Crash”. She’ll happily tell the tale of her bravely running an old, beat-up Shadow Hawk into a pirate Stinger head-on, taking out the enemy ‘Mech and chasing off a band of raiders on her home planet back in the Magistracy. It’s a pretty good drinking story, honestly. But that’s where the story always ends, and when pressed, “Crash” really doesn’t have much else to say.
-In fact, she doesn’t like talking about her past much at all, aside from that. She’ll admit to working with some no-name band of Mercs who you can’t even find in the MRB database, saying that’s where she learned to fight. And she’s a decent pilot, but there isn’t much military behind whatever training she got. Her trigger finger is twitchy. That can be fixed. She’s not particularly tough, but that’s nothing the regular exercise that comes from being stuck in transit between contracts won’t help. She’s got a decent mind for tactics, but it’s more flash-in-the-pan sort of brilliance than the long-game sort of tact that a competent commander needs or looks for. No, there’s just something about her that doesn’t add up, but she hasn’t gotten anyone killed yet, at least nobody on her team at any rate, so all the typical jargon that comes with the job flying completely over her head just seems like an oddity more than a detriment. Though it’s hard not to wonder what her story really is, and if it’s worth all the effort it’ll take to get her up to snuff.</t>
+ In fact, she doesn’t like talking about her past much at all, aside from that. She’ll admit to working with some no-name band of Mercs who you can’t even find in the MRB database, saying that’s where she learned to fight. And she’s a decent pilot, but there isn’t much military behind whatever training she got. Her trigger finger is twitchy. That can be fixed. She’s not particularly tough, but that’s nothing the regular exercise that comes from being stuck in transit between contracts won’t help. She’s got a decent mind for tactics, but it’s more flash-in-the-pan sort of brilliance than the long-game sort of tact that a competent commander needs or looks for. No, there’s just something about her that doesn’t add up, but she hasn’t gotten anyone killed yet, at least nobody on her team at any rate, so all the typical jargon that comes with the job flying completely over her head just seems like an oddity more than a detriment. Though it’s hard not to wonder what her story really is, and if it’s worth all the effort it’ll take to get her up to snuff.</t>
   </si>
   <si>
     <t>pilot_at_Crash.Description.FirstName</t>
@@ -189,11 +204,14 @@
   </si>
   <si>
     <t xml:space="preserve">It's easy to be the cream of the crop when the crop is harvested from a tiny field in a distant farm nobody knows or really cares about. Harrison Dumais's family were just such people; the fortunate few among few. They were successful traders, dealing in necessities brokered from far and wide, and even made enough money to employ their own small security detail. Just a few Scorpion tanks and an old, beatten-up Commando, but it was more than sufficient to keep any bandits or petty thieves at bay.
+ Setups like theirs didn't normally attract pirates, but eventually even the fattest dogs get hungry, and one day a small band of brigands came looking for food, water, ammunition, and more specifically, the family Commando. Harrison, being the eldest, stood to inherit the entire operation from his father, and in addition to learning the ins and outs of trade, was given command of the security forces, and the Commando. Sadly, that far in the middle of nowhere, good training was hard to buy, and those accustomed to conflict easily trumped those with plenty of heart but little skill. The Commando, the goods, and the family were all lost that day, and Harrison, along with a few workers and foremen, were all that remained. With no reason to stay, the now heir to nothing left his dusty world, taking on his current moniker, and sought mercenary employ.
+---
+It's easy to be the cream of the crop when the crop is harvested from a tiny field in a distant farm nobody knows or really cares about. Harrison Dumais's family were just such people; the fortunate few among few. They were successful traders, dealing in necessities brokered from far and wide, and even made enough money to employ their own small security detail. Just a few Scorpion tanks and an old, beatten-up Commando, but it was more than sufficient to keep any bandits or petty thieves at bay.
 Setups like theirs didn't normally attract pirates, but eventually even the fattest dogs get hungry, and one day a small band of brigands came looking for food, water, ammunition, and more specifically, the family Commando. Harrison, being the eldest, stood to inherit the entire operation from his father, and in addition to learning the ins and outs of trade, was given command of the security forces, and the Commando. Sadly, that far in the middle of nowhere, good training was hard to buy, and those accustomed to conflict easily trumped those with plenty of heart but little skill. The Commando, the goods, and the family were all lost that day, and Harrison, along with a few workers and foremen, were all that remained. With no reason to stay, the now heir to nothing left his dusty world, taking on his current moniker, and sought mercenary employ.</t>
   </si>
   <si>
     <t xml:space="preserve">It's easy to be the cream of the crop when the crop is harvested from a tiny field in a distant farm nobody knows or really cares about. Harrison Dumais's family were just such people; the fortunate few among few. They were successful traders, dealing in necessities brokered from far and wide, and even made enough money to employ their own small security detail. Just a few Scorpion tanks and an old, beatten-up Commando, but it was more than sufficient to keep any bandits or petty thieves at bay.
-Setups like theirs didn't normally attract pirates, but eventually even the fattest dogs get hungry, and one day a small band of brigands came looking for food, water, ammunition, and more specifically, the family Commando. Harrison, being the eldest, stood to inherit the entire operation from his father, and in addition to learning the ins and outs of trade, was given command of the security forces, and the Commando. Sadly, that far in the middle of nowhere, good training was hard to buy, and those accustomed to conflict easily trumped those with plenty of heart but little skill. The Commando, the goods, and the family were all lost that day, and Harrison, along with a few workers and foremen, were all that remained. With no reason to stay, the now heir to nothing left his dusty world, taking on his current moniker, and sought mercenary employ.</t>
+ Setups like theirs didn't normally attract pirates, but eventually even the fattest dogs get hungry, and one day a small band of brigands came looking for food, water, ammunition, and more specifically, the family Commando. Harrison, being the eldest, stood to inherit the entire operation from his father, and in addition to learning the ins and outs of trade, was given command of the security forces, and the Commando. Sadly, that far in the middle of nowhere, good training was hard to buy, and those accustomed to conflict easily trumped those with plenty of heart but little skill. The Commando, the goods, and the family were all lost that day, and Harrison, along with a few workers and foremen, were all that remained. With no reason to stay, the now heir to nothing left his dusty world, taking on his current moniker, and sought mercenary employ.</t>
   </si>
   <si>
     <t>pilot_at_Dustball.Description.FirstName</t>
@@ -221,11 +239,14 @@
   </si>
   <si>
     <t xml:space="preserve">Johannes Seville hates being the center of attention. He'd grown up a good-looking kid, always the target of the flirtations of the girls at school, and by the end of his education he'd had more than a few beaus. At the time he loved it; the adulation, the ease with which he could manpulate teachers with a smile, or get favors from classmates. Everyone liked him.
+ His sharp appearance turned out to be a double-edged sword however, and once he enrolled to serve a term in the MAF as part of a local cadre battalion, he attracted the attentions of a noblewoman officer who was very, very interested in him. He did not reciprocate, and that's when the trouble started. He was caught in a catch-22; fraternizing with an officer was a punishable offense, but he didn't have the right to turn down a noblewoman. Instead of remaining trapped in the situation, he fled, schmoozing his way onto a cargo dropship and offworld the first chance he got. Now he stays on the move, preferring to contract with mercenaries who stay clear of the Magistracy and the trouble he left behind. He's since developed an introverted personality, and is a quiet, asocial sort. He gets uncomfortable in crowds, and prefers the solace of his cabin when not in the cockpit of a 'Mech.
+---
+Johannes Seville hates being the center of attention. He'd grown up a good-looking kid, always the target of the flirtations of the girls at school, and by the end of his education he'd had more than a few beaus. At the time he loved it; the adulation, the ease with which he could manpulate teachers with a smile, or get favors from classmates. Everyone liked him.
 His sharp appearance turned out to be a double-edged sword however, and once he enrolled to serve a term in the MAF as part of a local cadre battalion, he attracted the attentions of a noblewoman officer who was very, very interested in him. He did not reciprocate, and that's when the trouble started. He was caught in a catch-22; fraternizing with an officer was a punishable offense, but he didn't have the right to turn down a noblewoman. Instead of remaining trapped in the situation, he fled, schmoozing his way onto a cargo dropship and offworld the first chance he got. Now he stays on the move, preferring to contract with mercenaries who stay clear of the Magistracy and the trouble he left behind. He's since developed an introverted personality, and is a quiet, asocial sort. He gets uncomfortable in crowds, and prefers the solace of his cabin when not in the cockpit of a 'Mech.</t>
   </si>
   <si>
     <t xml:space="preserve">Johannes Seville hates being the center of attention. He'd grown up a good-looking kid, always the target of the flirtations of the girls at school, and by the end of his education he'd had more than a few beaus. At the time he loved it; the adulation, the ease with which he could manpulate teachers with a smile, or get favors from classmates. Everyone liked him.
-His sharp appearance turned out to be a double-edged sword however, and once he enrolled to serve a term in the MAF as part of a local cadre battalion, he attracted the attentions of a noblewoman officer who was very, very interested in him. He did not reciprocate, and that's when the trouble started. He was caught in a catch-22; fraternizing with an officer was a punishable offense, but he didn't have the right to turn down a noblewoman. Instead of remaining trapped in the situation, he fled, schmoozing his way onto a cargo dropship and offworld the first chance he got. Now he stays on the move, preferring to contract with mercenaries who stay clear of the Magistracy and the trouble he left behind. He's since developed an introverted personality, and is a quiet, asocial sort. He gets uncomfortable in crowds, and prefers the solace of his cabin when not in the cockpit of a 'Mech.</t>
+ His sharp appearance turned out to be a double-edged sword however, and once he enrolled to serve a term in the MAF as part of a local cadre battalion, he attracted the attentions of a noblewoman officer who was very, very interested in him. He did not reciprocate, and that's when the trouble started. He was caught in a catch-22; fraternizing with an officer was a punishable offense, but he didn't have the right to turn down a noblewoman. Instead of remaining trapped in the situation, he fled, schmoozing his way onto a cargo dropship and offworld the first chance he got. Now he stays on the move, preferring to contract with mercenaries who stay clear of the Magistracy and the trouble he left behind. He's since developed an introverted personality, and is a quiet, asocial sort. He gets uncomfortable in crowds, and prefers the solace of his cabin when not in the cockpit of a 'Mech.</t>
   </si>
   <si>
     <t>pilot_at_Face.Description.FirstName</t>
@@ -253,13 +274,17 @@
   </si>
   <si>
     <t xml:space="preserve">There’s a normal life, then there’s an extraordinary life. Then of course there’s a miserable life. And then there’s Freakshow’s life, which there isn’t enough time or alcohol to sit through in one telling. We’re going to have to do this in bullet points, basically.
+ Freakshow was born; we know that much, probably. He grew up among the folk of one of the many traveling Canopian circuses that made the rounds in the Rimward Periphery, bringing merriment, debauchery, and just a little weirdness to worlds both rich and poor. He says he got his first tattoo at eight. It’s a cartoon elephant. He’ll show you sometime. At some point when he was a teenager he discovered that he was both a glutton for punishment and enjoyed fighting. A lot. For both. Then came the piercings, and the torn-out piercings, and the bruises and broken noses and knocked-out teeth. Swishing with whiskey to disinfect after losing an incisor lead him to realize how much he liked whiskey too. And then there were pirates. He liked those guys, so he ran away with them. Yes, he ran away FROM the circus. Because of course he did. He’s Freakshow.
+ While with the pirates he discovered how much more he liked drinking and fighting and tattoos and piercings and having piercings torn out and cartoon elephants and he added women and boxing for cash to that list. Then he added boxing in ‘Mechs to that list, because after a raid went south, the crew needed someone to step up and pilot the barely-functioning Javelin that they’d mostly scraped clean after said spoiled job. It was then that Freakshow discovered he piloted better drunk, because neurohelmets gave him a headache, and he loved to scrap toe-to-toe with other Battlemech pilots. So that’s what he does now. His crew all died except him and a few other stragglers, so he hires himself out as a ‘distraction’. We’ll leave you to decide what that actually means.
+---
+There’s a normal life, then there’s an extraordinary life. Then of course there’s a miserable life. And then there’s Freakshow’s life, which there isn’t enough time or alcohol to sit through in one telling. We’re going to have to do this in bullet points, basically.
 Freakshow was born; we know that much, probably. He grew up among the folk of one of the many traveling Canopian circuses that made the rounds in the Rimward Periphery, bringing merriment, debauchery, and just a little weirdness to worlds both rich and poor. He says he got his first tattoo at eight. It’s a cartoon elephant. He’ll show you sometime. At some point when he was a teenager he discovered that he was both a glutton for punishment and enjoyed fighting. A lot. For both. Then came the piercings, and the torn-out piercings, and the bruises and broken noses and knocked-out teeth. Swishing with whiskey to disinfect after losing an incisor lead him to realize how much he liked whiskey too. And then there were pirates. He liked those guys, so he ran away with them. Yes, he ran away FROM the circus. Because of course he did. He’s Freakshow.
 While with the pirates he discovered how much more he liked drinking and fighting and tattoos and piercings and having piercings torn out and cartoon elephants and he added women and boxing for cash to that list. Then he added boxing in ‘Mechs to that list, because after a raid went south, the crew needed someone to step up and pilot the barely-functioning Javelin that they’d mostly scraped clean after said spoiled job. It was then that Freakshow discovered he piloted better drunk, because neurohelmets gave him a headache, and he loved to scrap toe-to-toe with other Battlemech pilots. So that’s what he does now. His crew all died except him and a few other stragglers, so he hires himself out as a ‘distraction’. We’ll leave you to decide what that actually means.</t>
   </si>
   <si>
     <t xml:space="preserve">There’s a normal life, then there’s an extraordinary life. Then of course there’s a miserable life. And then there’s Freakshow’s life, which there isn’t enough time or alcohol to sit through in one telling. We’re going to have to do this in bullet points, basically.
-Freakshow was born; we know that much, probably. He grew up among the folk of one of the many traveling Canopian circuses that made the rounds in the Rimward Periphery, bringing merriment, debauchery, and just a little weirdness to worlds both rich and poor. He says he got his first tattoo at eight. It’s a cartoon elephant. He’ll show you sometime. At some point when he was a teenager he discovered that he was both a glutton for punishment and enjoyed fighting. A lot. For both. Then came the piercings, and the torn-out piercings, and the bruises and broken noses and knocked-out teeth. Swishing with whiskey to disinfect after losing an incisor lead him to realize how much he liked whiskey too. And then there were pirates. He liked those guys, so he ran away with them. Yes, he ran away FROM the circus. Because of course he did. He’s Freakshow.
-While with the pirates he discovered how much more he liked drinking and fighting and tattoos and piercings and having piercings torn out and cartoon elephants and he added women and boxing for cash to that list. Then he added boxing in ‘Mechs to that list, because after a raid went south, the crew needed someone to step up and pilot the barely-functioning Javelin that they’d mostly scraped clean after said spoiled job. It was then that Freakshow discovered he piloted better drunk, because neurohelmets gave him a headache, and he loved to scrap toe-to-toe with other Battlemech pilots. So that’s what he does now. His crew all died except him and a few other stragglers, so he hires himself out as a ‘distraction’. We’ll leave you to decide what that actually means.</t>
+ Freakshow was born; we know that much, probably. He grew up among the folk of one of the many traveling Canopian circuses that made the rounds in the Rimward Periphery, bringing merriment, debauchery, and just a little weirdness to worlds both rich and poor. He says he got his first tattoo at eight. It’s a cartoon elephant. He’ll show you sometime. At some point when he was a teenager he discovered that he was both a glutton for punishment and enjoyed fighting. A lot. For both. Then came the piercings, and the torn-out piercings, and the bruises and broken noses and knocked-out teeth. Swishing with whiskey to disinfect after losing an incisor lead him to realize how much he liked whiskey too. And then there were pirates. He liked those guys, so he ran away with them. Yes, he ran away FROM the circus. Because of course he did. He’s Freakshow.
+ While with the pirates he discovered how much more he liked drinking and fighting and tattoos and piercings and having piercings torn out and cartoon elephants and he added women and boxing for cash to that list. Then he added boxing in ‘Mechs to that list, because after a raid went south, the crew needed someone to step up and pilot the barely-functioning Javelin that they’d mostly scraped clean after said spoiled job. It was then that Freakshow discovered he piloted better drunk, because neurohelmets gave him a headache, and he loved to scrap toe-to-toe with other Battlemech pilots. So that’s what he does now. His crew all died except him and a few other stragglers, so he hires himself out as a ‘distraction’. We’ll leave you to decide what that actually means.</t>
   </si>
   <si>
     <t>pilot_at_Freakshow.Description.FirstName</t>
@@ -314,11 +339,14 @@
   </si>
   <si>
     <t xml:space="preserve">Avelynn Dupré was born knowing she wanted to be a star. From the time she could walk she danced, and from the time she could talk she sang. All through school she was that kid who stayed after class to hound the music or drama teachers to give her extra lessons, or watch her perform a piece. As her family was not of very high standing within the Federated Suns, someone like her had to grab for every opportunity possible. With each begged-for lesson or guilt-tripped critique, her talents grew, and so did her knowledge that all it would take was being discovered, and she'd become the new media darling of Davion space; maybe even beyond.
+ In her later teen years Avelynn saw something that would change her life, and her plans; she bore witness to the agility and grace possible in a Battlemech while watching a vid of the Noisiel Summer Games. From this came her obession with Battlemechs, and combining them with music and dance to create something she thought would take the Inner Sphere by storm; to see a choreographed show of nimble 'Mechs set to music of her own production. It couldn't lose. Her devotion to the idea drove her though school, and into the ranks of the nearby Regional Training Battalion, where she hoped to gain the skills needed to bring her to center stage, and make her a star. And it might have happened had she not been caught utilizing Davion property practicing her routine, nevermind being the ringleader of a small group of cadets she'd schmoozed into working with her, promising them a share of the spotlight. It was too much for her commanding officers, and so she was summarily discharged. With few prospects, and no saftey net, she hitched rides on whatever dropships and jumpships she could till her journey unceremoniously plopped her in the Periphery, and opened her eyes to the potential for a second chance. All she had to to was find some bleeding heart who'd support her vision; for a cut of the profits and a share of the limelight, of course. But only a share. Center stage belongs to Glam, after all.
+---
+Avelynn Dupré was born knowing she wanted to be a star. From the time she could walk she danced, and from the time she could talk she sang. All through school she was that kid who stayed after class to hound the music or drama teachers to give her extra lessons, or watch her perform a piece. As her family was not of very high standing within the Federated Suns, someone like her had to grab for every opportunity possible. With each begged-for lesson or guilt-tripped critique, her talents grew, and so did her knowledge that all it would take was being discovered, and she'd become the new media darling of Davion space; maybe even beyond.
 In her later teen years Avelynn saw something that would change her life, and her plans; she bore witness to the agility and grace possible in a Battlemech while watching a vid of the Noisiel Summer Games. From this came her obession with Battlemechs, and combining them with music and dance to create something she thought would take the Inner Sphere by storm; to see a choreographed show of nimble 'Mechs set to music of her own production. It couldn't lose. Her devotion to the idea drove her though school, and into the ranks of the nearby Regional Training Battalion, where she hoped to gain the skills needed to bring her to center stage, and make her a star. And it might have happened had she not been caught utilizing Davion property practicing her routine, nevermind being the ringleader of a small group of cadets she'd schmoozed into working with her, promising them a share of the spotlight. It was too much for her commanding officers, and so she was summarily discharged. With few prospects, and no saftey net, she hitched rides on whatever dropships and jumpships she could till her journey unceremoniously plopped her in the Periphery, and opened her eyes to the potential for a second chance. All she had to to was find some bleeding heart who'd support her vision; for a cut of the profits and a share of the limelight, of course. But only a share. Center stage belongs to Glam, after all.</t>
   </si>
   <si>
     <t xml:space="preserve">Avelynn Dupré was born knowing she wanted to be a star. From the time she could walk she danced, and from the time she could talk she sang. All through school she was that kid who stayed after class to hound the music or drama teachers to give her extra lessons, or watch her perform a piece. As her family was not of very high standing within the Federated Suns, someone like her had to grab for every opportunity possible. With each begged-for lesson or guilt-tripped critique, her talents grew, and so did her knowledge that all it would take was being discovered, and she'd become the new media darling of Davion space; maybe even beyond.
-In her later teen years Avelynn saw something that would change her life, and her plans; she bore witness to the agility and grace possible in a Battlemech while watching a vid of the Noisiel Summer Games. From this came her obession with Battlemechs, and combining them with music and dance to create something she thought would take the Inner Sphere by storm; to see a choreographed show of nimble 'Mechs set to music of her own production. It couldn't lose. Her devotion to the idea drove her though school, and into the ranks of the nearby Regional Training Battalion, where she hoped to gain the skills needed to bring her to center stage, and make her a star. And it might have happened had she not been caught utilizing Davion property practicing her routine, nevermind being the ringleader of a small group of cadets she'd schmoozed into working with her, promising them a share of the spotlight. It was too much for her commanding officers, and so she was summarily discharged. With few prospects, and no saftey net, she hitched rides on whatever dropships and jumpships she could till her journey unceremoniously plopped her in the Periphery, and opened her eyes to the potential for a second chance. All she had to to was find some bleeding heart who'd support her vision; for a cut of the profits and a share of the limelight, of course. But only a share. Center stage belongs to Glam, after all.</t>
+ In her later teen years Avelynn saw something that would change her life, and her plans; she bore witness to the agility and grace possible in a Battlemech while watching a vid of the Noisiel Summer Games. From this came her obession with Battlemechs, and combining them with music and dance to create something she thought would take the Inner Sphere by storm; to see a choreographed show of nimble 'Mechs set to music of her own production. It couldn't lose. Her devotion to the idea drove her though school, and into the ranks of the nearby Regional Training Battalion, where she hoped to gain the skills needed to bring her to center stage, and make her a star. And it might have happened had she not been caught utilizing Davion property practicing her routine, nevermind being the ringleader of a small group of cadets she'd schmoozed into working with her, promising them a share of the spotlight. It was too much for her commanding officers, and so she was summarily discharged. With few prospects, and no saftey net, she hitched rides on whatever dropships and jumpships she could till her journey unceremoniously plopped her in the Periphery, and opened her eyes to the potential for a second chance. All she had to to was find some bleeding heart who'd support her vision; for a cut of the profits and a share of the limelight, of course. But only a share. Center stage belongs to Glam, after all.</t>
   </si>
   <si>
     <t>pilot_at_Glam.Description.FirstName</t>
@@ -346,11 +374,14 @@
   </si>
   <si>
     <t xml:space="preserve">Most folk from the Outworlds Alliance favor peace above war, and isolationism over opening themselves up to the outside world. After the Reunification War, people in the Periphery largely just wanted to be left alone, and the OA was no exception. Droves of people who hadn't fit in within the confines of the Great Houses had fled or migrated there to live simply, with several small groups of Luddites and other fringe thinkers making their homes among the like-minded, or at least the like-willed. This is the part of the story where you'd expect to be told about the 'wolf among sheep' or the 'problem child' who stood out through her addiction to thrills and violence. LeFay's story is no such tale. Anha's simply a Mechwarrior that sought to keep the peace, and so trained for war in the hopes to never really have to fight. Her main talent lies in coaxing her sensors to perform better than most, making her very adept at calling down fire from friendly Aero assets onto the heads of the pirates that tended to beleaguer the Alliance. She got her callsign because of her 'wizardry' with sensors, and the fact that her assigned ride was a Merlin, both in training and in combat, so her lance mates found it funny. Her own personal style doesn't help though; with her heavily shadowed eyes and dark hair she looks every part the witch, and to some unlucky pirates, maybe she was.
+ She came to be among the many Mercenary pilots for hire because her ride was shot out from under her in a raid, and her command simply couldn't afford another one, so she left. All she really knew was piloting 'Mechs, and farm work didn't sound like much of a life after that. So, she threw her name in the proverbial hat, and waited patiently for a Merc command to give her a shot.
+---
+Most folk from the Outworlds Alliance favor peace above war, and isolationism over opening themselves up to the outside world. After the Reunification War, people in the Periphery largely just wanted to be left alone, and the OA was no exception. Droves of people who hadn't fit in within the confines of the Great Houses had fled or migrated there to live simply, with several small groups of Luddites and other fringe thinkers making their homes among the like-minded, or at least the like-willed. This is the part of the story where you'd expect to be told about the 'wolf among sheep' or the 'problem child' who stood out through her addiction to thrills and violence. LeFay's story is no such tale. Anha's simply a Mechwarrior that sought to keep the peace, and so trained for war in the hopes to never really have to fight. Her main talent lies in coaxing her sensors to perform better than most, making her very adept at calling down fire from friendly Aero assets onto the heads of the pirates that tended to beleaguer the Alliance. She got her callsign because of her 'wizardry' with sensors, and the fact that her assigned ride was a Merlin, both in training and in combat, so her lance mates found it funny. Her own personal style doesn't help though; with her heavily shadowed eyes and dark hair she looks every part the witch, and to some unlucky pirates, maybe she was.
 She came to be among the many Mercenary pilots for hire because her ride was shot out from under her in a raid, and her command simply couldn't afford another one, so she left. All she really knew was piloting 'Mechs, and farm work didn't sound like much of a life after that. So, she threw her name in the proverbial hat, and waited patiently for a Merc command to give her a shot.</t>
   </si>
   <si>
     <t xml:space="preserve">Most folk from the Outworlds Alliance favor peace above war, and isolationism over opening themselves up to the outside world. After the Reunification War, people in the Periphery largely just wanted to be left alone, and the OA was no exception. Droves of people who hadn't fit in within the confines of the Great Houses had fled or migrated there to live simply, with several small groups of Luddites and other fringe thinkers making their homes among the like-minded, or at least the like-willed. This is the part of the story where you'd expect to be told about the 'wolf among sheep' or the 'problem child' who stood out through her addiction to thrills and violence. LeFay's story is no such tale. Anha's simply a Mechwarrior that sought to keep the peace, and so trained for war in the hopes to never really have to fight. Her main talent lies in coaxing her sensors to perform better than most, making her very adept at calling down fire from friendly Aero assets onto the heads of the pirates that tended to beleaguer the Alliance. She got her callsign because of her 'wizardry' with sensors, and the fact that her assigned ride was a Merlin, both in training and in combat, so her lance mates found it funny. Her own personal style doesn't help though; with her heavily shadowed eyes and dark hair she looks every part the witch, and to some unlucky pirates, maybe she was.
-She came to be among the many Mercenary pilots for hire because her ride was shot out from under her in a raid, and her command simply couldn't afford another one, so she left. All she really knew was piloting 'Mechs, and farm work didn't sound like much of a life after that. So, she threw her name in the proverbial hat, and waited patiently for a Merc command to give her a shot.</t>
+ She came to be among the many Mercenary pilots for hire because her ride was shot out from under her in a raid, and her command simply couldn't afford another one, so she left. All she really knew was piloting 'Mechs, and farm work didn't sound like much of a life after that. So, she threw her name in the proverbial hat, and waited patiently for a Merc command to give her a shot.</t>
   </si>
   <si>
     <t>pilot_at_LeFay.Description.FirstName</t>
@@ -378,11 +409,14 @@
   </si>
   <si>
     <t xml:space="preserve">Born and raised on Larsha, one of the hubs of Periphery activity in the Confederation, Yue Doyle grew up a military girl. Her father served in the 5th Confederation Reserve Cavalry, piloting a Locust 1M. All through her youth, she listened to his stories about training and chasing off pirates.
+ When she turned 18, she enrolled in the Duchy Regional Training Center on Zanzibar so she could fight beside her father in the 5th Reserve Cav. Just before she graduated, she heard news that he’d been killed during a raid by unmarked forces originating from Taurian space. That same week, she received an official dispatch assigning her to the 5th back on Larsha, placing her in her father’s old company. When she arrived, she was assigned to his Locust; a painful reminder of her recent loss. She proved to fill his boots more than adequately, and she turned down ever promotion to a heavier machine. Yue preferred her role as rapid response fire support, and she wasn't ready to give the chair over to someone who wouldn't appreciate the 'Mech's history. Eventually the brass informed her she had no choice when the next promotion offer came; upgrade or opt out. It's an easy guess what she chose, and it's just as easy to wager why she'd want to sign on with a Mercenary outfit with cause to venture out into the Rimward Periphery.
+---
+Born and raised on Larsha, one of the hubs of Periphery activity in the Confederation, Yue Doyle grew up a military girl. Her father served in the 5th Confederation Reserve Cavalry, piloting a Locust 1M. All through her youth, she listened to his stories about training and chasing off pirates.
 When she turned 18, she enrolled in the Duchy Regional Training Center on Zanzibar so she could fight beside her father in the 5th Reserve Cav. Just before she graduated, she heard news that he’d been killed during a raid by unmarked forces originating from Taurian space. That same week, she received an official dispatch assigning her to the 5th back on Larsha, placing her in her father’s old company. When she arrived, she was assigned to his Locust; a painful reminder of her recent loss. She proved to fill his boots more than adequately, and she turned down ever promotion to a heavier machine. Yue preferred her role as rapid response fire support, and she wasn't ready to give the chair over to someone who wouldn't appreciate the 'Mech's history. Eventually the brass informed her she had no choice when the next promotion offer came; upgrade or opt out. It's an easy guess what she chose, and it's just as easy to wager why she'd want to sign on with a Mercenary outfit with cause to venture out into the Rimward Periphery.</t>
   </si>
   <si>
     <t xml:space="preserve">Born and raised on Larsha, one of the hubs of Periphery activity in the Confederation, Yue Doyle grew up a military girl. Her father served in the 5th Confederation Reserve Cavalry, piloting a Locust 1M. All through her youth, she listened to his stories about training and chasing off pirates.
-When she turned 18, she enrolled in the Duchy Regional Training Center on Zanzibar so she could fight beside her father in the 5th Reserve Cav. Just before she graduated, she heard news that he’d been killed during a raid by unmarked forces originating from Taurian space. That same week, she received an official dispatch assigning her to the 5th back on Larsha, placing her in her father’s old company. When she arrived, she was assigned to his Locust; a painful reminder of her recent loss. She proved to fill his boots more than adequately, and she turned down ever promotion to a heavier machine. Yue preferred her role as rapid response fire support, and she wasn't ready to give the chair over to someone who wouldn't appreciate the 'Mech's history. Eventually the brass informed her she had no choice when the next promotion offer came; upgrade or opt out. It's an easy guess what she chose, and it's just as easy to wager why she'd want to sign on with a Mercenary outfit with cause to venture out into the Rimward Periphery.</t>
+ When she turned 18, she enrolled in the Duchy Regional Training Center on Zanzibar so she could fight beside her father in the 5th Reserve Cav. Just before she graduated, she heard news that he’d been killed during a raid by unmarked forces originating from Taurian space. That same week, she received an official dispatch assigning her to the 5th back on Larsha, placing her in her father’s old company. When she arrived, she was assigned to his Locust; a painful reminder of her recent loss. She proved to fill his boots more than adequately, and she turned down ever promotion to a heavier machine. Yue preferred her role as rapid response fire support, and she wasn't ready to give the chair over to someone who wouldn't appreciate the 'Mech's history. Eventually the brass informed her she had no choice when the next promotion offer came; upgrade or opt out. It's an easy guess what she chose, and it's just as easy to wager why she'd want to sign on with a Mercenary outfit with cause to venture out into the Rimward Periphery.</t>
   </si>
   <si>
     <t>pilot_at_Longshot.Description.FirstName</t>
@@ -410,11 +444,14 @@
   </si>
   <si>
     <t xml:space="preserve">Clayton Matauita is a crack shot, a pretty tough cookie, and an all-around decent sort of guy. At least, he tries. Most Mechwarriors have fuzzy dice, pictures of family, or pictures of Natasha Kerensky in her prime gracing the instrument panels of their ‘Mechs. Clayton has a pair of small athletic shoes, and they are the biggest reason he’s a crack shot, a pretty tough cookie, and an all-around decent sort of guy.
+ The Matauitas grew up in Rasalhague space, proud of their little state, and completely oblivious to the oncoming storm. When the Clans struck, Clayton and his younger brother Max were far too small to fight, and his family were hardly warriors to boot. So like most, they fled. Or tried. Not everyone was lucky enough to make it off-world in the chaos, and Clayton’s family was separated during evac, with he and his mother headed into one dropship, and his father and younger brother into the other. As one might guess, he never saw his father or brother again, and it took several years to get the official news of the fate of their transport. The last real conversation he’d had with his little brother had been full of tears, with the small boy vowing to become a great Mechwarrior and come back to chase the Clans out. Clayton’s path of exile took him far away from home, but he’s content to stay, at least until he gets good enough to go back, and do what his little brother will never get the chance to: kick some Clan ass.
+---
+Clayton Matauita is a crack shot, a pretty tough cookie, and an all-around decent sort of guy. At least, he tries. Most Mechwarriors have fuzzy dice, pictures of family, or pictures of Natasha Kerensky in her prime gracing the instrument panels of their ‘Mechs. Clayton has a pair of small athletic shoes, and they are the biggest reason he’s a crack shot, a pretty tough cookie, and an all-around decent sort of guy.
 The Matauitas grew up in Rasalhague space, proud of their little state, and completely oblivious to the oncoming storm. When the Clans struck, Clayton and his younger brother Max were far too small to fight, and his family were hardly warriors to boot. So like most, they fled. Or tried. Not everyone was lucky enough to make it off-world in the chaos, and Clayton’s family was separated during evac, with he and his mother headed into one dropship, and his father and younger brother into the other. As one might guess, he never saw his father or brother again, and it took several years to get the official news of the fate of their transport. The last real conversation he’d had with his little brother had been full of tears, with the small boy vowing to become a great Mechwarrior and come back to chase the Clans out. Clayton’s path of exile took him far away from home, but he’s content to stay, at least until he gets good enough to go back, and do what his little brother will never get the chance to: kick some Clan ass.</t>
   </si>
   <si>
     <t xml:space="preserve">Clayton Matauita is a crack shot, a pretty tough cookie, and an all-around decent sort of guy. At least, he tries. Most Mechwarriors have fuzzy dice, pictures of family, or pictures of Natasha Kerensky in her prime gracing the instrument panels of their ‘Mechs. Clayton has a pair of small athletic shoes, and they are the biggest reason he’s a crack shot, a pretty tough cookie, and an all-around decent sort of guy.
-The Matauitas grew up in Rasalhague space, proud of their little state, and completely oblivious to the oncoming storm. When the Clans struck, Clayton and his younger brother Max were far too small to fight, and his family were hardly warriors to boot. So like most, they fled. Or tried. Not everyone was lucky enough to make it off-world in the chaos, and Clayton’s family was separated during evac, with he and his mother headed into one dropship, and his father and younger brother into the other. As one might guess, he never saw his father or brother again, and it took several years to get the official news of the fate of their transport. The last real conversation he’d had with his little brother had been full of tears, with the small boy vowing to become a great Mechwarrior and come back to chase the Clans out. Clayton’s path of exile took him far away from home, but he’s content to stay, at least until he gets good enough to go back, and do what his little brother will never get the chance to: kick some Clan ass.</t>
+ The Matauitas grew up in Rasalhague space, proud of their little state, and completely oblivious to the oncoming storm. When the Clans struck, Clayton and his younger brother Max were far too small to fight, and his family were hardly warriors to boot. So like most, they fled. Or tried. Not everyone was lucky enough to make it off-world in the chaos, and Clayton’s family was separated during evac, with he and his mother headed into one dropship, and his father and younger brother into the other. As one might guess, he never saw his father or brother again, and it took several years to get the official news of the fate of their transport. The last real conversation he’d had with his little brother had been full of tears, with the small boy vowing to become a great Mechwarrior and come back to chase the Clans out. Clayton’s path of exile took him far away from home, but he’s content to stay, at least until he gets good enough to go back, and do what his little brother will never get the chance to: kick some Clan ass.</t>
   </si>
   <si>
     <t>pilot_at_Max.Description.FirstName</t>
@@ -442,11 +479,14 @@
   </si>
   <si>
     <t xml:space="preserve">People like to talk about the pirate life as though it were some romantic, free-wheeling vacation where you stick it to the Man (the Inner Sphere, in this case), and live the high life, complete with blackjack and hookers. At least, that’s what people who’ve never suffered from a pirate attack like to dream, or those who’ve never tried living as one. The reality is piracy is dirty, cruel, dangerous, and takes the right type of merciless cunning to make sure the only dagger is the one in your hand, not in your back. And Yessica Durant fits that bill.
+ The safest way to live in the Tortuga Dominions is not to spend too much time in the Tortuga Dominions, and Yessica knew the hallways and hidey-holes of most of the Jumpships in the Tortugan fleets better than she knew the way around the apartment she crashed in when she was forced planetside during down time. And she knew where all the best gambling was to be found. Which, naturally, is probably the reason she’s now in the Rimward Periphery, looking for more “reputable” work. And if it is, she ain’t saying. She knows her way around a ‘Mech though, and as far as she tells it, that’s all any potential employers need to know about her. That, and to just leave her alone, lest she bite the hand that feeds.
+---
+People like to talk about the pirate life as though it were some romantic, free-wheeling vacation where you stick it to the Man (the Inner Sphere, in this case), and live the high life, complete with blackjack and hookers. At least, that’s what people who’ve never suffered from a pirate attack like to dream, or those who’ve never tried living as one. The reality is piracy is dirty, cruel, dangerous, and takes the right type of merciless cunning to make sure the only dagger is the one in your hand, not in your back. And Yessica Durant fits that bill.
 The safest way to live in the Tortuga Dominions is not to spend too much time in the Tortuga Dominions, and Yessica knew the hallways and hidey-holes of most of the Jumpships in the Tortugan fleets better than she knew the way around the apartment she crashed in when she was forced planetside during down time. And she knew where all the best gambling was to be found. Which, naturally, is probably the reason she’s now in the Rimward Periphery, looking for more “reputable” work. And if it is, she ain’t saying. She knows her way around a ‘Mech though, and as far as she tells it, that’s all any potential employers need to know about her. That, and to just leave her alone, lest she bite the hand that feeds.</t>
   </si>
   <si>
     <t xml:space="preserve">People like to talk about the pirate life as though it were some romantic, free-wheeling vacation where you stick it to the Man (the Inner Sphere, in this case), and live the high life, complete with blackjack and hookers. At least, that’s what people who’ve never suffered from a pirate attack like to dream, or those who’ve never tried living as one. The reality is piracy is dirty, cruel, dangerous, and takes the right type of merciless cunning to make sure the only dagger is the one in your hand, not in your back. And Yessica Durant fits that bill.
-The safest way to live in the Tortuga Dominions is not to spend too much time in the Tortuga Dominions, and Yessica knew the hallways and hidey-holes of most of the Jumpships in the Tortugan fleets better than she knew the way around the apartment she crashed in when she was forced planetside during down time. And she knew where all the best gambling was to be found. Which, naturally, is probably the reason she’s now in the Rimward Periphery, looking for more “reputable” work. And if it is, she ain’t saying. She knows her way around a ‘Mech though, and as far as she tells it, that’s all any potential employers need to know about her. That, and to just leave her alone, lest she bite the hand that feeds.</t>
+ The safest way to live in the Tortuga Dominions is not to spend too much time in the Tortuga Dominions, and Yessica knew the hallways and hidey-holes of most of the Jumpships in the Tortugan fleets better than she knew the way around the apartment she crashed in when she was forced planetside during down time. And she knew where all the best gambling was to be found. Which, naturally, is probably the reason she’s now in the Rimward Periphery, looking for more “reputable” work. And if it is, she ain’t saying. She knows her way around a ‘Mech though, and as far as she tells it, that’s all any potential employers need to know about her. That, and to just leave her alone, lest she bite the hand that feeds.</t>
   </si>
   <si>
     <t>pilot_at_Mongrel.Description.FirstName</t>
@@ -474,11 +514,14 @@
   </si>
   <si>
     <t xml:space="preserve">Every man and woman able to do so performs four years of compulsory service in the Taurian Defense Force, and Holden Tagart was no different. Unlike many of his contemporaries however, he excelled in his training, and it resonated with him, so he joined up full-time, and was transferred from his local canton to Taurus to attend the prestigious École Militaire. There, he hoped to stand above the rest, and enrolled in the MOS most likely to get him into the Taurian Ministry of Intelligence, but he was ill-suited for covert work and washed out.
+ Recirculated back into the stream of standard trainees, his superiors suggested he try for tank command or Mechwarrior. He chose the latter, preferring not to be directly responsible for so many other soldiers. Part of the appeal of spec ops to him had been the chance to work alone, and shine alone, and he chaffed at the notion of working alongside anyone that could hold him back. His superiors knew this was the reason he’d never have made a good member of the TMI, but they kept it to themselves. Tagart did well in his training, and was soon assigned to a recon lance, piloting a Commando. He did his time, retired with little fanfare, and moved on to the greater Periphery in general, hoping to secure a spot in a Mercenary command, where he could prove himself and shine brighter than he believed he ever could as another face among rows of government troops.
+---
+Every man and woman able to do so performs four years of compulsory service in the Taurian Defense Force, and Holden Tagart was no different. Unlike many of his contemporaries however, he excelled in his training, and it resonated with him, so he joined up full-time, and was transferred from his local canton to Taurus to attend the prestigious École Militaire. There, he hoped to stand above the rest, and enrolled in the MOS most likely to get him into the Taurian Ministry of Intelligence, but he was ill-suited for covert work and washed out.
 Recirculated back into the stream of standard trainees, his superiors suggested he try for tank command or Mechwarrior. He chose the latter, preferring not to be directly responsible for so many other soldiers. Part of the appeal of spec ops to him had been the chance to work alone, and shine alone, and he chaffed at the notion of working alongside anyone that could hold him back. His superiors knew this was the reason he’d never have made a good member of the TMI, but they kept it to themselves. Tagart did well in his training, and was soon assigned to a recon lance, piloting a Commando. He did his time, retired with little fanfare, and moved on to the greater Periphery in general, hoping to secure a spot in a Mercenary command, where he could prove himself and shine brighter than he believed he ever could as another face among rows of government troops.</t>
   </si>
   <si>
     <t xml:space="preserve">Every man and woman able to do so performs four years of compulsory service in the Taurian Defense Force, and Holden Tagart was no different. Unlike many of his contemporaries however, he excelled in his training, and it resonated with him, so he joined up full-time, and was transferred from his local canton to Taurus to attend the prestigious École Militaire. There, he hoped to stand above the rest, and enrolled in the MOS most likely to get him into the Taurian Ministry of Intelligence, but he was ill-suited for covert work and washed out.
-Recirculated back into the stream of standard trainees, his superiors suggested he try for tank command or Mechwarrior. He chose the latter, preferring not to be directly responsible for so many other soldiers. Part of the appeal of spec ops to him had been the chance to work alone, and shine alone, and he chaffed at the notion of working alongside anyone that could hold him back. His superiors knew this was the reason he’d never have made a good member of the TMI, but they kept it to themselves. Tagart did well in his training, and was soon assigned to a recon lance, piloting a Commando. He did his time, retired with little fanfare, and moved on to the greater Periphery in general, hoping to secure a spot in a Mercenary command, where he could prove himself and shine brighter than he believed he ever could as another face among rows of government troops.</t>
+ Recirculated back into the stream of standard trainees, his superiors suggested he try for tank command or Mechwarrior. He chose the latter, preferring not to be directly responsible for so many other soldiers. Part of the appeal of spec ops to him had been the chance to work alone, and shine alone, and he chaffed at the notion of working alongside anyone that could hold him back. His superiors knew this was the reason he’d never have made a good member of the TMI, but they kept it to themselves. Tagart did well in his training, and was soon assigned to a recon lance, piloting a Commando. He did his time, retired with little fanfare, and moved on to the greater Periphery in general, hoping to secure a spot in a Mercenary command, where he could prove himself and shine brighter than he believed he ever could as another face among rows of government troops.</t>
   </si>
   <si>
     <t>pilot_at_Mustang.Description.FirstName</t>
@@ -506,13 +549,17 @@
   </si>
   <si>
     <t xml:space="preserve">Kalida Hossein grew up on the water world of Athenry, amidst the salt spray of the sulfurous oceans and the jagged cliffs of the scant landmasses that dotted the planet. During her childhood, the planet was brought low by a mercenary group known as the Blue Star Irregulars, under contract with House Steiner. The invaders ingratiated themselves to the populous, becoming local celebrities before the Draconis Combine chased them off-world a year later. Their tenure there left a lasting impresson on many of the Athenry youth, and so when she came of age, Kalida joined the PDF hoping for a chance to sign up with an outfit like the BSI.
+ Unfortunately, living on an ocean-bound planet means unless a Great House decides to use you as a staging ground for further conquest, you aren’t likely to experience much in the way of excitement. Locally produced algae proteins and toxic seawater aren't particularly appealing to pirates, so Kalida found herself very bored most of the time. She also had another issue: tours on surface patrol craft revealed she was direly prone to seasickness. A transfer to underwater welding detail curtailed her seasickness issues a little, and gave her time at the controls of IndustrialMech, which she hoped would translate to a career with a mercenary company at some point.
+ After her tenure in the PDF was up, she had enough money saved to transfer off-world, wanting nothing more than to get away from all that water. Unfortunately, Battlemech neurohelmets trigger her seasickness, which she discovered during her first contract, so any outfit that employs her on better keep extra dimenhydrinate on hand just in case.
+---
+Kalida Hossein grew up on the water world of Athenry, amidst the salt spray of the sulfurous oceans and the jagged cliffs of the scant landmasses that dotted the planet. During her childhood, the planet was brought low by a mercenary group known as the Blue Star Irregulars, under contract with House Steiner. The invaders ingratiated themselves to the populous, becoming local celebrities before the Draconis Combine chased them off-world a year later. Their tenure there left a lasting impresson on many of the Athenry youth, and so when she came of age, Kalida joined the PDF hoping for a chance to sign up with an outfit like the BSI.
 Unfortunately, living on an ocean-bound planet means unless a Great House decides to use you as a staging ground for further conquest, you aren’t likely to experience much in the way of excitement. Locally produced algae proteins and toxic seawater aren't particularly appealing to pirates, so Kalida found herself very bored most of the time. She also had another issue: tours on surface patrol craft revealed she was direly prone to seasickness. A transfer to underwater welding detail curtailed her seasickness issues a little, and gave her time at the controls of IndustrialMech, which she hoped would translate to a career with a mercenary company at some point.
 After her tenure in the PDF was up, she had enough money saved to transfer off-world, wanting nothing more than to get away from all that water. Unfortunately, Battlemech neurohelmets trigger her seasickness, which she discovered during her first contract, so any outfit that employs her on better keep extra dimenhydrinate on hand just in case.</t>
   </si>
   <si>
     <t xml:space="preserve">Kalida Hossein grew up on the water world of Athenry, amidst the salt spray of the sulfurous oceans and the jagged cliffs of the scant landmasses that dotted the planet. During her childhood, the planet was brought low by a mercenary group known as the Blue Star Irregulars, under contract with House Steiner. The invaders ingratiated themselves to the populous, becoming local celebrities before the Draconis Combine chased them off-world a year later. Their tenure there left a lasting impresson on many of the Athenry youth, and so when she came of age, Kalida joined the PDF hoping for a chance to sign up with an outfit like the BSI.
-Unfortunately, living on an ocean-bound planet means unless a Great House decides to use you as a staging ground for further conquest, you aren’t likely to experience much in the way of excitement. Locally produced algae proteins and toxic seawater aren't particularly appealing to pirates, so Kalida found herself very bored most of the time. She also had another issue: tours on surface patrol craft revealed she was direly prone to seasickness. A transfer to underwater welding detail curtailed her seasickness issues a little, and gave her time at the controls of IndustrialMech, which she hoped would translate to a career with a mercenary company at some point.
-After her tenure in the PDF was up, she had enough money saved to transfer off-world, wanting nothing more than to get away from all that water. Unfortunately, Battlemech neurohelmets trigger her seasickness, which she discovered during her first contract, so any outfit that employs her on better keep extra dimenhydrinate on hand just in case.</t>
+ Unfortunately, living on an ocean-bound planet means unless a Great House decides to use you as a staging ground for further conquest, you aren’t likely to experience much in the way of excitement. Locally produced algae proteins and toxic seawater aren't particularly appealing to pirates, so Kalida found herself very bored most of the time. She also had another issue: tours on surface patrol craft revealed she was direly prone to seasickness. A transfer to underwater welding detail curtailed her seasickness issues a little, and gave her time at the controls of IndustrialMech, which she hoped would translate to a career with a mercenary company at some point.
+ After her tenure in the PDF was up, she had enough money saved to transfer off-world, wanting nothing more than to get away from all that water. Unfortunately, Battlemech neurohelmets trigger her seasickness, which she discovered during her first contract, so any outfit that employs her on better keep extra dimenhydrinate on hand just in case.</t>
   </si>
   <si>
     <t>pilot_at_Ningyo.Description.FirstName</t>
@@ -540,11 +587,14 @@
   </si>
   <si>
     <t xml:space="preserve">When asked, Dermot Laughlin is content to simply tell people he is from the far side of the Magistracy of Canopus, and leave it at that. That he served in a milita, piloting a Wasp that had a couple of Flamers installed in the leg in place of the missile rack, and that he didn’t do much beyond some minor scrumming with pirates and some civil engineering using his ‘Mech as a substitute crane.
+ But the manner in which he carries himself, and especially the way he talks, tell a different story, and it’s one that doesn’t come anywhere near matching the words that come out of his mouth when you can get him to talk about himself. And one look at the bookshelf in his quarters confirms he has some pretty serious investment in the workings and histories of ancient empires, specifically the Romans. And this seeming obsession reflects in his demeanor on the battlefield; he will bark orders and make calls if his commanding officer is too slow to respond to changing battlefield conditions, and brush off any remand after the fact. But when paired with a mind like his, he is efficient, and supportive, and he will echo commands to the rest of his compatriots, helping keep operations orderly and regimented.
+---
+When asked, Dermot Laughlin is content to simply tell people he is from the far side of the Magistracy of Canopus, and leave it at that. That he served in a milita, piloting a Wasp that had a couple of Flamers installed in the leg in place of the missile rack, and that he didn’t do much beyond some minor scrumming with pirates and some civil engineering using his ‘Mech as a substitute crane.
 But the manner in which he carries himself, and especially the way he talks, tell a different story, and it’s one that doesn’t come anywhere near matching the words that come out of his mouth when you can get him to talk about himself. And one look at the bookshelf in his quarters confirms he has some pretty serious investment in the workings and histories of ancient empires, specifically the Romans. And this seeming obsession reflects in his demeanor on the battlefield; he will bark orders and make calls if his commanding officer is too slow to respond to changing battlefield conditions, and brush off any remand after the fact. But when paired with a mind like his, he is efficient, and supportive, and he will echo commands to the rest of his compatriots, helping keep operations orderly and regimented.</t>
   </si>
   <si>
     <t xml:space="preserve">When asked, Dermot Laughlin is content to simply tell people he is from the far side of the Magistracy of Canopus, and leave it at that. That he served in a milita, piloting a Wasp that had a couple of Flamers installed in the leg in place of the missile rack, and that he didn’t do much beyond some minor scrumming with pirates and some civil engineering using his ‘Mech as a substitute crane.
-But the manner in which he carries himself, and especially the way he talks, tell a different story, and it’s one that doesn’t come anywhere near matching the words that come out of his mouth when you can get him to talk about himself. And one look at the bookshelf in his quarters confirms he has some pretty serious investment in the workings and histories of ancient empires, specifically the Romans. And this seeming obsession reflects in his demeanor on the battlefield; he will bark orders and make calls if his commanding officer is too slow to respond to changing battlefield conditions, and brush off any remand after the fact. But when paired with a mind like his, he is efficient, and supportive, and he will echo commands to the rest of his compatriots, helping keep operations orderly and regimented.</t>
+ But the manner in which he carries himself, and especially the way he talks, tell a different story, and it’s one that doesn’t come anywhere near matching the words that come out of his mouth when you can get him to talk about himself. And one look at the bookshelf in his quarters confirms he has some pretty serious investment in the workings and histories of ancient empires, specifically the Romans. And this seeming obsession reflects in his demeanor on the battlefield; he will bark orders and make calls if his commanding officer is too slow to respond to changing battlefield conditions, and brush off any remand after the fact. But when paired with a mind like his, he is efficient, and supportive, and he will echo commands to the rest of his compatriots, helping keep operations orderly and regimented.</t>
   </si>
   <si>
     <t>pilot_at_Optio.Description.FirstName</t>
@@ -571,12 +621,15 @@
     <t>pilot_at_Panic.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">Hannah Yamashita hails from the Draconis Combine, and it shows. She expresses that very Japanese tendency towards perfection in all that she does, from pruning the bonsai she keeps in her very orderly quarters, to negotiating narrow alleyways and streets in her preferred Battlemech, the Firestarter. She has a penchant for urban combat, Light ‘Mechs, and anti-infantry operations, and when given the opportunity, gladly partakes in all three. She also has the habit of writing haikus on the side of her ‘Mech after each engagement; beautiful little poems describing and entire conflict in three simple lines.  And many of her mechs have read like compilations.
+    <t xml:space="preserve">Hannah Yamashita hails from the Draconis Combine, and it shows. She expresses that very Japanese tendency towards perfection in all that she does, from pruning the bonsai she keeps in her very orderly quarters, to negotiating narrow alleyways and streets in her preferred Battlemech, the Firestarter. She has a penchant for urban combat, Light ‘Mechs, and anti-infantry operations, and when given the opportunity, gladly partakes in all three. She also has the habit of writing haikus on the side of her ‘Mech after each engagement; beautiful little poems describing and entire conflict in three simple lines. And many of her mechs have read like compilations.
+ Something troubling seems to follow her, however; she has a mien like a black cat, and she often makes the more superstitious of her colleagues uneasy. It’s hard to say why, but it could be the smile she wears after a particularly eventful day stalking the city, rooting out entrenched opposition.
+---
+Hannah Yamashita hails from the Draconis Combine, and it shows. She expresses that very Japanese tendency towards perfection in all that she does, from pruning the bonsai she keeps in her very orderly quarters, to negotiating narrow alleyways and streets in her preferred Battlemech, the Firestarter. She has a penchant for urban combat, Light ‘Mechs, and anti-infantry operations, and when given the opportunity, gladly partakes in all three. She also has the habit of writing haikus on the side of her ‘Mech after each engagement; beautiful little poems describing and entire conflict in three simple lines.  And many of her mechs have read like compilations.
 Something troubling seems to follow her, however; she has a mien like a black cat, and she often makes the more superstitious of her colleagues uneasy. It’s hard to say why, but it could be the smile she wears after a particularly eventful day stalking the city, rooting out entrenched opposition.</t>
   </si>
   <si>
-    <t xml:space="preserve">Hannah Yamashita hails from the Draconis Combine, and it shows. She expresses that very Japanese tendency towards perfection in all that she does, from pruning the bonsai she keeps in her very orderly quarters, to negotiating narrow alleyways and streets in her preferred Battlemech, the Firestarter. She has a penchant for urban combat, Light ‘Mechs, and anti-infantry operations, and when given the opportunity, gladly partakes in all three. She also has the habit of writing haikus on the side of her ‘Mech after each engagement; beautiful little poems describing and entire conflict in three simple lines.  And many of her mechs have read like compilations.
-Something troubling seems to follow her, however; she has a mien like a black cat, and she often makes the more superstitious of her colleagues uneasy. It’s hard to say why, but it could be the smile she wears after a particularly eventful day stalking the city, rooting out entrenched opposition.</t>
+    <t xml:space="preserve">Hannah Yamashita hails from the Draconis Combine, and it shows. She expresses that very Japanese tendency towards perfection in all that she does, from pruning the bonsai she keeps in her very orderly quarters, to negotiating narrow alleyways and streets in her preferred Battlemech, the Firestarter. She has a penchant for urban combat, Light ‘Mechs, and anti-infantry operations, and when given the opportunity, gladly partakes in all three. She also has the habit of writing haikus on the side of her ‘Mech after each engagement; beautiful little poems describing and entire conflict in three simple lines. And many of her mechs have read like compilations.
+ Something troubling seems to follow her, however; she has a mien like a black cat, and she often makes the more superstitious of her colleagues uneasy. It’s hard to say why, but it could be the smile she wears after a particularly eventful day stalking the city, rooting out entrenched opposition.</t>
   </si>
   <si>
     <t>pilot_at_Panic.Description.FirstName</t>
@@ -604,13 +657,17 @@
   </si>
   <si>
     <t xml:space="preserve">Pistol doesn't like to talk about her childhood. Her story starts with the first time she went to prison, which she proudly hails as 'growing up'. After that, her life was a blur of petty crime, thuggery, and gang time. Unlike a lot of the roughs she ran with, Pistol used her head. She was smart, and ruthless, and someone with her capabilities wasn't long for petty crime. Pirates eventually swept her away to a life of cargo theft, raiding stockpiles, and fleeing the authorities in multiple systems. The pirates were more wily than the low-rent crooks she'd been with, but her savvy kept her fingerprints off most of their heists.
+ After a duel with a member of a rival pirate crew got blood on her hands for the first time, Pistol started getting a tattoo for each mark she knocked off; often times double-tapping by collecting bounties on the riff-raff as a side gig. That sort of work suited her tastes, and the criminal aspects of things started to fall to the wayside. The other pirates noticed, and not wanting to lose their share of her bounty takes, they offered her a spot among the few 'Mech jocks they had. She was put at the controls of a primitive, derelict Shadow Hawk, and her eye for killing only grew sharper. She found that she equally enjoyed hunting targets with her autocannon or her sidearm, and unfortunately for the rest of the rabble, her resolve to leave the pirate life only got stronger.
+ Pistol snuck away one evening when the rest of the pirates were in a drunken stupor, leaving word of their whereabouts in the ear of the authorities and collecting the bounty. She used the cash to get off-world, and register with the MRB as a pilot-fore-hire, hoping to shack up with a more reputable lot who favored bounty hunting as much as she did. Amusingly, having to register with the MRB forced her to use her real name (which she hates), so any potential commanders might take care not to use it in casual conversation.
+---
+Pistol doesn't like to talk about her childhood. Her story starts with the first time she went to prison, which she proudly hails as 'growing up'. After that, her life was a blur of petty crime, thuggery, and gang time. Unlike a lot of the roughs she ran with, Pistol used her head. She was smart, and ruthless, and someone with her capabilities wasn't long for petty crime. Pirates eventually swept her away to a life of cargo theft, raiding stockpiles, and fleeing the authorities in multiple systems. The pirates were more wily than the low-rent crooks she'd been with, but her savvy kept her fingerprints off most of their heists.
 After a duel with a member of a rival pirate crew got blood on her hands for the first time, Pistol started getting a tattoo for each mark she knocked off; often times double-tapping by collecting bounties on the riff-raff as a side gig. That sort of work suited her tastes, and the criminal aspects of things started to fall to the wayside. The other pirates noticed, and not wanting to lose their share of her bounty takes, they offered her a spot among the few 'Mech jocks they had. She was put at the controls of a primitive, derelict Shadow Hawk, and her eye for killing only grew sharper. She found that she equally enjoyed hunting targets with her autocannon or her sidearm, and unfortunately for the rest of the rabble, her resolve to leave the pirate life only got stronger.
 Pistol snuck away one evening when the rest of the pirates were in a drunken stupor, leaving word of their whereabouts in the ear of the authorities and collecting the bounty. She used the cash to get off-world, and register with the MRB as a pilot-fore-hire, hoping to shack up with a more reputable lot who favored bounty hunting as much as she did. Amusingly, having to register with the MRB forced her to use her real name (which she hates), so any potential commanders might take care not to use it in casual conversation.</t>
   </si>
   <si>
     <t xml:space="preserve">Pistol doesn't like to talk about her childhood. Her story starts with the first time she went to prison, which she proudly hails as 'growing up'. After that, her life was a blur of petty crime, thuggery, and gang time. Unlike a lot of the roughs she ran with, Pistol used her head. She was smart, and ruthless, and someone with her capabilities wasn't long for petty crime. Pirates eventually swept her away to a life of cargo theft, raiding stockpiles, and fleeing the authorities in multiple systems. The pirates were more wily than the low-rent crooks she'd been with, but her savvy kept her fingerprints off most of their heists.
-After a duel with a member of a rival pirate crew got blood on her hands for the first time, Pistol started getting a tattoo for each mark she knocked off; often times double-tapping by collecting bounties on the riff-raff as a side gig. That sort of work suited her tastes, and the criminal aspects of things started to fall to the wayside. The other pirates noticed, and not wanting to lose their share of her bounty takes, they offered her a spot among the few 'Mech jocks they had. She was put at the controls of a primitive, derelict Shadow Hawk, and her eye for killing only grew sharper. She found that she equally enjoyed hunting targets with her autocannon or her sidearm, and unfortunately for the rest of the rabble, her resolve to leave the pirate life only got stronger.
-Pistol snuck away one evening when the rest of the pirates were in a drunken stupor, leaving word of their whereabouts in the ear of the authorities and collecting the bounty. She used the cash to get off-world, and register with the MRB as a pilot-fore-hire, hoping to shack up with a more reputable lot who favored bounty hunting as much as she did. Amusingly, having to register with the MRB forced her to use her real name (which she hates), so any potential commanders might take care not to use it in casual conversation.</t>
+ After a duel with a member of a rival pirate crew got blood on her hands for the first time, Pistol started getting a tattoo for each mark she knocked off; often times double-tapping by collecting bounties on the riff-raff as a side gig. That sort of work suited her tastes, and the criminal aspects of things started to fall to the wayside. The other pirates noticed, and not wanting to lose their share of her bounty takes, they offered her a spot among the few 'Mech jocks they had. She was put at the controls of a primitive, derelict Shadow Hawk, and her eye for killing only grew sharper. She found that she equally enjoyed hunting targets with her autocannon or her sidearm, and unfortunately for the rest of the rabble, her resolve to leave the pirate life only got stronger.
+ Pistol snuck away one evening when the rest of the pirates were in a drunken stupor, leaving word of their whereabouts in the ear of the authorities and collecting the bounty. She used the cash to get off-world, and register with the MRB as a pilot-fore-hire, hoping to shack up with a more reputable lot who favored bounty hunting as much as she did. Amusingly, having to register with the MRB forced her to use her real name (which she hates), so any potential commanders might take care not to use it in casual conversation.</t>
   </si>
   <si>
     <t>pilot_at_Pistol.Description.FirstName</t>
@@ -638,11 +695,14 @@
   </si>
   <si>
     <t xml:space="preserve">Once House Arano regained their throne, and Lady Kamea Arano reclaimed her crown, the Restoration efford ended, and so did the flow of money from the Centrellas. The fate of those displaced by the end of a war rarely gets shared in any history book, this war included, and many loyal Mechwarriors and vehicle crewfolk were left without prospects. The Magistracy has new politics to attend to now, and former Aurigan soldiers like Clinton have to do what they can.
+ Dubbed 'Plato' by his lancemates due to a penchant for debate over off-hours drinks, Mechwarrior Knox is otherwise a fairly unremarkable soldier, aside from the bittersweet loyalty he has towards his old outfit and nation. He feels betrayed, but at the same time proud of his role in re-securing the Arano heritage, wearing that weight like a veteran would. He gets on well with most crews, and has little or naught to say about much, unless there's an open beer and a friendly conversation at hand. He seems content to follow orders and serve his contract; quietly continuing to be a good soldier for whoever cuts his checks.
+---
+Once House Arano regained their throne, and Lady Kamea Arano reclaimed her crown, the Restoration efford ended, and so did the flow of money from the Centrellas. The fate of those displaced by the end of a war rarely gets shared in any history book, this war included, and many loyal Mechwarriors and vehicle crewfolk were left without prospects. The Magistracy has new politics to attend to now, and former Aurigan soldiers like Clinton have to do what they can.
 Dubbed 'Plato' by his lancemates due to a penchant for debate over off-hours drinks, Mechwarrior Knox is otherwise a fairly unremarkable soldier, aside from the bittersweet loyalty he has towards his old outfit and nation. He feels betrayed, but at the same time proud of his role in re-securing the Arano heritage, wearing that weight like a veteran would. He gets on well with most crews, and has little or naught to say about much, unless there's an open beer and a friendly conversation at hand. He seems content to follow orders and serve his contract; quietly continuing to be a good soldier for whoever cuts his checks.</t>
   </si>
   <si>
     <t xml:space="preserve">Once House Arano regained their throne, and Lady Kamea Arano reclaimed her crown, the Restoration efford ended, and so did the flow of money from the Centrellas. The fate of those displaced by the end of a war rarely gets shared in any history book, this war included, and many loyal Mechwarriors and vehicle crewfolk were left without prospects. The Magistracy has new politics to attend to now, and former Aurigan soldiers like Clinton have to do what they can.
-Dubbed 'Plato' by his lancemates due to a penchant for debate over off-hours drinks, Mechwarrior Knox is otherwise a fairly unremarkable soldier, aside from the bittersweet loyalty he has towards his old outfit and nation. He feels betrayed, but at the same time proud of his role in re-securing the Arano heritage, wearing that weight like a veteran would. He gets on well with most crews, and has little or naught to say about much, unless there's an open beer and a friendly conversation at hand. He seems content to follow orders and serve his contract; quietly continuing to be a good soldier for whoever cuts his checks.</t>
+ Dubbed 'Plato' by his lancemates due to a penchant for debate over off-hours drinks, Mechwarrior Knox is otherwise a fairly unremarkable soldier, aside from the bittersweet loyalty he has towards his old outfit and nation. He feels betrayed, but at the same time proud of his role in re-securing the Arano heritage, wearing that weight like a veteran would. He gets on well with most crews, and has little or naught to say about much, unless there's an open beer and a friendly conversation at hand. He seems content to follow orders and serve his contract; quietly continuing to be a good soldier for whoever cuts his checks.</t>
   </si>
   <si>
     <t>pilot_at_Plato.Description.FirstName</t>
@@ -670,13 +730,17 @@
   </si>
   <si>
     <t xml:space="preserve">Not every person behind the controls of a ‘Mech chooses to be there. Sometimes their options are limited due to the circumstances of their birth. Annabelle Geates was born in the officer’s quarters of a Leopard-class dropship, en route between worlds in the Free World’s League. Her mother was the CO of a mercenary group; her father a pilot. They had been trying to get to a proper hospital, but the trip from the jump point in-system was a long one, and Annabelle ended up being born a few days early. Her entire childhood was spent aboard the ship, with the crew and techs and pilots being her aunts and uncles. She learned about PPCs, and about KF drives, and jump jets, and tactics. She had few toys, but several of the Mercs had books, so she read a lot as soon as she was able. Books became her escape when the hull of the Leopard rumbled from meteorites or weapons fire and she was afraid. They taught here everything she learned that didn’t have a military application. Her parents wanted her to learn the family business, but she wanted to go into the arts. She loved writing, and would read her prose to anyone that would listen to her.
+ As she grew up, she found herself behind the controls of her mother’s Phoenix Hawk, learning the ropes. It was the last place she wanted to be, but she had few other choices. Her parents were worried about leaving her someplace to study, only to be kidnapped or worse by someone upset with the unit. So Annabelle became a Mechwarrior.
+ Her parents eventually had a falling out, and the group dissolved. Both parents joined different outfits, and she chose to live with her father for a time, but the group he’d signed up with were too rowdy for her tastes, so she left. She missed the more family-like environment of her old unit. She met up with her mother, but she was bitter about Annabelle choosing her father first, and they had a falling out. Left with few prospects, Geates put her name out looking for a new outfit; one that she hopes has a quiet corner for her to read and write in, between contracts. And maybe, a new kind of family more like her old one.
+---
+Not every person behind the controls of a ‘Mech chooses to be there. Sometimes their options are limited due to the circumstances of their birth. Annabelle Geates was born in the officer’s quarters of a Leopard-class dropship, en route between worlds in the Free World’s League. Her mother was the CO of a mercenary group; her father a pilot. They had been trying to get to a proper hospital, but the trip from the jump point in-system was a long one, and Annabelle ended up being born a few days early. Her entire childhood was spent aboard the ship, with the crew and techs and pilots being her aunts and uncles. She learned about PPCs, and about KF drives, and jump jets, and tactics. She had few toys, but several of the Mercs had books, so she read a lot as soon as she was able. Books became her escape when the hull of the Leopard rumbled from meteorites or weapons fire and she was afraid. They taught here everything she learned that didn’t have a military application. Her parents wanted her to learn the family business, but she wanted to go into the arts. She loved writing, and would read her prose to anyone that would listen to her.
 As she grew up, she found herself behind the controls of her mother’s Phoenix Hawk, learning the ropes. It was the last place she wanted to be, but she had few other choices. Her parents were worried about leaving her someplace to study, only to be kidnapped or worse by someone upset with the unit. So Annabelle became a Mechwarrior.
 Her parents eventually had a falling out, and the group dissolved. Both parents joined different outfits, and she chose to live with her father for a time, but the group he’d signed up with were too rowdy for her tastes, so she left. She missed the more family-like environment of her old unit. She met up with her mother, but she was bitter about Annabelle choosing her father first, and they had a falling out. Left with few prospects, Geates put her name out looking for a new outfit; one that she hopes has a quiet corner for her to read and write in, between contracts. And maybe, a new kind of family more like her old one.</t>
   </si>
   <si>
     <t xml:space="preserve">Not every person behind the controls of a ‘Mech chooses to be there. Sometimes their options are limited due to the circumstances of their birth. Annabelle Geates was born in the officer’s quarters of a Leopard-class dropship, en route between worlds in the Free World’s League. Her mother was the CO of a mercenary group; her father a pilot. They had been trying to get to a proper hospital, but the trip from the jump point in-system was a long one, and Annabelle ended up being born a few days early. Her entire childhood was spent aboard the ship, with the crew and techs and pilots being her aunts and uncles. She learned about PPCs, and about KF drives, and jump jets, and tactics. She had few toys, but several of the Mercs had books, so she read a lot as soon as she was able. Books became her escape when the hull of the Leopard rumbled from meteorites or weapons fire and she was afraid. They taught here everything she learned that didn’t have a military application. Her parents wanted her to learn the family business, but she wanted to go into the arts. She loved writing, and would read her prose to anyone that would listen to her.
-As she grew up, she found herself behind the controls of her mother’s Phoenix Hawk, learning the ropes. It was the last place she wanted to be, but she had few other choices. Her parents were worried about leaving her someplace to study, only to be kidnapped or worse by someone upset with the unit. So Annabelle became a Mechwarrior.
-Her parents eventually had a falling out, and the group dissolved. Both parents joined different outfits, and she chose to live with her father for a time, but the group he’d signed up with were too rowdy for her tastes, so she left. She missed the more family-like environment of her old unit. She met up with her mother, but she was bitter about Annabelle choosing her father first, and they had a falling out. Left with few prospects, Geates put her name out looking for a new outfit; one that she hopes has a quiet corner for her to read and write in, between contracts. And maybe, a new kind of family more like her old one.</t>
+ As she grew up, she found herself behind the controls of her mother’s Phoenix Hawk, learning the ropes. It was the last place she wanted to be, but she had few other choices. Her parents were worried about leaving her someplace to study, only to be kidnapped or worse by someone upset with the unit. So Annabelle became a Mechwarrior.
+ Her parents eventually had a falling out, and the group dissolved. Both parents joined different outfits, and she chose to live with her father for a time, but the group he’d signed up with were too rowdy for her tastes, so she left. She missed the more family-like environment of her old unit. She met up with her mother, but she was bitter about Annabelle choosing her father first, and they had a falling out. Left with few prospects, Geates put her name out looking for a new outfit; one that she hopes has a quiet corner for her to read and write in, between contracts. And maybe, a new kind of family more like her old one.</t>
   </si>
   <si>
     <t>pilot_at_Poet.Description.FirstName</t>
@@ -704,11 +768,14 @@
   </si>
   <si>
     <t xml:space="preserve">Thiago never set foot in an actual military academy, and he's proud of that fact. He'd hitched a ride as a boy with a rough-and-tumble outfit that'd come in to protect the mining outpost where he was born, and where his parent died. He doesn't seem too broken up about it; his mother was a drunk and his dad was a gambler, and between ol' pops wasting what little money they had left on dicing in the alleyways after his ma drank most of it up, he figures the pirates did him a solid. He'd started in the mess, washing dishes, and as a gofer for the crew. He tried learning from the techs, from the pilots, from the officers... anyone who'd give him a lesson. He had no designs on peeling potatoes and fetching bad coffee for the rest of his life.
+ As he grew up he learned about 'Mech combat, and it took a lot longer for him to get behind the wheel, so to speak, than it did for him to grasp the basics of tactics and strategy, since the latter didn't involve any risks to the outfit's hardware. His callsign, Rhino, is a bit of an in-joke. Turns out just because he's built like one doesn't mean he's anywhere as tough as one. Bit of a glass jaw. Not that you'd want to let a tactical mind like his get bounced around in his skull in a bar fight, mind.
+---
+Thiago never set foot in an actual military academy, and he's proud of that fact. He'd hitched a ride as a boy with a rough-and-tumble outfit that'd come in to protect the mining outpost where he was born, and where his parent died. He doesn't seem too broken up about it; his mother was a drunk and his dad was a gambler, and between ol' pops wasting what little money they had left on dicing in the alleyways after his ma drank most of it up, he figures the pirates did him a solid. He'd started in the mess, washing dishes, and as a gofer for the crew. He tried learning from the techs, from the pilots, from the officers... anyone who'd give him a lesson. He had no designs on peeling potatoes and fetching bad coffee for the rest of his life.
 As he grew up he learned about 'Mech combat, and it took a lot longer for him to get behind the wheel, so to speak, than it did for him to grasp the basics of tactics and strategy, since the latter didn't involve any risks to the outfit's hardware.  His callsign, Rhino, is a bit of an in-joke. Turns out just because he's built like one doesn't mean he's anywhere as tough as one. Bit of a glass jaw. Not that you'd want to let a tactical mind like his get bounced around in his skull in a bar fight, mind.</t>
   </si>
   <si>
     <t xml:space="preserve">Thiago never set foot in an actual military academy, and he's proud of that fact. He'd hitched a ride as a boy with a rough-and-tumble outfit that'd come in to protect the mining outpost where he was born, and where his parent died. He doesn't seem too broken up about it; his mother was a drunk and his dad was a gambler, and between ol' pops wasting what little money they had left on dicing in the alleyways after his ma drank most of it up, he figures the pirates did him a solid. He'd started in the mess, washing dishes, and as a gofer for the crew. He tried learning from the techs, from the pilots, from the officers... anyone who'd give him a lesson. He had no designs on peeling potatoes and fetching bad coffee for the rest of his life.
-As he grew up he learned about 'Mech combat, and it took a lot longer for him to get behind the wheel, so to speak, than it did for him to grasp the basics of tactics and strategy, since the latter didn't involve any risks to the outfit's hardware.  His callsign, Rhino, is a bit of an in-joke. Turns out just because he's built like one doesn't mean he's anywhere as tough as one. Bit of a glass jaw. Not that you'd want to let a tactical mind like his get bounced around in his skull in a bar fight, mind.</t>
+ As he grew up he learned about 'Mech combat, and it took a lot longer for him to get behind the wheel, so to speak, than it did for him to grasp the basics of tactics and strategy, since the latter didn't involve any risks to the outfit's hardware. His callsign, Rhino, is a bit of an in-joke. Turns out just because he's built like one doesn't mean he's anywhere as tough as one. Bit of a glass jaw. Not that you'd want to let a tactical mind like his get bounced around in his skull in a bar fight, mind.</t>
   </si>
   <si>
     <t>pilot_at_Rhino.Description.FirstName</t>
@@ -736,11 +803,14 @@
   </si>
   <si>
     <t xml:space="preserve">Jackson Harker always wanted to fly. And he’d been born in the right place for it; the Outworld Alliance. Famous for their aerospace forces, which rivaled those of the Successor States themselves, the OA was the fork to Harker’s spoon; the butter on his toast. He joined up as soon as he could, and excelled in his preliminary testing. Like many aero recruits, he passed out during high-g training. Again, and again. But he never stopped passing out, which means he inevitably washed out. His recruiting officer suggested he try for Battlemech training; after all, jump jets might be a poor substitute for actual thrusters, but who knows? He might luck out and fall into assignment with one of the few remaining LAMs still in service. And with that, Harker put his nose to the grindstone, and graduated.
+ He lived on the high ground in training, and in service, and he patently refused any assignment to a machine that didn’t have jump jets. But that golden ticket never came, and after his assignment was over, he packed up and headed rimward, through the Taurian Concordat, looking for an outfit still sporting one of those rare gems: the Land-Air Mech. They might not be masters of the skies, but they came about as goddamn close as any machine with two legs aught to. One still needs to pay the bills, however, and so Ridgeline gladly takes any duty with Mercenaries having the same sort of free spirit and thirst for adventure he enjoys. And being huge fans of, or owning, a LAM certainly helps those prospects.
+---
+Jackson Harker always wanted to fly. And he’d been born in the right place for it; the Outworld Alliance. Famous for their aerospace forces, which rivaled those of the Successor States themselves, the OA was the fork to Harker’s spoon; the butter on his toast. He joined up as soon as he could, and excelled in his preliminary testing. Like many aero recruits, he passed out during high-g training. Again, and again. But he never stopped passing out, which means he inevitably washed out. His recruiting officer suggested he try for Battlemech training; after all, jump jets might be a poor substitute for actual thrusters, but who knows? He might luck out and fall into assignment with one of the few remaining LAMs still in service. And with that, Harker put his nose to the grindstone, and graduated.
 He lived on the high ground in training, and in service, and he patently refused any assignment to a machine that didn’t have jump jets. But that golden ticket never came, and after his assignment was over, he packed up and headed rimward, through the Taurian Concordat, looking for an outfit still sporting one of those rare gems: the Land-Air Mech. They might not be masters of the skies, but they came about as goddamn close as any machine with two legs aught to. One still needs to pay the bills, however, and so Ridgeline gladly takes any duty with Mercenaries having the same sort of free spirit and thirst for adventure he enjoys. And being huge fans of, or owning, a LAM certainly helps those prospects.</t>
   </si>
   <si>
     <t xml:space="preserve">Jackson Harker always wanted to fly. And he’d been born in the right place for it; the Outworld Alliance. Famous for their aerospace forces, which rivaled those of the Successor States themselves, the OA was the fork to Harker’s spoon; the butter on his toast. He joined up as soon as he could, and excelled in his preliminary testing. Like many aero recruits, he passed out during high-g training. Again, and again. But he never stopped passing out, which means he inevitably washed out. His recruiting officer suggested he try for Battlemech training; after all, jump jets might be a poor substitute for actual thrusters, but who knows? He might luck out and fall into assignment with one of the few remaining LAMs still in service. And with that, Harker put his nose to the grindstone, and graduated.
-He lived on the high ground in training, and in service, and he patently refused any assignment to a machine that didn’t have jump jets. But that golden ticket never came, and after his assignment was over, he packed up and headed rimward, through the Taurian Concordat, looking for an outfit still sporting one of those rare gems: the Land-Air Mech. They might not be masters of the skies, but they came about as goddamn close as any machine with two legs aught to. One still needs to pay the bills, however, and so Ridgeline gladly takes any duty with Mercenaries having the same sort of free spirit and thirst for adventure he enjoys. And being huge fans of, or owning, a LAM certainly helps those prospects.</t>
+ He lived on the high ground in training, and in service, and he patently refused any assignment to a machine that didn’t have jump jets. But that golden ticket never came, and after his assignment was over, he packed up and headed rimward, through the Taurian Concordat, looking for an outfit still sporting one of those rare gems: the Land-Air Mech. They might not be masters of the skies, but they came about as goddamn close as any machine with two legs aught to. One still needs to pay the bills, however, and so Ridgeline gladly takes any duty with Mercenaries having the same sort of free spirit and thirst for adventure he enjoys. And being huge fans of, or owning, a LAM certainly helps those prospects.</t>
   </si>
   <si>
     <t>pilot_at_Ridgeline.Description.FirstName</t>
@@ -768,11 +838,14 @@
   </si>
   <si>
     <t xml:space="preserve">One of the worst things an otherwise dedicated, professional human being has to do is live as a hypocrite, and Amelia Bianchi knows exactly how that feels. She spent a large portion of her House military career pushing people forward and driving them to be their best. Do that extra pull-up. Run that extra lap. Tighten that shot cluster. Don't quit.
+ Sarge, as she was affectionately known, chose to do just that. She quit. She patently refused to participate in the brewing Civil War between the Lyrans and her home state the Federated Suns, citing that, quote: 'It's f**ing stupid is what it is'. So instead of participate; instead of being the patriot she always tried to make her cadets into, she turned her back and left. She resigned her commission, and headed rimward in disgrace as the quitter she never meant anyone to be. And now she has to live with that out on the fringe, contracting with mercenaries and hoping nobody back home thinks so poorly of her as to ignore the lessons she taught them. Being in exile is no excuse for slacking though, as she says, and so she'll push her current crew to run that extra lap, or do that extra pull-up. Because if there's going to be any quitter in the room, it'll only ever be her.
+---
+One of the worst things an otherwise dedicated, professional human being has to do is live as a hypocrite, and Amelia Bianchi knows exactly how that feels. She spent a large portion of her House military career pushing people forward and driving them to be their best. Do that extra pull-up. Run that extra lap. Tighten that shot cluster. Don't quit.
 Sarge, as she was affectionately known, chose to do just that. She quit. She patently refused to participate in the brewing Civil War between the Lyrans and her home state the Federated Suns, citing that, quote: 'It's f**ing stupid is what it is'. So instead of participate; instead of being the patriot she always tried to make her cadets into, she turned her back and left. She resigned her commission, and headed rimward in disgrace as the quitter she never meant anyone to be. And now she has to live with that out on the fringe, contracting with mercenaries and hoping nobody back home thinks so poorly of her as to ignore the lessons she taught them. Being in exile is no excuse for slacking though, as she says, and so she'll push her current crew to run that extra lap, or do that extra pull-up. Because if there's going to be any quitter in the room, it'll only ever be her.</t>
   </si>
   <si>
     <t xml:space="preserve">One of the worst things an otherwise dedicated, professional human being has to do is live as a hypocrite, and Amelia Bianchi knows exactly how that feels. She spent a large portion of her House military career pushing people forward and driving them to be their best. Do that extra pull-up. Run that extra lap. Tighten that shot cluster. Don't quit.
-Sarge, as she was affectionately known, chose to do just that. She quit. She patently refused to participate in the brewing Civil War between the Lyrans and her home state the Federated Suns, citing that, quote: 'It's f**ing stupid is what it is'. So instead of participate; instead of being the patriot she always tried to make her cadets into, she turned her back and left. She resigned her commission, and headed rimward in disgrace as the quitter she never meant anyone to be. And now she has to live with that out on the fringe, contracting with mercenaries and hoping nobody back home thinks so poorly of her as to ignore the lessons she taught them. Being in exile is no excuse for slacking though, as she says, and so she'll push her current crew to run that extra lap, or do that extra pull-up. Because if there's going to be any quitter in the room, it'll only ever be her.</t>
+ Sarge, as she was affectionately known, chose to do just that. She quit. She patently refused to participate in the brewing Civil War between the Lyrans and her home state the Federated Suns, citing that, quote: 'It's f**ing stupid is what it is'. So instead of participate; instead of being the patriot she always tried to make her cadets into, she turned her back and left. She resigned her commission, and headed rimward in disgrace as the quitter she never meant anyone to be. And now she has to live with that out on the fringe, contracting with mercenaries and hoping nobody back home thinks so poorly of her as to ignore the lessons she taught them. Being in exile is no excuse for slacking though, as she says, and so she'll push her current crew to run that extra lap, or do that extra pull-up. Because if there's going to be any quitter in the room, it'll only ever be her.</t>
   </si>
   <si>
     <t>pilot_at_Sarge.Description.FirstName</t>
@@ -800,11 +873,14 @@
   </si>
   <si>
     <t xml:space="preserve">Sketchy comes from a nearly-forgotten corner of space that was once very, very important to the goings-on of the Inner Sphere. A long time ago, the world she hails from, Otisberg, was part of the Rim World Republic; the nation that toppled the first Star League and led to the ruination of House Cameron. After the Amaris Civil War, and later the Republic-Commonwealth War, what remained of the RWR faded into obscurity, along with most of the worlds the Lyrans didn't lay claim to. But in 3040, the spark of nationhood was lit again by a man named James Moroney, who joined a movement set on unifying the worlds of Otisberg, Gillfillan's Gold, All Dawn, Calgarium, Slewis, and Waypoint into an alliance. Unfortunately, James Moroney was killed, and his friend William Roberts was left to see the transition to completion. A mercenary unit, Able's Aces, was hired to provide security and training to the new nation, and one of the first people in line to learn was Moroney's niece, Belinda.
+ Sketchy proved to have a mind for tactics, specifically those mired in the ebb and flow of an ongoing battle; her reactionary skills being quite commendable even if her judgement calls often times seemed questionable in the moment. However, when she graduated from training with the Aces, she chose to leave the Rim Collection instead of becoming part of its burgeoning military; her reasoning being that if she left to gain experience elsewhere, she could return to teach the next generation. After all, how was it that the Aces learned all they taught? It wasn't by sitting on their asses. So she chose to tour the Periphery for a time, learning and growing as a warrior before heading back home to share her experience with her comrades-at-arms.
+---
+Sketchy comes from a nearly-forgotten corner of space that was once very, very important to the goings-on of the Inner Sphere. A long time ago, the world she hails from, Otisberg, was part of the Rim World Republic; the nation that toppled the first Star League and led to the ruination of House Cameron. After the Amaris Civil War, and later the Republic-Commonwealth War, what remained of the RWR faded into obscurity, along with most of the worlds the Lyrans didn't lay claim to. But in 3040, the spark of nationhood was lit again by a man named James Moroney, who joined a movement set on unifying the worlds of Otisberg, Gillfillan's Gold, All Dawn, Calgarium, Slewis, and Waypoint into an alliance. Unfortunately, James Moroney was killed, and his friend William Roberts was left to see the transition to completion. A mercenary unit, Able's Aces, was hired to provide security and training to the new nation, and one of the first people in line to learn was Moroney's niece, Belinda.
 Sketchy proved to have a mind for tactics, specifically those mired in the ebb and flow of an ongoing battle; her reactionary skills being quite commendable even if her judgement calls often times seemed questionable in the moment. However, when she graduated from training with the Aces, she chose to leave the Rim Collection instead of becoming part of its burgeoning military; her reasoning being that if she left to gain experience elsewhere, she could return to teach the next generation. After all, how was it that the Aces learned all they taught? It wasn't by sitting on their asses. So she chose to tour the Periphery for a time, learning and growing as a warrior before heading back home to share her experience with her comrades-at-arms.</t>
   </si>
   <si>
     <t xml:space="preserve">Sketchy comes from a nearly-forgotten corner of space that was once very, very important to the goings-on of the Inner Sphere. A long time ago, the world she hails from, Otisberg, was part of the Rim World Republic; the nation that toppled the first Star League and led to the ruination of House Cameron. After the Amaris Civil War, and later the Republic-Commonwealth War, what remained of the RWR faded into obscurity, along with most of the worlds the Lyrans didn't lay claim to. But in 3040, the spark of nationhood was lit again by a man named James Moroney, who joined a movement set on unifying the worlds of Otisberg, Gillfillan's Gold, All Dawn, Calgarium, Slewis, and Waypoint into an alliance. Unfortunately, James Moroney was killed, and his friend William Roberts was left to see the transition to completion. A mercenary unit, Able's Aces, was hired to provide security and training to the new nation, and one of the first people in line to learn was Moroney's niece, Belinda.
-Sketchy proved to have a mind for tactics, specifically those mired in the ebb and flow of an ongoing battle; her reactionary skills being quite commendable even if her judgement calls often times seemed questionable in the moment. However, when she graduated from training with the Aces, she chose to leave the Rim Collection instead of becoming part of its burgeoning military; her reasoning being that if she left to gain experience elsewhere, she could return to teach the next generation. After all, how was it that the Aces learned all they taught? It wasn't by sitting on their asses. So she chose to tour the Periphery for a time, learning and growing as a warrior before heading back home to share her experience with her comrades-at-arms.</t>
+ Sketchy proved to have a mind for tactics, specifically those mired in the ebb and flow of an ongoing battle; her reactionary skills being quite commendable even if her judgement calls often times seemed questionable in the moment. However, when she graduated from training with the Aces, she chose to leave the Rim Collection instead of becoming part of its burgeoning military; her reasoning being that if she left to gain experience elsewhere, she could return to teach the next generation. After all, how was it that the Aces learned all they taught? It wasn't by sitting on their asses. So she chose to tour the Periphery for a time, learning and growing as a warrior before heading back home to share her experience with her comrades-at-arms.</t>
   </si>
   <si>
     <t>pilot_at_Sketchy.Description.FirstName</t>
@@ -832,11 +908,14 @@
   </si>
   <si>
     <t xml:space="preserve">Nobles are born with silver spoons in their mouths. Toni Okoye was born with a wrench. Raised in the Outback of the Federated Suns, she learned quickly that one man’s junk was another man’s treasure. Parts and supply could be hard to find in the wilder parts of the Suns, and so many learned to re-jigger, reuse, and recycle. Toni enjoyed tinkering with all manner of devices, and her family had an oddly rich history in technology. Her grandfather had worked building Nissan 200s for the Enforcer, and he took that knowledge with them when the lot of them were forced to move after he lost his job at the fusion engine plant. Unfortunately he passed on in transit to their new home, but the Okoyes kept all his manuals and notes, and Toni’s mother and father both took jobs in repair and maintenance once the family re-settled.
+ Toni learned about ‘Mechs the same way a lot of people in the rougher parts of the Inner Sphere do; she got lucky. The garrison on her world had a chassis in need of an engine, and as it happened, Toni managed to blunder into one, get it working, and install it into the decrepit Enforcer 4R, giving the ‘Mech it’s first hum of life in a hundred years. A thankful local government let her train in it under the Dispossessed Mechwarrior they'd hired to pilot it for the militia, and before long the dream of being a real Mechwarrior took root. It didn’t help that the Mechwarrior Toni was learning from filled her head with stories of battles and victory, and it wasn’t long before she decided to market herself to any Mercenary company passing through as a two-for-one Tech and pilot deal; after all, and the budget-conscious might appreciate an extra hand in the Mechbay. However solid her skills with a wrench are, the aesthetics of her work often leave something to be desired, and it’s not uncommon for the Chief Tech of her outfit to wonder why the leg of the CO's ride looks like it lost a fight with a junkpile.
+---
+Nobles are born with silver spoons in their mouths. Toni Okoye was born with a wrench. Raised in the Outback of the Federated Suns, she learned quickly that one man’s junk was another man’s treasure. Parts and supply could be hard to find in the wilder parts of the Suns, and so many learned to re-jigger, reuse, and recycle. Toni enjoyed tinkering with all manner of devices, and her family had an oddly rich history in technology. Her grandfather had worked building Nissan 200s for the Enforcer, and he took that knowledge with them when the lot of them were forced to move after he lost his job at the fusion engine plant. Unfortunately he passed on in transit to their new home, but the Okoyes kept all his manuals and notes, and Toni’s mother and father both took jobs in repair and maintenance once the family re-settled.
 Toni learned about ‘Mechs the same way a lot of people in the rougher parts of the Inner Sphere do; she got lucky. The garrison on her world had a chassis in need of an engine, and as it happened, Toni managed to blunder into one, get it working, and install it into the decrepit Enforcer 4R, giving the ‘Mech it’s first hum of life in a hundred years. A thankful local government let her train in it under the Dispossessed Mechwarrior they'd hired to pilot it for the militia, and before long the dream of being a real Mechwarrior took root. It didn’t help that the Mechwarrior Toni was learning from filled her head with stories of battles and victory, and it wasn’t long before she decided to market herself to any Mercenary company passing through as a two-for-one Tech and pilot deal; after all, and the budget-conscious might appreciate an extra hand in the Mechbay. However solid her skills with a wrench are, the aesthetics of her work often leave something to be desired, and it’s not uncommon for the Chief Tech of her outfit to wonder why the leg of the CO's ride looks like it lost a fight with a junkpile.</t>
   </si>
   <si>
     <t xml:space="preserve">Nobles are born with silver spoons in their mouths. Toni Okoye was born with a wrench. Raised in the Outback of the Federated Suns, she learned quickly that one man’s junk was another man’s treasure. Parts and supply could be hard to find in the wilder parts of the Suns, and so many learned to re-jigger, reuse, and recycle. Toni enjoyed tinkering with all manner of devices, and her family had an oddly rich history in technology. Her grandfather had worked building Nissan 200s for the Enforcer, and he took that knowledge with them when the lot of them were forced to move after he lost his job at the fusion engine plant. Unfortunately he passed on in transit to their new home, but the Okoyes kept all his manuals and notes, and Toni’s mother and father both took jobs in repair and maintenance once the family re-settled.
-Toni learned about ‘Mechs the same way a lot of people in the rougher parts of the Inner Sphere do; she got lucky. The garrison on her world had a chassis in need of an engine, and as it happened, Toni managed to blunder into one, get it working, and install it into the decrepit Enforcer 4R, giving the ‘Mech it’s first hum of life in a hundred years. A thankful local government let her train in it under the Dispossessed Mechwarrior they'd hired to pilot it for the militia, and before long the dream of being a real Mechwarrior took root. It didn’t help that the Mechwarrior Toni was learning from filled her head with stories of battles and victory, and it wasn’t long before she decided to market herself to any Mercenary company passing through as a two-for-one Tech and pilot deal; after all, and the budget-conscious might appreciate an extra hand in the Mechbay. However solid her skills with a wrench are, the aesthetics of her work often leave something to be desired, and it’s not uncommon for the Chief Tech of her outfit to wonder why the leg of the CO's ride looks like it lost a fight with a junkpile.</t>
+ Toni learned about ‘Mechs the same way a lot of people in the rougher parts of the Inner Sphere do; she got lucky. The garrison on her world had a chassis in need of an engine, and as it happened, Toni managed to blunder into one, get it working, and install it into the decrepit Enforcer 4R, giving the ‘Mech it’s first hum of life in a hundred years. A thankful local government let her train in it under the Dispossessed Mechwarrior they'd hired to pilot it for the militia, and before long the dream of being a real Mechwarrior took root. It didn’t help that the Mechwarrior Toni was learning from filled her head with stories of battles and victory, and it wasn’t long before she decided to market herself to any Mercenary company passing through as a two-for-one Tech and pilot deal; after all, and the budget-conscious might appreciate an extra hand in the Mechbay. However solid her skills with a wrench are, the aesthetics of her work often leave something to be desired, and it’s not uncommon for the Chief Tech of her outfit to wonder why the leg of the CO's ride looks like it lost a fight with a junkpile.</t>
   </si>
   <si>
     <t>pilot_at_Slapdash.Description.FirstName</t>
@@ -864,13 +943,17 @@
   </si>
   <si>
     <t xml:space="preserve">Tariq grew up knowing he wanted to serve in the LCAF as a Mechwarrior. He would skip school to sneak off and spend time with his mother who worked at Coventry Metal Works to be around the Battlemechs. He would stay up nights, looking at blueprints, studying how myomer works, or building models of his favorite machines. He had a particular fondness for the Hunchback; the massive autocannon put a twinkle in his eyes.
+ Thanks to his connections, he was able to attend the Conventry Military Academy, and was enrolled in the Reconnaissance program when the Jade Falcons invaded Steiner space. He was there when they attacked Coventry. He fought alongside his training cadre as the Clanners tried to take his home planet. And he, like the rest of his comrades, failed in its defense. He was captured, and taken as bondsman by the Falcons. When they departed, he was released, but his time in detention left a mark on Tariq. Instead of participating in the rebuilding of the academy, he instead left Lyran space, beleiving his training had not been enough. He felt he needed real experience in a place where people didn't fight by the book. So he sought passage to the Periphery and a commission in a mercenary unit.
+ Tariq is a friendly guy, always wearing a sideways smile, hence his handle. He's relaxed and approachable, but he's fierce in his commitment to return to Conventry and participate in the fight. With the Civil War inflaming between the Lyrans and FedSuns though, he's content to remain in mercenary employ for the time being. He might grimace at taking a Davion contract, and he makes no bones about the fact that he will leave one day to return home, but for now he's a dedicated, loyal soldier.
+---
+Tariq grew up knowing he wanted to serve in the LCAF as a Mechwarrior. He would skip school to sneak off and spend time with his mother who worked at Coventry Metal Works to be around the Battlemechs. He would stay up nights, looking at blueprints, studying how myomer works, or building models of his favorite machines. He had a particular fondness for the Hunchback; the massive autocannon put a twinkle in his eyes.
 Thanks to his connections, he was able to attend the Conventry Military Academy, and was enrolled in the Reconnaissance program when the Jade Falcons invaded Steiner space. He was there when they attacked Coventry. He fought alongside his training cadre as the Clanners tried to take his home planet. And he, like the rest of his comrades, failed in its defense. He was captured, and taken as bondsman by the Falcons. When they departed, he was released, but his time in detention left a mark on Tariq. Instead of participating in the rebuilding of the academy, he instead left Lyran space, beleiving his training had not been enough. He felt he needed real experience in a place where people didn't fight by the book. So he sought passage to the Periphery and a commission in a mercenary unit.
 Tariq is a friendly guy, always wearing a sideways smile, hence his handle. He's relaxed and approachable, but he's fierce in his commitment to return to Conventry and participate in the fight. With the Civil War inflaming between the Lyrans and FedSuns though, he's content to remain in mercenary employ for the time being. He might grimace at taking a Davion contract, and he makes no bones about the fact that he will leave one day to return home, but for now he's a dedicated, loyal soldier.</t>
   </si>
   <si>
     <t xml:space="preserve">Tariq grew up knowing he wanted to serve in the LCAF as a Mechwarrior. He would skip school to sneak off and spend time with his mother who worked at Coventry Metal Works to be around the Battlemechs. He would stay up nights, looking at blueprints, studying how myomer works, or building models of his favorite machines. He had a particular fondness for the Hunchback; the massive autocannon put a twinkle in his eyes.
-Thanks to his connections, he was able to attend the Conventry Military Academy, and was enrolled in the Reconnaissance program when the Jade Falcons invaded Steiner space. He was there when they attacked Coventry. He fought alongside his training cadre as the Clanners tried to take his home planet. And he, like the rest of his comrades, failed in its defense. He was captured, and taken as bondsman by the Falcons. When they departed, he was released, but his time in detention left a mark on Tariq. Instead of participating in the rebuilding of the academy, he instead left Lyran space, beleiving his training had not been enough. He felt he needed real experience in a place where people didn't fight by the book. So he sought passage to the Periphery and a commission in a mercenary unit.
-Tariq is a friendly guy, always wearing a sideways smile, hence his handle. He's relaxed and approachable, but he's fierce in his commitment to return to Conventry and participate in the fight. With the Civil War inflaming between the Lyrans and FedSuns though, he's content to remain in mercenary employ for the time being. He might grimace at taking a Davion contract, and he makes no bones about the fact that he will leave one day to return home, but for now he's a dedicated, loyal soldier.</t>
+ Thanks to his connections, he was able to attend the Conventry Military Academy, and was enrolled in the Reconnaissance program when the Jade Falcons invaded Steiner space. He was there when they attacked Coventry. He fought alongside his training cadre as the Clanners tried to take his home planet. And he, like the rest of his comrades, failed in its defense. He was captured, and taken as bondsman by the Falcons. When they departed, he was released, but his time in detention left a mark on Tariq. Instead of participating in the rebuilding of the academy, he instead left Lyran space, beleiving his training had not been enough. He felt he needed real experience in a place where people didn't fight by the book. So he sought passage to the Periphery and a commission in a mercenary unit.
+ Tariq is a friendly guy, always wearing a sideways smile, hence his handle. He's relaxed and approachable, but he's fierce in his commitment to return to Conventry and participate in the fight. With the Civil War inflaming between the Lyrans and FedSuns though, he's content to remain in mercenary employ for the time being. He might grimace at taking a Davion contract, and he makes no bones about the fact that he will leave one day to return home, but for now he's a dedicated, loyal soldier.</t>
   </si>
   <si>
     <t>pilot_at_Smirk.Description.FirstName</t>
@@ -898,11 +981,14 @@
   </si>
   <si>
     <t xml:space="preserve">Virago hails from the other side of the Sphere, and from the wrong side of the war. At least, that's what everyone, including her, says. She makes most folk uneasy with her size and her origins in equal measure, as she's a veteran of the Clan Jade Falcon invasion force. An Elemental, to be precise. How it is she ended up in the Rimward Periphery looking for a mercenary outfit is anyone's guess, but broken noses and worse are the typical fate of those who ask. Might be a worthwhile mercenary hidden in there behind all the odd mannerisms and patterns of speech. Clan lingo is weird, to say the least, and that's not even going into their abhorrence of contractions. Makes an odd duck odder in a place as frontiersy as the Periphery.
+ As she tells it, she's been working as an exoskeleton operator in cargo bays to make ends meet, but she's tired of being out of the fight, and wants a shot at real combat again. Barfights, apparently, don't appeal when you're a head taller than the next biggest person in the room.
+---
+Virago hails from the other side of the Sphere, and from the wrong side of the war. At least, that's what everyone, including her, says. She makes most folk uneasy with her size and her origins in equal measure, as she's a veteran of the Clan Jade Falcon invasion force. An Elemental, to be precise. How it is she ended up in the Rimward Periphery looking for a mercenary outfit is anyone's guess, but broken noses and worse are the typical fate of those who ask. Might be a worthwhile mercenary hidden in there behind all the odd mannerisms and patterns of speech. Clan lingo is weird, to say the least, and that's not even going into their abhorrence of contractions. Makes an odd duck odder in a place as frontiersy as the Periphery.
 As she tells it, she's been working as an exoskeleton operator in cargo bays to make ends meet, but she's tired of being out of the fight, and wants a shot at real combat again. Barfights, apparently, don't appeal when you're a head taller than the next biggest person in the room.</t>
   </si>
   <si>
     <t xml:space="preserve">Virago hails from the other side of the Sphere, and from the wrong side of the war. At least, that's what everyone, including her, says. She makes most folk uneasy with her size and her origins in equal measure, as she's a veteran of the Clan Jade Falcon invasion force. An Elemental, to be precise. How it is she ended up in the Rimward Periphery looking for a mercenary outfit is anyone's guess, but broken noses and worse are the typical fate of those who ask. Might be a worthwhile mercenary hidden in there behind all the odd mannerisms and patterns of speech. Clan lingo is weird, to say the least, and that's not even going into their abhorrence of contractions. Makes an odd duck odder in a place as frontiersy as the Periphery.
-As she tells it, she's been working as an exoskeleton operator in cargo bays to make ends meet, but she's tired of being out of the fight, and wants a shot at real combat again. Barfights, apparently, don't appeal when you're a head taller than the next biggest person in the room.</t>
+ As she tells it, she's been working as an exoskeleton operator in cargo bays to make ends meet, but she's tired of being out of the fight, and wants a shot at real combat again. Barfights, apparently, don't appeal when you're a head taller than the next biggest person in the room.</t>
   </si>
   <si>
     <t>pilot_at_Virago.Description.FirstName</t>
@@ -924,11 +1010,14 @@
   </si>
   <si>
     <t xml:space="preserve">The saying 'Nice guys finish last' has some truth to it sometimes; at least in the case of Gavin Oikos at any rate. He certainly plays at being a nice guy, and he's not shy about honestly admitting he finished last in his class at the Legionary Training Academy. But he finished, he likes to quip. He takes a quiet pride in his homeworld of Andurien, and is less quiet about his love of Capellan jokes. He gets as well as he gives though, and prides himself on having never started a barroom brawl. He'll joke that he's finished a few though.
+ Zed gets his callsign from his graduating class; they dubbed him 'Zed' because he was always last place in everything, even if at the same time he never really failed at anything either. He'll jest about all the best callsigns having some truth to them, of course. Unfortunately his cheerful exterior is the shimmery wrapping paper around a very sad little box. It's no mean task to check his records, and see that he went to the academy because his family, down to a person, died in an outbreak carried to his locale on Andurien by an offworlder, and the money he spent to do so was what remained of their financial legacy. There isn't anything or anyone left now but Zed, and his quirky sense of humor. He can't seem to stop being last.
+---
+The saying 'Nice guys finish last' has some truth to it sometimes; at least in the case of Gavin Oikos at any rate. He certainly plays at being a nice guy, and he's not shy about honestly admitting he finished last in his class at the Legionary Training Academy. But he finished, he likes to quip. He takes a quiet pride in his homeworld of Andurien, and is less quiet about his love of Capellan jokes. He gets as well as he gives though, and prides himself on having never started a barroom brawl. He'll joke that he's finished a few though.
 Zed gets his callsign from his graduating class; they dubbed him 'Zed' because he was always last place in everything, even if at the same time he never really failed at anything either. He'll jest about all the best callsigns having some truth to them, of course. Unfortunately his cheerful exterior is the shimmery wrapping paper around a very sad little box. It's no mean task to check his records, and see that he went to the academy because his family, down to a person, died in an outbreak carried to his locale on Andurien by an offworlder, and the money he spent to do so was what remained of their financial legacy. There isn't anything or anyone left now but Zed, and his quirky sense of humor. He can't seem to stop being last.</t>
   </si>
   <si>
     <t xml:space="preserve">The saying 'Nice guys finish last' has some truth to it sometimes; at least in the case of Gavin Oikos at any rate. He certainly plays at being a nice guy, and he's not shy about honestly admitting he finished last in his class at the Legionary Training Academy. But he finished, he likes to quip. He takes a quiet pride in his homeworld of Andurien, and is less quiet about his love of Capellan jokes. He gets as well as he gives though, and prides himself on having never started a barroom brawl. He'll joke that he's finished a few though.
-Zed gets his callsign from his graduating class; they dubbed him 'Zed' because he was always last place in everything, even if at the same time he never really failed at anything either. He'll jest about all the best callsigns having some truth to them, of course. Unfortunately his cheerful exterior is the shimmery wrapping paper around a very sad little box. It's no mean task to check his records, and see that he went to the academy because his family, down to a person, died in an outbreak carried to his locale on Andurien by an offworlder, and the money he spent to do so was what remained of their financial legacy. There isn't anything or anyone left now but Zed, and his quirky sense of humor. He can't seem to stop being last.</t>
+ Zed gets his callsign from his graduating class; they dubbed him 'Zed' because he was always last place in everything, even if at the same time he never really failed at anything either. He'll jest about all the best callsigns having some truth to them, of course. Unfortunately his cheerful exterior is the shimmery wrapping paper around a very sad little box. It's no mean task to check his records, and see that he went to the academy because his family, down to a person, died in an outbreak carried to his locale on Andurien by an offworlder, and the money he spent to do so was what remained of their financial legacy. There isn't anything or anyone left now but Zed, and his quirky sense of humor. He can't seem to stop being last.</t>
   </si>
   <si>
     <t>pilot_at_Zed.Description.FirstName</t>
@@ -983,13 +1072,17 @@
   </si>
   <si>
     <t xml:space="preserve">Born on Coromodir to a pair of high-ranking military officers, Blue had little choice in her upbringing or career path - joining the Aurigan Coalition's military was her destiny from the moment she was born, and though she did as her parents bid, it was with smouldering resentment rather than enthusiasm. This won her few favors with her fellow officers in training, and after an incident in 'anger management' that left another trainee in the hospital, she was quietly shuffled off to join with the rowdier - and rather less sheltered - crowd of young MechWarriors.
+ With her parents patronage, she was given into Raju Montgomery's care. Here, for the first time, she found something she was both good at and enjoyed. She quickly acquired the callsign Aether, through her ability to remain untouched, seemingly intangible and ephemeral, through a hail of incoming fire. Though not important enough socially to rub shoulders with the heir to the Coalition, sharing a common teacher often led to Blue sharing training with Kamea Arano. When it became clear that Blue was becoming rather inappropriately enamoured with the royal lady, she was again - quietly - transferred to the furthest reaches of the Reach. There was only so far her parents' reputation could go.
+ Tragedy struck, as both of her loyalist parents were killed in the opening moments of Espinoza's coup. With Kamea and Raju reported dead, her parents gone, and the Directorate heading in a direction she was unwilling to support, Aether took advantage of the chaos to simply disappear. She's back now though, and ready to seek revenge upon those who destroyed her life - and who threatened, exiled, and hunted her liege.
+---
+Born on Coromodir to a pair of high-ranking military officers, Blue had little choice in her upbringing or career path - joining the Aurigan Coalition's military was her destiny from the moment she was born, and though she did as her parents bid, it was with smouldering resentment rather than enthusiasm. This won her few favors with her fellow officers in training, and after an incident in 'anger management' that left another trainee in the hospital, she was quietly shuffled off to join with the rowdier - and rather less sheltered - crowd of young MechWarriors.
 With her parents patronage, she was given into Raju Montgomery's care. Here, for the first time, she found something she was both good at and enjoyed. She quickly acquired the callsign Aether, through her ability to remain untouched, seemingly intangible and ephemeral, through a hail of incoming fire. Though not important enough socially to rub shoulders with the heir to the Coalition, sharing a common teacher often led to Blue sharing training with Kamea Arano. When it became clear that Blue was becoming rather inappropriately enamoured with the royal lady, she was again - quietly - transferred to the furthest reaches of the Reach. There was only so far her parents' reputation could go.
 Tragedy struck, as both of her loyalist parents were killed in the opening moments of Espinoza's coup. With Kamea and Raju reported dead, her parents gone, and the Directorate heading in a direction she was unwilling to support, Aether took advantage of the chaos to simply disappear. She's back now though, and ready to seek revenge upon those who destroyed her life - and who threatened, exiled, and hunted her liege.</t>
   </si>
   <si>
     <t xml:space="preserve">Born on Coromodir to a pair of high-ranking military officers, Blue had little choice in her upbringing or career path - joining the Aurigan Coalition's military was her destiny from the moment she was born, and though she did as her parents bid, it was with smouldering resentment rather than enthusiasm. This won her few favors with her fellow officers in training, and after an incident in 'anger management' that left another trainee in the hospital, she was quietly shuffled off to join with the rowdier - and rather less sheltered - crowd of young MechWarriors.
-With her parents patronage, she was given into Raju Montgomery's care. Here, for the first time, she found something she was both good at and enjoyed. She quickly acquired the callsign Aether, through her ability to remain untouched, seemingly intangible and ephemeral, through a hail of incoming fire. Though not important enough socially to rub shoulders with the heir to the Coalition, sharing a common teacher often led to Blue sharing training with Kamea Arano. When it became clear that Blue was becoming rather inappropriately enamoured with the royal lady, she was again - quietly - transferred to the furthest reaches of the Reach. There was only so far her parents' reputation could go.
-Tragedy struck, as both of her loyalist parents were killed in the opening moments of Espinoza's coup. With Kamea and Raju reported dead, her parents gone, and the Directorate heading in a direction she was unwilling to support, Aether took advantage of the chaos to simply disappear. She's back now though, and ready to seek revenge upon those who destroyed her life - and who threatened, exiled, and hunted her liege.</t>
+ With her parents patronage, she was given into Raju Montgomery's care. Here, for the first time, she found something she was both good at and enjoyed. She quickly acquired the callsign Aether, through her ability to remain untouched, seemingly intangible and ephemeral, through a hail of incoming fire. Though not important enough socially to rub shoulders with the heir to the Coalition, sharing a common teacher often led to Blue sharing training with Kamea Arano. When it became clear that Blue was becoming rather inappropriately enamoured with the royal lady, she was again - quietly - transferred to the furthest reaches of the Reach. There was only so far her parents' reputation could go.
+ Tragedy struck, as both of her loyalist parents were killed in the opening moments of Espinoza's coup. With Kamea and Raju reported dead, her parents gone, and the Directorate heading in a direction she was unwilling to support, Aether took advantage of the chaos to simply disappear. She's back now though, and ready to seek revenge upon those who destroyed her life - and who threatened, exiled, and hunted her liege.</t>
   </si>
   <si>
     <t>pilot_bw_Aether.Description.FirstName</t>
@@ -1019,7 +1112,7 @@
     <t>pilot_ha_Beagle.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">John was on a fast track to command straight out of Albion Military Academy. Attached to the Ceti Hassars John would be captured by a Cappellan patrol after an intel snafu failed to warn them of recent movements in the area. Beagle was held prisoner for 4 years and was subject to intense interrogation techniques in the early years of his captivity.  On the fourth year Beagle would be sprung from prison by his old unit, now operating as a Mercenary band, and would assist in combat and command of what would later be known as Operation Gatecrasher. John has been running his own Mercenary unit on and off since his new found freedom but has been more recently looking for a company where he can find good return for his skills and experience.</t>
+    <t>John was on a fast track to command straight out of Albion Military Academy. Attached to the Ceti Hassars John would be captured by a Cappellan patrol after an intel snafu failed to warn them of recent movements in the area. Beagle was held prisoner for 4 years and was subject to intense interrogation techniques in the early years of his captivity. On the fourth year Beagle would be sprung from prison by his old unit, now operating as a Mercenary band, and would assist in combat and command of what would later be known as Operation Gatecrasher. John has been running his own Mercenary unit on and off since his new found freedom but has been more recently looking for a company where he can find good return for his skills and experience.</t>
   </si>
   <si>
     <t>pilot_ha_Beagle.Description.FirstName</t>
@@ -1047,12 +1140,25 @@
   </si>
   <si>
     <t xml:space="preserve">Nathaniel Stoyanov, known by his callsign TheChronicToast (or Toast for short), is a character with a mysterious past and an unequalled love of toaster pastries. Many pin him as affiliated with the former periphery mercenary company "Absolution's Gap" which gained notoriety by assisting Kamea Arano's coalition forces in the Aurigan Reach; though whether this is true isn't something he's likely to comment on.
+ His upbringing is a familiar one for a MechWarrior in the rimward periphery. Born to an immigrant family that had positioned itself powerfully as agricultural barons on Heliat, his family were betrayed by those that deemed them outsiders to the local insular culture. Evading his captors, his family missing and their holdings destroyed, he fled off world. Hiring on as a novice pilot he continued life as a merchant guard; providing himself a taste of dealing with tactical situations in underpowered and poorly maintained 'Mechs.
+ It was in these formative years he realized that with unexpected but surprisingly reckless tactics an underdog could get an edge on a superior foe; even more so if one was willing to risk everything to accomplish the mission at hand. With this knowledge firmly grasped his piloting skill and deployment count grew, eventually winning seats in various mercenary outfits. He earned his keep but never stayed in one place for long as he always gained a reputation for burning through his 'Mechs if it meant a mission success; company finances be darned.
+ Eventually he got pulled into the historic events surrounding Kamea Arano and the civil war with the Directorate, but that is a story for another day if you can get him to tell it. As it stands, he's a solid pilot with a few tales to share.
+ "Every action has a cost on the battlefield. Make the sacrifices needed for victory a personal endeavor and your lance mates will thank you when its over."
+---
+Nathaniel Stoyanov, known by his callsign TheChronicToast (or Toast for short), is a character with a mysterious past and an unequalled love of toaster pastries. Many pin him as affiliated with the former periphery mercenary company "Absolution's Gap" which gained notoriety by assisting Kamea Arano's coalition forces in the Aurigan Reach; though whether this is true isn't something he's likely to comment on.
 His upbringing is a familiar one for a MechWarrior in the rimward periphery. Born to an immigrant family that had positioned itself powerfully as agricultural barons on Heliat, his family were betrayed by those that deemed them outsiders to the local insular culture. Evading his captors, his family missing and their holdings destroyed, he fled off world. Hiring on as a novice pilot he continued life as a merchant guard; providing himself a taste of dealing with tactical situations in underpowered and poorly maintained 'Mechs.
 It was in these formative years he realized that with unexpected but surprisingly reckless tactics an underdog could get an edge on a superior foe; even more so if one was willing to risk everything to accomplish the mission at hand. With this knowledge firmly grasped his piloting skill and deployment count grew, eventually winning seats in various mercenary outfits. He earned his keep but never stayed in one place for long as he always gained a reputation for burning through his 'Mechs if it meant a mission success; company finances be darned.
 Eventually he got pulled into the historic events surrounding Kamea Arano and the civil war with the Directorate, but that is a story for another day if you can get him to tell it. As it stands, he's a solid pilot with a few tales to share.
 "Every action has a cost on the battlefield. Make the sacrifices needed for victory a personal endeavor and your lance mates will thank you when its over."</t>
   </si>
   <si>
+    <t xml:space="preserve">Nathaniel Stoyanov, known by his callsign TheChronicToast (or Toast for short), is a character with a mysterious past and an unequalled love of toaster pastries. Many pin him as affiliated with the former periphery mercenary company "Absolution's Gap" which gained notoriety by assisting Kamea Arano's coalition forces in the Aurigan Reach; though whether this is true isn't something he's likely to comment on.
+ His upbringing is a familiar one for a MechWarrior in the rimward periphery. Born to an immigrant family that had positioned itself powerfully as agricultural barons on Heliat, his family were betrayed by those that deemed them outsiders to the local insular culture. Evading his captors, his family missing and their holdings destroyed, he fled off world. Hiring on as a novice pilot he continued life as a merchant guard; providing himself a taste of dealing with tactical situations in underpowered and poorly maintained 'Mechs.
+ It was in these formative years he realized that with unexpected but surprisingly reckless tactics an underdog could get an edge on a superior foe; even more so if one was willing to risk everything to accomplish the mission at hand. With this knowledge firmly grasped his piloting skill and deployment count grew, eventually winning seats in various mercenary outfits. He earned his keep but never stayed in one place for long as he always gained a reputation for burning through his 'Mechs if it meant a mission success; company finances be darned.
+ Eventually he got pulled into the historic events surrounding Kamea Arano and the civil war with the Directorate, but that is a story for another day if you can get him to tell it. As it stands, he's a solid pilot with a few tales to share.
+ "Every action has a cost on the battlefield. Make the sacrifices needed for victory a personal endeavor and your lance mates will thank you when its over."</t>
+  </si>
+  <si>
     <t>pilot_ha_TheChronicToast.Description.FirstName</t>
   </si>
   <si>
@@ -1077,14 +1183,18 @@
     <t>pilot_jk_AMechWarrior.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">Originally from the Duchy of Andurien in the Free Worlds League, James Pato grew up tinkering with anything he could get his hands on.  He was drawn to an apprenticeship as a MechTech, first for AgroMechs in his local community.  Then later to BattleMechs, after being called upon to help the local garrison with a broken 'Mech passing over his family's property.
+    <t xml:space="preserve">Originally from the Duchy of Andurien in the Free Worlds League, James Pato grew up tinkering with anything he could get his hands on. He was drawn to an apprenticeship as a MechTech, first for AgroMechs in his local community. Then later to BattleMechs, after being called upon to help the local garrison with a broken 'Mech passing over his family's property.
+ Working for the militia, he quickly rose through the ranks and became the local subject matter expert on the coding for 'Mech's Targeting and Tracking Systems (TTS) and internal diagnostic computers. More than once his custom adjustments had led to MechWarriors in his unit nearly dying in the field, which almost cost him his position. He found himself putting in countless hours behind the command couch of BattleMechs in order to understand what his pilots experience, eventually earning his own title as MechWarrior.
+ His ability to find work as either MechTech or MechWarrior has granted him freedom to travel around the Rimward Periphery, searching for LosTech - with an eye out for Star League era TTS. He's heard rumors there was once a totally autonomous BattleMech drone project run in secret but has yet to find any real evidence. If he were to find such a LosTech cache, it would allow him to establish his own brand of TTS that would rival the best the Inner Sphere has to offer.
+---
+Originally from the Duchy of Andurien in the Free Worlds League, James Pato grew up tinkering with anything he could get his hands on.  He was drawn to an apprenticeship as a MechTech, first for AgroMechs in his local community.  Then later to BattleMechs, after being called upon to help the local garrison with a broken 'Mech passing over his family's property.
 Working for the militia, he quickly rose through the ranks and became the local subject matter expert on the coding for 'Mech's Targeting and Tracking Systems (TTS) and internal diagnostic computers.  More than once his custom adjustments had led to MechWarriors in his unit nearly dying in the field, which almost cost him his position.  He found himself putting in countless hours behind the command couch of BattleMechs in order to understand what his pilots experience, eventually earning his own title as MechWarrior.
 His ability to find work as either MechTech or MechWarrior has granted him freedom to travel around the Rimward Periphery, searching for LosTech - with an eye out for Star League era TTS.  He's heard rumors there was once a totally autonomous BattleMech drone project run in secret but has yet to find any real evidence.  If he were to find such a LosTech cache, it would allow him to establish his own brand of TTS that would rival the best the Inner Sphere has to offer.</t>
   </si>
   <si>
-    <t xml:space="preserve">Originally from the Duchy of Andurien in the Free Worlds League, James Pato grew up tinkering with anything he could get his hands on.  He was drawn to an apprenticeship as a MechTech, first for AgroMechs in his local community.  Then later to BattleMechs, after being called upon to help the local garrison with a broken 'Mech passing over his family's property.
-Working for the militia, he quickly rose through the ranks and became the local subject matter expert on the coding for 'Mech's Targeting and Tracking Systems (TTS) and internal diagnostic computers.  More than once his custom adjustments had led to MechWarriors in his unit nearly dying in the field, which almost cost him his position.  He found himself putting in countless hours behind the command couch of BattleMechs in order to understand what his pilots experience, eventually earning his own title as MechWarrior.
-His ability to find work as either MechTech or MechWarrior has granted him freedom to travel around the Rimward Periphery, searching for LosTech - with an eye out for Star League era TTS.  He's heard rumors there was once a totally autonomous BattleMech drone project run in secret but has yet to find any real evidence.  If he were to find such a LosTech cache, it would allow him to establish his own brand of TTS that would rival the best the Inner Sphere has to offer.</t>
+    <t xml:space="preserve">Originally from the Duchy of Andurien in the Free Worlds League, James Pato grew up tinkering with anything he could get his hands on. He was drawn to an apprenticeship as a MechTech, first for AgroMechs in his local community. Then later to BattleMechs, after being called upon to help the local garrison with a broken 'Mech passing over his family's property.
+ Working for the militia, he quickly rose through the ranks and became the local subject matter expert on the coding for 'Mech's Targeting and Tracking Systems (TTS) and internal diagnostic computers. More than once his custom adjustments had led to MechWarriors in his unit nearly dying in the field, which almost cost him his position. He found himself putting in countless hours behind the command couch of BattleMechs in order to understand what his pilots experience, eventually earning his own title as MechWarrior.
+ His ability to find work as either MechTech or MechWarrior has granted him freedom to travel around the Rimward Periphery, searching for LosTech - with an eye out for Star League era TTS. He's heard rumors there was once a totally autonomous BattleMech drone project run in secret but has yet to find any real evidence. If he were to find such a LosTech cache, it would allow him to establish his own brand of TTS that would rival the best the Inner Sphere has to offer.</t>
   </si>
   <si>
     <t>pilot_jk_AMechWarrior.Description.FirstName</t>
@@ -1111,16 +1221,21 @@
     <t>pilot_jk_BloodyDoves.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">Born on Terra, Adam joined ComStar as an Acolyte at a young age. After years of training on Terra, he then continued to serve the Blessed Blake as a HPG technician on a fairly backwater world in the Taurian Concordat know as Argos (as happens with new acolytes, they have to learn somewhere).  For several years he labored at his duties without much distinction or notice.
+    <t xml:space="preserve">Born on Terra, Adam joined ComStar as an Acolyte at a young age. After years of training on Terra, he then continued to serve the Blessed Blake as a HPG technician on a fairly backwater world in the Taurian Concordat know as Argos (as happens with new acolytes, they have to learn somewhere). For several years he labored at his duties without much distinction or notice.
+ Near the close of the 3rd Succession War, the HPG station was attacked by a group of extremely bold (if not more than a little stupid) pirates. ComStar put out a call to the local militia while their meager security force held the pirates at bay as best as they could. However, the pirates soon overwhelmed the ComStar base, and several pirates exited their vehicles to begin looting the compound. It was at this moment that Adam's life took a turn. Making a rash decision to do whatever it took to protect the blessed HPG and technology of old, Adam climbed into a vacated 'Mech and powered it up. Despite a lack of actual training, he found that the controls matched the simulation pods that he enjoyed playing with in his off hours. With his purloined 'Mech lurching into motion he managed some lucky shots, destroying a pirate APC Transport and crippling two tanks. He even managed to knock over one of their Stinger Light 'Mechs as he careened off the side in an ungainly attempt at a charge. Between this unexpected resistance, and the sudden appearance of the local militia, the tide was turned and the pirates were soon in full retreat.
+ With the battle over, the Precentor in charge of the HPG noted Adam's deeds and encouraged him to walk the missionary's path, believing that Blessed Blake had a higher purpose in mind for him. Adam was to learn the way of the MechWarrior, while also spreading the Word of Blake amongst the stars and searching out other like minded warriors of faith. Calling in some old favors, the Precentor sponsored Adam and had him sent to a Concordat training academy. Wishing him well, the Precentor gifted Adam with a rare printed copy of Jerome Blake's writings, to help guide him through this new future and keep him on the path - this was to become one of Adam's most cherished of possessions over the following years.
+ Adam now travels the stars, preaching the good word of Blake and fighting for good causes that champion the little folk who so often get forgotten by the larger powers, but not the little mercenaries.
+---
+Born on Terra, Adam joined ComStar as an Acolyte at a young age. After years of training on Terra, he then continued to serve the Blessed Blake as a HPG technician on a fairly backwater world in the Taurian Concordat know as Argos (as happens with new acolytes, they have to learn somewhere).  For several years he labored at his duties without much distinction or notice.
 Near the close of the 3rd Succession War, the HPG station was attacked by a group of extremely bold (if not more than a little stupid) pirates.  ComStar put out a call to the local militia while their meager security force held the pirates at bay as best as they could.  However, the pirates soon overwhelmed the ComStar base, and several pirates exited their vehicles to begin looting the compound.  It was at this moment that Adam's life took a turn.  Making a rash decision to do whatever it took to protect the blessed HPG and technology of old, Adam climbed into a vacated 'Mech and powered it up.  Despite a lack of actual training, he found that the controls matched the simulation pods that he enjoyed playing with in his off hours.  With his purloined 'Mech lurching into motion he managed some lucky shots, destroying a pirate APC Transport and crippling two tanks.  He even managed to knock over one of their Stinger Light 'Mechs as he careened off the side in an ungainly attempt at a charge.  Between this unexpected resistance, and the sudden appearance of the local militia, the tide was turned and the pirates were soon in full retreat.
 With the battle over, the Precentor in charge of the HPG noted Adam's deeds and encouraged him to walk the missionary's path, believing that Blessed Blake had a higher purpose in mind for him.  Adam was to learn the way of the MechWarrior, while also spreading the Word of Blake amongst the stars and searching out other like minded warriors of faith.  Calling in some old favors, the Precentor sponsored Adam and had him sent to a Concordat training academy.  Wishing him well, the Precentor gifted Adam with a rare printed copy of Jerome Blake's writings, to help guide him through this new future and keep him on the path - this was to become one of Adam's most cherished of possessions over the following years.
 Adam now travels the stars, preaching the good word of Blake and fighting for good causes that champion the little folk who so often get forgotten by the larger powers, but not the little mercenaries.</t>
   </si>
   <si>
-    <t xml:space="preserve">Born on Terra, Adam joined ComStar as an Acolyte at a young age. After years of training on Terra, he then continued to serve the Blessed Blake as a HPG technician on a fairly backwater world in the Taurian Concordat know as Argos (as happens with new acolytes, they have to learn somewhere).  For several years he labored at his duties without much distinction or notice.
-Near the close of the 3rd Succession War, the HPG station was attacked by a group of extremely bold (if not more than a little stupid) pirates.  ComStar put out a call to the local militia while their meager security force held the pirates at bay as best as they could.  However, the pirates soon overwhelmed the ComStar base, and several pirates exited their vehicles to begin looting the compound.  It was at this moment that Adam's life took a turn.  Making a rash decision to do whatever it took to protect the blessed HPG and technology of old, Adam climbed into a vacated 'Mech and powered it up.  Despite a lack of actual training, he found that the controls matched the simulation pods that he enjoyed playing with in his off hours.  With his purloined 'Mech lurching into motion he managed some lucky shots, destroying a pirate APC Transport and crippling two tanks.  He even managed to knock over one of their Stinger Light 'Mechs as he careened off the side in an ungainly attempt at a charge.  Between this unexpected resistance, and the sudden appearance of the local militia, the tide was turned and the pirates were soon in full retreat.
-With the battle over, the Precentor in charge of the HPG noted Adam's deeds and encouraged him to walk the missionary's path, believing that Blessed Blake had a higher purpose in mind for him.  Adam was to learn the way of the MechWarrior, while also spreading the Word of Blake amongst the stars and searching out other like minded warriors of faith.  Calling in some old favors, the Precentor sponsored Adam and had him sent to a Concordat training academy.  Wishing him well, the Precentor gifted Adam with a rare printed copy of Jerome Blake's writings, to help guide him through this new future and keep him on the path - this was to become one of Adam's most cherished of possessions over the following years.
-Adam now travels the stars, preaching the good word of Blake and fighting for good causes that champion the little folk who so often get forgotten by the larger powers, but not the little mercenaries.</t>
+    <t xml:space="preserve">Born on Terra, Adam joined ComStar as an Acolyte at a young age. After years of training on Terra, he then continued to serve the Blessed Blake as a HPG technician on a fairly backwater world in the Taurian Concordat know as Argos (as happens with new acolytes, they have to learn somewhere). For several years he labored at his duties without much distinction or notice.
+ Near the close of the 3rd Succession War, the HPG station was attacked by a group of extremely bold (if not more than a little stupid) pirates. ComStar put out a call to the local militia while their meager security force held the pirates at bay as best as they could. However, the pirates soon overwhelmed the ComStar base, and several pirates exited their vehicles to begin looting the compound. It was at this moment that Adam's life took a turn. Making a rash decision to do whatever it took to protect the blessed HPG and technology of old, Adam climbed into a vacated 'Mech and powered it up. Despite a lack of actual training, he found that the controls matched the simulation pods that he enjoyed playing with in his off hours. With his purloined 'Mech lurching into motion he managed some lucky shots, destroying a pirate APC Transport and crippling two tanks. He even managed to knock over one of their Stinger Light 'Mechs as he careened off the side in an ungainly attempt at a charge. Between this unexpected resistance, and the sudden appearance of the local militia, the tide was turned and the pirates were soon in full retreat.
+ With the battle over, the Precentor in charge of the HPG noted Adam's deeds and encouraged him to walk the missionary's path, believing that Blessed Blake had a higher purpose in mind for him. Adam was to learn the way of the MechWarrior, while also spreading the Word of Blake amongst the stars and searching out other like minded warriors of faith. Calling in some old favors, the Precentor sponsored Adam and had him sent to a Concordat training academy. Wishing him well, the Precentor gifted Adam with a rare printed copy of Jerome Blake's writings, to help guide him through this new future and keep him on the path - this was to become one of Adam's most cherished of possessions over the following years.
+ Adam now travels the stars, preaching the good word of Blake and fighting for good causes that champion the little folk who so often get forgotten by the larger powers, but not the little mercenaries.</t>
   </si>
   <si>
     <t>pilot_jk_BloodyDoves.Description.FirstName</t>
@@ -1172,15 +1287,20 @@
   </si>
   <si>
     <t xml:space="preserve">Doyle is a seasoned mercenary pilot who first started his career with Ghost Warriors Brigade. He quickly got frustrated with their lack of drive and ambition and soon found himself signing up and fighting with the Steel Jaguars, a merc unit that prided themselves on their dedication to tough training, hard work and excellence in the field of battle. Before too long Doyle had become an integral part of the battalion he fought for and he found himself fighting in every available mission, building up a wealth of knowledge and experience. Eventually he was given a promotion, but it was his next promotion, one that he never wanted, that would end up shaping his future.
+ One day the Commanding Officer of the battalion walked away from the job, deciding that he was unable continue in his position and quit the life of a mercenary, leaving Doyle to take his post. Doyle didn't want this position, but after looking around and deciding if he left it to someone else they would probably get him killed, he decided to take the job. He then led the battalion through a series of successful missions, but never truly saw eye to eye with the company's owner. There were many straws but one, as they say, finally broke the camel's back and Doyle decided to leave the Steel Jaguars to form his own company from the ground up.
+ What he didn't expect was for the vast majority of his former battalion to follow him, but many did. So finding himself in possession of almost a full battalion of seasoned merc pilots he struck out with his new company naming them The Sanguine Tigers. Years later a merge with a fellow friendly merc unit known as 9th Blood and Fire saw the company renamed to The 9th Sanguine Tigers and they spent many happy years taking contracts and kicking ass until one day Doyle decided he needed a change of pace, giving up the life of a merc to settle down. Which tried to do, but not before a brief but lucrative spell as a Solaris VII jock...
+ But old habits die hard, it turned out the peaceful life wasn't for him and he set out once more to find the thrill of the battlefield, working for any company that was happy to take on a grizzled old veteran pilot, as long as they promised to never give him a promotion...
+---
+Doyle is a seasoned mercenary pilot who first started his career with Ghost Warriors Brigade. He quickly got frustrated with their lack of drive and ambition and soon found himself signing up and fighting with the Steel Jaguars, a merc unit that prided themselves on their dedication to tough training, hard work and excellence in the field of battle. Before too long Doyle had become an integral part of the battalion he fought for and he found himself fighting in every available mission, building up a wealth of knowledge and experience. Eventually he was given a promotion, but it was his next promotion, one that he never wanted, that would end up shaping his future.
 One day the Commanding Officer of the battalion walked away from the job, deciding that he was unable continue in his position and quit the life of a mercenary, leaving Doyle to take his post. Doyle didn't want this position, but after looking around and deciding if he left it to someone else they would probably get him killed, he decided to take the job. He then led the battalion through a series of successful missions, but never truly saw eye to eye with the company's owner. There were many straws but one, as they say, finally broke the camel's back and Doyle decided to leave the Steel Jaguars to form his own company from the ground up.
 What he didn't expect was for the vast majority of his former battalion to follow him, but many did. So finding himself in possession of almost a full battalion of seasoned merc pilots he struck out with his new company naming them The Sanguine Tigers. Years later a merge with a fellow friendly merc unit known as 9th Blood and Fire saw the company renamed to The 9th Sanguine Tigers and they spent many happy years taking contracts and kicking ass until one day Doyle decided he needed a change of pace, giving up the life of a merc to settle down. Which tried to do, but not before a brief but lucrative spell as a Solaris VII jock...
 But old habits die hard, it turned out the peaceful life wasn't for him and he set out once more to find the thrill of the battlefield, working for any company that was happy to take on a grizzled old veteran pilot, as long as they promised to never give him a promotion...</t>
   </si>
   <si>
     <t xml:space="preserve">Doyle is a seasoned mercenary pilot who first started his career with Ghost Warriors Brigade. He quickly got frustrated with their lack of drive and ambition and soon found himself signing up and fighting with the Steel Jaguars, a merc unit that prided themselves on their dedication to tough training, hard work and excellence in the field of battle. Before too long Doyle had become an integral part of the battalion he fought for and he found himself fighting in every available mission, building up a wealth of knowledge and experience. Eventually he was given a promotion, but it was his next promotion, one that he never wanted, that would end up shaping his future.
-One day the Commanding Officer of the battalion walked away from the job, deciding that he was unable continue in his position and quit the life of a mercenary, leaving Doyle to take his post. Doyle didn't want this position, but after looking around and deciding if he left it to someone else they would probably get him killed, he decided to take the job. He then led the battalion through a series of successful missions, but never truly saw eye to eye with the company's owner. There were many straws but one, as they say, finally broke the camel's back and Doyle decided to leave the Steel Jaguars to form his own company from the ground up.
-What he didn't expect was for the vast majority of his former battalion to follow him, but many did. So finding himself in possession of almost a full battalion of seasoned merc pilots he struck out with his new company naming them The Sanguine Tigers. Years later a merge with a fellow friendly merc unit known as 9th Blood and Fire saw the company renamed to The 9th Sanguine Tigers and they spent many happy years taking contracts and kicking ass until one day Doyle decided he needed a change of pace, giving up the life of a merc to settle down. Which tried to do, but not before a brief but lucrative spell as a Solaris VII jock...
-But old habits die hard, it turned out the peaceful life wasn't for him and he set out once more to find the thrill of the battlefield, working for any company that was happy to take on a grizzled old veteran pilot, as long as they promised to never give him a promotion...</t>
+ One day the Commanding Officer of the battalion walked away from the job, deciding that he was unable continue in his position and quit the life of a mercenary, leaving Doyle to take his post. Doyle didn't want this position, but after looking around and deciding if he left it to someone else they would probably get him killed, he decided to take the job. He then led the battalion through a series of successful missions, but never truly saw eye to eye with the company's owner. There were many straws but one, as they say, finally broke the camel's back and Doyle decided to leave the Steel Jaguars to form his own company from the ground up.
+ What he didn't expect was for the vast majority of his former battalion to follow him, but many did. So finding himself in possession of almost a full battalion of seasoned merc pilots he struck out with his new company naming them The Sanguine Tigers. Years later a merge with a fellow friendly merc unit known as 9th Blood and Fire saw the company renamed to The 9th Sanguine Tigers and they spent many happy years taking contracts and kicking ass until one day Doyle decided he needed a change of pace, giving up the life of a merc to settle down. Which tried to do, but not before a brief but lucrative spell as a Solaris VII jock...
+ But old habits die hard, it turned out the peaceful life wasn't for him and he set out once more to find the thrill of the battlefield, working for any company that was happy to take on a grizzled old veteran pilot, as long as they promised to never give him a promotion...</t>
   </si>
   <si>
     <t>pilot_jk_Doyle.Description.FirstName</t>
@@ -1207,7 +1327,14 @@
     <t>pilot_jk_Garrisoned.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">Garrison is a true son of Arcturus, the one time capital system of the Lyran Commonwealth and like any good citizen of the Commonwealth, he joined the military as soon as he was of age.  He tested well in the VR-pods and was promptly sent to Coventry Military Academy.  There he excelled in his tactics classes and was put on a fast track for being assigned to a line unit to replace the ever increasing losses during the 3rd Succession War.  Being given an early commission with the severely depleted Sixth Arcturian Guards, Garrison was sent to Starshine at the age of 21.
+    <t xml:space="preserve">Garrison is a true son of Arcturus, the one time capital system of the Lyran Commonwealth and like any good citizen of the Commonwealth, he joined the military as soon as he was of age. He tested well in the VR-pods and was promptly sent to Coventry Military Academy. There he excelled in his tactics classes and was put on a fast track for being assigned to a line unit to replace the ever increasing losses during the 3rd Succession War. Being given an early commission with the severely depleted Sixth Arcturian Guards, Garrison was sent to Starshine at the age of 21.
+ On Starshine he was assigned to be First Leutnant of a Support Lance where he was able to make excellent use of his academy training against pirate raiders and Free Worlds League units. Where is Starshine you may ask? Well, don't bother looking for it on star maps, its a dead world now. What about the Sixth Arcturian Guards? They no longer show on the rolls of active units for the Commonwealth - yet Garrison was there at the end of both.
+ Barely a year into his new assignment, Garrison was thrust right into action. During the Marik Civil War of 3014 (also known as Anton's Revolt), the Commonwealth decided to take advantage of the situation and sent the Sixth in to raid Griffith. With the chaos of Anton's Revolt, the 1st Fusiliers of Oriente were slow to respond and the Sixth's raid was considered a rousing success. During the fighting Garrison would bait the enemy into terrain of his choosing to allow his support lance to pepper the opposing force with indirect fire while performing slow withdrawals toward the other lances in his company. The Hauptmann of the company took to saying the OpFor got 'Garrisoned' and it wasn't long before it stuck as his call sign.
+ Returning to their post at Starshine, the Sixth was celebrating their victory in one of the larger domed habitats when the Fusiliers got their revenge. Performing a Hover-Drop, a mobile force of Fusiliers attacked, catching the Sixth completely unaware. Scrambling to get back to his 'Mech, Garrison found he was cut off by the Fusiliers' forces. Over the next few days he bided his time until opportunity knocked in he form of a Fusiliers Hunchback 4P that was left in the old Sixth depot area for repairs. Subduing the technicians, Garrison took control of the 'Mech and made to escape the depot. There are many stories about what happened next, but the one thing every story has in common is that the depot was set off, causing a chain reaction that destroyed the Star League era air purifying system that kept the planetary domes habitable. This ultimately led to the world being abandoned of the next few years, another casualty of the Succession Wars.
+ While the 1st Fusiliers of Oriente made it off world mostly intact, the same could not be said for the Sixth, between their losses during the surprise assault, and the destruction of the depot - the Sixth ceased to be a solvent unit. Garrsioned was one of the few to escape with his life and his new 'Mech. But, even this bit of luck didn't last. While in transit to the Jump Point, the Black Raiders pirates took advantage of the chaos and attempted to capture the DropShip ferrying Garrison and his 'Mech. During a strafing run by a Black Raider AeroSpace Fighter, a freak accident occurred with the restraint system in the MechBay and the LRM pods in the Hunchback triggered, and it seemed that the techs had forgotten to remove the load during the frenzy to get off world. The explosion caused a systematic failure resulting in the loading bay door opening, and all unsecured equipment was blown into space, including Garrison's HBK-4P. While the DropShip was able to escape, Garrison was now without a unit, without a world and without a 'Mech.
+ Considering his past and knowing that both the world and unit he last served on have passed from existence, many believe Garrison to be jinxed, and considering how he wound up dispossessed and in the hiring halls, maybe there is something to it. But Garrisoned is a skilled Tactician and he has a plan to get back in the game, even if he has had to take his lumps as a merc for nearly a decade.
+---
+Garrison is a true son of Arcturus, the one time capital system of the Lyran Commonwealth and like any good citizen of the Commonwealth, he joined the military as soon as he was of age.  He tested well in the VR-pods and was promptly sent to Coventry Military Academy.  There he excelled in his tactics classes and was put on a fast track for being assigned to a line unit to replace the ever increasing losses during the 3rd Succession War.  Being given an early commission with the severely depleted Sixth Arcturian Guards, Garrison was sent to Starshine at the age of 21.
 On Starshine he was assigned to be First Leutnant of a Support Lance where he was able to make excellent use of his academy training against pirate raiders and Free Worlds League units.  Where is Starshine you may ask?  Well, don't bother looking for it on star maps, its a dead world now.  What about the Sixth Arcturian Guards?  They no longer show on the rolls of active units for the Commonwealth - yet Garrison was there at the end of both.
 Barely a year into his new assignment, Garrison was thrust right into action.  During the Marik Civil War of 3014 (also known as Anton's Revolt), the Commonwealth decided to take advantage of the situation and sent the Sixth in to raid Griffith.  With the chaos of Anton's Revolt, the 1st Fusiliers of Oriente were slow to respond and the Sixth's raid was considered a rousing success.  During the fighting Garrison would bait the enemy into terrain of his choosing to allow his support lance to pepper the opposing force with indirect fire while performing slow withdrawals toward the other lances in his company.  The Hauptmann of the company took to saying the OpFor got 'Garrisoned' and it wasn't long before it stuck as his call sign.
 Returning to their post at Starshine, the Sixth was celebrating their victory in one of the larger domed habitats when the Fusiliers got their revenge.  Performing a Hover-Drop, a mobile force of Fusiliers attacked, catching the Sixth completely unaware.  Scrambling to get back to his 'Mech, Garrison found he was cut off by the Fusiliers' forces.  Over the next few days he bided his time until opportunity knocked in he form of a Fusiliers Hunchback 4P that was left in the old Sixth depot area for repairs.  Subduing the technicians, Garrison took control of the 'Mech and made to escape the depot.  There are many stories about what happened next, but the one thing every story has in common is that the depot was set off, causing a chain reaction that destroyed the Star League era air purifying system that kept the planetary domes habitable.  This ultimately led to the world being abandoned of the next few years, another casualty of the Succession Wars.
@@ -1215,12 +1342,12 @@
 Considering his past and knowing that both the world and unit he last served on have passed from existence, many believe Garrison to be jinxed, and considering how he wound up dispossessed and in the hiring halls, maybe there is something to it.  But Garrisoned is a skilled Tactician and he has a plan to get back in the game, even if he has had to take his lumps as a merc for nearly a decade.</t>
   </si>
   <si>
-    <t xml:space="preserve">Garrison is a true son of Arcturus, the one time capital system of the Lyran Commonwealth and like any good citizen of the Commonwealth, he joined the military as soon as he was of age.  He tested well in the VR-pods and was promptly sent to Coventry Military Academy.  There he excelled in his tactics classes and was put on a fast track for being assigned to a line unit to replace the ever increasing losses during the 3rd Succession War.  Being given an early commission with the severely depleted Sixth Arcturian Guards, Garrison was sent to Starshine at the age of 21.
-On Starshine he was assigned to be First Leutnant of a Support Lance where he was able to make excellent use of his academy training against pirate raiders and Free Worlds League units.  Where is Starshine you may ask?  Well, don't bother looking for it on star maps, its a dead world now.  What about the Sixth Arcturian Guards?  They no longer show on the rolls of active units for the Commonwealth - yet Garrison was there at the end of both.
-Barely a year into his new assignment, Garrison was thrust right into action.  During the Marik Civil War of 3014 (also known as Anton's Revolt), the Commonwealth decided to take advantage of the situation and sent the Sixth in to raid Griffith.  With the chaos of Anton's Revolt, the 1st Fusiliers of Oriente were slow to respond and the Sixth's raid was considered a rousing success.  During the fighting Garrison would bait the enemy into terrain of his choosing to allow his support lance to pepper the opposing force with indirect fire while performing slow withdrawals toward the other lances in his company.  The Hauptmann of the company took to saying the OpFor got 'Garrisoned' and it wasn't long before it stuck as his call sign.
-Returning to their post at Starshine, the Sixth was celebrating their victory in one of the larger domed habitats when the Fusiliers got their revenge.  Performing a Hover-Drop, a mobile force of Fusiliers attacked, catching the Sixth completely unaware.  Scrambling to get back to his 'Mech, Garrison found he was cut off by the Fusiliers' forces.  Over the next few days he bided his time until opportunity knocked in he form of a Fusiliers Hunchback 4P that was left in the old Sixth depot area for repairs.  Subduing the technicians, Garrison took control of the 'Mech and made to escape the depot.  There are many stories about what happened next, but the one thing every story has in common is that the depot was set off, causing a chain reaction that destroyed the Star League era air purifying system that kept the planetary domes habitable.  This ultimately led to the world being abandoned of the next few years, another casualty of the Succession Wars.
-While the 1st Fusiliers of Oriente made it off world mostly intact, the same could not be said for the Sixth, between their losses during the surprise assault, and the destruction of the depot - the Sixth ceased to be a solvent unit.  Garrsioned was one of the few to escape with his life and his new 'Mech.  But, even this bit of luck didn't last.  While in transit to the Jump Point, the Black Raiders pirates took advantage of the chaos and attempted to capture the DropShip ferrying Garrison and his 'Mech.  During a strafing run by a Black Raider AeroSpace Fighter, a freak accident occurred with the restraint system in the MechBay and the LRM pods in the Hunchback triggered, and it seemed that the techs had forgotten to remove the load during the frenzy to get off world.  The explosion caused a systematic failure resulting in the loading bay door opening, and all unsecured equipment was blown into space, including Garrison's HBK-4P.  While the DropShip was able to escape, Garrison was now without a unit, without a world and without a 'Mech.
-Considering his past and knowing that both the world and unit he last served on have passed from existence, many believe Garrison to be jinxed, and considering how he wound up dispossessed and in the hiring halls, maybe there is something to it.  But Garrisoned is a skilled Tactician and he has a plan to get back in the game, even if he has had to take his lumps as a merc for nearly a decade.</t>
+    <t xml:space="preserve">Garrison is a true son of Arcturus, the one time capital system of the Lyran Commonwealth and like any good citizen of the Commonwealth, he joined the military as soon as he was of age. He tested well in the VR-pods and was promptly sent to Coventry Military Academy. There he excelled in his tactics classes and was put on a fast track for being assigned to a line unit to replace the ever increasing losses during the 3rd Succession War. Being given an early commission with the severely depleted Sixth Arcturian Guards, Garrison was sent to Starshine at the age of 21.
+ On Starshine he was assigned to be First Leutnant of a Support Lance where he was able to make excellent use of his academy training against pirate raiders and Free Worlds League units. Where is Starshine you may ask? Well, don't bother looking for it on star maps, its a dead world now. What about the Sixth Arcturian Guards? They no longer show on the rolls of active units for the Commonwealth - yet Garrison was there at the end of both.
+ Barely a year into his new assignment, Garrison was thrust right into action. During the Marik Civil War of 3014 (also known as Anton's Revolt), the Commonwealth decided to take advantage of the situation and sent the Sixth in to raid Griffith. With the chaos of Anton's Revolt, the 1st Fusiliers of Oriente were slow to respond and the Sixth's raid was considered a rousing success. During the fighting Garrison would bait the enemy into terrain of his choosing to allow his support lance to pepper the opposing force with indirect fire while performing slow withdrawals toward the other lances in his company. The Hauptmann of the company took to saying the OpFor got 'Garrisoned' and it wasn't long before it stuck as his call sign.
+ Returning to their post at Starshine, the Sixth was celebrating their victory in one of the larger domed habitats when the Fusiliers got their revenge. Performing a Hover-Drop, a mobile force of Fusiliers attacked, catching the Sixth completely unaware. Scrambling to get back to his 'Mech, Garrison found he was cut off by the Fusiliers' forces. Over the next few days he bided his time until opportunity knocked in he form of a Fusiliers Hunchback 4P that was left in the old Sixth depot area for repairs. Subduing the technicians, Garrison took control of the 'Mech and made to escape the depot. There are many stories about what happened next, but the one thing every story has in common is that the depot was set off, causing a chain reaction that destroyed the Star League era air purifying system that kept the planetary domes habitable. This ultimately led to the world being abandoned of the next few years, another casualty of the Succession Wars.
+ While the 1st Fusiliers of Oriente made it off world mostly intact, the same could not be said for the Sixth, between their losses during the surprise assault, and the destruction of the depot - the Sixth ceased to be a solvent unit. Garrsioned was one of the few to escape with his life and his new 'Mech. But, even this bit of luck didn't last. While in transit to the Jump Point, the Black Raiders pirates took advantage of the chaos and attempted to capture the DropShip ferrying Garrison and his 'Mech. During a strafing run by a Black Raider AeroSpace Fighter, a freak accident occurred with the restraint system in the MechBay and the LRM pods in the Hunchback triggered, and it seemed that the techs had forgotten to remove the load during the frenzy to get off world. The explosion caused a systematic failure resulting in the loading bay door opening, and all unsecured equipment was blown into space, including Garrison's HBK-4P. While the DropShip was able to escape, Garrison was now without a unit, without a world and without a 'Mech.
+ Considering his past and knowing that both the world and unit he last served on have passed from existence, many believe Garrison to be jinxed, and considering how he wound up dispossessed and in the hiring halls, maybe there is something to it. But Garrisoned is a skilled Tactician and he has a plan to get back in the game, even if he has had to take his lumps as a merc for nearly a decade.</t>
   </si>
   <si>
     <t>pilot_jk_Garrisoned.Description.FirstName</t>
@@ -1247,18 +1374,24 @@
     <t>pilot_jk_Haree.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">Originally a ground-pounder NCO for a support unit in the 2nd Robinson Rangers, Paul was stationed on Breed for garrison duty, along with an up-and-coming mercenary unit called the Steel Jaguars.  Part of what made the Jaguars stand out was their rigorous training regimen which involved a lot of wargames.  During the time stationed on Breed, the Rangers and Jaguars participate in multiple exercises, at first pitting each unit against each other and later performing mixed unit operations.  It was during one of these exercises that Paul's life would take an unexpected turn.
+    <t xml:space="preserve">Originally a ground-pounder NCO for a support unit in the 2nd Robinson Rangers, Paul was stationed on Breed for garrison duty, along with an up-and-coming mercenary unit called the Steel Jaguars. Part of what made the Jaguars stand out was their rigorous training regimen which involved a lot of wargames. During the time stationed on Breed, the Rangers and Jaguars participate in multiple exercises, at first pitting each unit against each other and later performing mixed unit operations. It was during one of these exercises that Paul's life would take an unexpected turn.
+ During an exercise, Paul's Company lost their Command Squad, but he was unwilling to concede defeat and Paul organized a trap to even the score. Luring the Jaguar scout lance into a geothermal valley, Paul's squad signaled the mock trigger for his unit's SRM Inferno rounds, which had been placed along the most likely trail the OpFor lance would take - the combination heat overload of the geysers and Infernos shut down 3 of the 4 'Mechs, with the final 'Mech being dispatched with overlapping fire from Paul's 2 remaining squads. The mercenary Command staff were so impressed with Paul that their CO, Doyle, offered him a billet in the Steel Jaguars when his tour with the Rangers was complete. It was at this point that he took on the nickname Haree, some say it is because no mater how hairy the situation gets, he can turn it around and make it hairier for the enemy.
+ Despite having very little BattleMech experience, Haree joined up with the Jaguars a year later and quickly adapted to the life of a MechWarrior. His natural combat and leadership abilities helping to propel him through the ranks and it seemed like Haree had barely moved into his locker before he was granted command of a scout lance and then the company, which was expedited somewhat by his predecessor taking an AC/10 round through the cockpit.
+ Under Haree's guidance, he helped the Steel Jaguar Battalion become one of the premiere units to hire if you absolutely had to get the job done. During his tenure as Captain his company had failed a contract only once, just prior to Haree retiring his mantle. Despite appearances to the contrary, it wasn't this failure that made him stand down though. Rather, it was the draw of his life long dream to take the money he had earned and settle down on his home world of Robinson. Haree yearned to feel the grass between his toes instead of the burn of melting BattleMech armor in his nostrils.
+ Recently Haree has seen his savings become just another casualty of the Succession Wars and has been drawn into trying to find an employer, with one eye on the dream he still holds on to.
+---
+Originally a ground-pounder NCO for a support unit in the 2nd Robinson Rangers, Paul was stationed on Breed for garrison duty, along with an up-and-coming mercenary unit called the Steel Jaguars.  Part of what made the Jaguars stand out was their rigorous training regimen which involved a lot of wargames.  During the time stationed on Breed, the Rangers and Jaguars participate in multiple exercises, at first pitting each unit against each other and later performing mixed unit operations.  It was during one of these exercises that Paul's life would take an unexpected turn.
 During an exercise, Paul's Company lost their Command Squad, but he was unwilling to concede defeat and Paul organized a trap to even the score.  Luring the Jaguar scout lance into a geothermal valley, Paul's squad signaled the mock trigger for his unit's SRM Inferno rounds, which had been placed along the most likely trail the OpFor lance would take - the combination heat overload of the geysers and Infernos shut down 3 of the 4 'Mechs, with the final 'Mech being dispatched with overlapping fire from Paul's 2 remaining squads.  The mercenary Command staff were so impressed with Paul that their CO, Doyle, offered him a billet in the Steel Jaguars when his tour with the Rangers was complete.  It was at this point that he took on the nickname Haree, some say it is because no mater how hairy the situation gets, he can turn it around and make it hairier for the enemy.
 Despite having very little BattleMech experience, Haree joined up with the Jaguars a year later and quickly adapted to the life of a MechWarrior.  His natural combat and leadership abilities helping to propel him through the ranks and it seemed like Haree had barely moved into his locker before he was granted command of a scout lance and then the company, which was expedited somewhat by his predecessor taking an AC/10 round through the cockpit.
 Under Haree's guidance, he helped the Steel Jaguar Battalion become one of the premiere units to hire if you absolutely had to get the job done.  During his tenure as Captain his company had failed a contract only once, just prior to Haree retiring his mantle.  Despite appearances to the contrary, it wasn't this failure that made him stand down though.  Rather, it was the draw of his life long dream to take the money he had earned and settle down on his home world of Robinson.  Haree yearned to feel the grass between his toes instead of the burn of melting BattleMech armor in his nostrils.
 Recently Haree has seen his savings become just another casualty of the Succession Wars and has been drawn into trying to find an employer, with one eye on the dream he still holds on to.</t>
   </si>
   <si>
-    <t xml:space="preserve">Originally a ground-pounder NCO for a support unit in the 2nd Robinson Rangers, Paul was stationed on Breed for garrison duty, along with an up-and-coming mercenary unit called the Steel Jaguars.  Part of what made the Jaguars stand out was their rigorous training regimen which involved a lot of wargames.  During the time stationed on Breed, the Rangers and Jaguars participate in multiple exercises, at first pitting each unit against each other and later performing mixed unit operations.  It was during one of these exercises that Paul's life would take an unexpected turn.
-During an exercise, Paul's Company lost their Command Squad, but he was unwilling to concede defeat and Paul organized a trap to even the score.  Luring the Jaguar scout lance into a geothermal valley, Paul's squad signaled the mock trigger for his unit's SRM Inferno rounds, which had been placed along the most likely trail the OpFor lance would take - the combination heat overload of the geysers and Infernos shut down 3 of the 4 'Mechs, with the final 'Mech being dispatched with overlapping fire from Paul's 2 remaining squads.  The mercenary Command staff were so impressed with Paul that their CO, Doyle, offered him a billet in the Steel Jaguars when his tour with the Rangers was complete.  It was at this point that he took on the nickname Haree, some say it is because no mater how hairy the situation gets, he can turn it around and make it hairier for the enemy.
-Despite having very little BattleMech experience, Haree joined up with the Jaguars a year later and quickly adapted to the life of a MechWarrior.  His natural combat and leadership abilities helping to propel him through the ranks and it seemed like Haree had barely moved into his locker before he was granted command of a scout lance and then the company, which was expedited somewhat by his predecessor taking an AC/10 round through the cockpit.
-Under Haree's guidance, he helped the Steel Jaguar Battalion become one of the premiere units to hire if you absolutely had to get the job done.  During his tenure as Captain his company had failed a contract only once, just prior to Haree retiring his mantle.  Despite appearances to the contrary, it wasn't this failure that made him stand down though.  Rather, it was the draw of his life long dream to take the money he had earned and settle down on his home world of Robinson.  Haree yearned to feel the grass between his toes instead of the burn of melting BattleMech armor in his nostrils.
-Recently Haree has seen his savings become just another casualty of the Succession Wars and has been drawn into trying to find an employer, with one eye on the dream he still holds on to.</t>
+    <t xml:space="preserve">Originally a ground-pounder NCO for a support unit in the 2nd Robinson Rangers, Paul was stationed on Breed for garrison duty, along with an up-and-coming mercenary unit called the Steel Jaguars. Part of what made the Jaguars stand out was their rigorous training regimen which involved a lot of wargames. During the time stationed on Breed, the Rangers and Jaguars participate in multiple exercises, at first pitting each unit against each other and later performing mixed unit operations. It was during one of these exercises that Paul's life would take an unexpected turn.
+ During an exercise, Paul's Company lost their Command Squad, but he was unwilling to concede defeat and Paul organized a trap to even the score. Luring the Jaguar scout lance into a geothermal valley, Paul's squad signaled the mock trigger for his unit's SRM Inferno rounds, which had been placed along the most likely trail the OpFor lance would take - the combination heat overload of the geysers and Infernos shut down 3 of the 4 'Mechs, with the final 'Mech being dispatched with overlapping fire from Paul's 2 remaining squads. The mercenary Command staff were so impressed with Paul that their CO, Doyle, offered him a billet in the Steel Jaguars when his tour with the Rangers was complete. It was at this point that he took on the nickname Haree, some say it is because no mater how hairy the situation gets, he can turn it around and make it hairier for the enemy.
+ Despite having very little BattleMech experience, Haree joined up with the Jaguars a year later and quickly adapted to the life of a MechWarrior. His natural combat and leadership abilities helping to propel him through the ranks and it seemed like Haree had barely moved into his locker before he was granted command of a scout lance and then the company, which was expedited somewhat by his predecessor taking an AC/10 round through the cockpit.
+ Under Haree's guidance, he helped the Steel Jaguar Battalion become one of the premiere units to hire if you absolutely had to get the job done. During his tenure as Captain his company had failed a contract only once, just prior to Haree retiring his mantle. Despite appearances to the contrary, it wasn't this failure that made him stand down though. Rather, it was the draw of his life long dream to take the money he had earned and settle down on his home world of Robinson. Haree yearned to feel the grass between his toes instead of the burn of melting BattleMech armor in his nostrils.
+ Recently Haree has seen his savings become just another casualty of the Succession Wars and has been drawn into trying to find an employer, with one eye on the dream he still holds on to.</t>
   </si>
   <si>
     <t>pilot_jk_Haree.Description.FirstName</t>
@@ -1285,16 +1418,21 @@
     <t>pilot_jk_HBFT.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">Having grown up on All Dawn (a backwater agricultural world), Nathan worked on a farm raising Dutch Pygmy Rabbits and knew nothing of combat.  That is not to say he wasn't familiar with the violence of living on the fringes of the Inner Sphere. With All Dawn being on the outskirts of Steiner-controlled territory, he was no stranger to regular harassment from pirates.
+    <t xml:space="preserve">Having grown up on All Dawn (a backwater agricultural world), Nathan worked on a farm raising Dutch Pygmy Rabbits and knew nothing of combat. That is not to say he wasn't familiar with the violence of living on the fringes of the Inner Sphere. With All Dawn being on the outskirts of Steiner-controlled territory, he was no stranger to regular harassment from pirates.
+ After a series of increasingly brutal raids on their settlement, Nathan finally worked up the courage to defend his home. Rallying together a local militia, they managed to give the raiders a taste of their own medicine with improvised explosives made from one of the most ready resources on the world, fertilizer. But victory would prove to be pyrrhic. Upon returning to his farm he found that the pirates had set fire to his farmhouse with all of his little fuzzy friends inside.
+ In light of such a loss, Nathan picked up what few belongings remained to him and left to join a small-time mercenary outfit where he endeavored to shape himself into the bulwark upon which Hell itself would break.
+ In memoriam of his lost friends and the hope and joy that Nathan believed they brought to the world, he took on the callsign: HBFT (Happy Bunny Fluffy Toes.
+---
+Having grown up on All Dawn (a backwater agricultural world), Nathan worked on a farm raising Dutch Pygmy Rabbits and knew nothing of combat.  That is not to say he wasn't familiar with the violence of living on the fringes of the Inner Sphere. With All Dawn being on the outskirts of Steiner-controlled territory, he was no stranger to regular harassment from pirates.
 After a series of increasingly brutal raids on their settlement, Nathan finally worked up the courage to defend his home.  Rallying together a local militia, they managed to give the raiders a taste of their own medicine with improvised explosives made from one of the most ready resources on the world, fertilizer.  But victory would prove to be pyrrhic.  Upon returning to his farm he found that the pirates had set fire to his farmhouse with all of his little fuzzy friends inside.
 In light of such a loss, Nathan picked up what few belongings remained to him and left to join a small-time mercenary outfit where he endeavored to shape himself into the bulwark upon which Hell itself would break.
 In memoriam of his lost friends and the hope and joy that Nathan  believed they brought to the world, he took on the callsign: HBFT (Happy Bunny Fluffy Toes.</t>
   </si>
   <si>
-    <t xml:space="preserve">Having grown up on All Dawn (a backwater agricultural world), Nathan worked on a farm raising Dutch Pygmy Rabbits and knew nothing of combat.  That is not to say he wasn't familiar with the violence of living on the fringes of the Inner Sphere. With All Dawn being on the outskirts of Steiner-controlled territory, he was no stranger to regular harassment from pirates.
-After a series of increasingly brutal raids on their settlement, Nathan finally worked up the courage to defend his home.  Rallying together a local militia, they managed to give the raiders a taste of their own medicine with improvised explosives made from one of the most ready resources on the world, fertilizer.  But victory would prove to be pyrrhic.  Upon returning to his farm he found that the pirates had set fire to his farmhouse with all of his little fuzzy friends inside.
-In light of such a loss, Nathan picked up what few belongings remained to him and left to join a small-time mercenary outfit where he endeavored to shape himself into the bulwark upon which Hell itself would break.
-In memoriam of his lost friends and the hope and joy that Nathan  believed they brought to the world, he took on the callsign: HBFT (Happy Bunny Fluffy Toes.</t>
+    <t xml:space="preserve">Having grown up on All Dawn (a backwater agricultural world), Nathan worked on a farm raising Dutch Pygmy Rabbits and knew nothing of combat. That is not to say he wasn't familiar with the violence of living on the fringes of the Inner Sphere. With All Dawn being on the outskirts of Steiner-controlled territory, he was no stranger to regular harassment from pirates.
+ After a series of increasingly brutal raids on their settlement, Nathan finally worked up the courage to defend his home. Rallying together a local militia, they managed to give the raiders a taste of their own medicine with improvised explosives made from one of the most ready resources on the world, fertilizer. But victory would prove to be pyrrhic. Upon returning to his farm he found that the pirates had set fire to his farmhouse with all of his little fuzzy friends inside.
+ In light of such a loss, Nathan picked up what few belongings remained to him and left to join a small-time mercenary outfit where he endeavored to shape himself into the bulwark upon which Hell itself would break.
+ In memoriam of his lost friends and the hope and joy that Nathan believed they brought to the world, he took on the callsign: HBFT (Happy Bunny Fluffy Toes.</t>
   </si>
   <si>
     <t>pilot_jk_HBFT.Description.FirstName</t>
@@ -1321,16 +1459,21 @@
     <t>pilot_jk_LordDakky.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">Dakotah, was the son of a noble-baron of a small city in the Fronc System.  While life was hard on the frontier, the support given to the colonists by both the Magistracy and Taurians gave them hope of a prosperous future.  Dakky's father was a retired Taurian MechCommander who had been gifted the posting to Fronc, with the understanding that he was to form the nucleus of that province's militia.  Lord Brumagin sadly passed under mysterious circumstances and the young master Dakotah was suddenly thrust into the hereditary position of Lord.
+    <t xml:space="preserve">Dakotah, was the son of a noble-baron of a small city in the Fronc System. While life was hard on the frontier, the support given to the colonists by both the Magistracy and Taurians gave them hope of a prosperous future. Dakky's father was a retired Taurian MechCommander who had been gifted the posting to Fronc, with the understanding that he was to form the nucleus of that province's militia. Lord Brumagin sadly passed under mysterious circumstances and the young master Dakotah was suddenly thrust into the hereditary position of Lord.
+ Surprising everyone (aside from himself) Dakotah took to the role adeptly and made great strides towards stabilizing the province, leading by example. This Lordling was not afraid to get his hands dirty, willing to work the fields, taking his turns on patrol and not shirking any responsibilities passed his way. But his greatest love was working on the family 'Mech, and he spent many hours working with the MechTechs learning their trade.
+ It was near his coming to age that he met the woman that would become his wife, but their wedding was both the best and worst day of their lives. On the day of the ceremony, a pirate band stuck, killing most of Dakotah's family, sacking the city and stealing his family 'Mech. With the city in ruins, many of the survivors moved to other provinces or returned to their homeworlds. But the young Lord had a thirst for vengeance. Setting off on the first JumpShip offworld with his new wife, he took to the life of a mercenary to build up his coffers so he can one day hunt down and wipe out the pirates that attacked his home.
+ Now, though, he is out of c-bills and is looking for work.
+---
+Dakotah, was the son of a noble-baron of a small city in the Fronc System.  While life was hard on the frontier, the support given to the colonists by both the Magistracy and Taurians gave them hope of a prosperous future.  Dakky's father was a retired Taurian MechCommander who had been gifted the posting to Fronc, with the understanding that he was to form the nucleus of that province's militia.  Lord Brumagin sadly passed under mysterious circumstances and the young master Dakotah was suddenly thrust into the hereditary position of Lord.
 Surprising everyone (aside from himself) Dakotah took to the role adeptly and made great strides towards stabilizing the province, leading by example.  This Lordling was not afraid to get his hands dirty, willing to work the fields, taking his turns on patrol and not shirking any responsibilities passed his way.  But his greatest love was working on the family 'Mech, and he spent many hours working with the MechTechs learning their trade.
 It was near his coming to age that he met the woman that would become his wife, but their wedding was both the best and worst day of their lives.  On the day of the ceremony, a pirate band stuck, killing most of Dakotah's family, sacking the city and stealing his family 'Mech.  With the city in ruins, many of the survivors moved to other provinces or returned to their homeworlds.  But the young Lord had a thirst for vengeance.  Setting off on the first JumpShip offworld with his new wife, he took to the life of a mercenary to build up his coffers so he can one day hunt down and wipe out the pirates that attacked his home.
 Now, though, he is out of c-bills and is looking for work.</t>
   </si>
   <si>
-    <t xml:space="preserve">Dakotah, was the son of a noble-baron of a small city in the Fronc System.  While life was hard on the frontier, the support given to the colonists by both the Magistracy and Taurians gave them hope of a prosperous future.  Dakky's father was a retired Taurian MechCommander who had been gifted the posting to Fronc, with the understanding that he was to form the nucleus of that province's militia.  Lord Brumagin sadly passed under mysterious circumstances and the young master Dakotah was suddenly thrust into the hereditary position of Lord.
-Surprising everyone (aside from himself) Dakotah took to the role adeptly and made great strides towards stabilizing the province, leading by example.  This Lordling was not afraid to get his hands dirty, willing to work the fields, taking his turns on patrol and not shirking any responsibilities passed his way.  But his greatest love was working on the family 'Mech, and he spent many hours working with the MechTechs learning their trade.
-It was near his coming to age that he met the woman that would become his wife, but their wedding was both the best and worst day of their lives.  On the day of the ceremony, a pirate band stuck, killing most of Dakotah's family, sacking the city and stealing his family 'Mech.  With the city in ruins, many of the survivors moved to other provinces or returned to their homeworlds.  But the young Lord had a thirst for vengeance.  Setting off on the first JumpShip offworld with his new wife, he took to the life of a mercenary to build up his coffers so he can one day hunt down and wipe out the pirates that attacked his home.
-Now, though, he is out of c-bills and is looking for work.</t>
+    <t xml:space="preserve">Dakotah, was the son of a noble-baron of a small city in the Fronc System. While life was hard on the frontier, the support given to the colonists by both the Magistracy and Taurians gave them hope of a prosperous future. Dakky's father was a retired Taurian MechCommander who had been gifted the posting to Fronc, with the understanding that he was to form the nucleus of that province's militia. Lord Brumagin sadly passed under mysterious circumstances and the young master Dakotah was suddenly thrust into the hereditary position of Lord.
+ Surprising everyone (aside from himself) Dakotah took to the role adeptly and made great strides towards stabilizing the province, leading by example. This Lordling was not afraid to get his hands dirty, willing to work the fields, taking his turns on patrol and not shirking any responsibilities passed his way. But his greatest love was working on the family 'Mech, and he spent many hours working with the MechTechs learning their trade.
+ It was near his coming to age that he met the woman that would become his wife, but their wedding was both the best and worst day of their lives. On the day of the ceremony, a pirate band stuck, killing most of Dakotah's family, sacking the city and stealing his family 'Mech. With the city in ruins, many of the survivors moved to other provinces or returned to their homeworlds. But the young Lord had a thirst for vengeance. Setting off on the first JumpShip offworld with his new wife, he took to the life of a mercenary to build up his coffers so he can one day hunt down and wipe out the pirates that attacked his home.
+ Now, though, he is out of c-bills and is looking for work.</t>
   </si>
   <si>
     <t>pilot_jk_LordDakky.Description.FirstName</t>
@@ -1354,68 +1497,80 @@
     <t>pilot_jk_PasiFist.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">Born on Atreus, the capital world of the Federated Suns, Evan had a complicated history from day one.  His father was a noble diplomat from the Lyran Commonwealth and his mother a prominent officer in the New Avalon Crucis March Militia.  Their relationship was initially viewed with suspicion by factions within both Houses and life was difficult for Evan as he grew up between worlds.  Ironically, years later his family would be lauded as an important step in the improving relations between the two realms.  But this would not be in time to make Evan's life any easier.
+    <t xml:space="preserve">Born on Atreus, the capital world of the Federated Suns, Evan had a complicated history from day one. His father was a noble diplomat from the Lyran Commonwealth and his mother a prominent officer in the New Avalon Crucis March Militia. Their relationship was initially viewed with suspicion by factions within both Houses and life was difficult for Evan as he grew up between worlds. Ironically, years later his family would be lauded as an important step in the improving relations between the two realms. But this would not be in time to make Evan's life any easier.
+ From a very early age Evan showed an aptitude for VR combat simulation games, often taking units known to be under powered, yet somehow finessing them to victory. This eventually led him to seek a career with the military much to his mother's delight and father's grudging tolerance. He was soon enrolled at the newly formed NAIS, but life there was no picnic, as all his classmates believed him to be there on his parent's accomplishments and not his own merits. Never the less, Evan was determined to prove himself, and would never back down from a challenge.
+ After graduating, his mother offered to help him gain a position in the March Militia, but Evan continued to want to forge his own destiny. Accepting a junior officer position with the 33rd Avalon Hussars, he left New Avalon behind, yet the spectre of his family continued to follow him.
+ Always a risk taker, Evan found he much preferred the role of scout, both for the solitude and the opportunities it provided him to show what he could accomplish. Through sheer determination he rose to the rank of Leftenant, but he still wanted a chance to step out from his parent's shadow. Soon he would have his chance in spades.
+ In 3022 the 33rd was part of an expedition to retake Galtor III from the Draconis Combine, in what became known as one of the bloodiest campaigns in the later part of the 3rd Succession War. During that campaign, Leftenant Zanos' lance was instrumental in scouting out the enemy forces, helping the Federated Suns to eventually retake Galtor. However, during the campaign, Evan felt for the people of Galtor III, who were suffering horrendous loses. It was during a information gathering mission that Evan saw the atrocities being committed by the Combine Troops on the citizenry, and despite orders not to reveal themselves, Evan took maters into his own hands, attacking the DCMS forces. The sheer bravado and wildness of the attack threw the Combine Soldiery into disarray, and believing that Lt. Zanos' lance was a spearhead for a larger force they withdrew. While he had saved these poor souls, what he saw that day caused him to resign his commission and seek ways to help the people.
+---
+Born on Atreus, the capital world of the Federated Suns, Evan had a complicated history from day one.  His father was a noble diplomat from the Lyran Commonwealth and his mother a prominent officer in the New Avalon Crucis March Militia.  Their relationship was initially viewed with suspicion by factions within both Houses and life was difficult for Evan as he grew up between worlds.  Ironically, years later his family would be lauded as an important step in the improving relations between the two realms.  But this would not be in time to make Evan's life any easier.
 From a very early age Evan showed an aptitude for VR combat simulation games, often taking units known to be under powered, yet somehow finessing them to victory.  This eventually led him to seek a career with the military much to his mother's delight and father's grudging tolerance.  He was soon enrolled at the newly formed NAIS, but life there was no picnic, as all his classmates believed him to be there on his parent's accomplishments and not his own merits.  Never the less, Evan was determined to prove himself, and would never back down from a challenge.
 After graduating, his mother offered to help him gain a position in the March Militia, but Evan continued to want to forge his own destiny.  Accepting a junior officer position with the 33rd Avalon Hussars, he left New Avalon behind, yet the spectre of his family continued to follow him.
 Always a risk taker, Evan found he much preferred the role of scout, both for the solitude and the opportunities it provided him to show what he could accomplish.  Through sheer determination he rose to the rank of Leftenant, but he still wanted a chance to step out from his parent's shadow.  Soon he would have his chance in spades.
 In 3022 the 33rd was part of an expedition to retake Galtor III from the Draconis Combine, in what became known as one of the bloodiest campaigns in the later part of the 3rd Succession War.  During that campaign, Leftenant Zanos' lance was instrumental in scouting out the enemy forces, helping the Federated Suns to eventually retake Galtor.  However, during the campaign, Evan felt for the people of Galtor III, who were suffering horrendous loses.  It was during a information gathering mission that Evan saw the atrocities being committed by the Combine Troops on the citizenry, and despite orders not to reveal themselves, Evan took maters into his own hands, attacking the DCMS forces.  The sheer bravado and wildness of the attack threw the Combine Soldiery into disarray, and believing that Lt. Zanos' lance was a spearhead for a larger force they withdrew.  While he had saved these poor souls, what he saw that day caused him to resign his commission and seek ways to help the people.</t>
   </si>
   <si>
-    <t xml:space="preserve">Born on Atreus, the capital world of the Federated Suns, Evan had a complicated history from day one.  His father was a noble diplomat from the Lyran Commonwealth and his mother a prominent officer in the New Avalon Crucis March Militia.  Their relationship was initially viewed with suspicion by factions within both Houses and life was difficult for Evan as he grew up between worlds.  Ironically, years later his family would be lauded as an important step in the improving relations between the two realms.  But this would not be in time to make Evan's life any easier.
+    <t xml:space="preserve">Born on Atreus, the capital world of the Federated Suns, Evan had a complicated history from day one. His father was a noble diplomat from the Lyran Commonwealth and his mother a prominent officer in the New Avalon Crucis March Militia. Their relationship was initially viewed with suspicion by factions within both Houses and life was difficult for Evan as he grew up between worlds. Ironically, years later his family would be lauded as an important step in the improving relations between the two realms. But this would not be in time to make Evan's life any easier.
+ From a very early age Evan showed an aptitude for VR combat simulation games, often taking units known to be under powered, yet somehow finessing them to victory. This eventually led him to seek a career with the military much to his mother's delight and father's grudging tolerance. He was soon enrolled at the newly formed NAIS, but life there was no picnic, as all his classmates believed him to be there on his parent's accomplishments and not his own merits. Never the less, Evan was determined to prove himself, and would never back down from a challenge.
+ After graduating, his mother offered to help him gain a position in the March Militia, but Evan continued to want to forge his own destiny. Accepting a junior officer position with the 33rd Avalon Hussars, he left New Avalon behind, yet the spectre of his family continued to follow him.
+ Always a risk taker, Evan found he much preferred the role of scout, both for the solitude and the opportunities it provided him to show what he could accomplish. Through sheer determination he rose to the rank of Leftenant, but he still wanted a chance to step out from his parent's shadow. Soon he would have his chance in spades.
+ In 3022 the 33rd was part of an expedition to retake Galtor III from the Draconis Combine, in what became known as one of the bloodiest campaigns in the later part of the 3rd Succession War. During that campaign, Leftenant Zanos' lance was instrumental in scouting out the enemy forces, helping the Federated Suns to eventually retake Galtor. However, during the campaign, Evan felt for the people of Galtor III, who were suffering horrendous loses. It was during a information gathering mission that Evan saw the atrocities being committed by the Combine Troops on the citizenry, and despite orders not to reveal themselves, Evan took maters into his own hands, attacking the DCMS forces. The sheer bravado and wildness of the attack threw the Combine Soldiery into disarray, and believing that Lt. Zanos' lance was a spearhead for a larger force they withdrew. While he had saved these poor souls, what he saw that day caused him to resign his commission and seek ways to help the people.</t>
+  </si>
+  <si>
+    <t>pilot_jk_PasiFist.Description.FirstName</t>
+  </si>
+  <si>
+    <t>pilot_jk_PasiFist.Description.LastName</t>
+  </si>
+  <si>
+    <t>pilot_jk_PasiFist.Description.Name</t>
+  </si>
+  <si>
+    <t>pilot_jk_Sarge.Description.Callsign</t>
+  </si>
+  <si>
+    <t>pilot_jk_Sarge.Description.FirstName</t>
+  </si>
+  <si>
+    <t>Joel</t>
+  </si>
+  <si>
+    <t>pilot_jk_Sarge.Description.LastName</t>
+  </si>
+  <si>
+    <t>Diamond</t>
+  </si>
+  <si>
+    <t>pilot_jk_Sarge.Description.Name</t>
+  </si>
+  <si>
+    <t>pilot_jk_Stryker.Description.Callsign</t>
+  </si>
+  <si>
+    <t>Stryker</t>
+  </si>
+  <si>
+    <t>pilot_jk_Stryker.Description.Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Born on New Avalon, the capital world of the Federated Suns, Evan had a complicated history from day one. His father was a noble diplomat from the Lyran Commonwealth and his mother a prominent officer in the New Avalon Crucis March Militia. Their relationship was initially viewed with suspicion by factions within both Houses and life was difficult for Evan as he grew up between worlds. Ironically, years later his family would be lauded as an important step in the improving relations between the two realms. But this would not be in time to make Evan's life any easier.
+ From a very early age Evan showed an aptitude for VR combat simulation games, often taking units known to be under powered, yet somehow finessing them to victory. This eventually led him to seek a career with the military much to his mother's delight and father's grudging tolerance. He was soon enrolled at the newly formed NAIS, but life there was no picnic, as all his classmates believed him to be there on his parent's accomplishments and not his own merits. Never the less, Evan was determined to prove himself, and would never back down from a challenge.
+ After graduating, his mother offered to help him gain a position in the March Militia, but Evan continued to want to forge his own destiny. Accepting a junior officer position with the 33rd Avalon Hussars, he left New Avalon behind, yet the spectre of his family continued to follow him.
+ Always a risk taker, Evan found he much preferred the role of scout, both for the solitude and the opportunities it provided him to show what he could accomplish. Through sheer determination he rose to the rank of Leftenant, but he still wanted a chance to step out from his parent's shadow. Soon he would have his chance in spades.
+ In 3022 the 33rd was part of an expedition to retake Galtor III from the Draconis Combine, in what became known as one of the bloodiest campaigns in the later part of the 3rd Succession War. During that campaign, Leftenant Zanos' lance was instrumental in scouting out the enemy forces, helping the Federated Suns to eventually retake Galtor. However, during the campaign, Evan felt for the people of Galtor III, who were suffering horrendous loses. It was during a information gathering mission that Evan saw the atrocities being committed by the Combine Troops on the citizenry, and despite orders not to reveal themselves, Evan took maters into his own hands, attacking the DCMS forces. The sheer bravado and wildness of the attack threw the Combine Soldiery into disarray, and believing that Lt. Zanos' lance was a spearhead for a larger force they withdrew. While he had saved these poor souls, what he saw that day caused him to resign his commission and seek ways to help the people.
+---
+Born on New Avalon, the capital world of the Federated Suns, Evan had a complicated history from day one.  His father was a noble diplomat from the Lyran Commonwealth and his mother a prominent officer in the New Avalon Crucis March Militia.  Their relationship was initially viewed with suspicion by factions within both Houses and life was difficult for Evan as he grew up between worlds.  Ironically, years later his family would be lauded as an important step in the improving relations between the two realms.  But this would not be in time to make Evan's life any easier.
 From a very early age Evan showed an aptitude for VR combat simulation games, often taking units known to be under powered, yet somehow finessing them to victory.  This eventually led him to seek a career with the military much to his mother's delight and father's grudging tolerance.  He was soon enrolled at the newly formed NAIS, but life there was no picnic, as all his classmates believed him to be there on his parent's accomplishments and not his own merits.  Never the less, Evan was determined to prove himself, and would never back down from a challenge.
 After graduating, his mother offered to help him gain a position in the March Militia, but Evan continued to want to forge his own destiny.  Accepting a junior officer position with the 33rd Avalon Hussars, he left New Avalon behind, yet the spectre of his family continued to follow him.
 Always a risk taker, Evan found he much preferred the role of scout, both for the solitude and the opportunities it provided him to show what he could accomplish.  Through sheer determination he rose to the rank of Leftenant, but he still wanted a chance to step out from his parent's shadow.  Soon he would have his chance in spades.
 In 3022 the 33rd was part of an expedition to retake Galtor III from the Draconis Combine, in what became known as one of the bloodiest campaigns in the later part of the 3rd Succession War.  During that campaign, Leftenant Zanos' lance was instrumental in scouting out the enemy forces, helping the Federated Suns to eventually retake Galtor.  However, during the campaign, Evan felt for the people of Galtor III, who were suffering horrendous loses.  It was during a information gathering mission that Evan saw the atrocities being committed by the Combine Troops on the citizenry, and despite orders not to reveal themselves, Evan took maters into his own hands, attacking the DCMS forces.  The sheer bravado and wildness of the attack threw the Combine Soldiery into disarray, and believing that Lt. Zanos' lance was a spearhead for a larger force they withdrew.  While he had saved these poor souls, what he saw that day caused him to resign his commission and seek ways to help the people.</t>
   </si>
   <si>
-    <t>pilot_jk_PasiFist.Description.FirstName</t>
-  </si>
-  <si>
-    <t>pilot_jk_PasiFist.Description.LastName</t>
-  </si>
-  <si>
-    <t>pilot_jk_PasiFist.Description.Name</t>
-  </si>
-  <si>
-    <t>pilot_jk_Sarge.Description.Callsign</t>
-  </si>
-  <si>
-    <t>pilot_jk_Sarge.Description.FirstName</t>
-  </si>
-  <si>
-    <t>Joel</t>
-  </si>
-  <si>
-    <t>pilot_jk_Sarge.Description.LastName</t>
-  </si>
-  <si>
-    <t>Diamond</t>
-  </si>
-  <si>
-    <t>pilot_jk_Sarge.Description.Name</t>
-  </si>
-  <si>
-    <t>pilot_jk_Stryker.Description.Callsign</t>
-  </si>
-  <si>
-    <t>Stryker</t>
-  </si>
-  <si>
-    <t>pilot_jk_Stryker.Description.Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Born on New Avalon, the capital world of the Federated Suns, Evan had a complicated history from day one.  His father was a noble diplomat from the Lyran Commonwealth and his mother a prominent officer in the New Avalon Crucis March Militia.  Their relationship was initially viewed with suspicion by factions within both Houses and life was difficult for Evan as he grew up between worlds.  Ironically, years later his family would be lauded as an important step in the improving relations between the two realms.  But this would not be in time to make Evan's life any easier.
-From a very early age Evan showed an aptitude for VR combat simulation games, often taking units known to be under powered, yet somehow finessing them to victory.  This eventually led him to seek a career with the military much to his mother's delight and father's grudging tolerance.  He was soon enrolled at the newly formed NAIS, but life there was no picnic, as all his classmates believed him to be there on his parent's accomplishments and not his own merits.  Never the less, Evan was determined to prove himself, and would never back down from a challenge.
-After graduating, his mother offered to help him gain a position in the March Militia, but Evan continued to want to forge his own destiny.  Accepting a junior officer position with the 33rd Avalon Hussars, he left New Avalon behind, yet the spectre of his family continued to follow him.
-Always a risk taker, Evan found he much preferred the role of scout, both for the solitude and the opportunities it provided him to show what he could accomplish.  Through sheer determination he rose to the rank of Leftenant, but he still wanted a chance to step out from his parent's shadow.  Soon he would have his chance in spades.
-In 3022 the 33rd was part of an expedition to retake Galtor III from the Draconis Combine, in what became known as one of the bloodiest campaigns in the later part of the 3rd Succession War.  During that campaign, Leftenant Zanos' lance was instrumental in scouting out the enemy forces, helping the Federated Suns to eventually retake Galtor.  However, during the campaign, Evan felt for the people of Galtor III, who were suffering horrendous loses.  It was during a information gathering mission that Evan saw the atrocities being committed by the Combine Troops on the citizenry, and despite orders not to reveal themselves, Evan took maters into his own hands, attacking the DCMS forces.  The sheer bravado and wildness of the attack threw the Combine Soldiery into disarray, and believing that Lt. Zanos' lance was a spearhead for a larger force they withdrew.  While he had saved these poor souls, what he saw that day caused him to resign his commission and seek ways to help the people.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Born on New Avalon, the capital world of the Federated Suns, Evan had a complicated history from day one.  His father was a noble diplomat from the Lyran Commonwealth and his mother a prominent officer in the New Avalon Crucis March Militia.  Their relationship was initially viewed with suspicion by factions within both Houses and life was difficult for Evan as he grew up between worlds.  Ironically, years later his family would be lauded as an important step in the improving relations between the two realms.  But this would not be in time to make Evan's life any easier.
-From a very early age Evan showed an aptitude for VR combat simulation games, often taking units known to be under powered, yet somehow finessing them to victory.  This eventually led him to seek a career with the military much to his mother's delight and father's grudging tolerance.  He was soon enrolled at the newly formed NAIS, but life there was no picnic, as all his classmates believed him to be there on his parent's accomplishments and not his own merits.  Never the less, Evan was determined to prove himself, and would never back down from a challenge.
-After graduating, his mother offered to help him gain a position in the March Militia, but Evan continued to want to forge his own destiny.  Accepting a junior officer position with the 33rd Avalon Hussars, he left New Avalon behind, yet the spectre of his family continued to follow him.
-Always a risk taker, Evan found he much preferred the role of scout, both for the solitude and the opportunities it provided him to show what he could accomplish.  Through sheer determination he rose to the rank of Leftenant, but he still wanted a chance to step out from his parent's shadow.  Soon he would have his chance in spades.
-In 3022 the 33rd was part of an expedition to retake Galtor III from the Draconis Combine, in what became known as one of the bloodiest campaigns in the later part of the 3rd Succession War.  During that campaign, Leftenant Zanos' lance was instrumental in scouting out the enemy forces, helping the Federated Suns to eventually retake Galtor.  However, during the campaign, Evan felt for the people of Galtor III, who were suffering horrendous loses.  It was during a information gathering mission that Evan saw the atrocities being committed by the Combine Troops on the citizenry, and despite orders not to reveal themselves, Evan took maters into his own hands, attacking the DCMS forces.  The sheer bravado and wildness of the attack threw the Combine Soldiery into disarray, and believing that Lt. Zanos' lance was a spearhead for a larger force they withdrew.  While he had saved these poor souls, what he saw that day caused him to resign his commission and seek ways to help the people.</t>
+    <t xml:space="preserve">Born on New Avalon, the capital world of the Federated Suns, Evan had a complicated history from day one. His father was a noble diplomat from the Lyran Commonwealth and his mother a prominent officer in the New Avalon Crucis March Militia. Their relationship was initially viewed with suspicion by factions within both Houses and life was difficult for Evan as he grew up between worlds. Ironically, years later his family would be lauded as an important step in the improving relations between the two realms. But this would not be in time to make Evan's life any easier.
+ From a very early age Evan showed an aptitude for VR combat simulation games, often taking units known to be under powered, yet somehow finessing them to victory. This eventually led him to seek a career with the military much to his mother's delight and father's grudging tolerance. He was soon enrolled at the newly formed NAIS, but life there was no picnic, as all his classmates believed him to be there on his parent's accomplishments and not his own merits. Never the less, Evan was determined to prove himself, and would never back down from a challenge.
+ After graduating, his mother offered to help him gain a position in the March Militia, but Evan continued to want to forge his own destiny. Accepting a junior officer position with the 33rd Avalon Hussars, he left New Avalon behind, yet the spectre of his family continued to follow him.
+ Always a risk taker, Evan found he much preferred the role of scout, both for the solitude and the opportunities it provided him to show what he could accomplish. Through sheer determination he rose to the rank of Leftenant, but he still wanted a chance to step out from his parent's shadow. Soon he would have his chance in spades.
+ In 3022 the 33rd was part of an expedition to retake Galtor III from the Draconis Combine, in what became known as one of the bloodiest campaigns in the later part of the 3rd Succession War. During that campaign, Leftenant Zanos' lance was instrumental in scouting out the enemy forces, helping the Federated Suns to eventually retake Galtor. However, during the campaign, Evan felt for the people of Galtor III, who were suffering horrendous loses. It was during a information gathering mission that Evan saw the atrocities being committed by the Combine Troops on the citizenry, and despite orders not to reveal themselves, Evan took maters into his own hands, attacking the DCMS forces. The sheer bravado and wildness of the attack threw the Combine Soldiery into disarray, and believing that Lt. Zanos' lance was a spearhead for a larger force they withdrew. While he had saved these poor souls, what he saw that day caused him to resign his commission and seek ways to help the people.</t>
   </si>
   <si>
     <t>pilot_jk_Stryker.Description.FirstName</t>
@@ -1523,14 +1678,18 @@
     <t>pilot_tl_TaintedLoki.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">Artemus left his birthplace as a young man to pursue life a mercenary.  He spent years going traveling around the Inner Sphere seeing combat against various engagements facing mostly pirates with a few against the Clans.
+    <t xml:space="preserve">Artemus left his birthplace as a young man to pursue life a mercenary. He spent years going traveling around the Inner Sphere seeing combat against various engagements facing mostly pirates with a few against the Clans.
+ When the hostilities cooled, Artemus took the opportunity to travel to Canopian space to relax for a few years. It didn't take long, for things to heat backup during a pirate raid, he fired up a nearby battlemech to take the fight back against the local pirates.
+ Now traveling the stars once again as a merc, occasionally designing new mech variants for clients and looking for interesting times.
+---
+Artemus left his birthplace as a young man to pursue life a mercenary.  He spent years going traveling around the Inner Sphere seeing combat against various engagements facing mostly pirates with a few against the Clans.
 When the hostilities cooled, Artemus took the opportunity to travel to Canopian space to relax for a few years. It didn't take long, for things to heat backup during a pirate raid, he fired up a nearby battlemech to take the fight back against the local pirates.
 Now traveling the stars once again as a merc, occasionally designing new mech variants for clients and looking for interesting times.</t>
   </si>
   <si>
-    <t xml:space="preserve">Artemus left his birthplace as a young man to pursue life a mercenary.  He spent years going traveling around the Inner Sphere seeing combat against various engagements facing mostly pirates with a few against the Clans.
-When the hostilities cooled, Artemus took the opportunity to travel to Canopian space to relax for a few years. It didn't take long, for things to heat backup during a pirate raid, he fired up a nearby battlemech to take the fight back against the local pirates.
-Now traveling the stars once again as a merc, occasionally designing new mech variants for clients and looking for interesting times.</t>
+    <t xml:space="preserve">Artemus left his birthplace as a young man to pursue life a mercenary. He spent years going traveling around the Inner Sphere seeing combat against various engagements facing mostly pirates with a few against the Clans.
+ When the hostilities cooled, Artemus took the opportunity to travel to Canopian space to relax for a few years. It didn't take long, for things to heat backup during a pirate raid, he fired up a nearby battlemech to take the fight back against the local pirates.
+ Now traveling the stars once again as a merc, occasionally designing new mech variants for clients and looking for interesting times.</t>
   </si>
   <si>
     <t>pilot_tl_TaintedLoki.Description.FirstName</t>
@@ -1558,13 +1717,17 @@
   </si>
   <si>
     <t xml:space="preserve">"To achieve victory we must make the enemy blind and deaf by sealing his eyes and ears."
+ Raised on the Periphery world of Fronc, Sam spent many years serving as infantry in the Colonial Marshals defending colonists from pirates. When his promotion finally went through he was shipped off to the Institute of War in Canopus for Mechwarrior training where he specialized in signals warfare and developed a fascination with cat ears.
+ Sam's time in the Institute was cut short however, when the news reported that back home a group of Colonial Marshals had taken hostages and demanded independence for the colonies. Rather than wait to see if he'd be declared guilty by association, Sam took the first jump ship out of system and struck out on his own, offering his skills to mercenary outfits throughout the Periphery.
+---
+"To achieve victory we must make the enemy blind and deaf by sealing his eyes and ears."
 Raised on the Periphery world of Fronc, Sam spent many years serving as infantry in the Colonial Marshals defending colonists from pirates. When his promotion finally went through he was shipped off to the Institute of War in Canopus for Mechwarrior training where he specialized in signals warfare and developed a fascination with cat ears.
 Sam's time in the Institute was cut short however, when the news reported that back home a group of Colonial Marshals had taken hostages and demanded independence for the colonies. Rather than wait to see if he'd be declared guilty by association, Sam took the first jump ship out of system and struck out on his own, offering his skills to mercenary outfits throughout the Periphery.</t>
   </si>
   <si>
     <t xml:space="preserve">"To achieve victory we must make the enemy blind and deaf by sealing his eyes and ears."
-Raised on the Periphery world of Fronc, Sam spent many years serving as infantry in the Colonial Marshals defending colonists from pirates. When his promotion finally went through he was shipped off to the Institute of War in Canopus for Mechwarrior training where he specialized in signals warfare and developed a fascination with cat ears.
-Sam's time in the Institute was cut short however, when the news reported that back home a group of Colonial Marshals had taken hostages and demanded independence for the colonies. Rather than wait to see if he'd be declared guilty by association, Sam took the first jump ship out of system and struck out on his own, offering his skills to mercenary outfits throughout the Periphery.</t>
+ Raised on the Periphery world of Fronc, Sam spent many years serving as infantry in the Colonial Marshals defending colonists from pirates. When his promotion finally went through he was shipped off to the Institute of War in Canopus for Mechwarrior training where he specialized in signals warfare and developed a fascination with cat ears.
+ Sam's time in the Institute was cut short however, when the news reported that back home a group of Colonial Marshals had taken hostages and demanded independence for the colonies. Rather than wait to see if he'd be declared guilty by association, Sam took the first jump ship out of system and struck out on his own, offering his skills to mercenary outfits throughout the Periphery.</t>
   </si>
   <si>
     <t>pilot_tr_Turtrus.Description.FirstName</t>
@@ -1591,12 +1754,15 @@
     <t>pilot_wb_Wulfbanes.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">Wulf Hardy is Draconis affiliated, sporting a rough past from the Kesai liberation. While sporting a weak constitution and bad allergies, he is dependable and overall uplifting to be around.  The accent of his homeworld leads him to insist it should be spelled Wulf or not at all.  He's picked a moniker coring WFH and WVR infidels of all makes.
+    <t xml:space="preserve">Wulf Hardy is Draconis affiliated, sporting a rough past from the Kesai liberation. While sporting a weak constitution and bad allergies, he is dependable and overall uplifting to be around. The accent of his homeworld leads him to insist it should be spelled Wulf or not at all. He's picked a moniker coring WFH and WVR infidels of all makes.
+ Wulfbanes adopts cats when planetbound. There may have been an incident with SRMs when there was a chase in the cockpit. He likes naps, going fast, and hearing the cacophony after missiles take flight. He doesn't like plant life, getting hit, or anything that messes with the gyro. Nobody wants to disturb a lounging cat, and nobody wants a repeat misfire.
+---
+Wulf Hardy is Draconis affiliated, sporting a rough past from the Kesai liberation. While sporting a weak constitution and bad allergies, he is dependable and overall uplifting to be around.  The accent of his homeworld leads him to insist it should be spelled Wulf or not at all.  He's picked a moniker coring WFH and WVR infidels of all makes.
 Wulfbanes adopts cats when planetbound.  There may have been an incident with SRMs when there was a chase in the cockpit.  He likes naps, going fast, and hearing the cacophony after missiles take flight.  He doesn't like plant life, getting hit, or anything that messes with the gyro.  Nobody wants to disturb a lounging cat, and nobody wants a repeat misfire.</t>
   </si>
   <si>
-    <t xml:space="preserve">Wulf Hardy is Draconis affiliated, sporting a rough past from the Kesai liberation. While sporting a weak constitution and bad allergies, he is dependable and overall uplifting to be around.  The accent of his homeworld leads him to insist it should be spelled Wulf or not at all.  He's picked a moniker coring WFH and WVR infidels of all makes.
-Wulfbanes adopts cats when planetbound.  There may have been an incident with SRMs when there was a chase in the cockpit.  He likes naps, going fast, and hearing the cacophony after missiles take flight.  He doesn't like plant life, getting hit, or anything that messes with the gyro.  Nobody wants to disturb a lounging cat, and nobody wants a repeat misfire.</t>
+    <t xml:space="preserve">Wulf Hardy is Draconis affiliated, sporting a rough past from the Kesai liberation. While sporting a weak constitution and bad allergies, he is dependable and overall uplifting to be around. The accent of his homeworld leads him to insist it should be spelled Wulf or not at all. He's picked a moniker coring WFH and WVR infidels of all makes.
+ Wulfbanes adopts cats when planetbound. There may have been an incident with SRMs when there was a chase in the cockpit. He likes naps, going fast, and hearing the cacophony after missiles take flight. He doesn't like plant life, getting hit, or anything that messes with the gyro. Nobody wants to disturb a lounging cat, and nobody wants a repeat misfire.</t>
   </si>
   <si>
     <t>pilot_wb_Wulfbanes.Description.FirstName</t>
@@ -1648,3570 +1814,3103 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" xfId="0" applyProtection="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+  <a:themeElements>
+    <a:clrScheme name="Стандартная">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Стандартная">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Стандартная">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D253"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C253"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C253"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" customWidth="1" style="2"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
+    </row>
+    <row r="2" s="3" customFormat="1">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
+      <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1">
+      <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="1" t="s">
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
+      <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
+      <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
+      <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="C16" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" s="3" customFormat="1">
+      <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="1" t="s">
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
+      <c r="B18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="C18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
+      <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="C19" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
+      <c r="B20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
+      <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="C21" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" s="3" customFormat="1">
+      <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="1" t="s">
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0" t="s">
+      <c r="B23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="C23" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0" t="s">
+      <c r="B24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="C24" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0" t="s">
+      <c r="B25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0" t="s">
+      <c r="B26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="C26" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" s="3" customFormat="1">
+      <c r="A27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="1" t="s">
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0" t="s">
+      <c r="B28" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="C28" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0" t="s">
+      <c r="B29" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="C29" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0" t="s">
+      <c r="B30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0" t="s">
+      <c r="B31" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="C31" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" s="3" customFormat="1">
+      <c r="A32" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="1" t="s">
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0" t="s">
+      <c r="B33" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="C33" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0" t="s">
+      <c r="B34" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="C34" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0" t="s">
+      <c r="B35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0" t="s">
+      <c r="B36" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="C36" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" s="3" customFormat="1">
+      <c r="A37" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="1">
-      <c r="A37" s="1" t="s">
+      <c r="B37" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="1" t="s">
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0" t="s">
+      <c r="B38" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="C38" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0" t="s">
+      <c r="B39" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="C39" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0" t="s">
+      <c r="B40" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0" t="s">
+      <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="C41" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0" t="s">
+      <c r="B42" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="C42" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0" t="s">
+      <c r="B43" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="C43" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0" t="s">
+      <c r="B44" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="C44" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0" t="s">
+      <c r="B45" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0" t="s">
+      <c r="B46" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="C46" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" s="3" customFormat="1">
+      <c r="A47" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" s="1" customFormat="1">
-      <c r="A47" s="1" t="s">
+      <c r="B47" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="1" t="s">
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0" t="s">
+      <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="C48" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0" t="s">
+      <c r="B49" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="C49" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0" t="s">
+      <c r="B50" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B50" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0" t="s">
+      <c r="B51" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="C51" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" s="3" customFormat="1">
+      <c r="A52" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" s="1" customFormat="1">
-      <c r="A52" s="1" t="s">
+      <c r="B52" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="1" t="s">
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0" t="s">
+      <c r="B53" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="C53" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C53" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="D53" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0" t="s">
+      <c r="B54" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="C54" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C54" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0" t="s">
+      <c r="B55" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B55" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0" t="s">
+      <c r="B56" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="C56" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" s="3" customFormat="1">
+      <c r="A57" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C56" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" s="1" customFormat="1">
-      <c r="A57" s="1" t="s">
+      <c r="B57" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C57" s="1" t="s">
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="0" t="s">
+      <c r="B58" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="C58" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C58" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="0" t="s">
+      <c r="B59" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="C59" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C59" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="0" t="s">
+      <c r="B60" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B60" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="0" t="s">
+      <c r="B61" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="C61" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" s="3" customFormat="1">
+      <c r="A62" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C61" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" s="1" customFormat="1">
-      <c r="A62" s="1" t="s">
+      <c r="B62" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="1" t="s">
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="0" t="s">
+      <c r="B63" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="C63" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C63" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="0" t="s">
+      <c r="B64" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="C64" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C64" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="D64" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="0" t="s">
+      <c r="B65" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B65" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="D65" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="0" t="s">
+      <c r="B66" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="C66" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" s="3" customFormat="1">
+      <c r="A67" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C66" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="D66" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" s="1" customFormat="1">
-      <c r="A67" s="1" t="s">
+      <c r="B67" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C67" s="1" t="s">
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="0" t="s">
+      <c r="B68" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="C68" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C68" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="D68" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="0" t="s">
+      <c r="B69" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="C69" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C69" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="D69" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="0" t="s">
+      <c r="B70" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B70" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="D70" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="0" t="s">
+      <c r="B71" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="C71" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" s="3" customFormat="1">
+      <c r="A72" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C71" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="D71" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" s="1" customFormat="1">
-      <c r="A72" s="1" t="s">
+      <c r="B72" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C72" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C72" s="1" t="s">
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="0" t="s">
+      <c r="B73" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="C73" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C73" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="D73" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="0" t="s">
+      <c r="B74" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="C74" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C74" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="0" t="s">
+      <c r="B75" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B75" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="D75" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="0" t="s">
+      <c r="B76" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="C76" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" s="3" customFormat="1">
+      <c r="A77" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C76" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="D76" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" s="1" customFormat="1">
-      <c r="A77" s="1" t="s">
+      <c r="B77" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C77" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C77" s="1" t="s">
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="0" t="s">
+      <c r="B78" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="C78" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C78" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="D78" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="0" t="s">
+      <c r="B79" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="C79" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C79" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="D79" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="0" t="s">
+      <c r="B80" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B80" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="C80" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="D80" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="0" t="s">
+      <c r="B81" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="C81" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="82" s="3" customFormat="1">
+      <c r="A82" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C81" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="D81" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" s="1" customFormat="1">
-      <c r="A82" s="1" t="s">
+      <c r="B82" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C82" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C82" s="1" t="s">
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="0" t="s">
+      <c r="B83" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="C83" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C83" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="D83" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="0" t="s">
+      <c r="B84" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="C84" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C84" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="D84" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="0" t="s">
+      <c r="B85" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B85" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="C85" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="D85" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="0" t="s">
+      <c r="B86" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="C86" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="87" s="3" customFormat="1">
+      <c r="A87" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C86" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="D86" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" s="1" customFormat="1">
-      <c r="A87" s="1" t="s">
+      <c r="B87" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C87" s="1" t="s">
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="0" t="s">
+      <c r="B88" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="C88" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C88" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="D88" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="0" t="s">
+      <c r="B89" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="C89" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C89" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="D89" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="0" t="s">
+      <c r="B90" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B90" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="C90" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="D90" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="0" t="s">
+      <c r="B91" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="C91" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="92" s="3" customFormat="1">
+      <c r="A92" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C91" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="D91" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" s="1" customFormat="1">
-      <c r="A92" s="1" t="s">
+      <c r="B92" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="C92" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C92" s="1" t="s">
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="0" t="s">
+      <c r="B93" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="C93" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C93" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="D93" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="0" t="s">
+      <c r="B94" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="C94" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C94" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="D94" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="0" t="s">
+      <c r="B95" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B95" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="C95" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="D95" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="0" t="s">
+      <c r="B96" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="C96" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="97" s="3" customFormat="1">
+      <c r="A97" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C96" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="D96" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" s="1" customFormat="1">
-      <c r="A97" s="1" t="s">
+      <c r="B97" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="C97" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C97" s="1" t="s">
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="0" t="s">
+      <c r="B98" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="C98" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C98" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="D98" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="0" t="s">
+      <c r="B99" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="C99" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C99" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="D99" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="0" t="s">
+      <c r="B100" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B100" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="C100" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="D100" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="0" t="s">
+      <c r="B101" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="C101" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="102" s="3" customFormat="1">
+      <c r="A102" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C101" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="D101" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" s="1" customFormat="1">
-      <c r="A102" s="1" t="s">
+      <c r="B102" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="C102" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C102" s="1" t="s">
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="0" t="s">
+      <c r="B103" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="C103" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C103" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="D103" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="0" t="s">
+      <c r="B104" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="C104" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C104" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="D104" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="0" t="s">
+      <c r="B105" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B105" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="C105" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="D105" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="0" t="s">
+      <c r="B106" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B106" s="0" t="s">
+      <c r="C106" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="107" s="3" customFormat="1">
+      <c r="A107" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C106" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="D106" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" s="1" customFormat="1">
-      <c r="A107" s="1" t="s">
+      <c r="B107" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="C107" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C107" s="1" t="s">
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D107" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="0" t="s">
+      <c r="B108" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B108" s="0" t="s">
+      <c r="C108" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C108" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="D108" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="0" t="s">
+      <c r="B109" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B109" s="0" t="s">
+      <c r="C109" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C109" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="D109" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="0" t="s">
+      <c r="B110" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B110" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="C110" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="D110" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="0" t="s">
+      <c r="B111" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B111" s="0" t="s">
+      <c r="C111" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="112" s="3" customFormat="1">
+      <c r="A112" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C111" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="D111" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" s="1" customFormat="1">
-      <c r="A112" s="1" t="s">
+      <c r="B112" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="C112" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C112" s="1" t="s">
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D112" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="0" t="s">
+      <c r="B113" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B113" s="0" t="s">
+      <c r="C113" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C113" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="D113" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="0" t="s">
+      <c r="B114" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B114" s="0" t="s">
+      <c r="C114" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C114" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="D114" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="0" t="s">
+      <c r="B115" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B115" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="C115" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="D115" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="0" t="s">
+      <c r="B116" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B116" s="0" t="s">
+      <c r="C116" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="117" s="3" customFormat="1">
+      <c r="A117" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C116" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="D116" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" s="1" customFormat="1">
-      <c r="A117" s="1" t="s">
+      <c r="B117" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="C117" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C117" s="1" t="s">
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D117" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="0" t="s">
+      <c r="B118" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B118" s="0" t="s">
+      <c r="C118" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C118" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="D118" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="0" t="s">
+      <c r="B119" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B119" s="0" t="s">
+      <c r="C119" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C119" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="D119" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="0" t="s">
+      <c r="B120" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B120" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="C120" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="D120" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="0" t="s">
+      <c r="B121" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B121" s="0" t="s">
+      <c r="C121" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="122" s="3" customFormat="1">
+      <c r="A122" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C121" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="D121" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" s="1" customFormat="1">
-      <c r="A122" s="1" t="s">
+      <c r="B122" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="C122" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C122" s="1" t="s">
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="0" t="s">
+      <c r="B123" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B123" s="0" t="s">
+      <c r="C123" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C123" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="D123" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="0" t="s">
+      <c r="B124" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B124" s="0" t="s">
+      <c r="C124" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C124" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="D124" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="0" t="s">
+      <c r="B125" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B125" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="C125" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="D125" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="0" t="s">
+      <c r="B126" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B126" s="0" t="s">
+      <c r="C126" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="127" s="3" customFormat="1">
+      <c r="A127" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C126" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="D126" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" s="1" customFormat="1">
-      <c r="A127" s="1" t="s">
+      <c r="B127" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="C127" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C127" s="1" t="s">
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D127" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="0" t="s">
+      <c r="B128" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B128" s="0" t="s">
+      <c r="C128" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C128" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="D128" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="0" t="s">
+      <c r="B129" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B129" s="0" t="s">
+      <c r="C129" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C129" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="D129" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="0" t="s">
+      <c r="B130" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B130" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="C130" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="D130" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="0" t="s">
+      <c r="B131" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B131" s="0" t="s">
+      <c r="C131" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="132" s="3" customFormat="1">
+      <c r="A132" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C131" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="D131" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" s="1" customFormat="1">
-      <c r="A132" s="1" t="s">
+      <c r="B132" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="C132" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C132" s="1" t="s">
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="D132" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="0" t="s">
+      <c r="B133" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B133" s="0" t="s">
+      <c r="C133" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C133" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="D133" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="0" t="s">
+      <c r="B134" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B134" s="0" t="s">
+      <c r="C134" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C134" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="D134" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="0" t="s">
+      <c r="B135" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B135" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="C135" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="D135" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="0" t="s">
+      <c r="B136" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B136" s="0" t="s">
+      <c r="C136" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="137" s="3" customFormat="1">
+      <c r="A137" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C136" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="D136" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" s="1" customFormat="1">
-      <c r="A137" s="1" t="s">
+      <c r="B137" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="C137" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C137" s="1" t="s">
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D137" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="0" t="s">
+      <c r="B138" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B138" s="0" t="s">
+      <c r="C138" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C138" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="D138" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="0" t="s">
+      <c r="B139" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B139" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="C139" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="D139" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="0" t="s">
+      <c r="B140" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B140" s="0" t="s">
+      <c r="C140" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="141" s="3" customFormat="1">
+      <c r="A141" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C140" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="D140" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" s="1" customFormat="1">
-      <c r="A141" s="1" t="s">
+      <c r="B141" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="C141" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C141" s="1" t="s">
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D141" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="0" t="s">
+      <c r="B142" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B142" s="0" t="s">
+      <c r="C142" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C142" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="D142" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="0" t="s">
+      <c r="B143" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B143" s="0" t="s">
+      <c r="C143" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C143" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="D143" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="0" t="s">
+      <c r="B144" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B144" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="C144" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="D144" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="0" t="s">
+      <c r="B145" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B145" s="0" t="s">
+      <c r="C145" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C145" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="D145" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="0" t="s">
+      <c r="B146" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B146" s="0" t="s">
+      <c r="C146" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C146" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="D146" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="0" t="s">
+      <c r="B147" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B147" s="0" t="s">
+      <c r="C147" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C147" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="D147" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="0" t="s">
+      <c r="B148" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B148" s="0" t="s">
+      <c r="C148" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C148" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="D148" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="0" t="s">
+      <c r="B149" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B149" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C149" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="D149" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="0" t="s">
+      <c r="B150" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B150" s="0" t="s">
+      <c r="C150" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="151" s="3" customFormat="1">
+      <c r="A151" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="C150" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="D150" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" s="1" customFormat="1">
-      <c r="A151" s="1" t="s">
+      <c r="B151" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="C151" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C151" s="1" t="s">
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D151" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="0" t="s">
+      <c r="B152" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B152" s="0" t="s">
+      <c r="C152" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C152" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="D152" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="0" t="s">
+      <c r="B153" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B153" s="0" t="s">
+      <c r="C153" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C153" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="D153" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="0" t="s">
+      <c r="B154" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B154" s="0" t="s">
+      <c r="C154" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C154" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="D154" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="0" t="s">
+      <c r="B155" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B155" s="0" t="s">
+      <c r="C155" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C155" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="D155" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="0" t="s">
+      <c r="B156" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B156" s="0" t="s">
+      <c r="C156" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C156" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="D156" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="0" t="s">
+      <c r="B157" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B157" s="0" t="s">
+      <c r="C157" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C157" s="0" t="s">
-        <v>313</v>
-      </c>
-      <c r="D157" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="0" t="s">
+      <c r="B158" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B158" s="0" t="s">
+      <c r="C158" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C158" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="D158" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="0" t="s">
+      <c r="B159" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B159" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="C159" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="D159" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="0" t="s">
+      <c r="B160" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B160" s="0" t="s">
+      <c r="C160" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="161" s="3" customFormat="1">
+      <c r="A161" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="C160" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="D160" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="0" t="s">
+      <c r="B161" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="B161" s="0" t="s">
+      <c r="C161" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="C161" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="D161" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="162">
-      <c r="A162" s="0" t="s">
+      <c r="A162" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B162" s="0" t="s">
+      <c r="B162" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C162" s="0" t="s">
+      <c r="C162" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="D162" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="163">
-      <c r="A163" s="0" t="s">
+      <c r="A163" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B163" s="0" t="s">
+      <c r="B163" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="C163" s="0" t="s">
+      <c r="C163" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="D163" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="164">
-      <c r="A164" s="0" t="s">
+      <c r="A164" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B164" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="C164" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="D164" s="0" t="s">
-        <v>2</v>
+      <c r="B164" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="0" t="s">
+      <c r="A165" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B165" s="0" t="s">
+      <c r="B165" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C165" s="0" t="s">
+      <c r="C165" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="D165" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="166" s="1" customFormat="1">
-      <c r="A166" s="1" t="s">
+    </row>
+    <row r="166" s="3" customFormat="1">
+      <c r="A166" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="B166" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="C166" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D166" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="167">
-      <c r="A167" s="0" t="s">
+      <c r="A167" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B167" s="0" t="s">
+      <c r="B167" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C167" s="0" t="s">
+      <c r="C167" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="D167" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="168">
-      <c r="A168" s="0" t="s">
+      <c r="A168" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B168" s="0" t="s">
+      <c r="B168" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C168" s="0" t="s">
+      <c r="C168" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D168" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="169">
-      <c r="A169" s="0" t="s">
+      <c r="A169" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B169" s="0" t="s">
+      <c r="B169" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C169" s="0" t="s">
+      <c r="C169" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="D169" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="170">
-      <c r="A170" s="0" t="s">
+      <c r="A170" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B170" s="0" t="s">
+      <c r="B170" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C170" s="0" t="s">
+      <c r="C170" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="D170" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="171" s="1" customFormat="1">
-      <c r="A171" s="1" t="s">
+    </row>
+    <row r="171" s="3" customFormat="1">
+      <c r="A171" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="B171" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="C171" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="D171" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="172">
-      <c r="A172" s="0" t="s">
+      <c r="A172" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B172" s="0" t="s">
+      <c r="B172" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C172" s="0" t="s">
+      <c r="C172" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="D172" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="173">
-      <c r="A173" s="0" t="s">
+      <c r="A173" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B173" s="0" t="s">
+      <c r="B173" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C173" s="0" t="s">
+      <c r="C173" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="D173" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="174">
-      <c r="A174" s="0" t="s">
+      <c r="A174" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B174" s="0" t="s">
+      <c r="B174" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C174" s="0" t="s">
+      <c r="C174" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="D174" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="175">
-      <c r="A175" s="0" t="s">
+      <c r="A175" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B175" s="0" t="s">
+      <c r="B175" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C175" s="0" t="s">
+      <c r="C175" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="D175" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="176">
-      <c r="A176" s="0" t="s">
+      <c r="A176" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B176" s="0" t="s">
+      <c r="B176" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C176" s="0" t="s">
+      <c r="C176" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="D176" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="177">
-      <c r="A177" s="0" t="s">
+      <c r="A177" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B177" s="0" t="s">
+      <c r="B177" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C177" s="0" t="s">
+      <c r="C177" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D177" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="178">
-      <c r="A178" s="0" t="s">
+      <c r="A178" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B178" s="0" t="s">
+      <c r="B178" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C178" s="0" t="s">
+      <c r="C178" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="D178" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="179">
-      <c r="A179" s="0" t="s">
+      <c r="A179" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B179" s="0" t="s">
+      <c r="B179" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C179" s="0" t="s">
+      <c r="C179" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="D179" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="180">
-      <c r="A180" s="0" t="s">
+      <c r="A180" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B180" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="C180" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="D180" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="181" s="1" customFormat="1">
-      <c r="A181" s="1" t="s">
+      <c r="B180" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="181" s="3" customFormat="1">
+      <c r="A181" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="B181" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="C181" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="D181" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="182">
-      <c r="A182" s="0" t="s">
+      <c r="A182" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B182" s="0" t="s">
+      <c r="B182" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C182" s="0" t="s">
+      <c r="C182" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D182" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="183">
-      <c r="A183" s="0" t="s">
+      <c r="A183" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B183" s="0" t="s">
+      <c r="B183" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C183" s="0" t="s">
+      <c r="C183" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="D183" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="184">
-      <c r="A184" s="0" t="s">
+      <c r="A184" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="B184" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="C184" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="D184" s="0" t="s">
-        <v>2</v>
+      <c r="B184" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="0" t="s">
+      <c r="A185" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B185" s="0" t="s">
+      <c r="B185" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="C185" s="0" t="s">
+      <c r="C185" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="D185" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="186" s="1" customFormat="1">
-      <c r="A186" s="1" t="s">
+    </row>
+    <row r="186" s="3" customFormat="1">
+      <c r="A186" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="B186" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="C186" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="D186" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="187">
-      <c r="A187" s="0" t="s">
+      <c r="A187" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B187" s="0" t="s">
+      <c r="B187" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="C187" s="0" t="s">
+      <c r="C187" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D187" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="188">
-      <c r="A188" s="0" t="s">
+      <c r="A188" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B188" s="0" t="s">
+      <c r="B188" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C188" s="0" t="s">
+      <c r="C188" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="D188" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="189">
-      <c r="A189" s="0" t="s">
+      <c r="A189" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B189" s="0" t="s">
+      <c r="B189" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="C189" s="0" t="s">
+      <c r="C189" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="D189" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="190">
-      <c r="A190" s="0" t="s">
+      <c r="A190" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B190" s="0" t="s">
+      <c r="B190" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C190" s="0" t="s">
+      <c r="C190" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="D190" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="191" s="1" customFormat="1">
-      <c r="A191" s="1" t="s">
+    </row>
+    <row r="191" s="3" customFormat="1">
+      <c r="A191" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="B191" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="C191" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="D191" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="192">
-      <c r="A192" s="0" t="s">
+      <c r="A192" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B192" s="0" t="s">
+      <c r="B192" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="C192" s="0" t="s">
+      <c r="C192" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="D192" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="193">
-      <c r="A193" s="0" t="s">
+      <c r="A193" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B193" s="0" t="s">
+      <c r="B193" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="C193" s="0" t="s">
+      <c r="C193" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="D193" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="194">
-      <c r="A194" s="0" t="s">
+      <c r="A194" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="B194" s="0" t="s">
+      <c r="B194" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C194" s="0" t="s">
+      <c r="C194" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="D194" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="195">
-      <c r="A195" s="0" t="s">
+      <c r="A195" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B195" s="0" t="s">
+      <c r="B195" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C195" s="0" t="s">
+      <c r="C195" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="D195" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="196" s="1" customFormat="1">
-      <c r="A196" s="1" t="s">
+    </row>
+    <row r="196" s="3" customFormat="1">
+      <c r="A196" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="B196" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="C196" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="D196" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="197">
-      <c r="A197" s="0" t="s">
+      <c r="A197" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B197" s="0" t="s">
+      <c r="B197" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="C197" s="0" t="s">
+      <c r="C197" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D197" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="198">
-      <c r="A198" s="0" t="s">
+      <c r="A198" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B198" s="0" t="s">
+      <c r="B198" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="C198" s="0" t="s">
+      <c r="C198" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="D198" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="199">
-      <c r="A199" s="0" t="s">
+      <c r="A199" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B199" s="0" t="s">
+      <c r="B199" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C199" s="0" t="s">
+      <c r="C199" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="D199" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="200">
-      <c r="A200" s="0" t="s">
+      <c r="A200" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B200" s="0" t="s">
+      <c r="B200" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C200" s="0" t="s">
+      <c r="C200" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="D200" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="201" s="1" customFormat="1">
-      <c r="A201" s="1" t="s">
+    </row>
+    <row r="201" s="3" customFormat="1">
+      <c r="A201" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="B201" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="C201" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="D201" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="202">
-      <c r="A202" s="0" t="s">
+      <c r="A202" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="B202" s="0" t="s">
+      <c r="B202" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="C202" s="0" t="s">
+      <c r="C202" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D202" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="203">
-      <c r="A203" s="0" t="s">
+      <c r="A203" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B203" s="0" t="s">
+      <c r="B203" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="C203" s="0" t="s">
+      <c r="C203" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="D203" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="204">
-      <c r="A204" s="0" t="s">
+      <c r="A204" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B204" s="0" t="s">
+      <c r="B204" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C204" s="0" t="s">
+      <c r="C204" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="D204" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="205">
-      <c r="A205" s="0" t="s">
+      <c r="A205" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B205" s="0" t="s">
+      <c r="B205" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C205" s="0" t="s">
+      <c r="C205" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="D205" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="206" s="1" customFormat="1">
-      <c r="A206" s="1" t="s">
+    </row>
+    <row r="206" s="3" customFormat="1">
+      <c r="A206" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="B206" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="C206" s="1" t="s">
+      <c r="C206" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="D206" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="207">
-      <c r="A207" s="0" t="s">
+      <c r="A207" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B207" s="0" t="s">
+      <c r="B207" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C207" s="0" t="s">
+      <c r="C207" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D207" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="208">
-      <c r="A208" s="0" t="s">
+      <c r="A208" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B208" s="0" t="s">
+      <c r="B208" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C208" s="0" t="s">
+      <c r="C208" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="D208" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="209">
-      <c r="A209" s="0" t="s">
+      <c r="A209" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B209" s="0" t="s">
+      <c r="B209" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C209" s="0" t="s">
+      <c r="C209" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="D209" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="210">
-      <c r="A210" s="0" t="s">
+      <c r="A210" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B210" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="C210" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="D210" s="0" t="s">
-        <v>2</v>
+      <c r="B210" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="0" t="s">
+      <c r="A211" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="B211" s="0" t="s">
+      <c r="B211" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C211" s="0" t="s">
+      <c r="C211" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="D211" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="212">
-      <c r="A212" s="0" t="s">
+      <c r="A212" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B212" s="0" t="s">
+      <c r="B212" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="C212" s="0" t="s">
+      <c r="C212" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="D212" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="213">
-      <c r="A213" s="0" t="s">
+      <c r="A213" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B213" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="C213" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="D213" s="0" t="s">
-        <v>2</v>
+      <c r="B213" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="0" t="s">
+      <c r="A214" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B214" s="0" t="s">
+      <c r="B214" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="C214" s="0" t="s">
+      <c r="C214" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D214" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="215" s="1" customFormat="1">
-      <c r="A215" s="1" t="s">
+    </row>
+    <row r="215" s="3" customFormat="1">
+      <c r="A215" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="B215" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="C215" s="1" t="s">
+      <c r="C215" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="D215" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="216">
-      <c r="A216" s="0" t="s">
+      <c r="A216" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B216" s="0" t="s">
+      <c r="B216" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="C216" s="0" t="s">
+      <c r="C216" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="D216" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="217">
-      <c r="A217" s="0" t="s">
+      <c r="A217" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="B217" s="0" t="s">
+      <c r="B217" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="C217" s="0" t="s">
+      <c r="C217" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="D217" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="218">
-      <c r="A218" s="0" t="s">
+      <c r="A218" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B218" s="0" t="s">
+      <c r="B218" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="C218" s="0" t="s">
+      <c r="C218" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D218" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="219">
-      <c r="A219" s="0" t="s">
+      <c r="A219" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="B219" s="0" t="s">
+      <c r="B219" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C219" s="0" t="s">
+      <c r="C219" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="D219" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="220">
-      <c r="A220" s="0" t="s">
+      <c r="A220" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B220" s="0" t="s">
+      <c r="B220" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C220" s="0" t="s">
+      <c r="C220" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="D220" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="221">
-      <c r="A221" s="0" t="s">
+      <c r="A221" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B221" s="0" t="s">
+      <c r="B221" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C221" s="0" t="s">
+      <c r="C221" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D221" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="222">
-      <c r="A222" s="0" t="s">
+      <c r="A222" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B222" s="0" t="s">
+      <c r="B222" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C222" s="0" t="s">
+      <c r="C222" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="D222" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="223">
-      <c r="A223" s="0" t="s">
+      <c r="A223" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B223" s="0" t="s">
+      <c r="B223" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C223" s="0" t="s">
+      <c r="C223" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="D223" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="224">
-      <c r="A224" s="0" t="s">
+      <c r="A224" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="B224" s="0" t="s">
+      <c r="B224" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="C224" s="0" t="s">
+      <c r="C224" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="D224" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="225" s="1" customFormat="1">
-      <c r="A225" s="1" t="s">
+    </row>
+    <row r="225" s="3" customFormat="1">
+      <c r="A225" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="B225" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="C225" s="1" t="s">
+      <c r="C225" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="D225" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="226">
-      <c r="A226" s="0" t="s">
+      <c r="A226" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B226" s="0" t="s">
+      <c r="B226" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="C226" s="0" t="s">
+      <c r="C226" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="D226" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="227">
-      <c r="A227" s="0" t="s">
+      <c r="A227" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="B227" s="0" t="s">
+      <c r="B227" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="C227" s="0" t="s">
+      <c r="C227" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="D227" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="228">
-      <c r="A228" s="0" t="s">
+      <c r="A228" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B228" s="0" t="s">
+      <c r="B228" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="C228" s="0" t="s">
+      <c r="C228" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="D228" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="229">
-      <c r="A229" s="0" t="s">
+      <c r="A229" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B229" s="0" t="s">
+      <c r="B229" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C229" s="0" t="s">
+      <c r="C229" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="D229" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="230">
-      <c r="A230" s="0" t="s">
+      <c r="A230" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="B230" s="0" t="s">
+      <c r="B230" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C230" s="0" t="s">
+      <c r="C230" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="D230" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="231">
-      <c r="A231" s="0" t="s">
+      <c r="A231" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="B231" s="0" t="s">
+      <c r="B231" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C231" s="0" t="s">
+      <c r="C231" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D231" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="232">
-      <c r="A232" s="0" t="s">
+      <c r="A232" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B232" s="0" t="s">
+      <c r="B232" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C232" s="0" t="s">
+      <c r="C232" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="D232" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="233">
-      <c r="A233" s="0" t="s">
+      <c r="A233" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="B233" s="0" t="s">
+      <c r="B233" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C233" s="0" t="s">
+      <c r="C233" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="D233" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="234">
-      <c r="A234" s="0" t="s">
+      <c r="A234" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B234" s="0" t="s">
+      <c r="B234" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C234" s="0" t="s">
+      <c r="C234" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="D234" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="235">
-      <c r="A235" s="0" t="s">
+      <c r="A235" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="B235" s="0" t="s">
+      <c r="B235" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="C235" s="0" t="s">
+      <c r="C235" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="D235" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="236">
-      <c r="A236" s="0" t="s">
+      <c r="A236" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B236" s="0" t="s">
+      <c r="B236" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="C236" s="0" t="s">
+      <c r="C236" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="D236" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="237">
-      <c r="A237" s="0" t="s">
+      <c r="A237" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="B237" s="0" t="s">
+      <c r="B237" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="C237" s="0" t="s">
+      <c r="C237" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="D237" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="238">
-      <c r="A238" s="0" t="s">
+      <c r="A238" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="B238" s="0" t="s">
+      <c r="B238" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C238" s="0" t="s">
+      <c r="C238" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="D238" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="239">
-      <c r="A239" s="0" t="s">
+      <c r="A239" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="B239" s="0" t="s">
+      <c r="B239" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="C239" s="0" t="s">
+      <c r="C239" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="D239" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="240" s="1" customFormat="1">
-      <c r="A240" s="1" t="s">
+    </row>
+    <row r="240" s="3" customFormat="1">
+      <c r="A240" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="B240" s="1" t="s">
+      <c r="B240" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="C240" s="1" t="s">
+      <c r="C240" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="D240" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="241">
-      <c r="A241" s="0" t="s">
+      <c r="A241" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B241" s="0" t="s">
+      <c r="B241" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C241" s="0" t="s">
+      <c r="C241" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="D241" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="242">
-      <c r="A242" s="0" t="s">
+      <c r="A242" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="B242" s="0" t="s">
+      <c r="B242" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="C242" s="0" t="s">
+      <c r="C242" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="D242" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="243">
-      <c r="A243" s="0" t="s">
+      <c r="A243" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="B243" s="0" t="s">
+      <c r="B243" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="C243" s="0" t="s">
+      <c r="C243" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="D243" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="244">
-      <c r="A244" s="0" t="s">
+      <c r="A244" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="B244" s="0" t="s">
+      <c r="B244" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="C244" s="0" t="s">
+      <c r="C244" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="D244" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="245" s="1" customFormat="1">
-      <c r="A245" s="1" t="s">
+    </row>
+    <row r="245" s="3" customFormat="1">
+      <c r="A245" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="B245" s="1" t="s">
+      <c r="B245" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="C245" s="1" t="s">
+      <c r="C245" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="D245" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="246">
-      <c r="A246" s="0" t="s">
+      <c r="A246" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="B246" s="0" t="s">
+      <c r="B246" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C246" s="0" t="s">
+      <c r="C246" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="D246" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="247">
-      <c r="A247" s="0" t="s">
+      <c r="A247" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="B247" s="0" t="s">
+      <c r="B247" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="C247" s="0" t="s">
+      <c r="C247" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="D247" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="248">
-      <c r="A248" s="0" t="s">
+      <c r="A248" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="B248" s="0" t="s">
+      <c r="B248" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="C248" s="0" t="s">
+      <c r="C248" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="D248" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="249">
-      <c r="A249" s="0" t="s">
+      <c r="A249" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B249" s="0" t="s">
+      <c r="B249" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="C249" s="0" t="s">
+      <c r="C249" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="D249" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="250" s="1" customFormat="1">
-      <c r="A250" s="1" t="s">
+    </row>
+    <row r="250" s="3" customFormat="1">
+      <c r="A250" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="B250" s="1" t="s">
+      <c r="B250" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="C250" s="1" t="s">
+      <c r="C250" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D250" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="251">
-      <c r="A251" s="0" t="s">
+      <c r="A251" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="B251" s="0" t="s">
+      <c r="B251" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="C251" s="0" t="s">
+      <c r="C251" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="D251" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="252">
-      <c r="A252" s="0" t="s">
+      <c r="A252" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="B252" s="0" t="s">
+      <c r="B252" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="C252" s="0" t="s">
+      <c r="C252" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="D252" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="253">
-      <c r="A253" s="0" t="s">
+      <c r="A253" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="B253" s="0" t="s">
+      <c r="B253" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="C253" s="0" t="s">
+      <c r="C253" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="D253" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/CustomLocalization/Localization/RogueTech/RU/BT_Advanced_Pilots/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/BT_Advanced_Pilots/LocalizationDef.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="443">
   <si>
     <t>pilot_at_Axle.Description.Callsign</t>
   </si>
@@ -22,23 +22,17 @@
     <t>Axle</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>pilot_at_Axle.Description.Details</t>
   </si>
   <si>
     <t xml:space="preserve">Battlemechs may rule the day in 31st century combat, but the brick and mortar of many a militia and even professional military are the dedicated tread-heads; those men and women who willingly and ably fire up their trusty Vedettes or Galleons in defense of hearth and home, or for the glory of their ruling House. Being part of the conventional side of things is often a thankless, fruitless endeavor that leaves many crews bitter as the Mechwarriors hog the spotlight. But sometimes, tankers get lucky. Sometimes they get the right shot at the right time, winning the salvage lottery, and joining the illustrious ranks of the Mechwarriors; the knights of the modern era. But sometimes weird shit happens and you end up sitting in the cockpit of a Cicada, still wondering how all this could have happened.
- That’s Axle’s story. She was the commander of one of many Vedettes assigned to garrison duty on St. Andre, then in the Chaos March. As is often the case, her company was set to engage raiders who sought to pick at the corpse of an ancient Star League base there called Fort Ravengale. The battle met, and as the chaos set in, she was manning her cupola when an enemy Cicada bore down on her Vedette suddenly, landing a kick and throwing her from her perch while detonating the autocannon ammunition stored inside the tank. Just after, a friendly shot destroyed the head of the marauding ‘Mech, sending it toppling down beside her wrecked tank. The friendly that made the shot was then obliterated by a stray particle cannon bolt, and the rest was a blur as she fell unconscious. When she woke, she was in the hospital with a concussion, broken ribs, a ruptured disc, and the sole remaining professionally trained person within 1000 klicks that had any kind of shot at strapping into and utilizing the 40-ton war machine that had died right next to her. She didn’t have a choice then, and still doesn’t now; the bills won’t pay themselves, and the Capellans didn’t want to keep her, so she struck out to the Periphery to make ends meet. And most Merc outfits are too fancy for treads. 
-  &lt;b&gt;&lt;color=#00ffff&gt;Can Command Tanks and Pilot Mechs.&lt;/color&gt;&lt;/b&gt;
----
-Battlemechs may rule the day in 31st century combat, but the brick and mortar of many a militia and even professional military are the dedicated tread-heads; those men and women who willingly and ably fire up their trusty Vedettes or Galleons in defense of hearth and home, or for the glory of their ruling House. Being part of the conventional side of things is often a thankless, fruitless endeavor that leaves many crews bitter as the Mechwarriors hog the spotlight. But sometimes, tankers get lucky. Sometimes they get the right shot at the right time, winning the salvage lottery, and joining the illustrious ranks of the Mechwarriors; the knights of the modern era. But sometimes weird shit happens and you end up sitting in the cockpit of a Cicada, still wondering how all this could have happened.
 That’s Axle’s story. She was the commander of one of many Vedettes assigned to garrison duty on St. Andre, then in the Chaos March. As is often the case, her company was set to engage raiders who sought to pick at the corpse of an ancient Star League base there called Fort Ravengale. The battle met, and as the chaos set in, she was manning her cupola when an enemy Cicada bore down on her Vedette suddenly, landing a kick and throwing her from her perch while detonating the autocannon ammunition stored inside the tank. Just after, a friendly shot destroyed the head of the marauding ‘Mech, sending it toppling down beside her wrecked tank. The friendly that made the shot was then obliterated by a stray particle cannon bolt, and the rest was a blur as she fell unconscious. When she woke, she was in the hospital with a concussion, broken ribs, a ruptured disc, and the sole remaining professionally trained person within 1000 klicks that had any kind of shot at strapping into and utilizing the 40-ton war machine that had died right next to her. She didn’t have a choice then, and still doesn’t now; the bills won’t pay themselves, and the Capellans didn’t want to keep her, so she struck out to the Periphery to make ends meet. And most Merc outfits are too fancy for treads. 
  &lt;b&gt;&lt;color=#00ffff&gt;Can Command Tanks and Pilot Mechs.&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Battlemechs may rule the day in 31st century combat, but the brick and mortar of many a militia and even professional military are the dedicated tread-heads; those men and women who willingly and ably fire up their trusty Vedettes or Galleons in defense of hearth and home, or for the glory of their ruling House. Being part of the conventional side of things is often a thankless, fruitless endeavor that leaves many crews bitter as the Mechwarriors hog the spotlight. But sometimes, tankers get lucky. Sometimes they get the right shot at the right time, winning the salvage lottery, and joining the illustrious ranks of the Mechwarriors; the knights of the modern era. But sometimes weird shit happens and you end up sitting in the cockpit of a Cicada, still wondering how all this could have happened.
- That’s Axle’s story. She was the commander of one of many Vedettes assigned to garrison duty on St. Andre, then in the Chaos March. As is often the case, her company was set to engage raiders who sought to pick at the corpse of an ancient Star League base there called Fort Ravengale. The battle met, and as the chaos set in, she was manning her cupola when an enemy Cicada bore down on her Vedette suddenly, landing a kick and throwing her from her perch while detonating the autocannon ammunition stored inside the tank. Just after, a friendly shot destroyed the head of the marauding ‘Mech, sending it toppling down beside her wrecked tank. The friendly that made the shot was then obliterated by a stray particle cannon bolt, and the rest was a blur as she fell unconscious. When she woke, she was in the hospital with a concussion, broken ribs, a ruptured disc, and the sole remaining professionally trained person within 1000 klicks that had any kind of shot at strapping into and utilizing the 40-ton war machine that had died right next to her. She didn’t have a choice then, and still doesn’t now; the bills won’t pay themselves, and the Capellans didn’t want to keep her, so she struck out to the Periphery to make ends meet. And most Merc outfits are too fancy for treads. 
-  &lt;b&gt;&lt;color=#00ffff&gt;Can Command Tanks and Pilot Mechs.&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>pilot_at_Axle.Description.FirstName</t>
   </si>
   <si>
@@ -64,16 +58,9 @@
   </si>
   <si>
     <t xml:space="preserve">The Magistracy of Canopus may be blessed with its first proper martial academy in several centuries, thanks to the Trinity Alliance and its partners the Capellan Confederation and the Taurian Concordat, but not every Mechwarrior is given the chance to attend. And some who qualify choose not to, thinking the new alliance to be a farce. Sharon is one of those latter folks. She graduated from a provinical academy, and recieved the very best, roughest, most experience-driven training the undefunded MAF could muster with scant subsidy. Her assignment had been to a Spider 5D, and she loved every moment of it. The speed was what appealed to her most, and it always will. She believes that not only is speed armor, it is also life.
- Unfortunately for her, she talks as fast as she likes her 'Mechs to run, and her scathing opinions regarding the Capellan Confederation attracted the wrong sort of attention. She was discharged without pension (thought not dishonorably) to avoid any undue friction between the MAF and their new advisiors, and so struck out on her own, looking for like-minded soldiers to sign on with; preferably those who dislike the Confederation.
----
-The Magistracy of Canopus may be blessed with its first proper martial academy in several centuries, thanks to the Trinity Alliance and its partners the Capellan Confederation and the Taurian Concordat, but not every Mechwarrior is given the chance to attend. And some who qualify choose not to, thinking the new alliance to be a farce. Sharon is one of those latter folks. She graduated from a provinical academy, and recieved the very best, roughest, most experience-driven training the undefunded MAF could muster with scant subsidy. Her assignment had been to a Spider 5D, and she loved every moment of it. The speed was what appealed to her most, and it always will. She believes that not only is speed armor, it is also life.
 Unfortunately for her, she talks as fast as she likes her 'Mechs to run, and her scathing opinions regarding the Capellan Confederation attracted the wrong sort of attention. She was discharged without pension (thought not dishonorably) to avoid any undue friction between the MAF and their new advisiors, and so struck out on her own, looking for like-minded soldiers to sign on with; preferably those who dislike the Confederation.</t>
   </si>
   <si>
-    <t xml:space="preserve">The Magistracy of Canopus may be blessed with its first proper martial academy in several centuries, thanks to the Trinity Alliance and its partners the Capellan Confederation and the Taurian Concordat, but not every Mechwarrior is given the chance to attend. And some who qualify choose not to, thinking the new alliance to be a farce. Sharon is one of those latter folks. She graduated from a provinical academy, and recieved the very best, roughest, most experience-driven training the undefunded MAF could muster with scant subsidy. Her assignment had been to a Spider 5D, and she loved every moment of it. The speed was what appealed to her most, and it always will. She believes that not only is speed armor, it is also life.
- Unfortunately for her, she talks as fast as she likes her 'Mechs to run, and her scathing opinions regarding the Capellan Confederation attracted the wrong sort of attention. She was discharged without pension (thought not dishonorably) to avoid any undue friction between the MAF and their new advisiors, and so struck out on her own, looking for like-minded soldiers to sign on with; preferably those who dislike the Confederation.</t>
-  </si>
-  <si>
     <t>pilot_at_Blaze.Description.FirstName</t>
   </si>
   <si>
@@ -99,16 +86,9 @@
   </si>
   <si>
     <t xml:space="preserve">Grigori Izzo wasn’t born, he was built. At least, that what it father told him. “No kid as big as you came from anything but a box!” he’d exclaim, and Grigori would giggle. And he was a big kid. Not too quick on the uptake though. He spent a long time getting bullied before he realized what his size meant, but once he did, he used it to full advantage. And the same thing applied to his schooling. Once he got his teeth into a subject, he absorbed it like a sponge. So when it came time to do something with himself after school, he wanted to go big. And nothing was big like a Battlemech. He wanted to make the Inner Sphere his playground, and so he enrolled in the Hero Training Institute; racking up significant debt, but determined to be a Mechwarrior.
- Training at HTI was spotty to put it politely, but after nearly being thrown out for getting into a fistfight with his Tactics and Strategy 112 “professor”, he graduated along with a class of fourteen other Mechwarriors, and promptly fell into the ranks of the Dispossessed. There were more men than machines, and even though Izzo had a talent for using every ounce of armor on his ‘Mech weathering enemy fire, and a fair grasp of shooting straight, he was stuck waiting with so many others, hoping for his big break with a Merc outfit in the Rimward Periphery.
----
-Grigori Izzo wasn’t born, he was built. At least, that what it father told him. “No kid as big as you came from anything but a box!” he’d exclaim, and Grigori would giggle. And he was a big kid. Not too quick on the uptake though. He spent a long time getting bullied before he realized what his size meant, but once he did, he used it to full advantage. And the same thing applied to his schooling. Once he got his teeth into a subject, he absorbed it like a sponge. So when it came time to do something with himself after school, he wanted to go big. And nothing was big like a Battlemech. He wanted to make the Inner Sphere his playground, and so he enrolled in the Hero Training Institute; racking up significant debt, but determined to be a Mechwarrior.
 Training at HTI was spotty to put it politely, but after nearly being thrown out for getting into a fistfight with his Tactics and Strategy 112 “professor”, he graduated along with a class of fourteen other Mechwarriors, and promptly fell into the ranks of the Dispossessed. There were more men than machines, and even though Izzo had a talent for using every ounce of armor on his ‘Mech weathering enemy fire, and a fair grasp of shooting straight, he was stuck waiting with so many others, hoping for his big break with a Merc outfit in the Rimward Periphery.</t>
   </si>
   <si>
-    <t xml:space="preserve">Grigori Izzo wasn’t born, he was built. At least, that what it father told him. “No kid as big as you came from anything but a box!” he’d exclaim, and Grigori would giggle. And he was a big kid. Not too quick on the uptake though. He spent a long time getting bullied before he realized what his size meant, but once he did, he used it to full advantage. And the same thing applied to his schooling. Once he got his teeth into a subject, he absorbed it like a sponge. So when it came time to do something with himself after school, he wanted to go big. And nothing was big like a Battlemech. He wanted to make the Inner Sphere his playground, and so he enrolled in the Hero Training Institute; racking up significant debt, but determined to be a Mechwarrior.
- Training at HTI was spotty to put it politely, but after nearly being thrown out for getting into a fistfight with his Tactics and Strategy 112 “professor”, he graduated along with a class of fourteen other Mechwarriors, and promptly fell into the ranks of the Dispossessed. There were more men than machines, and even though Izzo had a talent for using every ounce of armor on his ‘Mech weathering enemy fire, and a fair grasp of shooting straight, he was stuck waiting with so many others, hoping for his big break with a Merc outfit in the Rimward Periphery.</t>
-  </si>
-  <si>
     <t>pilot_at_Brick.Description.FirstName</t>
   </si>
   <si>
@@ -134,16 +114,9 @@
   </si>
   <si>
     <t xml:space="preserve">There are those who grow up knowing what it means to want, and then there are those as blessed as Diego Velazquez. The only child of a wealthy Lyran mercantile family, Diego dreamt of ruling the battlefield as a war hero, at the controls of a gilded Zeus; a legend in his own right. When his schooling revealed an easily distracted child with trouble navigating his lessons, his parents knew he would be ill-suited to inherit the family business, but never had the heart to tell him. When he said he wanted to be a Mechwarrior, they knew he needed better grades, and more discipline, and didn’t have the heart to tell him. In the end, money made everything right, and his parents secured him a Battlemech; a washed-up Merc needed cash and they wanted the best for their only boy, so he was hired to train the teenage Diego to be a ‘Mech pilot, and eventually turn his Blackjack over to the Velazquez scion.
- Diego never did learn discipline, and never took no for an answer from his mentor. For two years the aging soldier tried to tutor the boy, and mold him into something resembling a Mechwarrior. But more often than not, the two ended up butting heads, with the elder calling the younger a ‘stubborn goat’, and the youth storming off to do something else less demanding. Eventually, the Mechwarrior’s health started to fail, and while resting in bed he officially turned his decrepit ‘Mech over to Diego, handing him a set of dog tags with ‘Capricorn’ stamped into them, and wishing him luck. Diego never saw the old man die, as he paid passage as soon as he could to Outreach, to find adventure and glory. Unsurprisingly, the headstrong, naive young man lost his ‘Mech, and finally, his misplaced pride. Life had slapped him in the face, and now that his eyes were open to reality, he felt humble, and wished for nothing more than to actually earn himself a spot among a real Mercenary command, and a chance to really earn that which was unfairly bought.
----
-There are those who grow up knowing what it means to want, and then there are those as blessed as Diego Velazquez. The only child of a wealthy Lyran mercantile family, Diego dreamt of ruling the battlefield as a war hero, at the controls of a gilded Zeus; a legend in his own right. When his schooling revealed an easily distracted child with trouble navigating his lessons, his parents knew he would be ill-suited to inherit the family business, but never had the heart to tell him. When he said he wanted to be a Mechwarrior, they knew he needed better grades, and more discipline, and didn’t have the heart to tell him. In the end, money made everything right, and his parents secured him a Battlemech; a washed-up Merc needed cash and they wanted the best for their only boy, so he was hired to train the teenage Diego to be a ‘Mech pilot, and eventually turn his Blackjack over to the Velazquez scion.
 Diego never did learn discipline, and never took no for an answer from his mentor. For two years the aging soldier tried to tutor the boy, and mold him into something resembling a Mechwarrior. But more often than not, the two ended up butting heads, with the elder calling the younger a ‘stubborn goat’, and the youth storming off to do something else less demanding. Eventually, the Mechwarrior’s health started to fail, and while resting in bed he officially turned his decrepit ‘Mech over to Diego, handing him a set of dog tags with ‘Capricorn’ stamped into them, and wishing him luck. Diego never saw the old man die, as he paid passage as soon as he could to Outreach, to find adventure and glory. Unsurprisingly, the headstrong, naive young man lost his ‘Mech, and finally, his misplaced pride. Life had slapped him in the face, and now that his eyes were open to reality, he felt humble, and wished for nothing more than to actually earn himself a spot among a real Mercenary command, and a chance to really earn that which was unfairly bought.</t>
   </si>
   <si>
-    <t xml:space="preserve">There are those who grow up knowing what it means to want, and then there are those as blessed as Diego Velazquez. The only child of a wealthy Lyran mercantile family, Diego dreamt of ruling the battlefield as a war hero, at the controls of a gilded Zeus; a legend in his own right. When his schooling revealed an easily distracted child with trouble navigating his lessons, his parents knew he would be ill-suited to inherit the family business, but never had the heart to tell him. When he said he wanted to be a Mechwarrior, they knew he needed better grades, and more discipline, and didn’t have the heart to tell him. In the end, money made everything right, and his parents secured him a Battlemech; a washed-up Merc needed cash and they wanted the best for their only boy, so he was hired to train the teenage Diego to be a ‘Mech pilot, and eventually turn his Blackjack over to the Velazquez scion.
- Diego never did learn discipline, and never took no for an answer from his mentor. For two years the aging soldier tried to tutor the boy, and mold him into something resembling a Mechwarrior. But more often than not, the two ended up butting heads, with the elder calling the younger a ‘stubborn goat’, and the youth storming off to do something else less demanding. Eventually, the Mechwarrior’s health started to fail, and while resting in bed he officially turned his decrepit ‘Mech over to Diego, handing him a set of dog tags with ‘Capricorn’ stamped into them, and wishing him luck. Diego never saw the old man die, as he paid passage as soon as he could to Outreach, to find adventure and glory. Unsurprisingly, the headstrong, naive young man lost his ‘Mech, and finally, his misplaced pride. Life had slapped him in the face, and now that his eyes were open to reality, he felt humble, and wished for nothing more than to actually earn himself a spot among a real Mercenary command, and a chance to really earn that which was unfairly bought.</t>
-  </si>
-  <si>
     <t>pilot_at_Capricorn.Description.FirstName</t>
   </si>
   <si>
@@ -169,16 +142,9 @@
   </si>
   <si>
     <t xml:space="preserve">It’s pretty easy to get Giselle Armand to open up about how she acquired her callsign; “Crash”. She’ll happily tell the tale of her bravely running an old, beat-up Shadow Hawk into a pirate Stinger head-on, taking out the enemy ‘Mech and chasing off a band of raiders on her home planet back in the Magistracy. It’s a pretty good drinking story, honestly. But that’s where the story always ends, and when pressed, “Crash” really doesn’t have much else to say.
- In fact, she doesn’t like talking about her past much at all, aside from that. She’ll admit to working with some no-name band of Mercs who you can’t even find in the MRB database, saying that’s where she learned to fight. And she’s a decent pilot, but there isn’t much military behind whatever training she got. Her trigger finger is twitchy. That can be fixed. She’s not particularly tough, but that’s nothing the regular exercise that comes from being stuck in transit between contracts won’t help. She’s got a decent mind for tactics, but it’s more flash-in-the-pan sort of brilliance than the long-game sort of tact that a competent commander needs or looks for. No, there’s just something about her that doesn’t add up, but she hasn’t gotten anyone killed yet, at least nobody on her team at any rate, so all the typical jargon that comes with the job flying completely over her head just seems like an oddity more than a detriment. Though it’s hard not to wonder what her story really is, and if it’s worth all the effort it’ll take to get her up to snuff.
----
-It’s pretty easy to get Giselle Armand to open up about how she acquired her callsign; “Crash”. She’ll happily tell the tale of her bravely running an old, beat-up Shadow Hawk into a pirate Stinger head-on, taking out the enemy ‘Mech and chasing off a band of raiders on her home planet back in the Magistracy. It’s a pretty good drinking story, honestly. But that’s where the story always ends, and when pressed, “Crash” really doesn’t have much else to say.
 In fact, she doesn’t like talking about her past much at all, aside from that. She’ll admit to working with some no-name band of Mercs who you can’t even find in the MRB database, saying that’s where she learned to fight. And she’s a decent pilot, but there isn’t much military behind whatever training she got. Her trigger finger is twitchy. That can be fixed. She’s not particularly tough, but that’s nothing the regular exercise that comes from being stuck in transit between contracts won’t help. She’s got a decent mind for tactics, but it’s more flash-in-the-pan sort of brilliance than the long-game sort of tact that a competent commander needs or looks for. No, there’s just something about her that doesn’t add up, but she hasn’t gotten anyone killed yet, at least nobody on her team at any rate, so all the typical jargon that comes with the job flying completely over her head just seems like an oddity more than a detriment. Though it’s hard not to wonder what her story really is, and if it’s worth all the effort it’ll take to get her up to snuff.</t>
   </si>
   <si>
-    <t xml:space="preserve">It’s pretty easy to get Giselle Armand to open up about how she acquired her callsign; “Crash”. She’ll happily tell the tale of her bravely running an old, beat-up Shadow Hawk into a pirate Stinger head-on, taking out the enemy ‘Mech and chasing off a band of raiders on her home planet back in the Magistracy. It’s a pretty good drinking story, honestly. But that’s where the story always ends, and when pressed, “Crash” really doesn’t have much else to say.
- In fact, she doesn’t like talking about her past much at all, aside from that. She’ll admit to working with some no-name band of Mercs who you can’t even find in the MRB database, saying that’s where she learned to fight. And she’s a decent pilot, but there isn’t much military behind whatever training she got. Her trigger finger is twitchy. That can be fixed. She’s not particularly tough, but that’s nothing the regular exercise that comes from being stuck in transit between contracts won’t help. She’s got a decent mind for tactics, but it’s more flash-in-the-pan sort of brilliance than the long-game sort of tact that a competent commander needs or looks for. No, there’s just something about her that doesn’t add up, but she hasn’t gotten anyone killed yet, at least nobody on her team at any rate, so all the typical jargon that comes with the job flying completely over her head just seems like an oddity more than a detriment. Though it’s hard not to wonder what her story really is, and if it’s worth all the effort it’ll take to get her up to snuff.</t>
-  </si>
-  <si>
     <t>pilot_at_Crash.Description.FirstName</t>
   </si>
   <si>
@@ -204,16 +170,9 @@
   </si>
   <si>
     <t xml:space="preserve">It's easy to be the cream of the crop when the crop is harvested from a tiny field in a distant farm nobody knows or really cares about. Harrison Dumais's family were just such people; the fortunate few among few. They were successful traders, dealing in necessities brokered from far and wide, and even made enough money to employ their own small security detail. Just a few Scorpion tanks and an old, beatten-up Commando, but it was more than sufficient to keep any bandits or petty thieves at bay.
- Setups like theirs didn't normally attract pirates, but eventually even the fattest dogs get hungry, and one day a small band of brigands came looking for food, water, ammunition, and more specifically, the family Commando. Harrison, being the eldest, stood to inherit the entire operation from his father, and in addition to learning the ins and outs of trade, was given command of the security forces, and the Commando. Sadly, that far in the middle of nowhere, good training was hard to buy, and those accustomed to conflict easily trumped those with plenty of heart but little skill. The Commando, the goods, and the family were all lost that day, and Harrison, along with a few workers and foremen, were all that remained. With no reason to stay, the now heir to nothing left his dusty world, taking on his current moniker, and sought mercenary employ.
----
-It's easy to be the cream of the crop when the crop is harvested from a tiny field in a distant farm nobody knows or really cares about. Harrison Dumais's family were just such people; the fortunate few among few. They were successful traders, dealing in necessities brokered from far and wide, and even made enough money to employ their own small security detail. Just a few Scorpion tanks and an old, beatten-up Commando, but it was more than sufficient to keep any bandits or petty thieves at bay.
 Setups like theirs didn't normally attract pirates, but eventually even the fattest dogs get hungry, and one day a small band of brigands came looking for food, water, ammunition, and more specifically, the family Commando. Harrison, being the eldest, stood to inherit the entire operation from his father, and in addition to learning the ins and outs of trade, was given command of the security forces, and the Commando. Sadly, that far in the middle of nowhere, good training was hard to buy, and those accustomed to conflict easily trumped those with plenty of heart but little skill. The Commando, the goods, and the family were all lost that day, and Harrison, along with a few workers and foremen, were all that remained. With no reason to stay, the now heir to nothing left his dusty world, taking on his current moniker, and sought mercenary employ.</t>
   </si>
   <si>
-    <t xml:space="preserve">It's easy to be the cream of the crop when the crop is harvested from a tiny field in a distant farm nobody knows or really cares about. Harrison Dumais's family were just such people; the fortunate few among few. They were successful traders, dealing in necessities brokered from far and wide, and even made enough money to employ their own small security detail. Just a few Scorpion tanks and an old, beatten-up Commando, but it was more than sufficient to keep any bandits or petty thieves at bay.
- Setups like theirs didn't normally attract pirates, but eventually even the fattest dogs get hungry, and one day a small band of brigands came looking for food, water, ammunition, and more specifically, the family Commando. Harrison, being the eldest, stood to inherit the entire operation from his father, and in addition to learning the ins and outs of trade, was given command of the security forces, and the Commando. Sadly, that far in the middle of nowhere, good training was hard to buy, and those accustomed to conflict easily trumped those with plenty of heart but little skill. The Commando, the goods, and the family were all lost that day, and Harrison, along with a few workers and foremen, were all that remained. With no reason to stay, the now heir to nothing left his dusty world, taking on his current moniker, and sought mercenary employ.</t>
-  </si>
-  <si>
     <t>pilot_at_Dustball.Description.FirstName</t>
   </si>
   <si>
@@ -239,16 +198,9 @@
   </si>
   <si>
     <t xml:space="preserve">Johannes Seville hates being the center of attention. He'd grown up a good-looking kid, always the target of the flirtations of the girls at school, and by the end of his education he'd had more than a few beaus. At the time he loved it; the adulation, the ease with which he could manpulate teachers with a smile, or get favors from classmates. Everyone liked him.
- His sharp appearance turned out to be a double-edged sword however, and once he enrolled to serve a term in the MAF as part of a local cadre battalion, he attracted the attentions of a noblewoman officer who was very, very interested in him. He did not reciprocate, and that's when the trouble started. He was caught in a catch-22; fraternizing with an officer was a punishable offense, but he didn't have the right to turn down a noblewoman. Instead of remaining trapped in the situation, he fled, schmoozing his way onto a cargo dropship and offworld the first chance he got. Now he stays on the move, preferring to contract with mercenaries who stay clear of the Magistracy and the trouble he left behind. He's since developed an introverted personality, and is a quiet, asocial sort. He gets uncomfortable in crowds, and prefers the solace of his cabin when not in the cockpit of a 'Mech.
----
-Johannes Seville hates being the center of attention. He'd grown up a good-looking kid, always the target of the flirtations of the girls at school, and by the end of his education he'd had more than a few beaus. At the time he loved it; the adulation, the ease with which he could manpulate teachers with a smile, or get favors from classmates. Everyone liked him.
 His sharp appearance turned out to be a double-edged sword however, and once he enrolled to serve a term in the MAF as part of a local cadre battalion, he attracted the attentions of a noblewoman officer who was very, very interested in him. He did not reciprocate, and that's when the trouble started. He was caught in a catch-22; fraternizing with an officer was a punishable offense, but he didn't have the right to turn down a noblewoman. Instead of remaining trapped in the situation, he fled, schmoozing his way onto a cargo dropship and offworld the first chance he got. Now he stays on the move, preferring to contract with mercenaries who stay clear of the Magistracy and the trouble he left behind. He's since developed an introverted personality, and is a quiet, asocial sort. He gets uncomfortable in crowds, and prefers the solace of his cabin when not in the cockpit of a 'Mech.</t>
   </si>
   <si>
-    <t xml:space="preserve">Johannes Seville hates being the center of attention. He'd grown up a good-looking kid, always the target of the flirtations of the girls at school, and by the end of his education he'd had more than a few beaus. At the time he loved it; the adulation, the ease with which he could manpulate teachers with a smile, or get favors from classmates. Everyone liked him.
- His sharp appearance turned out to be a double-edged sword however, and once he enrolled to serve a term in the MAF as part of a local cadre battalion, he attracted the attentions of a noblewoman officer who was very, very interested in him. He did not reciprocate, and that's when the trouble started. He was caught in a catch-22; fraternizing with an officer was a punishable offense, but he didn't have the right to turn down a noblewoman. Instead of remaining trapped in the situation, he fled, schmoozing his way onto a cargo dropship and offworld the first chance he got. Now he stays on the move, preferring to contract with mercenaries who stay clear of the Magistracy and the trouble he left behind. He's since developed an introverted personality, and is a quiet, asocial sort. He gets uncomfortable in crowds, and prefers the solace of his cabin when not in the cockpit of a 'Mech.</t>
-  </si>
-  <si>
     <t>pilot_at_Face.Description.FirstName</t>
   </si>
   <si>
@@ -274,19 +226,10 @@
   </si>
   <si>
     <t xml:space="preserve">There’s a normal life, then there’s an extraordinary life. Then of course there’s a miserable life. And then there’s Freakshow’s life, which there isn’t enough time or alcohol to sit through in one telling. We’re going to have to do this in bullet points, basically.
- Freakshow was born; we know that much, probably. He grew up among the folk of one of the many traveling Canopian circuses that made the rounds in the Rimward Periphery, bringing merriment, debauchery, and just a little weirdness to worlds both rich and poor. He says he got his first tattoo at eight. It’s a cartoon elephant. He’ll show you sometime. At some point when he was a teenager he discovered that he was both a glutton for punishment and enjoyed fighting. A lot. For both. Then came the piercings, and the torn-out piercings, and the bruises and broken noses and knocked-out teeth. Swishing with whiskey to disinfect after losing an incisor lead him to realize how much he liked whiskey too. And then there were pirates. He liked those guys, so he ran away with them. Yes, he ran away FROM the circus. Because of course he did. He’s Freakshow.
- While with the pirates he discovered how much more he liked drinking and fighting and tattoos and piercings and having piercings torn out and cartoon elephants and he added women and boxing for cash to that list. Then he added boxing in ‘Mechs to that list, because after a raid went south, the crew needed someone to step up and pilot the barely-functioning Javelin that they’d mostly scraped clean after said spoiled job. It was then that Freakshow discovered he piloted better drunk, because neurohelmets gave him a headache, and he loved to scrap toe-to-toe with other Battlemech pilots. So that’s what he does now. His crew all died except him and a few other stragglers, so he hires himself out as a ‘distraction’. We’ll leave you to decide what that actually means.
----
-There’s a normal life, then there’s an extraordinary life. Then of course there’s a miserable life. And then there’s Freakshow’s life, which there isn’t enough time or alcohol to sit through in one telling. We’re going to have to do this in bullet points, basically.
 Freakshow was born; we know that much, probably. He grew up among the folk of one of the many traveling Canopian circuses that made the rounds in the Rimward Periphery, bringing merriment, debauchery, and just a little weirdness to worlds both rich and poor. He says he got his first tattoo at eight. It’s a cartoon elephant. He’ll show you sometime. At some point when he was a teenager he discovered that he was both a glutton for punishment and enjoyed fighting. A lot. For both. Then came the piercings, and the torn-out piercings, and the bruises and broken noses and knocked-out teeth. Swishing with whiskey to disinfect after losing an incisor lead him to realize how much he liked whiskey too. And then there were pirates. He liked those guys, so he ran away with them. Yes, he ran away FROM the circus. Because of course he did. He’s Freakshow.
 While with the pirates he discovered how much more he liked drinking and fighting and tattoos and piercings and having piercings torn out and cartoon elephants and he added women and boxing for cash to that list. Then he added boxing in ‘Mechs to that list, because after a raid went south, the crew needed someone to step up and pilot the barely-functioning Javelin that they’d mostly scraped clean after said spoiled job. It was then that Freakshow discovered he piloted better drunk, because neurohelmets gave him a headache, and he loved to scrap toe-to-toe with other Battlemech pilots. So that’s what he does now. His crew all died except him and a few other stragglers, so he hires himself out as a ‘distraction’. We’ll leave you to decide what that actually means.</t>
   </si>
   <si>
-    <t xml:space="preserve">There’s a normal life, then there’s an extraordinary life. Then of course there’s a miserable life. And then there’s Freakshow’s life, which there isn’t enough time or alcohol to sit through in one telling. We’re going to have to do this in bullet points, basically.
- Freakshow was born; we know that much, probably. He grew up among the folk of one of the many traveling Canopian circuses that made the rounds in the Rimward Periphery, bringing merriment, debauchery, and just a little weirdness to worlds both rich and poor. He says he got his first tattoo at eight. It’s a cartoon elephant. He’ll show you sometime. At some point when he was a teenager he discovered that he was both a glutton for punishment and enjoyed fighting. A lot. For both. Then came the piercings, and the torn-out piercings, and the bruises and broken noses and knocked-out teeth. Swishing with whiskey to disinfect after losing an incisor lead him to realize how much he liked whiskey too. And then there were pirates. He liked those guys, so he ran away with them. Yes, he ran away FROM the circus. Because of course he did. He’s Freakshow.
- While with the pirates he discovered how much more he liked drinking and fighting and tattoos and piercings and having piercings torn out and cartoon elephants and he added women and boxing for cash to that list. Then he added boxing in ‘Mechs to that list, because after a raid went south, the crew needed someone to step up and pilot the barely-functioning Javelin that they’d mostly scraped clean after said spoiled job. It was then that Freakshow discovered he piloted better drunk, because neurohelmets gave him a headache, and he loved to scrap toe-to-toe with other Battlemech pilots. So that’s what he does now. His crew all died except him and a few other stragglers, so he hires himself out as a ‘distraction’. We’ll leave you to decide what that actually means.</t>
-  </si>
-  <si>
     <t>pilot_at_Freakshow.Description.FirstName</t>
   </si>
   <si>
@@ -339,16 +282,9 @@
   </si>
   <si>
     <t xml:space="preserve">Avelynn Dupré was born knowing she wanted to be a star. From the time she could walk she danced, and from the time she could talk she sang. All through school she was that kid who stayed after class to hound the music or drama teachers to give her extra lessons, or watch her perform a piece. As her family was not of very high standing within the Federated Suns, someone like her had to grab for every opportunity possible. With each begged-for lesson or guilt-tripped critique, her talents grew, and so did her knowledge that all it would take was being discovered, and she'd become the new media darling of Davion space; maybe even beyond.
- In her later teen years Avelynn saw something that would change her life, and her plans; she bore witness to the agility and grace possible in a Battlemech while watching a vid of the Noisiel Summer Games. From this came her obession with Battlemechs, and combining them with music and dance to create something she thought would take the Inner Sphere by storm; to see a choreographed show of nimble 'Mechs set to music of her own production. It couldn't lose. Her devotion to the idea drove her though school, and into the ranks of the nearby Regional Training Battalion, where she hoped to gain the skills needed to bring her to center stage, and make her a star. And it might have happened had she not been caught utilizing Davion property practicing her routine, nevermind being the ringleader of a small group of cadets she'd schmoozed into working with her, promising them a share of the spotlight. It was too much for her commanding officers, and so she was summarily discharged. With few prospects, and no saftey net, she hitched rides on whatever dropships and jumpships she could till her journey unceremoniously plopped her in the Periphery, and opened her eyes to the potential for a second chance. All she had to to was find some bleeding heart who'd support her vision; for a cut of the profits and a share of the limelight, of course. But only a share. Center stage belongs to Glam, after all.
----
-Avelynn Dupré was born knowing she wanted to be a star. From the time she could walk she danced, and from the time she could talk she sang. All through school she was that kid who stayed after class to hound the music or drama teachers to give her extra lessons, or watch her perform a piece. As her family was not of very high standing within the Federated Suns, someone like her had to grab for every opportunity possible. With each begged-for lesson or guilt-tripped critique, her talents grew, and so did her knowledge that all it would take was being discovered, and she'd become the new media darling of Davion space; maybe even beyond.
 In her later teen years Avelynn saw something that would change her life, and her plans; she bore witness to the agility and grace possible in a Battlemech while watching a vid of the Noisiel Summer Games. From this came her obession with Battlemechs, and combining them with music and dance to create something she thought would take the Inner Sphere by storm; to see a choreographed show of nimble 'Mechs set to music of her own production. It couldn't lose. Her devotion to the idea drove her though school, and into the ranks of the nearby Regional Training Battalion, where she hoped to gain the skills needed to bring her to center stage, and make her a star. And it might have happened had she not been caught utilizing Davion property practicing her routine, nevermind being the ringleader of a small group of cadets she'd schmoozed into working with her, promising them a share of the spotlight. It was too much for her commanding officers, and so she was summarily discharged. With few prospects, and no saftey net, she hitched rides on whatever dropships and jumpships she could till her journey unceremoniously plopped her in the Periphery, and opened her eyes to the potential for a second chance. All she had to to was find some bleeding heart who'd support her vision; for a cut of the profits and a share of the limelight, of course. But only a share. Center stage belongs to Glam, after all.</t>
   </si>
   <si>
-    <t xml:space="preserve">Avelynn Dupré was born knowing she wanted to be a star. From the time she could walk she danced, and from the time she could talk she sang. All through school she was that kid who stayed after class to hound the music or drama teachers to give her extra lessons, or watch her perform a piece. As her family was not of very high standing within the Federated Suns, someone like her had to grab for every opportunity possible. With each begged-for lesson or guilt-tripped critique, her talents grew, and so did her knowledge that all it would take was being discovered, and she'd become the new media darling of Davion space; maybe even beyond.
- In her later teen years Avelynn saw something that would change her life, and her plans; she bore witness to the agility and grace possible in a Battlemech while watching a vid of the Noisiel Summer Games. From this came her obession with Battlemechs, and combining them with music and dance to create something she thought would take the Inner Sphere by storm; to see a choreographed show of nimble 'Mechs set to music of her own production. It couldn't lose. Her devotion to the idea drove her though school, and into the ranks of the nearby Regional Training Battalion, where she hoped to gain the skills needed to bring her to center stage, and make her a star. And it might have happened had she not been caught utilizing Davion property practicing her routine, nevermind being the ringleader of a small group of cadets she'd schmoozed into working with her, promising them a share of the spotlight. It was too much for her commanding officers, and so she was summarily discharged. With few prospects, and no saftey net, she hitched rides on whatever dropships and jumpships she could till her journey unceremoniously plopped her in the Periphery, and opened her eyes to the potential for a second chance. All she had to to was find some bleeding heart who'd support her vision; for a cut of the profits and a share of the limelight, of course. But only a share. Center stage belongs to Glam, after all.</t>
-  </si>
-  <si>
     <t>pilot_at_Glam.Description.FirstName</t>
   </si>
   <si>
@@ -374,16 +310,9 @@
   </si>
   <si>
     <t xml:space="preserve">Most folk from the Outworlds Alliance favor peace above war, and isolationism over opening themselves up to the outside world. After the Reunification War, people in the Periphery largely just wanted to be left alone, and the OA was no exception. Droves of people who hadn't fit in within the confines of the Great Houses had fled or migrated there to live simply, with several small groups of Luddites and other fringe thinkers making their homes among the like-minded, or at least the like-willed. This is the part of the story where you'd expect to be told about the 'wolf among sheep' or the 'problem child' who stood out through her addiction to thrills and violence. LeFay's story is no such tale. Anha's simply a Mechwarrior that sought to keep the peace, and so trained for war in the hopes to never really have to fight. Her main talent lies in coaxing her sensors to perform better than most, making her very adept at calling down fire from friendly Aero assets onto the heads of the pirates that tended to beleaguer the Alliance. She got her callsign because of her 'wizardry' with sensors, and the fact that her assigned ride was a Merlin, both in training and in combat, so her lance mates found it funny. Her own personal style doesn't help though; with her heavily shadowed eyes and dark hair she looks every part the witch, and to some unlucky pirates, maybe she was.
- She came to be among the many Mercenary pilots for hire because her ride was shot out from under her in a raid, and her command simply couldn't afford another one, so she left. All she really knew was piloting 'Mechs, and farm work didn't sound like much of a life after that. So, she threw her name in the proverbial hat, and waited patiently for a Merc command to give her a shot.
----
-Most folk from the Outworlds Alliance favor peace above war, and isolationism over opening themselves up to the outside world. After the Reunification War, people in the Periphery largely just wanted to be left alone, and the OA was no exception. Droves of people who hadn't fit in within the confines of the Great Houses had fled or migrated there to live simply, with several small groups of Luddites and other fringe thinkers making their homes among the like-minded, or at least the like-willed. This is the part of the story where you'd expect to be told about the 'wolf among sheep' or the 'problem child' who stood out through her addiction to thrills and violence. LeFay's story is no such tale. Anha's simply a Mechwarrior that sought to keep the peace, and so trained for war in the hopes to never really have to fight. Her main talent lies in coaxing her sensors to perform better than most, making her very adept at calling down fire from friendly Aero assets onto the heads of the pirates that tended to beleaguer the Alliance. She got her callsign because of her 'wizardry' with sensors, and the fact that her assigned ride was a Merlin, both in training and in combat, so her lance mates found it funny. Her own personal style doesn't help though; with her heavily shadowed eyes and dark hair she looks every part the witch, and to some unlucky pirates, maybe she was.
 She came to be among the many Mercenary pilots for hire because her ride was shot out from under her in a raid, and her command simply couldn't afford another one, so she left. All she really knew was piloting 'Mechs, and farm work didn't sound like much of a life after that. So, she threw her name in the proverbial hat, and waited patiently for a Merc command to give her a shot.</t>
   </si>
   <si>
-    <t xml:space="preserve">Most folk from the Outworlds Alliance favor peace above war, and isolationism over opening themselves up to the outside world. After the Reunification War, people in the Periphery largely just wanted to be left alone, and the OA was no exception. Droves of people who hadn't fit in within the confines of the Great Houses had fled or migrated there to live simply, with several small groups of Luddites and other fringe thinkers making their homes among the like-minded, or at least the like-willed. This is the part of the story where you'd expect to be told about the 'wolf among sheep' or the 'problem child' who stood out through her addiction to thrills and violence. LeFay's story is no such tale. Anha's simply a Mechwarrior that sought to keep the peace, and so trained for war in the hopes to never really have to fight. Her main talent lies in coaxing her sensors to perform better than most, making her very adept at calling down fire from friendly Aero assets onto the heads of the pirates that tended to beleaguer the Alliance. She got her callsign because of her 'wizardry' with sensors, and the fact that her assigned ride was a Merlin, both in training and in combat, so her lance mates found it funny. Her own personal style doesn't help though; with her heavily shadowed eyes and dark hair she looks every part the witch, and to some unlucky pirates, maybe she was.
- She came to be among the many Mercenary pilots for hire because her ride was shot out from under her in a raid, and her command simply couldn't afford another one, so she left. All she really knew was piloting 'Mechs, and farm work didn't sound like much of a life after that. So, she threw her name in the proverbial hat, and waited patiently for a Merc command to give her a shot.</t>
-  </si>
-  <si>
     <t>pilot_at_LeFay.Description.FirstName</t>
   </si>
   <si>
@@ -409,16 +338,9 @@
   </si>
   <si>
     <t xml:space="preserve">Born and raised on Larsha, one of the hubs of Periphery activity in the Confederation, Yue Doyle grew up a military girl. Her father served in the 5th Confederation Reserve Cavalry, piloting a Locust 1M. All through her youth, she listened to his stories about training and chasing off pirates.
- When she turned 18, she enrolled in the Duchy Regional Training Center on Zanzibar so she could fight beside her father in the 5th Reserve Cav. Just before she graduated, she heard news that he’d been killed during a raid by unmarked forces originating from Taurian space. That same week, she received an official dispatch assigning her to the 5th back on Larsha, placing her in her father’s old company. When she arrived, she was assigned to his Locust; a painful reminder of her recent loss. She proved to fill his boots more than adequately, and she turned down ever promotion to a heavier machine. Yue preferred her role as rapid response fire support, and she wasn't ready to give the chair over to someone who wouldn't appreciate the 'Mech's history. Eventually the brass informed her she had no choice when the next promotion offer came; upgrade or opt out. It's an easy guess what she chose, and it's just as easy to wager why she'd want to sign on with a Mercenary outfit with cause to venture out into the Rimward Periphery.
----
-Born and raised on Larsha, one of the hubs of Periphery activity in the Confederation, Yue Doyle grew up a military girl. Her father served in the 5th Confederation Reserve Cavalry, piloting a Locust 1M. All through her youth, she listened to his stories about training and chasing off pirates.
 When she turned 18, she enrolled in the Duchy Regional Training Center on Zanzibar so she could fight beside her father in the 5th Reserve Cav. Just before she graduated, she heard news that he’d been killed during a raid by unmarked forces originating from Taurian space. That same week, she received an official dispatch assigning her to the 5th back on Larsha, placing her in her father’s old company. When she arrived, she was assigned to his Locust; a painful reminder of her recent loss. She proved to fill his boots more than adequately, and she turned down ever promotion to a heavier machine. Yue preferred her role as rapid response fire support, and she wasn't ready to give the chair over to someone who wouldn't appreciate the 'Mech's history. Eventually the brass informed her she had no choice when the next promotion offer came; upgrade or opt out. It's an easy guess what she chose, and it's just as easy to wager why she'd want to sign on with a Mercenary outfit with cause to venture out into the Rimward Periphery.</t>
   </si>
   <si>
-    <t xml:space="preserve">Born and raised on Larsha, one of the hubs of Periphery activity in the Confederation, Yue Doyle grew up a military girl. Her father served in the 5th Confederation Reserve Cavalry, piloting a Locust 1M. All through her youth, she listened to his stories about training and chasing off pirates.
- When she turned 18, she enrolled in the Duchy Regional Training Center on Zanzibar so she could fight beside her father in the 5th Reserve Cav. Just before she graduated, she heard news that he’d been killed during a raid by unmarked forces originating from Taurian space. That same week, she received an official dispatch assigning her to the 5th back on Larsha, placing her in her father’s old company. When she arrived, she was assigned to his Locust; a painful reminder of her recent loss. She proved to fill his boots more than adequately, and she turned down ever promotion to a heavier machine. Yue preferred her role as rapid response fire support, and she wasn't ready to give the chair over to someone who wouldn't appreciate the 'Mech's history. Eventually the brass informed her she had no choice when the next promotion offer came; upgrade or opt out. It's an easy guess what she chose, and it's just as easy to wager why she'd want to sign on with a Mercenary outfit with cause to venture out into the Rimward Periphery.</t>
-  </si>
-  <si>
     <t>pilot_at_Longshot.Description.FirstName</t>
   </si>
   <si>
@@ -444,16 +366,9 @@
   </si>
   <si>
     <t xml:space="preserve">Clayton Matauita is a crack shot, a pretty tough cookie, and an all-around decent sort of guy. At least, he tries. Most Mechwarriors have fuzzy dice, pictures of family, or pictures of Natasha Kerensky in her prime gracing the instrument panels of their ‘Mechs. Clayton has a pair of small athletic shoes, and they are the biggest reason he’s a crack shot, a pretty tough cookie, and an all-around decent sort of guy.
- The Matauitas grew up in Rasalhague space, proud of their little state, and completely oblivious to the oncoming storm. When the Clans struck, Clayton and his younger brother Max were far too small to fight, and his family were hardly warriors to boot. So like most, they fled. Or tried. Not everyone was lucky enough to make it off-world in the chaos, and Clayton’s family was separated during evac, with he and his mother headed into one dropship, and his father and younger brother into the other. As one might guess, he never saw his father or brother again, and it took several years to get the official news of the fate of their transport. The last real conversation he’d had with his little brother had been full of tears, with the small boy vowing to become a great Mechwarrior and come back to chase the Clans out. Clayton’s path of exile took him far away from home, but he’s content to stay, at least until he gets good enough to go back, and do what his little brother will never get the chance to: kick some Clan ass.
----
-Clayton Matauita is a crack shot, a pretty tough cookie, and an all-around decent sort of guy. At least, he tries. Most Mechwarriors have fuzzy dice, pictures of family, or pictures of Natasha Kerensky in her prime gracing the instrument panels of their ‘Mechs. Clayton has a pair of small athletic shoes, and they are the biggest reason he’s a crack shot, a pretty tough cookie, and an all-around decent sort of guy.
 The Matauitas grew up in Rasalhague space, proud of their little state, and completely oblivious to the oncoming storm. When the Clans struck, Clayton and his younger brother Max were far too small to fight, and his family were hardly warriors to boot. So like most, they fled. Or tried. Not everyone was lucky enough to make it off-world in the chaos, and Clayton’s family was separated during evac, with he and his mother headed into one dropship, and his father and younger brother into the other. As one might guess, he never saw his father or brother again, and it took several years to get the official news of the fate of their transport. The last real conversation he’d had with his little brother had been full of tears, with the small boy vowing to become a great Mechwarrior and come back to chase the Clans out. Clayton’s path of exile took him far away from home, but he’s content to stay, at least until he gets good enough to go back, and do what his little brother will never get the chance to: kick some Clan ass.</t>
   </si>
   <si>
-    <t xml:space="preserve">Clayton Matauita is a crack shot, a pretty tough cookie, and an all-around decent sort of guy. At least, he tries. Most Mechwarriors have fuzzy dice, pictures of family, or pictures of Natasha Kerensky in her prime gracing the instrument panels of their ‘Mechs. Clayton has a pair of small athletic shoes, and they are the biggest reason he’s a crack shot, a pretty tough cookie, and an all-around decent sort of guy.
- The Matauitas grew up in Rasalhague space, proud of their little state, and completely oblivious to the oncoming storm. When the Clans struck, Clayton and his younger brother Max were far too small to fight, and his family were hardly warriors to boot. So like most, they fled. Or tried. Not everyone was lucky enough to make it off-world in the chaos, and Clayton’s family was separated during evac, with he and his mother headed into one dropship, and his father and younger brother into the other. As one might guess, he never saw his father or brother again, and it took several years to get the official news of the fate of their transport. The last real conversation he’d had with his little brother had been full of tears, with the small boy vowing to become a great Mechwarrior and come back to chase the Clans out. Clayton’s path of exile took him far away from home, but he’s content to stay, at least until he gets good enough to go back, and do what his little brother will never get the chance to: kick some Clan ass.</t>
-  </si>
-  <si>
     <t>pilot_at_Max.Description.FirstName</t>
   </si>
   <si>
@@ -479,16 +394,9 @@
   </si>
   <si>
     <t xml:space="preserve">People like to talk about the pirate life as though it were some romantic, free-wheeling vacation where you stick it to the Man (the Inner Sphere, in this case), and live the high life, complete with blackjack and hookers. At least, that’s what people who’ve never suffered from a pirate attack like to dream, or those who’ve never tried living as one. The reality is piracy is dirty, cruel, dangerous, and takes the right type of merciless cunning to make sure the only dagger is the one in your hand, not in your back. And Yessica Durant fits that bill.
- The safest way to live in the Tortuga Dominions is not to spend too much time in the Tortuga Dominions, and Yessica knew the hallways and hidey-holes of most of the Jumpships in the Tortugan fleets better than she knew the way around the apartment she crashed in when she was forced planetside during down time. And she knew where all the best gambling was to be found. Which, naturally, is probably the reason she’s now in the Rimward Periphery, looking for more “reputable” work. And if it is, she ain’t saying. She knows her way around a ‘Mech though, and as far as she tells it, that’s all any potential employers need to know about her. That, and to just leave her alone, lest she bite the hand that feeds.
----
-People like to talk about the pirate life as though it were some romantic, free-wheeling vacation where you stick it to the Man (the Inner Sphere, in this case), and live the high life, complete with blackjack and hookers. At least, that’s what people who’ve never suffered from a pirate attack like to dream, or those who’ve never tried living as one. The reality is piracy is dirty, cruel, dangerous, and takes the right type of merciless cunning to make sure the only dagger is the one in your hand, not in your back. And Yessica Durant fits that bill.
 The safest way to live in the Tortuga Dominions is not to spend too much time in the Tortuga Dominions, and Yessica knew the hallways and hidey-holes of most of the Jumpships in the Tortugan fleets better than she knew the way around the apartment she crashed in when she was forced planetside during down time. And she knew where all the best gambling was to be found. Which, naturally, is probably the reason she’s now in the Rimward Periphery, looking for more “reputable” work. And if it is, she ain’t saying. She knows her way around a ‘Mech though, and as far as she tells it, that’s all any potential employers need to know about her. That, and to just leave her alone, lest she bite the hand that feeds.</t>
   </si>
   <si>
-    <t xml:space="preserve">People like to talk about the pirate life as though it were some romantic, free-wheeling vacation where you stick it to the Man (the Inner Sphere, in this case), and live the high life, complete with blackjack and hookers. At least, that’s what people who’ve never suffered from a pirate attack like to dream, or those who’ve never tried living as one. The reality is piracy is dirty, cruel, dangerous, and takes the right type of merciless cunning to make sure the only dagger is the one in your hand, not in your back. And Yessica Durant fits that bill.
- The safest way to live in the Tortuga Dominions is not to spend too much time in the Tortuga Dominions, and Yessica knew the hallways and hidey-holes of most of the Jumpships in the Tortugan fleets better than she knew the way around the apartment she crashed in when she was forced planetside during down time. And she knew where all the best gambling was to be found. Which, naturally, is probably the reason she’s now in the Rimward Periphery, looking for more “reputable” work. And if it is, she ain’t saying. She knows her way around a ‘Mech though, and as far as she tells it, that’s all any potential employers need to know about her. That, and to just leave her alone, lest she bite the hand that feeds.</t>
-  </si>
-  <si>
     <t>pilot_at_Mongrel.Description.FirstName</t>
   </si>
   <si>
@@ -514,16 +422,9 @@
   </si>
   <si>
     <t xml:space="preserve">Every man and woman able to do so performs four years of compulsory service in the Taurian Defense Force, and Holden Tagart was no different. Unlike many of his contemporaries however, he excelled in his training, and it resonated with him, so he joined up full-time, and was transferred from his local canton to Taurus to attend the prestigious École Militaire. There, he hoped to stand above the rest, and enrolled in the MOS most likely to get him into the Taurian Ministry of Intelligence, but he was ill-suited for covert work and washed out.
- Recirculated back into the stream of standard trainees, his superiors suggested he try for tank command or Mechwarrior. He chose the latter, preferring not to be directly responsible for so many other soldiers. Part of the appeal of spec ops to him had been the chance to work alone, and shine alone, and he chaffed at the notion of working alongside anyone that could hold him back. His superiors knew this was the reason he’d never have made a good member of the TMI, but they kept it to themselves. Tagart did well in his training, and was soon assigned to a recon lance, piloting a Commando. He did his time, retired with little fanfare, and moved on to the greater Periphery in general, hoping to secure a spot in a Mercenary command, where he could prove himself and shine brighter than he believed he ever could as another face among rows of government troops.
----
-Every man and woman able to do so performs four years of compulsory service in the Taurian Defense Force, and Holden Tagart was no different. Unlike many of his contemporaries however, he excelled in his training, and it resonated with him, so he joined up full-time, and was transferred from his local canton to Taurus to attend the prestigious École Militaire. There, he hoped to stand above the rest, and enrolled in the MOS most likely to get him into the Taurian Ministry of Intelligence, but he was ill-suited for covert work and washed out.
 Recirculated back into the stream of standard trainees, his superiors suggested he try for tank command or Mechwarrior. He chose the latter, preferring not to be directly responsible for so many other soldiers. Part of the appeal of spec ops to him had been the chance to work alone, and shine alone, and he chaffed at the notion of working alongside anyone that could hold him back. His superiors knew this was the reason he’d never have made a good member of the TMI, but they kept it to themselves. Tagart did well in his training, and was soon assigned to a recon lance, piloting a Commando. He did his time, retired with little fanfare, and moved on to the greater Periphery in general, hoping to secure a spot in a Mercenary command, where he could prove himself and shine brighter than he believed he ever could as another face among rows of government troops.</t>
   </si>
   <si>
-    <t xml:space="preserve">Every man and woman able to do so performs four years of compulsory service in the Taurian Defense Force, and Holden Tagart was no different. Unlike many of his contemporaries however, he excelled in his training, and it resonated with him, so he joined up full-time, and was transferred from his local canton to Taurus to attend the prestigious École Militaire. There, he hoped to stand above the rest, and enrolled in the MOS most likely to get him into the Taurian Ministry of Intelligence, but he was ill-suited for covert work and washed out.
- Recirculated back into the stream of standard trainees, his superiors suggested he try for tank command or Mechwarrior. He chose the latter, preferring not to be directly responsible for so many other soldiers. Part of the appeal of spec ops to him had been the chance to work alone, and shine alone, and he chaffed at the notion of working alongside anyone that could hold him back. His superiors knew this was the reason he’d never have made a good member of the TMI, but they kept it to themselves. Tagart did well in his training, and was soon assigned to a recon lance, piloting a Commando. He did his time, retired with little fanfare, and moved on to the greater Periphery in general, hoping to secure a spot in a Mercenary command, where he could prove himself and shine brighter than he believed he ever could as another face among rows of government troops.</t>
-  </si>
-  <si>
     <t>pilot_at_Mustang.Description.FirstName</t>
   </si>
   <si>
@@ -549,19 +450,10 @@
   </si>
   <si>
     <t xml:space="preserve">Kalida Hossein grew up on the water world of Athenry, amidst the salt spray of the sulfurous oceans and the jagged cliffs of the scant landmasses that dotted the planet. During her childhood, the planet was brought low by a mercenary group known as the Blue Star Irregulars, under contract with House Steiner. The invaders ingratiated themselves to the populous, becoming local celebrities before the Draconis Combine chased them off-world a year later. Their tenure there left a lasting impresson on many of the Athenry youth, and so when she came of age, Kalida joined the PDF hoping for a chance to sign up with an outfit like the BSI.
- Unfortunately, living on an ocean-bound planet means unless a Great House decides to use you as a staging ground for further conquest, you aren’t likely to experience much in the way of excitement. Locally produced algae proteins and toxic seawater aren't particularly appealing to pirates, so Kalida found herself very bored most of the time. She also had another issue: tours on surface patrol craft revealed she was direly prone to seasickness. A transfer to underwater welding detail curtailed her seasickness issues a little, and gave her time at the controls of IndustrialMech, which she hoped would translate to a career with a mercenary company at some point.
- After her tenure in the PDF was up, she had enough money saved to transfer off-world, wanting nothing more than to get away from all that water. Unfortunately, Battlemech neurohelmets trigger her seasickness, which she discovered during her first contract, so any outfit that employs her on better keep extra dimenhydrinate on hand just in case.
----
-Kalida Hossein grew up on the water world of Athenry, amidst the salt spray of the sulfurous oceans and the jagged cliffs of the scant landmasses that dotted the planet. During her childhood, the planet was brought low by a mercenary group known as the Blue Star Irregulars, under contract with House Steiner. The invaders ingratiated themselves to the populous, becoming local celebrities before the Draconis Combine chased them off-world a year later. Their tenure there left a lasting impresson on many of the Athenry youth, and so when she came of age, Kalida joined the PDF hoping for a chance to sign up with an outfit like the BSI.
 Unfortunately, living on an ocean-bound planet means unless a Great House decides to use you as a staging ground for further conquest, you aren’t likely to experience much in the way of excitement. Locally produced algae proteins and toxic seawater aren't particularly appealing to pirates, so Kalida found herself very bored most of the time. She also had another issue: tours on surface patrol craft revealed she was direly prone to seasickness. A transfer to underwater welding detail curtailed her seasickness issues a little, and gave her time at the controls of IndustrialMech, which she hoped would translate to a career with a mercenary company at some point.
 After her tenure in the PDF was up, she had enough money saved to transfer off-world, wanting nothing more than to get away from all that water. Unfortunately, Battlemech neurohelmets trigger her seasickness, which she discovered during her first contract, so any outfit that employs her on better keep extra dimenhydrinate on hand just in case.</t>
   </si>
   <si>
-    <t xml:space="preserve">Kalida Hossein grew up on the water world of Athenry, amidst the salt spray of the sulfurous oceans and the jagged cliffs of the scant landmasses that dotted the planet. During her childhood, the planet was brought low by a mercenary group known as the Blue Star Irregulars, under contract with House Steiner. The invaders ingratiated themselves to the populous, becoming local celebrities before the Draconis Combine chased them off-world a year later. Their tenure there left a lasting impresson on many of the Athenry youth, and so when she came of age, Kalida joined the PDF hoping for a chance to sign up with an outfit like the BSI.
- Unfortunately, living on an ocean-bound planet means unless a Great House decides to use you as a staging ground for further conquest, you aren’t likely to experience much in the way of excitement. Locally produced algae proteins and toxic seawater aren't particularly appealing to pirates, so Kalida found herself very bored most of the time. She also had another issue: tours on surface patrol craft revealed she was direly prone to seasickness. A transfer to underwater welding detail curtailed her seasickness issues a little, and gave her time at the controls of IndustrialMech, which she hoped would translate to a career with a mercenary company at some point.
- After her tenure in the PDF was up, she had enough money saved to transfer off-world, wanting nothing more than to get away from all that water. Unfortunately, Battlemech neurohelmets trigger her seasickness, which she discovered during her first contract, so any outfit that employs her on better keep extra dimenhydrinate on hand just in case.</t>
-  </si>
-  <si>
     <t>pilot_at_Ningyo.Description.FirstName</t>
   </si>
   <si>
@@ -587,16 +479,9 @@
   </si>
   <si>
     <t xml:space="preserve">When asked, Dermot Laughlin is content to simply tell people he is from the far side of the Magistracy of Canopus, and leave it at that. That he served in a milita, piloting a Wasp that had a couple of Flamers installed in the leg in place of the missile rack, and that he didn’t do much beyond some minor scrumming with pirates and some civil engineering using his ‘Mech as a substitute crane.
- But the manner in which he carries himself, and especially the way he talks, tell a different story, and it’s one that doesn’t come anywhere near matching the words that come out of his mouth when you can get him to talk about himself. And one look at the bookshelf in his quarters confirms he has some pretty serious investment in the workings and histories of ancient empires, specifically the Romans. And this seeming obsession reflects in his demeanor on the battlefield; he will bark orders and make calls if his commanding officer is too slow to respond to changing battlefield conditions, and brush off any remand after the fact. But when paired with a mind like his, he is efficient, and supportive, and he will echo commands to the rest of his compatriots, helping keep operations orderly and regimented.
----
-When asked, Dermot Laughlin is content to simply tell people he is from the far side of the Magistracy of Canopus, and leave it at that. That he served in a milita, piloting a Wasp that had a couple of Flamers installed in the leg in place of the missile rack, and that he didn’t do much beyond some minor scrumming with pirates and some civil engineering using his ‘Mech as a substitute crane.
 But the manner in which he carries himself, and especially the way he talks, tell a different story, and it’s one that doesn’t come anywhere near matching the words that come out of his mouth when you can get him to talk about himself. And one look at the bookshelf in his quarters confirms he has some pretty serious investment in the workings and histories of ancient empires, specifically the Romans. And this seeming obsession reflects in his demeanor on the battlefield; he will bark orders and make calls if his commanding officer is too slow to respond to changing battlefield conditions, and brush off any remand after the fact. But when paired with a mind like his, he is efficient, and supportive, and he will echo commands to the rest of his compatriots, helping keep operations orderly and regimented.</t>
   </si>
   <si>
-    <t xml:space="preserve">When asked, Dermot Laughlin is content to simply tell people he is from the far side of the Magistracy of Canopus, and leave it at that. That he served in a milita, piloting a Wasp that had a couple of Flamers installed in the leg in place of the missile rack, and that he didn’t do much beyond some minor scrumming with pirates and some civil engineering using his ‘Mech as a substitute crane.
- But the manner in which he carries himself, and especially the way he talks, tell a different story, and it’s one that doesn’t come anywhere near matching the words that come out of his mouth when you can get him to talk about himself. And one look at the bookshelf in his quarters confirms he has some pretty serious investment in the workings and histories of ancient empires, specifically the Romans. And this seeming obsession reflects in his demeanor on the battlefield; he will bark orders and make calls if his commanding officer is too slow to respond to changing battlefield conditions, and brush off any remand after the fact. But when paired with a mind like his, he is efficient, and supportive, and he will echo commands to the rest of his compatriots, helping keep operations orderly and regimented.</t>
-  </si>
-  <si>
     <t>pilot_at_Optio.Description.FirstName</t>
   </si>
   <si>
@@ -621,17 +506,10 @@
     <t>pilot_at_Panic.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">Hannah Yamashita hails from the Draconis Combine, and it shows. She expresses that very Japanese tendency towards perfection in all that she does, from pruning the bonsai she keeps in her very orderly quarters, to negotiating narrow alleyways and streets in her preferred Battlemech, the Firestarter. She has a penchant for urban combat, Light ‘Mechs, and anti-infantry operations, and when given the opportunity, gladly partakes in all three. She also has the habit of writing haikus on the side of her ‘Mech after each engagement; beautiful little poems describing and entire conflict in three simple lines. And many of her mechs have read like compilations.
- Something troubling seems to follow her, however; she has a mien like a black cat, and she often makes the more superstitious of her colleagues uneasy. It’s hard to say why, but it could be the smile she wears after a particularly eventful day stalking the city, rooting out entrenched opposition.
----
-Hannah Yamashita hails from the Draconis Combine, and it shows. She expresses that very Japanese tendency towards perfection in all that she does, from pruning the bonsai she keeps in her very orderly quarters, to negotiating narrow alleyways and streets in her preferred Battlemech, the Firestarter. She has a penchant for urban combat, Light ‘Mechs, and anti-infantry operations, and when given the opportunity, gladly partakes in all three. She also has the habit of writing haikus on the side of her ‘Mech after each engagement; beautiful little poems describing and entire conflict in three simple lines.  And many of her mechs have read like compilations.
+    <t xml:space="preserve">Hannah Yamashita hails from the Draconis Combine, and it shows. She expresses that very Japanese tendency towards perfection in all that she does, from pruning the bonsai she keeps in her very orderly quarters, to negotiating narrow alleyways and streets in her preferred Battlemech, the Firestarter. She has a penchant for urban combat, Light ‘Mechs, and anti-infantry operations, and when given the opportunity, gladly partakes in all three. She also has the habit of writing haikus on the side of her ‘Mech after each engagement; beautiful little poems describing and entire conflict in three simple lines.  And many of her mechs have read like compilations.
 Something troubling seems to follow her, however; she has a mien like a black cat, and she often makes the more superstitious of her colleagues uneasy. It’s hard to say why, but it could be the smile she wears after a particularly eventful day stalking the city, rooting out entrenched opposition.</t>
   </si>
   <si>
-    <t xml:space="preserve">Hannah Yamashita hails from the Draconis Combine, and it shows. She expresses that very Japanese tendency towards perfection in all that she does, from pruning the bonsai she keeps in her very orderly quarters, to negotiating narrow alleyways and streets in her preferred Battlemech, the Firestarter. She has a penchant for urban combat, Light ‘Mechs, and anti-infantry operations, and when given the opportunity, gladly partakes in all three. She also has the habit of writing haikus on the side of her ‘Mech after each engagement; beautiful little poems describing and entire conflict in three simple lines. And many of her mechs have read like compilations.
- Something troubling seems to follow her, however; she has a mien like a black cat, and she often makes the more superstitious of her colleagues uneasy. It’s hard to say why, but it could be the smile she wears after a particularly eventful day stalking the city, rooting out entrenched opposition.</t>
-  </si>
-  <si>
     <t>pilot_at_Panic.Description.FirstName</t>
   </si>
   <si>
@@ -657,19 +535,10 @@
   </si>
   <si>
     <t xml:space="preserve">Pistol doesn't like to talk about her childhood. Her story starts with the first time she went to prison, which she proudly hails as 'growing up'. After that, her life was a blur of petty crime, thuggery, and gang time. Unlike a lot of the roughs she ran with, Pistol used her head. She was smart, and ruthless, and someone with her capabilities wasn't long for petty crime. Pirates eventually swept her away to a life of cargo theft, raiding stockpiles, and fleeing the authorities in multiple systems. The pirates were more wily than the low-rent crooks she'd been with, but her savvy kept her fingerprints off most of their heists.
- After a duel with a member of a rival pirate crew got blood on her hands for the first time, Pistol started getting a tattoo for each mark she knocked off; often times double-tapping by collecting bounties on the riff-raff as a side gig. That sort of work suited her tastes, and the criminal aspects of things started to fall to the wayside. The other pirates noticed, and not wanting to lose their share of her bounty takes, they offered her a spot among the few 'Mech jocks they had. She was put at the controls of a primitive, derelict Shadow Hawk, and her eye for killing only grew sharper. She found that she equally enjoyed hunting targets with her autocannon or her sidearm, and unfortunately for the rest of the rabble, her resolve to leave the pirate life only got stronger.
- Pistol snuck away one evening when the rest of the pirates were in a drunken stupor, leaving word of their whereabouts in the ear of the authorities and collecting the bounty. She used the cash to get off-world, and register with the MRB as a pilot-fore-hire, hoping to shack up with a more reputable lot who favored bounty hunting as much as she did. Amusingly, having to register with the MRB forced her to use her real name (which she hates), so any potential commanders might take care not to use it in casual conversation.
----
-Pistol doesn't like to talk about her childhood. Her story starts with the first time she went to prison, which she proudly hails as 'growing up'. After that, her life was a blur of petty crime, thuggery, and gang time. Unlike a lot of the roughs she ran with, Pistol used her head. She was smart, and ruthless, and someone with her capabilities wasn't long for petty crime. Pirates eventually swept her away to a life of cargo theft, raiding stockpiles, and fleeing the authorities in multiple systems. The pirates were more wily than the low-rent crooks she'd been with, but her savvy kept her fingerprints off most of their heists.
 After a duel with a member of a rival pirate crew got blood on her hands for the first time, Pistol started getting a tattoo for each mark she knocked off; often times double-tapping by collecting bounties on the riff-raff as a side gig. That sort of work suited her tastes, and the criminal aspects of things started to fall to the wayside. The other pirates noticed, and not wanting to lose their share of her bounty takes, they offered her a spot among the few 'Mech jocks they had. She was put at the controls of a primitive, derelict Shadow Hawk, and her eye for killing only grew sharper. She found that she equally enjoyed hunting targets with her autocannon or her sidearm, and unfortunately for the rest of the rabble, her resolve to leave the pirate life only got stronger.
 Pistol snuck away one evening when the rest of the pirates were in a drunken stupor, leaving word of their whereabouts in the ear of the authorities and collecting the bounty. She used the cash to get off-world, and register with the MRB as a pilot-fore-hire, hoping to shack up with a more reputable lot who favored bounty hunting as much as she did. Amusingly, having to register with the MRB forced her to use her real name (which she hates), so any potential commanders might take care not to use it in casual conversation.</t>
   </si>
   <si>
-    <t xml:space="preserve">Pistol doesn't like to talk about her childhood. Her story starts with the first time she went to prison, which she proudly hails as 'growing up'. After that, her life was a blur of petty crime, thuggery, and gang time. Unlike a lot of the roughs she ran with, Pistol used her head. She was smart, and ruthless, and someone with her capabilities wasn't long for petty crime. Pirates eventually swept her away to a life of cargo theft, raiding stockpiles, and fleeing the authorities in multiple systems. The pirates were more wily than the low-rent crooks she'd been with, but her savvy kept her fingerprints off most of their heists.
- After a duel with a member of a rival pirate crew got blood on her hands for the first time, Pistol started getting a tattoo for each mark she knocked off; often times double-tapping by collecting bounties on the riff-raff as a side gig. That sort of work suited her tastes, and the criminal aspects of things started to fall to the wayside. The other pirates noticed, and not wanting to lose their share of her bounty takes, they offered her a spot among the few 'Mech jocks they had. She was put at the controls of a primitive, derelict Shadow Hawk, and her eye for killing only grew sharper. She found that she equally enjoyed hunting targets with her autocannon or her sidearm, and unfortunately for the rest of the rabble, her resolve to leave the pirate life only got stronger.
- Pistol snuck away one evening when the rest of the pirates were in a drunken stupor, leaving word of their whereabouts in the ear of the authorities and collecting the bounty. She used the cash to get off-world, and register with the MRB as a pilot-fore-hire, hoping to shack up with a more reputable lot who favored bounty hunting as much as she did. Amusingly, having to register with the MRB forced her to use her real name (which she hates), so any potential commanders might take care not to use it in casual conversation.</t>
-  </si>
-  <si>
     <t>pilot_at_Pistol.Description.FirstName</t>
   </si>
   <si>
@@ -695,16 +564,9 @@
   </si>
   <si>
     <t xml:space="preserve">Once House Arano regained their throne, and Lady Kamea Arano reclaimed her crown, the Restoration efford ended, and so did the flow of money from the Centrellas. The fate of those displaced by the end of a war rarely gets shared in any history book, this war included, and many loyal Mechwarriors and vehicle crewfolk were left without prospects. The Magistracy has new politics to attend to now, and former Aurigan soldiers like Clinton have to do what they can.
- Dubbed 'Plato' by his lancemates due to a penchant for debate over off-hours drinks, Mechwarrior Knox is otherwise a fairly unremarkable soldier, aside from the bittersweet loyalty he has towards his old outfit and nation. He feels betrayed, but at the same time proud of his role in re-securing the Arano heritage, wearing that weight like a veteran would. He gets on well with most crews, and has little or naught to say about much, unless there's an open beer and a friendly conversation at hand. He seems content to follow orders and serve his contract; quietly continuing to be a good soldier for whoever cuts his checks.
----
-Once House Arano regained their throne, and Lady Kamea Arano reclaimed her crown, the Restoration efford ended, and so did the flow of money from the Centrellas. The fate of those displaced by the end of a war rarely gets shared in any history book, this war included, and many loyal Mechwarriors and vehicle crewfolk were left without prospects. The Magistracy has new politics to attend to now, and former Aurigan soldiers like Clinton have to do what they can.
 Dubbed 'Plato' by his lancemates due to a penchant for debate over off-hours drinks, Mechwarrior Knox is otherwise a fairly unremarkable soldier, aside from the bittersweet loyalty he has towards his old outfit and nation. He feels betrayed, but at the same time proud of his role in re-securing the Arano heritage, wearing that weight like a veteran would. He gets on well with most crews, and has little or naught to say about much, unless there's an open beer and a friendly conversation at hand. He seems content to follow orders and serve his contract; quietly continuing to be a good soldier for whoever cuts his checks.</t>
   </si>
   <si>
-    <t xml:space="preserve">Once House Arano regained their throne, and Lady Kamea Arano reclaimed her crown, the Restoration efford ended, and so did the flow of money from the Centrellas. The fate of those displaced by the end of a war rarely gets shared in any history book, this war included, and many loyal Mechwarriors and vehicle crewfolk were left without prospects. The Magistracy has new politics to attend to now, and former Aurigan soldiers like Clinton have to do what they can.
- Dubbed 'Plato' by his lancemates due to a penchant for debate over off-hours drinks, Mechwarrior Knox is otherwise a fairly unremarkable soldier, aside from the bittersweet loyalty he has towards his old outfit and nation. He feels betrayed, but at the same time proud of his role in re-securing the Arano heritage, wearing that weight like a veteran would. He gets on well with most crews, and has little or naught to say about much, unless there's an open beer and a friendly conversation at hand. He seems content to follow orders and serve his contract; quietly continuing to be a good soldier for whoever cuts his checks.</t>
-  </si>
-  <si>
     <t>pilot_at_Plato.Description.FirstName</t>
   </si>
   <si>
@@ -730,19 +592,10 @@
   </si>
   <si>
     <t xml:space="preserve">Not every person behind the controls of a ‘Mech chooses to be there. Sometimes their options are limited due to the circumstances of their birth. Annabelle Geates was born in the officer’s quarters of a Leopard-class dropship, en route between worlds in the Free World’s League. Her mother was the CO of a mercenary group; her father a pilot. They had been trying to get to a proper hospital, but the trip from the jump point in-system was a long one, and Annabelle ended up being born a few days early. Her entire childhood was spent aboard the ship, with the crew and techs and pilots being her aunts and uncles. She learned about PPCs, and about KF drives, and jump jets, and tactics. She had few toys, but several of the Mercs had books, so she read a lot as soon as she was able. Books became her escape when the hull of the Leopard rumbled from meteorites or weapons fire and she was afraid. They taught here everything she learned that didn’t have a military application. Her parents wanted her to learn the family business, but she wanted to go into the arts. She loved writing, and would read her prose to anyone that would listen to her.
- As she grew up, she found herself behind the controls of her mother’s Phoenix Hawk, learning the ropes. It was the last place she wanted to be, but she had few other choices. Her parents were worried about leaving her someplace to study, only to be kidnapped or worse by someone upset with the unit. So Annabelle became a Mechwarrior.
- Her parents eventually had a falling out, and the group dissolved. Both parents joined different outfits, and she chose to live with her father for a time, but the group he’d signed up with were too rowdy for her tastes, so she left. She missed the more family-like environment of her old unit. She met up with her mother, but she was bitter about Annabelle choosing her father first, and they had a falling out. Left with few prospects, Geates put her name out looking for a new outfit; one that she hopes has a quiet corner for her to read and write in, between contracts. And maybe, a new kind of family more like her old one.
----
-Not every person behind the controls of a ‘Mech chooses to be there. Sometimes their options are limited due to the circumstances of their birth. Annabelle Geates was born in the officer’s quarters of a Leopard-class dropship, en route between worlds in the Free World’s League. Her mother was the CO of a mercenary group; her father a pilot. They had been trying to get to a proper hospital, but the trip from the jump point in-system was a long one, and Annabelle ended up being born a few days early. Her entire childhood was spent aboard the ship, with the crew and techs and pilots being her aunts and uncles. She learned about PPCs, and about KF drives, and jump jets, and tactics. She had few toys, but several of the Mercs had books, so she read a lot as soon as she was able. Books became her escape when the hull of the Leopard rumbled from meteorites or weapons fire and she was afraid. They taught here everything she learned that didn’t have a military application. Her parents wanted her to learn the family business, but she wanted to go into the arts. She loved writing, and would read her prose to anyone that would listen to her.
 As she grew up, she found herself behind the controls of her mother’s Phoenix Hawk, learning the ropes. It was the last place she wanted to be, but she had few other choices. Her parents were worried about leaving her someplace to study, only to be kidnapped or worse by someone upset with the unit. So Annabelle became a Mechwarrior.
 Her parents eventually had a falling out, and the group dissolved. Both parents joined different outfits, and she chose to live with her father for a time, but the group he’d signed up with were too rowdy for her tastes, so she left. She missed the more family-like environment of her old unit. She met up with her mother, but she was bitter about Annabelle choosing her father first, and they had a falling out. Left with few prospects, Geates put her name out looking for a new outfit; one that she hopes has a quiet corner for her to read and write in, between contracts. And maybe, a new kind of family more like her old one.</t>
   </si>
   <si>
-    <t xml:space="preserve">Not every person behind the controls of a ‘Mech chooses to be there. Sometimes their options are limited due to the circumstances of their birth. Annabelle Geates was born in the officer’s quarters of a Leopard-class dropship, en route between worlds in the Free World’s League. Her mother was the CO of a mercenary group; her father a pilot. They had been trying to get to a proper hospital, but the trip from the jump point in-system was a long one, and Annabelle ended up being born a few days early. Her entire childhood was spent aboard the ship, with the crew and techs and pilots being her aunts and uncles. She learned about PPCs, and about KF drives, and jump jets, and tactics. She had few toys, but several of the Mercs had books, so she read a lot as soon as she was able. Books became her escape when the hull of the Leopard rumbled from meteorites or weapons fire and she was afraid. They taught here everything she learned that didn’t have a military application. Her parents wanted her to learn the family business, but she wanted to go into the arts. She loved writing, and would read her prose to anyone that would listen to her.
- As she grew up, she found herself behind the controls of her mother’s Phoenix Hawk, learning the ropes. It was the last place she wanted to be, but she had few other choices. Her parents were worried about leaving her someplace to study, only to be kidnapped or worse by someone upset with the unit. So Annabelle became a Mechwarrior.
- Her parents eventually had a falling out, and the group dissolved. Both parents joined different outfits, and she chose to live with her father for a time, but the group he’d signed up with were too rowdy for her tastes, so she left. She missed the more family-like environment of her old unit. She met up with her mother, but she was bitter about Annabelle choosing her father first, and they had a falling out. Left with few prospects, Geates put her name out looking for a new outfit; one that she hopes has a quiet corner for her to read and write in, between contracts. And maybe, a new kind of family more like her old one.</t>
-  </si>
-  <si>
     <t>pilot_at_Poet.Description.FirstName</t>
   </si>
   <si>
@@ -768,16 +621,9 @@
   </si>
   <si>
     <t xml:space="preserve">Thiago never set foot in an actual military academy, and he's proud of that fact. He'd hitched a ride as a boy with a rough-and-tumble outfit that'd come in to protect the mining outpost where he was born, and where his parent died. He doesn't seem too broken up about it; his mother was a drunk and his dad was a gambler, and between ol' pops wasting what little money they had left on dicing in the alleyways after his ma drank most of it up, he figures the pirates did him a solid. He'd started in the mess, washing dishes, and as a gofer for the crew. He tried learning from the techs, from the pilots, from the officers... anyone who'd give him a lesson. He had no designs on peeling potatoes and fetching bad coffee for the rest of his life.
- As he grew up he learned about 'Mech combat, and it took a lot longer for him to get behind the wheel, so to speak, than it did for him to grasp the basics of tactics and strategy, since the latter didn't involve any risks to the outfit's hardware. His callsign, Rhino, is a bit of an in-joke. Turns out just because he's built like one doesn't mean he's anywhere as tough as one. Bit of a glass jaw. Not that you'd want to let a tactical mind like his get bounced around in his skull in a bar fight, mind.
----
-Thiago never set foot in an actual military academy, and he's proud of that fact. He'd hitched a ride as a boy with a rough-and-tumble outfit that'd come in to protect the mining outpost where he was born, and where his parent died. He doesn't seem too broken up about it; his mother was a drunk and his dad was a gambler, and between ol' pops wasting what little money they had left on dicing in the alleyways after his ma drank most of it up, he figures the pirates did him a solid. He'd started in the mess, washing dishes, and as a gofer for the crew. He tried learning from the techs, from the pilots, from the officers... anyone who'd give him a lesson. He had no designs on peeling potatoes and fetching bad coffee for the rest of his life.
 As he grew up he learned about 'Mech combat, and it took a lot longer for him to get behind the wheel, so to speak, than it did for him to grasp the basics of tactics and strategy, since the latter didn't involve any risks to the outfit's hardware.  His callsign, Rhino, is a bit of an in-joke. Turns out just because he's built like one doesn't mean he's anywhere as tough as one. Bit of a glass jaw. Not that you'd want to let a tactical mind like his get bounced around in his skull in a bar fight, mind.</t>
   </si>
   <si>
-    <t xml:space="preserve">Thiago never set foot in an actual military academy, and he's proud of that fact. He'd hitched a ride as a boy with a rough-and-tumble outfit that'd come in to protect the mining outpost where he was born, and where his parent died. He doesn't seem too broken up about it; his mother was a drunk and his dad was a gambler, and between ol' pops wasting what little money they had left on dicing in the alleyways after his ma drank most of it up, he figures the pirates did him a solid. He'd started in the mess, washing dishes, and as a gofer for the crew. He tried learning from the techs, from the pilots, from the officers... anyone who'd give him a lesson. He had no designs on peeling potatoes and fetching bad coffee for the rest of his life.
- As he grew up he learned about 'Mech combat, and it took a lot longer for him to get behind the wheel, so to speak, than it did for him to grasp the basics of tactics and strategy, since the latter didn't involve any risks to the outfit's hardware. His callsign, Rhino, is a bit of an in-joke. Turns out just because he's built like one doesn't mean he's anywhere as tough as one. Bit of a glass jaw. Not that you'd want to let a tactical mind like his get bounced around in his skull in a bar fight, mind.</t>
-  </si>
-  <si>
     <t>pilot_at_Rhino.Description.FirstName</t>
   </si>
   <si>
@@ -803,16 +649,9 @@
   </si>
   <si>
     <t xml:space="preserve">Jackson Harker always wanted to fly. And he’d been born in the right place for it; the Outworld Alliance. Famous for their aerospace forces, which rivaled those of the Successor States themselves, the OA was the fork to Harker’s spoon; the butter on his toast. He joined up as soon as he could, and excelled in his preliminary testing. Like many aero recruits, he passed out during high-g training. Again, and again. But he never stopped passing out, which means he inevitably washed out. His recruiting officer suggested he try for Battlemech training; after all, jump jets might be a poor substitute for actual thrusters, but who knows? He might luck out and fall into assignment with one of the few remaining LAMs still in service. And with that, Harker put his nose to the grindstone, and graduated.
- He lived on the high ground in training, and in service, and he patently refused any assignment to a machine that didn’t have jump jets. But that golden ticket never came, and after his assignment was over, he packed up and headed rimward, through the Taurian Concordat, looking for an outfit still sporting one of those rare gems: the Land-Air Mech. They might not be masters of the skies, but they came about as goddamn close as any machine with two legs aught to. One still needs to pay the bills, however, and so Ridgeline gladly takes any duty with Mercenaries having the same sort of free spirit and thirst for adventure he enjoys. And being huge fans of, or owning, a LAM certainly helps those prospects.
----
-Jackson Harker always wanted to fly. And he’d been born in the right place for it; the Outworld Alliance. Famous for their aerospace forces, which rivaled those of the Successor States themselves, the OA was the fork to Harker’s spoon; the butter on his toast. He joined up as soon as he could, and excelled in his preliminary testing. Like many aero recruits, he passed out during high-g training. Again, and again. But he never stopped passing out, which means he inevitably washed out. His recruiting officer suggested he try for Battlemech training; after all, jump jets might be a poor substitute for actual thrusters, but who knows? He might luck out and fall into assignment with one of the few remaining LAMs still in service. And with that, Harker put his nose to the grindstone, and graduated.
 He lived on the high ground in training, and in service, and he patently refused any assignment to a machine that didn’t have jump jets. But that golden ticket never came, and after his assignment was over, he packed up and headed rimward, through the Taurian Concordat, looking for an outfit still sporting one of those rare gems: the Land-Air Mech. They might not be masters of the skies, but they came about as goddamn close as any machine with two legs aught to. One still needs to pay the bills, however, and so Ridgeline gladly takes any duty with Mercenaries having the same sort of free spirit and thirst for adventure he enjoys. And being huge fans of, or owning, a LAM certainly helps those prospects.</t>
   </si>
   <si>
-    <t xml:space="preserve">Jackson Harker always wanted to fly. And he’d been born in the right place for it; the Outworld Alliance. Famous for their aerospace forces, which rivaled those of the Successor States themselves, the OA was the fork to Harker’s spoon; the butter on his toast. He joined up as soon as he could, and excelled in his preliminary testing. Like many aero recruits, he passed out during high-g training. Again, and again. But he never stopped passing out, which means he inevitably washed out. His recruiting officer suggested he try for Battlemech training; after all, jump jets might be a poor substitute for actual thrusters, but who knows? He might luck out and fall into assignment with one of the few remaining LAMs still in service. And with that, Harker put his nose to the grindstone, and graduated.
- He lived on the high ground in training, and in service, and he patently refused any assignment to a machine that didn’t have jump jets. But that golden ticket never came, and after his assignment was over, he packed up and headed rimward, through the Taurian Concordat, looking for an outfit still sporting one of those rare gems: the Land-Air Mech. They might not be masters of the skies, but they came about as goddamn close as any machine with two legs aught to. One still needs to pay the bills, however, and so Ridgeline gladly takes any duty with Mercenaries having the same sort of free spirit and thirst for adventure he enjoys. And being huge fans of, or owning, a LAM certainly helps those prospects.</t>
-  </si>
-  <si>
     <t>pilot_at_Ridgeline.Description.FirstName</t>
   </si>
   <si>
@@ -838,16 +677,9 @@
   </si>
   <si>
     <t xml:space="preserve">One of the worst things an otherwise dedicated, professional human being has to do is live as a hypocrite, and Amelia Bianchi knows exactly how that feels. She spent a large portion of her House military career pushing people forward and driving them to be their best. Do that extra pull-up. Run that extra lap. Tighten that shot cluster. Don't quit.
- Sarge, as she was affectionately known, chose to do just that. She quit. She patently refused to participate in the brewing Civil War between the Lyrans and her home state the Federated Suns, citing that, quote: 'It's f**ing stupid is what it is'. So instead of participate; instead of being the patriot she always tried to make her cadets into, she turned her back and left. She resigned her commission, and headed rimward in disgrace as the quitter she never meant anyone to be. And now she has to live with that out on the fringe, contracting with mercenaries and hoping nobody back home thinks so poorly of her as to ignore the lessons she taught them. Being in exile is no excuse for slacking though, as she says, and so she'll push her current crew to run that extra lap, or do that extra pull-up. Because if there's going to be any quitter in the room, it'll only ever be her.
----
-One of the worst things an otherwise dedicated, professional human being has to do is live as a hypocrite, and Amelia Bianchi knows exactly how that feels. She spent a large portion of her House military career pushing people forward and driving them to be their best. Do that extra pull-up. Run that extra lap. Tighten that shot cluster. Don't quit.
 Sarge, as she was affectionately known, chose to do just that. She quit. She patently refused to participate in the brewing Civil War between the Lyrans and her home state the Federated Suns, citing that, quote: 'It's f**ing stupid is what it is'. So instead of participate; instead of being the patriot she always tried to make her cadets into, she turned her back and left. She resigned her commission, and headed rimward in disgrace as the quitter she never meant anyone to be. And now she has to live with that out on the fringe, contracting with mercenaries and hoping nobody back home thinks so poorly of her as to ignore the lessons she taught them. Being in exile is no excuse for slacking though, as she says, and so she'll push her current crew to run that extra lap, or do that extra pull-up. Because if there's going to be any quitter in the room, it'll only ever be her.</t>
   </si>
   <si>
-    <t xml:space="preserve">One of the worst things an otherwise dedicated, professional human being has to do is live as a hypocrite, and Amelia Bianchi knows exactly how that feels. She spent a large portion of her House military career pushing people forward and driving them to be their best. Do that extra pull-up. Run that extra lap. Tighten that shot cluster. Don't quit.
- Sarge, as she was affectionately known, chose to do just that. She quit. She patently refused to participate in the brewing Civil War between the Lyrans and her home state the Federated Suns, citing that, quote: 'It's f**ing stupid is what it is'. So instead of participate; instead of being the patriot she always tried to make her cadets into, she turned her back and left. She resigned her commission, and headed rimward in disgrace as the quitter she never meant anyone to be. And now she has to live with that out on the fringe, contracting with mercenaries and hoping nobody back home thinks so poorly of her as to ignore the lessons she taught them. Being in exile is no excuse for slacking though, as she says, and so she'll push her current crew to run that extra lap, or do that extra pull-up. Because if there's going to be any quitter in the room, it'll only ever be her.</t>
-  </si>
-  <si>
     <t>pilot_at_Sarge.Description.FirstName</t>
   </si>
   <si>
@@ -873,16 +705,9 @@
   </si>
   <si>
     <t xml:space="preserve">Sketchy comes from a nearly-forgotten corner of space that was once very, very important to the goings-on of the Inner Sphere. A long time ago, the world she hails from, Otisberg, was part of the Rim World Republic; the nation that toppled the first Star League and led to the ruination of House Cameron. After the Amaris Civil War, and later the Republic-Commonwealth War, what remained of the RWR faded into obscurity, along with most of the worlds the Lyrans didn't lay claim to. But in 3040, the spark of nationhood was lit again by a man named James Moroney, who joined a movement set on unifying the worlds of Otisberg, Gillfillan's Gold, All Dawn, Calgarium, Slewis, and Waypoint into an alliance. Unfortunately, James Moroney was killed, and his friend William Roberts was left to see the transition to completion. A mercenary unit, Able's Aces, was hired to provide security and training to the new nation, and one of the first people in line to learn was Moroney's niece, Belinda.
- Sketchy proved to have a mind for tactics, specifically those mired in the ebb and flow of an ongoing battle; her reactionary skills being quite commendable even if her judgement calls often times seemed questionable in the moment. However, when she graduated from training with the Aces, she chose to leave the Rim Collection instead of becoming part of its burgeoning military; her reasoning being that if she left to gain experience elsewhere, she could return to teach the next generation. After all, how was it that the Aces learned all they taught? It wasn't by sitting on their asses. So she chose to tour the Periphery for a time, learning and growing as a warrior before heading back home to share her experience with her comrades-at-arms.
----
-Sketchy comes from a nearly-forgotten corner of space that was once very, very important to the goings-on of the Inner Sphere. A long time ago, the world she hails from, Otisberg, was part of the Rim World Republic; the nation that toppled the first Star League and led to the ruination of House Cameron. After the Amaris Civil War, and later the Republic-Commonwealth War, what remained of the RWR faded into obscurity, along with most of the worlds the Lyrans didn't lay claim to. But in 3040, the spark of nationhood was lit again by a man named James Moroney, who joined a movement set on unifying the worlds of Otisberg, Gillfillan's Gold, All Dawn, Calgarium, Slewis, and Waypoint into an alliance. Unfortunately, James Moroney was killed, and his friend William Roberts was left to see the transition to completion. A mercenary unit, Able's Aces, was hired to provide security and training to the new nation, and one of the first people in line to learn was Moroney's niece, Belinda.
 Sketchy proved to have a mind for tactics, specifically those mired in the ebb and flow of an ongoing battle; her reactionary skills being quite commendable even if her judgement calls often times seemed questionable in the moment. However, when she graduated from training with the Aces, she chose to leave the Rim Collection instead of becoming part of its burgeoning military; her reasoning being that if she left to gain experience elsewhere, she could return to teach the next generation. After all, how was it that the Aces learned all they taught? It wasn't by sitting on their asses. So she chose to tour the Periphery for a time, learning and growing as a warrior before heading back home to share her experience with her comrades-at-arms.</t>
   </si>
   <si>
-    <t xml:space="preserve">Sketchy comes from a nearly-forgotten corner of space that was once very, very important to the goings-on of the Inner Sphere. A long time ago, the world she hails from, Otisberg, was part of the Rim World Republic; the nation that toppled the first Star League and led to the ruination of House Cameron. After the Amaris Civil War, and later the Republic-Commonwealth War, what remained of the RWR faded into obscurity, along with most of the worlds the Lyrans didn't lay claim to. But in 3040, the spark of nationhood was lit again by a man named James Moroney, who joined a movement set on unifying the worlds of Otisberg, Gillfillan's Gold, All Dawn, Calgarium, Slewis, and Waypoint into an alliance. Unfortunately, James Moroney was killed, and his friend William Roberts was left to see the transition to completion. A mercenary unit, Able's Aces, was hired to provide security and training to the new nation, and one of the first people in line to learn was Moroney's niece, Belinda.
- Sketchy proved to have a mind for tactics, specifically those mired in the ebb and flow of an ongoing battle; her reactionary skills being quite commendable even if her judgement calls often times seemed questionable in the moment. However, when she graduated from training with the Aces, she chose to leave the Rim Collection instead of becoming part of its burgeoning military; her reasoning being that if she left to gain experience elsewhere, she could return to teach the next generation. After all, how was it that the Aces learned all they taught? It wasn't by sitting on their asses. So she chose to tour the Periphery for a time, learning and growing as a warrior before heading back home to share her experience with her comrades-at-arms.</t>
-  </si>
-  <si>
     <t>pilot_at_Sketchy.Description.FirstName</t>
   </si>
   <si>
@@ -908,16 +733,9 @@
   </si>
   <si>
     <t xml:space="preserve">Nobles are born with silver spoons in their mouths. Toni Okoye was born with a wrench. Raised in the Outback of the Federated Suns, she learned quickly that one man’s junk was another man’s treasure. Parts and supply could be hard to find in the wilder parts of the Suns, and so many learned to re-jigger, reuse, and recycle. Toni enjoyed tinkering with all manner of devices, and her family had an oddly rich history in technology. Her grandfather had worked building Nissan 200s for the Enforcer, and he took that knowledge with them when the lot of them were forced to move after he lost his job at the fusion engine plant. Unfortunately he passed on in transit to their new home, but the Okoyes kept all his manuals and notes, and Toni’s mother and father both took jobs in repair and maintenance once the family re-settled.
- Toni learned about ‘Mechs the same way a lot of people in the rougher parts of the Inner Sphere do; she got lucky. The garrison on her world had a chassis in need of an engine, and as it happened, Toni managed to blunder into one, get it working, and install it into the decrepit Enforcer 4R, giving the ‘Mech it’s first hum of life in a hundred years. A thankful local government let her train in it under the Dispossessed Mechwarrior they'd hired to pilot it for the militia, and before long the dream of being a real Mechwarrior took root. It didn’t help that the Mechwarrior Toni was learning from filled her head with stories of battles and victory, and it wasn’t long before she decided to market herself to any Mercenary company passing through as a two-for-one Tech and pilot deal; after all, and the budget-conscious might appreciate an extra hand in the Mechbay. However solid her skills with a wrench are, the aesthetics of her work often leave something to be desired, and it’s not uncommon for the Chief Tech of her outfit to wonder why the leg of the CO's ride looks like it lost a fight with a junkpile.
----
-Nobles are born with silver spoons in their mouths. Toni Okoye was born with a wrench. Raised in the Outback of the Federated Suns, she learned quickly that one man’s junk was another man’s treasure. Parts and supply could be hard to find in the wilder parts of the Suns, and so many learned to re-jigger, reuse, and recycle. Toni enjoyed tinkering with all manner of devices, and her family had an oddly rich history in technology. Her grandfather had worked building Nissan 200s for the Enforcer, and he took that knowledge with them when the lot of them were forced to move after he lost his job at the fusion engine plant. Unfortunately he passed on in transit to their new home, but the Okoyes kept all his manuals and notes, and Toni’s mother and father both took jobs in repair and maintenance once the family re-settled.
 Toni learned about ‘Mechs the same way a lot of people in the rougher parts of the Inner Sphere do; she got lucky. The garrison on her world had a chassis in need of an engine, and as it happened, Toni managed to blunder into one, get it working, and install it into the decrepit Enforcer 4R, giving the ‘Mech it’s first hum of life in a hundred years. A thankful local government let her train in it under the Dispossessed Mechwarrior they'd hired to pilot it for the militia, and before long the dream of being a real Mechwarrior took root. It didn’t help that the Mechwarrior Toni was learning from filled her head with stories of battles and victory, and it wasn’t long before she decided to market herself to any Mercenary company passing through as a two-for-one Tech and pilot deal; after all, and the budget-conscious might appreciate an extra hand in the Mechbay. However solid her skills with a wrench are, the aesthetics of her work often leave something to be desired, and it’s not uncommon for the Chief Tech of her outfit to wonder why the leg of the CO's ride looks like it lost a fight with a junkpile.</t>
   </si>
   <si>
-    <t xml:space="preserve">Nobles are born with silver spoons in their mouths. Toni Okoye was born with a wrench. Raised in the Outback of the Federated Suns, she learned quickly that one man’s junk was another man’s treasure. Parts and supply could be hard to find in the wilder parts of the Suns, and so many learned to re-jigger, reuse, and recycle. Toni enjoyed tinkering with all manner of devices, and her family had an oddly rich history in technology. Her grandfather had worked building Nissan 200s for the Enforcer, and he took that knowledge with them when the lot of them were forced to move after he lost his job at the fusion engine plant. Unfortunately he passed on in transit to their new home, but the Okoyes kept all his manuals and notes, and Toni’s mother and father both took jobs in repair and maintenance once the family re-settled.
- Toni learned about ‘Mechs the same way a lot of people in the rougher parts of the Inner Sphere do; she got lucky. The garrison on her world had a chassis in need of an engine, and as it happened, Toni managed to blunder into one, get it working, and install it into the decrepit Enforcer 4R, giving the ‘Mech it’s first hum of life in a hundred years. A thankful local government let her train in it under the Dispossessed Mechwarrior they'd hired to pilot it for the militia, and before long the dream of being a real Mechwarrior took root. It didn’t help that the Mechwarrior Toni was learning from filled her head with stories of battles and victory, and it wasn’t long before she decided to market herself to any Mercenary company passing through as a two-for-one Tech and pilot deal; after all, and the budget-conscious might appreciate an extra hand in the Mechbay. However solid her skills with a wrench are, the aesthetics of her work often leave something to be desired, and it’s not uncommon for the Chief Tech of her outfit to wonder why the leg of the CO's ride looks like it lost a fight with a junkpile.</t>
-  </si>
-  <si>
     <t>pilot_at_Slapdash.Description.FirstName</t>
   </si>
   <si>
@@ -943,19 +761,10 @@
   </si>
   <si>
     <t xml:space="preserve">Tariq grew up knowing he wanted to serve in the LCAF as a Mechwarrior. He would skip school to sneak off and spend time with his mother who worked at Coventry Metal Works to be around the Battlemechs. He would stay up nights, looking at blueprints, studying how myomer works, or building models of his favorite machines. He had a particular fondness for the Hunchback; the massive autocannon put a twinkle in his eyes.
- Thanks to his connections, he was able to attend the Conventry Military Academy, and was enrolled in the Reconnaissance program when the Jade Falcons invaded Steiner space. He was there when they attacked Coventry. He fought alongside his training cadre as the Clanners tried to take his home planet. And he, like the rest of his comrades, failed in its defense. He was captured, and taken as bondsman by the Falcons. When they departed, he was released, but his time in detention left a mark on Tariq. Instead of participating in the rebuilding of the academy, he instead left Lyran space, beleiving his training had not been enough. He felt he needed real experience in a place where people didn't fight by the book. So he sought passage to the Periphery and a commission in a mercenary unit.
- Tariq is a friendly guy, always wearing a sideways smile, hence his handle. He's relaxed and approachable, but he's fierce in his commitment to return to Conventry and participate in the fight. With the Civil War inflaming between the Lyrans and FedSuns though, he's content to remain in mercenary employ for the time being. He might grimace at taking a Davion contract, and he makes no bones about the fact that he will leave one day to return home, but for now he's a dedicated, loyal soldier.
----
-Tariq grew up knowing he wanted to serve in the LCAF as a Mechwarrior. He would skip school to sneak off and spend time with his mother who worked at Coventry Metal Works to be around the Battlemechs. He would stay up nights, looking at blueprints, studying how myomer works, or building models of his favorite machines. He had a particular fondness for the Hunchback; the massive autocannon put a twinkle in his eyes.
 Thanks to his connections, he was able to attend the Conventry Military Academy, and was enrolled in the Reconnaissance program when the Jade Falcons invaded Steiner space. He was there when they attacked Coventry. He fought alongside his training cadre as the Clanners tried to take his home planet. And he, like the rest of his comrades, failed in its defense. He was captured, and taken as bondsman by the Falcons. When they departed, he was released, but his time in detention left a mark on Tariq. Instead of participating in the rebuilding of the academy, he instead left Lyran space, beleiving his training had not been enough. He felt he needed real experience in a place where people didn't fight by the book. So he sought passage to the Periphery and a commission in a mercenary unit.
 Tariq is a friendly guy, always wearing a sideways smile, hence his handle. He's relaxed and approachable, but he's fierce in his commitment to return to Conventry and participate in the fight. With the Civil War inflaming between the Lyrans and FedSuns though, he's content to remain in mercenary employ for the time being. He might grimace at taking a Davion contract, and he makes no bones about the fact that he will leave one day to return home, but for now he's a dedicated, loyal soldier.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tariq grew up knowing he wanted to serve in the LCAF as a Mechwarrior. He would skip school to sneak off and spend time with his mother who worked at Coventry Metal Works to be around the Battlemechs. He would stay up nights, looking at blueprints, studying how myomer works, or building models of his favorite machines. He had a particular fondness for the Hunchback; the massive autocannon put a twinkle in his eyes.
- Thanks to his connections, he was able to attend the Conventry Military Academy, and was enrolled in the Reconnaissance program when the Jade Falcons invaded Steiner space. He was there when they attacked Coventry. He fought alongside his training cadre as the Clanners tried to take his home planet. And he, like the rest of his comrades, failed in its defense. He was captured, and taken as bondsman by the Falcons. When they departed, he was released, but his time in detention left a mark on Tariq. Instead of participating in the rebuilding of the academy, he instead left Lyran space, beleiving his training had not been enough. He felt he needed real experience in a place where people didn't fight by the book. So he sought passage to the Periphery and a commission in a mercenary unit.
- Tariq is a friendly guy, always wearing a sideways smile, hence his handle. He's relaxed and approachable, but he's fierce in his commitment to return to Conventry and participate in the fight. With the Civil War inflaming between the Lyrans and FedSuns though, he's content to remain in mercenary employ for the time being. He might grimace at taking a Davion contract, and he makes no bones about the fact that he will leave one day to return home, but for now he's a dedicated, loyal soldier.</t>
-  </si>
-  <si>
     <t>pilot_at_Smirk.Description.FirstName</t>
   </si>
   <si>
@@ -981,16 +790,9 @@
   </si>
   <si>
     <t xml:space="preserve">Virago hails from the other side of the Sphere, and from the wrong side of the war. At least, that's what everyone, including her, says. She makes most folk uneasy with her size and her origins in equal measure, as she's a veteran of the Clan Jade Falcon invasion force. An Elemental, to be precise. How it is she ended up in the Rimward Periphery looking for a mercenary outfit is anyone's guess, but broken noses and worse are the typical fate of those who ask. Might be a worthwhile mercenary hidden in there behind all the odd mannerisms and patterns of speech. Clan lingo is weird, to say the least, and that's not even going into their abhorrence of contractions. Makes an odd duck odder in a place as frontiersy as the Periphery.
- As she tells it, she's been working as an exoskeleton operator in cargo bays to make ends meet, but she's tired of being out of the fight, and wants a shot at real combat again. Barfights, apparently, don't appeal when you're a head taller than the next biggest person in the room.
----
-Virago hails from the other side of the Sphere, and from the wrong side of the war. At least, that's what everyone, including her, says. She makes most folk uneasy with her size and her origins in equal measure, as she's a veteran of the Clan Jade Falcon invasion force. An Elemental, to be precise. How it is she ended up in the Rimward Periphery looking for a mercenary outfit is anyone's guess, but broken noses and worse are the typical fate of those who ask. Might be a worthwhile mercenary hidden in there behind all the odd mannerisms and patterns of speech. Clan lingo is weird, to say the least, and that's not even going into their abhorrence of contractions. Makes an odd duck odder in a place as frontiersy as the Periphery.
 As she tells it, she's been working as an exoskeleton operator in cargo bays to make ends meet, but she's tired of being out of the fight, and wants a shot at real combat again. Barfights, apparently, don't appeal when you're a head taller than the next biggest person in the room.</t>
   </si>
   <si>
-    <t xml:space="preserve">Virago hails from the other side of the Sphere, and from the wrong side of the war. At least, that's what everyone, including her, says. She makes most folk uneasy with her size and her origins in equal measure, as she's a veteran of the Clan Jade Falcon invasion force. An Elemental, to be precise. How it is she ended up in the Rimward Periphery looking for a mercenary outfit is anyone's guess, but broken noses and worse are the typical fate of those who ask. Might be a worthwhile mercenary hidden in there behind all the odd mannerisms and patterns of speech. Clan lingo is weird, to say the least, and that's not even going into their abhorrence of contractions. Makes an odd duck odder in a place as frontiersy as the Periphery.
- As she tells it, she's been working as an exoskeleton operator in cargo bays to make ends meet, but she's tired of being out of the fight, and wants a shot at real combat again. Barfights, apparently, don't appeal when you're a head taller than the next biggest person in the room.</t>
-  </si>
-  <si>
     <t>pilot_at_Virago.Description.FirstName</t>
   </si>
   <si>
@@ -1010,16 +812,9 @@
   </si>
   <si>
     <t xml:space="preserve">The saying 'Nice guys finish last' has some truth to it sometimes; at least in the case of Gavin Oikos at any rate. He certainly plays at being a nice guy, and he's not shy about honestly admitting he finished last in his class at the Legionary Training Academy. But he finished, he likes to quip. He takes a quiet pride in his homeworld of Andurien, and is less quiet about his love of Capellan jokes. He gets as well as he gives though, and prides himself on having never started a barroom brawl. He'll joke that he's finished a few though.
- Zed gets his callsign from his graduating class; they dubbed him 'Zed' because he was always last place in everything, even if at the same time he never really failed at anything either. He'll jest about all the best callsigns having some truth to them, of course. Unfortunately his cheerful exterior is the shimmery wrapping paper around a very sad little box. It's no mean task to check his records, and see that he went to the academy because his family, down to a person, died in an outbreak carried to his locale on Andurien by an offworlder, and the money he spent to do so was what remained of their financial legacy. There isn't anything or anyone left now but Zed, and his quirky sense of humor. He can't seem to stop being last.
----
-The saying 'Nice guys finish last' has some truth to it sometimes; at least in the case of Gavin Oikos at any rate. He certainly plays at being a nice guy, and he's not shy about honestly admitting he finished last in his class at the Legionary Training Academy. But he finished, he likes to quip. He takes a quiet pride in his homeworld of Andurien, and is less quiet about his love of Capellan jokes. He gets as well as he gives though, and prides himself on having never started a barroom brawl. He'll joke that he's finished a few though.
 Zed gets his callsign from his graduating class; they dubbed him 'Zed' because he was always last place in everything, even if at the same time he never really failed at anything either. He'll jest about all the best callsigns having some truth to them, of course. Unfortunately his cheerful exterior is the shimmery wrapping paper around a very sad little box. It's no mean task to check his records, and see that he went to the academy because his family, down to a person, died in an outbreak carried to his locale on Andurien by an offworlder, and the money he spent to do so was what remained of their financial legacy. There isn't anything or anyone left now but Zed, and his quirky sense of humor. He can't seem to stop being last.</t>
   </si>
   <si>
-    <t xml:space="preserve">The saying 'Nice guys finish last' has some truth to it sometimes; at least in the case of Gavin Oikos at any rate. He certainly plays at being a nice guy, and he's not shy about honestly admitting he finished last in his class at the Legionary Training Academy. But he finished, he likes to quip. He takes a quiet pride in his homeworld of Andurien, and is less quiet about his love of Capellan jokes. He gets as well as he gives though, and prides himself on having never started a barroom brawl. He'll joke that he's finished a few though.
- Zed gets his callsign from his graduating class; they dubbed him 'Zed' because he was always last place in everything, even if at the same time he never really failed at anything either. He'll jest about all the best callsigns having some truth to them, of course. Unfortunately his cheerful exterior is the shimmery wrapping paper around a very sad little box. It's no mean task to check his records, and see that he went to the academy because his family, down to a person, died in an outbreak carried to his locale on Andurien by an offworlder, and the money he spent to do so was what remained of their financial legacy. There isn't anything or anyone left now but Zed, and his quirky sense of humor. He can't seem to stop being last.</t>
-  </si>
-  <si>
     <t>pilot_at_Zed.Description.FirstName</t>
   </si>
   <si>
@@ -1072,19 +867,10 @@
   </si>
   <si>
     <t xml:space="preserve">Born on Coromodir to a pair of high-ranking military officers, Blue had little choice in her upbringing or career path - joining the Aurigan Coalition's military was her destiny from the moment she was born, and though she did as her parents bid, it was with smouldering resentment rather than enthusiasm. This won her few favors with her fellow officers in training, and after an incident in 'anger management' that left another trainee in the hospital, she was quietly shuffled off to join with the rowdier - and rather less sheltered - crowd of young MechWarriors.
- With her parents patronage, she was given into Raju Montgomery's care. Here, for the first time, she found something she was both good at and enjoyed. She quickly acquired the callsign Aether, through her ability to remain untouched, seemingly intangible and ephemeral, through a hail of incoming fire. Though not important enough socially to rub shoulders with the heir to the Coalition, sharing a common teacher often led to Blue sharing training with Kamea Arano. When it became clear that Blue was becoming rather inappropriately enamoured with the royal lady, she was again - quietly - transferred to the furthest reaches of the Reach. There was only so far her parents' reputation could go.
- Tragedy struck, as both of her loyalist parents were killed in the opening moments of Espinoza's coup. With Kamea and Raju reported dead, her parents gone, and the Directorate heading in a direction she was unwilling to support, Aether took advantage of the chaos to simply disappear. She's back now though, and ready to seek revenge upon those who destroyed her life - and who threatened, exiled, and hunted her liege.
----
-Born on Coromodir to a pair of high-ranking military officers, Blue had little choice in her upbringing or career path - joining the Aurigan Coalition's military was her destiny from the moment she was born, and though she did as her parents bid, it was with smouldering resentment rather than enthusiasm. This won her few favors with her fellow officers in training, and after an incident in 'anger management' that left another trainee in the hospital, she was quietly shuffled off to join with the rowdier - and rather less sheltered - crowd of young MechWarriors.
 With her parents patronage, she was given into Raju Montgomery's care. Here, for the first time, she found something she was both good at and enjoyed. She quickly acquired the callsign Aether, through her ability to remain untouched, seemingly intangible and ephemeral, through a hail of incoming fire. Though not important enough socially to rub shoulders with the heir to the Coalition, sharing a common teacher often led to Blue sharing training with Kamea Arano. When it became clear that Blue was becoming rather inappropriately enamoured with the royal lady, she was again - quietly - transferred to the furthest reaches of the Reach. There was only so far her parents' reputation could go.
 Tragedy struck, as both of her loyalist parents were killed in the opening moments of Espinoza's coup. With Kamea and Raju reported dead, her parents gone, and the Directorate heading in a direction she was unwilling to support, Aether took advantage of the chaos to simply disappear. She's back now though, and ready to seek revenge upon those who destroyed her life - and who threatened, exiled, and hunted her liege.</t>
   </si>
   <si>
-    <t xml:space="preserve">Born on Coromodir to a pair of high-ranking military officers, Blue had little choice in her upbringing or career path - joining the Aurigan Coalition's military was her destiny from the moment she was born, and though she did as her parents bid, it was with smouldering resentment rather than enthusiasm. This won her few favors with her fellow officers in training, and after an incident in 'anger management' that left another trainee in the hospital, she was quietly shuffled off to join with the rowdier - and rather less sheltered - crowd of young MechWarriors.
- With her parents patronage, she was given into Raju Montgomery's care. Here, for the first time, she found something she was both good at and enjoyed. She quickly acquired the callsign Aether, through her ability to remain untouched, seemingly intangible and ephemeral, through a hail of incoming fire. Though not important enough socially to rub shoulders with the heir to the Coalition, sharing a common teacher often led to Blue sharing training with Kamea Arano. When it became clear that Blue was becoming rather inappropriately enamoured with the royal lady, she was again - quietly - transferred to the furthest reaches of the Reach. There was only so far her parents' reputation could go.
- Tragedy struck, as both of her loyalist parents were killed in the opening moments of Espinoza's coup. With Kamea and Raju reported dead, her parents gone, and the Directorate heading in a direction she was unwilling to support, Aether took advantage of the chaos to simply disappear. She's back now though, and ready to seek revenge upon those who destroyed her life - and who threatened, exiled, and hunted her liege.</t>
-  </si>
-  <si>
     <t>pilot_bw_Aether.Description.FirstName</t>
   </si>
   <si>
@@ -1112,7 +898,7 @@
     <t>pilot_ha_Beagle.Description.Details</t>
   </si>
   <si>
-    <t>John was on a fast track to command straight out of Albion Military Academy. Attached to the Ceti Hassars John would be captured by a Cappellan patrol after an intel snafu failed to warn them of recent movements in the area. Beagle was held prisoner for 4 years and was subject to intense interrogation techniques in the early years of his captivity. On the fourth year Beagle would be sprung from prison by his old unit, now operating as a Mercenary band, and would assist in combat and command of what would later be known as Operation Gatecrasher. John has been running his own Mercenary unit on and off since his new found freedom but has been more recently looking for a company where he can find good return for his skills and experience.</t>
+    <t xml:space="preserve">John was on a fast track to command straight out of Albion Military Academy. Attached to the Ceti Hassars John would be captured by a Cappellan patrol after an intel snafu failed to warn them of recent movements in the area. Beagle was held prisoner for 4 years and was subject to intense interrogation techniques in the early years of his captivity.  On the fourth year Beagle would be sprung from prison by his old unit, now operating as a Mercenary band, and would assist in combat and command of what would later be known as Operation Gatecrasher. John has been running his own Mercenary unit on and off since his new found freedom but has been more recently looking for a company where he can find good return for his skills and experience.</t>
   </si>
   <si>
     <t>pilot_ha_Beagle.Description.FirstName</t>
@@ -1140,25 +926,12 @@
   </si>
   <si>
     <t xml:space="preserve">Nathaniel Stoyanov, known by his callsign TheChronicToast (or Toast for short), is a character with a mysterious past and an unequalled love of toaster pastries. Many pin him as affiliated with the former periphery mercenary company "Absolution's Gap" which gained notoriety by assisting Kamea Arano's coalition forces in the Aurigan Reach; though whether this is true isn't something he's likely to comment on.
- His upbringing is a familiar one for a MechWarrior in the rimward periphery. Born to an immigrant family that had positioned itself powerfully as agricultural barons on Heliat, his family were betrayed by those that deemed them outsiders to the local insular culture. Evading his captors, his family missing and their holdings destroyed, he fled off world. Hiring on as a novice pilot he continued life as a merchant guard; providing himself a taste of dealing with tactical situations in underpowered and poorly maintained 'Mechs.
- It was in these formative years he realized that with unexpected but surprisingly reckless tactics an underdog could get an edge on a superior foe; even more so if one was willing to risk everything to accomplish the mission at hand. With this knowledge firmly grasped his piloting skill and deployment count grew, eventually winning seats in various mercenary outfits. He earned his keep but never stayed in one place for long as he always gained a reputation for burning through his 'Mechs if it meant a mission success; company finances be darned.
- Eventually he got pulled into the historic events surrounding Kamea Arano and the civil war with the Directorate, but that is a story for another day if you can get him to tell it. As it stands, he's a solid pilot with a few tales to share.
- "Every action has a cost on the battlefield. Make the sacrifices needed for victory a personal endeavor and your lance mates will thank you when its over."
----
-Nathaniel Stoyanov, known by his callsign TheChronicToast (or Toast for short), is a character with a mysterious past and an unequalled love of toaster pastries. Many pin him as affiliated with the former periphery mercenary company "Absolution's Gap" which gained notoriety by assisting Kamea Arano's coalition forces in the Aurigan Reach; though whether this is true isn't something he's likely to comment on.
 His upbringing is a familiar one for a MechWarrior in the rimward periphery. Born to an immigrant family that had positioned itself powerfully as agricultural barons on Heliat, his family were betrayed by those that deemed them outsiders to the local insular culture. Evading his captors, his family missing and their holdings destroyed, he fled off world. Hiring on as a novice pilot he continued life as a merchant guard; providing himself a taste of dealing with tactical situations in underpowered and poorly maintained 'Mechs.
 It was in these formative years he realized that with unexpected but surprisingly reckless tactics an underdog could get an edge on a superior foe; even more so if one was willing to risk everything to accomplish the mission at hand. With this knowledge firmly grasped his piloting skill and deployment count grew, eventually winning seats in various mercenary outfits. He earned his keep but never stayed in one place for long as he always gained a reputation for burning through his 'Mechs if it meant a mission success; company finances be darned.
 Eventually he got pulled into the historic events surrounding Kamea Arano and the civil war with the Directorate, but that is a story for another day if you can get him to tell it. As it stands, he's a solid pilot with a few tales to share.
 "Every action has a cost on the battlefield. Make the sacrifices needed for victory a personal endeavor and your lance mates will thank you when its over."</t>
   </si>
   <si>
-    <t xml:space="preserve">Nathaniel Stoyanov, known by his callsign TheChronicToast (or Toast for short), is a character with a mysterious past and an unequalled love of toaster pastries. Many pin him as affiliated with the former periphery mercenary company "Absolution's Gap" which gained notoriety by assisting Kamea Arano's coalition forces in the Aurigan Reach; though whether this is true isn't something he's likely to comment on.
- His upbringing is a familiar one for a MechWarrior in the rimward periphery. Born to an immigrant family that had positioned itself powerfully as agricultural barons on Heliat, his family were betrayed by those that deemed them outsiders to the local insular culture. Evading his captors, his family missing and their holdings destroyed, he fled off world. Hiring on as a novice pilot he continued life as a merchant guard; providing himself a taste of dealing with tactical situations in underpowered and poorly maintained 'Mechs.
- It was in these formative years he realized that with unexpected but surprisingly reckless tactics an underdog could get an edge on a superior foe; even more so if one was willing to risk everything to accomplish the mission at hand. With this knowledge firmly grasped his piloting skill and deployment count grew, eventually winning seats in various mercenary outfits. He earned his keep but never stayed in one place for long as he always gained a reputation for burning through his 'Mechs if it meant a mission success; company finances be darned.
- Eventually he got pulled into the historic events surrounding Kamea Arano and the civil war with the Directorate, but that is a story for another day if you can get him to tell it. As it stands, he's a solid pilot with a few tales to share.
- "Every action has a cost on the battlefield. Make the sacrifices needed for victory a personal endeavor and your lance mates will thank you when its over."</t>
-  </si>
-  <si>
     <t>pilot_ha_TheChronicToast.Description.FirstName</t>
   </si>
   <si>
@@ -1183,20 +956,11 @@
     <t>pilot_jk_AMechWarrior.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">Originally from the Duchy of Andurien in the Free Worlds League, James Pato grew up tinkering with anything he could get his hands on. He was drawn to an apprenticeship as a MechTech, first for AgroMechs in his local community. Then later to BattleMechs, after being called upon to help the local garrison with a broken 'Mech passing over his family's property.
- Working for the militia, he quickly rose through the ranks and became the local subject matter expert on the coding for 'Mech's Targeting and Tracking Systems (TTS) and internal diagnostic computers. More than once his custom adjustments had led to MechWarriors in his unit nearly dying in the field, which almost cost him his position. He found himself putting in countless hours behind the command couch of BattleMechs in order to understand what his pilots experience, eventually earning his own title as MechWarrior.
- His ability to find work as either MechTech or MechWarrior has granted him freedom to travel around the Rimward Periphery, searching for LosTech - with an eye out for Star League era TTS. He's heard rumors there was once a totally autonomous BattleMech drone project run in secret but has yet to find any real evidence. If he were to find such a LosTech cache, it would allow him to establish his own brand of TTS that would rival the best the Inner Sphere has to offer.
----
-Originally from the Duchy of Andurien in the Free Worlds League, James Pato grew up tinkering with anything he could get his hands on.  He was drawn to an apprenticeship as a MechTech, first for AgroMechs in his local community.  Then later to BattleMechs, after being called upon to help the local garrison with a broken 'Mech passing over his family's property.
+    <t xml:space="preserve">Originally from the Duchy of Andurien in the Free Worlds League, James Pato grew up tinkering with anything he could get his hands on.  He was drawn to an apprenticeship as a MechTech, first for AgroMechs in his local community.  Then later to BattleMechs, after being called upon to help the local garrison with a broken 'Mech passing over his family's property.
 Working for the militia, he quickly rose through the ranks and became the local subject matter expert on the coding for 'Mech's Targeting and Tracking Systems (TTS) and internal diagnostic computers.  More than once his custom adjustments had led to MechWarriors in his unit nearly dying in the field, which almost cost him his position.  He found himself putting in countless hours behind the command couch of BattleMechs in order to understand what his pilots experience, eventually earning his own title as MechWarrior.
 His ability to find work as either MechTech or MechWarrior has granted him freedom to travel around the Rimward Periphery, searching for LosTech - with an eye out for Star League era TTS.  He's heard rumors there was once a totally autonomous BattleMech drone project run in secret but has yet to find any real evidence.  If he were to find such a LosTech cache, it would allow him to establish his own brand of TTS that would rival the best the Inner Sphere has to offer.</t>
   </si>
   <si>
-    <t xml:space="preserve">Originally from the Duchy of Andurien in the Free Worlds League, James Pato grew up tinkering with anything he could get his hands on. He was drawn to an apprenticeship as a MechTech, first for AgroMechs in his local community. Then later to BattleMechs, after being called upon to help the local garrison with a broken 'Mech passing over his family's property.
- Working for the militia, he quickly rose through the ranks and became the local subject matter expert on the coding for 'Mech's Targeting and Tracking Systems (TTS) and internal diagnostic computers. More than once his custom adjustments had led to MechWarriors in his unit nearly dying in the field, which almost cost him his position. He found himself putting in countless hours behind the command couch of BattleMechs in order to understand what his pilots experience, eventually earning his own title as MechWarrior.
- His ability to find work as either MechTech or MechWarrior has granted him freedom to travel around the Rimward Periphery, searching for LosTech - with an eye out for Star League era TTS. He's heard rumors there was once a totally autonomous BattleMech drone project run in secret but has yet to find any real evidence. If he were to find such a LosTech cache, it would allow him to establish his own brand of TTS that would rival the best the Inner Sphere has to offer.</t>
-  </si>
-  <si>
     <t>pilot_jk_AMechWarrior.Description.FirstName</t>
   </si>
   <si>
@@ -1221,23 +985,12 @@
     <t>pilot_jk_BloodyDoves.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">Born on Terra, Adam joined ComStar as an Acolyte at a young age. After years of training on Terra, he then continued to serve the Blessed Blake as a HPG technician on a fairly backwater world in the Taurian Concordat know as Argos (as happens with new acolytes, they have to learn somewhere). For several years he labored at his duties without much distinction or notice.
- Near the close of the 3rd Succession War, the HPG station was attacked by a group of extremely bold (if not more than a little stupid) pirates. ComStar put out a call to the local militia while their meager security force held the pirates at bay as best as they could. However, the pirates soon overwhelmed the ComStar base, and several pirates exited their vehicles to begin looting the compound. It was at this moment that Adam's life took a turn. Making a rash decision to do whatever it took to protect the blessed HPG and technology of old, Adam climbed into a vacated 'Mech and powered it up. Despite a lack of actual training, he found that the controls matched the simulation pods that he enjoyed playing with in his off hours. With his purloined 'Mech lurching into motion he managed some lucky shots, destroying a pirate APC Transport and crippling two tanks. He even managed to knock over one of their Stinger Light 'Mechs as he careened off the side in an ungainly attempt at a charge. Between this unexpected resistance, and the sudden appearance of the local militia, the tide was turned and the pirates were soon in full retreat.
- With the battle over, the Precentor in charge of the HPG noted Adam's deeds and encouraged him to walk the missionary's path, believing that Blessed Blake had a higher purpose in mind for him. Adam was to learn the way of the MechWarrior, while also spreading the Word of Blake amongst the stars and searching out other like minded warriors of faith. Calling in some old favors, the Precentor sponsored Adam and had him sent to a Concordat training academy. Wishing him well, the Precentor gifted Adam with a rare printed copy of Jerome Blake's writings, to help guide him through this new future and keep him on the path - this was to become one of Adam's most cherished of possessions over the following years.
- Adam now travels the stars, preaching the good word of Blake and fighting for good causes that champion the little folk who so often get forgotten by the larger powers, but not the little mercenaries.
----
-Born on Terra, Adam joined ComStar as an Acolyte at a young age. After years of training on Terra, he then continued to serve the Blessed Blake as a HPG technician on a fairly backwater world in the Taurian Concordat know as Argos (as happens with new acolytes, they have to learn somewhere).  For several years he labored at his duties without much distinction or notice.
+    <t xml:space="preserve">Born on Terra, Adam joined ComStar as an Acolyte at a young age. After years of training on Terra, he then continued to serve the Blessed Blake as a HPG technician on a fairly backwater world in the Taurian Concordat know as Argos (as happens with new acolytes, they have to learn somewhere).  For several years he labored at his duties without much distinction or notice.
 Near the close of the 3rd Succession War, the HPG station was attacked by a group of extremely bold (if not more than a little stupid) pirates.  ComStar put out a call to the local militia while their meager security force held the pirates at bay as best as they could.  However, the pirates soon overwhelmed the ComStar base, and several pirates exited their vehicles to begin looting the compound.  It was at this moment that Adam's life took a turn.  Making a rash decision to do whatever it took to protect the blessed HPG and technology of old, Adam climbed into a vacated 'Mech and powered it up.  Despite a lack of actual training, he found that the controls matched the simulation pods that he enjoyed playing with in his off hours.  With his purloined 'Mech lurching into motion he managed some lucky shots, destroying a pirate APC Transport and crippling two tanks.  He even managed to knock over one of their Stinger Light 'Mechs as he careened off the side in an ungainly attempt at a charge.  Between this unexpected resistance, and the sudden appearance of the local militia, the tide was turned and the pirates were soon in full retreat.
 With the battle over, the Precentor in charge of the HPG noted Adam's deeds and encouraged him to walk the missionary's path, believing that Blessed Blake had a higher purpose in mind for him.  Adam was to learn the way of the MechWarrior, while also spreading the Word of Blake amongst the stars and searching out other like minded warriors of faith.  Calling in some old favors, the Precentor sponsored Adam and had him sent to a Concordat training academy.  Wishing him well, the Precentor gifted Adam with a rare printed copy of Jerome Blake's writings, to help guide him through this new future and keep him on the path - this was to become one of Adam's most cherished of possessions over the following years.
 Adam now travels the stars, preaching the good word of Blake and fighting for good causes that champion the little folk who so often get forgotten by the larger powers, but not the little mercenaries.</t>
   </si>
   <si>
-    <t xml:space="preserve">Born on Terra, Adam joined ComStar as an Acolyte at a young age. After years of training on Terra, he then continued to serve the Blessed Blake as a HPG technician on a fairly backwater world in the Taurian Concordat know as Argos (as happens with new acolytes, they have to learn somewhere). For several years he labored at his duties without much distinction or notice.
- Near the close of the 3rd Succession War, the HPG station was attacked by a group of extremely bold (if not more than a little stupid) pirates. ComStar put out a call to the local militia while their meager security force held the pirates at bay as best as they could. However, the pirates soon overwhelmed the ComStar base, and several pirates exited their vehicles to begin looting the compound. It was at this moment that Adam's life took a turn. Making a rash decision to do whatever it took to protect the blessed HPG and technology of old, Adam climbed into a vacated 'Mech and powered it up. Despite a lack of actual training, he found that the controls matched the simulation pods that he enjoyed playing with in his off hours. With his purloined 'Mech lurching into motion he managed some lucky shots, destroying a pirate APC Transport and crippling two tanks. He even managed to knock over one of their Stinger Light 'Mechs as he careened off the side in an ungainly attempt at a charge. Between this unexpected resistance, and the sudden appearance of the local militia, the tide was turned and the pirates were soon in full retreat.
- With the battle over, the Precentor in charge of the HPG noted Adam's deeds and encouraged him to walk the missionary's path, believing that Blessed Blake had a higher purpose in mind for him. Adam was to learn the way of the MechWarrior, while also spreading the Word of Blake amongst the stars and searching out other like minded warriors of faith. Calling in some old favors, the Precentor sponsored Adam and had him sent to a Concordat training academy. Wishing him well, the Precentor gifted Adam with a rare printed copy of Jerome Blake's writings, to help guide him through this new future and keep him on the path - this was to become one of Adam's most cherished of possessions over the following years.
- Adam now travels the stars, preaching the good word of Blake and fighting for good causes that champion the little folk who so often get forgotten by the larger powers, but not the little mercenaries.</t>
-  </si>
-  <si>
     <t>pilot_jk_BloodyDoves.Description.FirstName</t>
   </si>
   <si>
@@ -1287,22 +1040,11 @@
   </si>
   <si>
     <t xml:space="preserve">Doyle is a seasoned mercenary pilot who first started his career with Ghost Warriors Brigade. He quickly got frustrated with their lack of drive and ambition and soon found himself signing up and fighting with the Steel Jaguars, a merc unit that prided themselves on their dedication to tough training, hard work and excellence in the field of battle. Before too long Doyle had become an integral part of the battalion he fought for and he found himself fighting in every available mission, building up a wealth of knowledge and experience. Eventually he was given a promotion, but it was his next promotion, one that he never wanted, that would end up shaping his future.
- One day the Commanding Officer of the battalion walked away from the job, deciding that he was unable continue in his position and quit the life of a mercenary, leaving Doyle to take his post. Doyle didn't want this position, but after looking around and deciding if he left it to someone else they would probably get him killed, he decided to take the job. He then led the battalion through a series of successful missions, but never truly saw eye to eye with the company's owner. There were many straws but one, as they say, finally broke the camel's back and Doyle decided to leave the Steel Jaguars to form his own company from the ground up.
- What he didn't expect was for the vast majority of his former battalion to follow him, but many did. So finding himself in possession of almost a full battalion of seasoned merc pilots he struck out with his new company naming them The Sanguine Tigers. Years later a merge with a fellow friendly merc unit known as 9th Blood and Fire saw the company renamed to The 9th Sanguine Tigers and they spent many happy years taking contracts and kicking ass until one day Doyle decided he needed a change of pace, giving up the life of a merc to settle down. Which tried to do, but not before a brief but lucrative spell as a Solaris VII jock...
- But old habits die hard, it turned out the peaceful life wasn't for him and he set out once more to find the thrill of the battlefield, working for any company that was happy to take on a grizzled old veteran pilot, as long as they promised to never give him a promotion...
----
-Doyle is a seasoned mercenary pilot who first started his career with Ghost Warriors Brigade. He quickly got frustrated with their lack of drive and ambition and soon found himself signing up and fighting with the Steel Jaguars, a merc unit that prided themselves on their dedication to tough training, hard work and excellence in the field of battle. Before too long Doyle had become an integral part of the battalion he fought for and he found himself fighting in every available mission, building up a wealth of knowledge and experience. Eventually he was given a promotion, but it was his next promotion, one that he never wanted, that would end up shaping his future.
 One day the Commanding Officer of the battalion walked away from the job, deciding that he was unable continue in his position and quit the life of a mercenary, leaving Doyle to take his post. Doyle didn't want this position, but after looking around and deciding if he left it to someone else they would probably get him killed, he decided to take the job. He then led the battalion through a series of successful missions, but never truly saw eye to eye with the company's owner. There were many straws but one, as they say, finally broke the camel's back and Doyle decided to leave the Steel Jaguars to form his own company from the ground up.
 What he didn't expect was for the vast majority of his former battalion to follow him, but many did. So finding himself in possession of almost a full battalion of seasoned merc pilots he struck out with his new company naming them The Sanguine Tigers. Years later a merge with a fellow friendly merc unit known as 9th Blood and Fire saw the company renamed to The 9th Sanguine Tigers and they spent many happy years taking contracts and kicking ass until one day Doyle decided he needed a change of pace, giving up the life of a merc to settle down. Which tried to do, but not before a brief but lucrative spell as a Solaris VII jock...
 But old habits die hard, it turned out the peaceful life wasn't for him and he set out once more to find the thrill of the battlefield, working for any company that was happy to take on a grizzled old veteran pilot, as long as they promised to never give him a promotion...</t>
   </si>
   <si>
-    <t xml:space="preserve">Doyle is a seasoned mercenary pilot who first started his career with Ghost Warriors Brigade. He quickly got frustrated with their lack of drive and ambition and soon found himself signing up and fighting with the Steel Jaguars, a merc unit that prided themselves on their dedication to tough training, hard work and excellence in the field of battle. Before too long Doyle had become an integral part of the battalion he fought for and he found himself fighting in every available mission, building up a wealth of knowledge and experience. Eventually he was given a promotion, but it was his next promotion, one that he never wanted, that would end up shaping his future.
- One day the Commanding Officer of the battalion walked away from the job, deciding that he was unable continue in his position and quit the life of a mercenary, leaving Doyle to take his post. Doyle didn't want this position, but after looking around and deciding if he left it to someone else they would probably get him killed, he decided to take the job. He then led the battalion through a series of successful missions, but never truly saw eye to eye with the company's owner. There were many straws but one, as they say, finally broke the camel's back and Doyle decided to leave the Steel Jaguars to form his own company from the ground up.
- What he didn't expect was for the vast majority of his former battalion to follow him, but many did. So finding himself in possession of almost a full battalion of seasoned merc pilots he struck out with his new company naming them The Sanguine Tigers. Years later a merge with a fellow friendly merc unit known as 9th Blood and Fire saw the company renamed to The 9th Sanguine Tigers and they spent many happy years taking contracts and kicking ass until one day Doyle decided he needed a change of pace, giving up the life of a merc to settle down. Which tried to do, but not before a brief but lucrative spell as a Solaris VII jock...
- But old habits die hard, it turned out the peaceful life wasn't for him and he set out once more to find the thrill of the battlefield, working for any company that was happy to take on a grizzled old veteran pilot, as long as they promised to never give him a promotion...</t>
-  </si>
-  <si>
     <t>pilot_jk_Doyle.Description.FirstName</t>
   </si>
   <si>
@@ -1327,14 +1069,7 @@
     <t>pilot_jk_Garrisoned.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">Garrison is a true son of Arcturus, the one time capital system of the Lyran Commonwealth and like any good citizen of the Commonwealth, he joined the military as soon as he was of age. He tested well in the VR-pods and was promptly sent to Coventry Military Academy. There he excelled in his tactics classes and was put on a fast track for being assigned to a line unit to replace the ever increasing losses during the 3rd Succession War. Being given an early commission with the severely depleted Sixth Arcturian Guards, Garrison was sent to Starshine at the age of 21.
- On Starshine he was assigned to be First Leutnant of a Support Lance where he was able to make excellent use of his academy training against pirate raiders and Free Worlds League units. Where is Starshine you may ask? Well, don't bother looking for it on star maps, its a dead world now. What about the Sixth Arcturian Guards? They no longer show on the rolls of active units for the Commonwealth - yet Garrison was there at the end of both.
- Barely a year into his new assignment, Garrison was thrust right into action. During the Marik Civil War of 3014 (also known as Anton's Revolt), the Commonwealth decided to take advantage of the situation and sent the Sixth in to raid Griffith. With the chaos of Anton's Revolt, the 1st Fusiliers of Oriente were slow to respond and the Sixth's raid was considered a rousing success. During the fighting Garrison would bait the enemy into terrain of his choosing to allow his support lance to pepper the opposing force with indirect fire while performing slow withdrawals toward the other lances in his company. The Hauptmann of the company took to saying the OpFor got 'Garrisoned' and it wasn't long before it stuck as his call sign.
- Returning to their post at Starshine, the Sixth was celebrating their victory in one of the larger domed habitats when the Fusiliers got their revenge. Performing a Hover-Drop, a mobile force of Fusiliers attacked, catching the Sixth completely unaware. Scrambling to get back to his 'Mech, Garrison found he was cut off by the Fusiliers' forces. Over the next few days he bided his time until opportunity knocked in he form of a Fusiliers Hunchback 4P that was left in the old Sixth depot area for repairs. Subduing the technicians, Garrison took control of the 'Mech and made to escape the depot. There are many stories about what happened next, but the one thing every story has in common is that the depot was set off, causing a chain reaction that destroyed the Star League era air purifying system that kept the planetary domes habitable. This ultimately led to the world being abandoned of the next few years, another casualty of the Succession Wars.
- While the 1st Fusiliers of Oriente made it off world mostly intact, the same could not be said for the Sixth, between their losses during the surprise assault, and the destruction of the depot - the Sixth ceased to be a solvent unit. Garrsioned was one of the few to escape with his life and his new 'Mech. But, even this bit of luck didn't last. While in transit to the Jump Point, the Black Raiders pirates took advantage of the chaos and attempted to capture the DropShip ferrying Garrison and his 'Mech. During a strafing run by a Black Raider AeroSpace Fighter, a freak accident occurred with the restraint system in the MechBay and the LRM pods in the Hunchback triggered, and it seemed that the techs had forgotten to remove the load during the frenzy to get off world. The explosion caused a systematic failure resulting in the loading bay door opening, and all unsecured equipment was blown into space, including Garrison's HBK-4P. While the DropShip was able to escape, Garrison was now without a unit, without a world and without a 'Mech.
- Considering his past and knowing that both the world and unit he last served on have passed from existence, many believe Garrison to be jinxed, and considering how he wound up dispossessed and in the hiring halls, maybe there is something to it. But Garrisoned is a skilled Tactician and he has a plan to get back in the game, even if he has had to take his lumps as a merc for nearly a decade.
----
-Garrison is a true son of Arcturus, the one time capital system of the Lyran Commonwealth and like any good citizen of the Commonwealth, he joined the military as soon as he was of age.  He tested well in the VR-pods and was promptly sent to Coventry Military Academy.  There he excelled in his tactics classes and was put on a fast track for being assigned to a line unit to replace the ever increasing losses during the 3rd Succession War.  Being given an early commission with the severely depleted Sixth Arcturian Guards, Garrison was sent to Starshine at the age of 21.
+    <t xml:space="preserve">Garrison is a true son of Arcturus, the one time capital system of the Lyran Commonwealth and like any good citizen of the Commonwealth, he joined the military as soon as he was of age.  He tested well in the VR-pods and was promptly sent to Coventry Military Academy.  There he excelled in his tactics classes and was put on a fast track for being assigned to a line unit to replace the ever increasing losses during the 3rd Succession War.  Being given an early commission with the severely depleted Sixth Arcturian Guards, Garrison was sent to Starshine at the age of 21.
 On Starshine he was assigned to be First Leutnant of a Support Lance where he was able to make excellent use of his academy training against pirate raiders and Free Worlds League units.  Where is Starshine you may ask?  Well, don't bother looking for it on star maps, its a dead world now.  What about the Sixth Arcturian Guards?  They no longer show on the rolls of active units for the Commonwealth - yet Garrison was there at the end of both.
 Barely a year into his new assignment, Garrison was thrust right into action.  During the Marik Civil War of 3014 (also known as Anton's Revolt), the Commonwealth decided to take advantage of the situation and sent the Sixth in to raid Griffith.  With the chaos of Anton's Revolt, the 1st Fusiliers of Oriente were slow to respond and the Sixth's raid was considered a rousing success.  During the fighting Garrison would bait the enemy into terrain of his choosing to allow his support lance to pepper the opposing force with indirect fire while performing slow withdrawals toward the other lances in his company.  The Hauptmann of the company took to saying the OpFor got 'Garrisoned' and it wasn't long before it stuck as his call sign.
 Returning to their post at Starshine, the Sixth was celebrating their victory in one of the larger domed habitats when the Fusiliers got their revenge.  Performing a Hover-Drop, a mobile force of Fusiliers attacked, catching the Sixth completely unaware.  Scrambling to get back to his 'Mech, Garrison found he was cut off by the Fusiliers' forces.  Over the next few days he bided his time until opportunity knocked in he form of a Fusiliers Hunchback 4P that was left in the old Sixth depot area for repairs.  Subduing the technicians, Garrison took control of the 'Mech and made to escape the depot.  There are many stories about what happened next, but the one thing every story has in common is that the depot was set off, causing a chain reaction that destroyed the Star League era air purifying system that kept the planetary domes habitable.  This ultimately led to the world being abandoned of the next few years, another casualty of the Succession Wars.
@@ -1342,14 +1077,6 @@
 Considering his past and knowing that both the world and unit he last served on have passed from existence, many believe Garrison to be jinxed, and considering how he wound up dispossessed and in the hiring halls, maybe there is something to it.  But Garrisoned is a skilled Tactician and he has a plan to get back in the game, even if he has had to take his lumps as a merc for nearly a decade.</t>
   </si>
   <si>
-    <t xml:space="preserve">Garrison is a true son of Arcturus, the one time capital system of the Lyran Commonwealth and like any good citizen of the Commonwealth, he joined the military as soon as he was of age. He tested well in the VR-pods and was promptly sent to Coventry Military Academy. There he excelled in his tactics classes and was put on a fast track for being assigned to a line unit to replace the ever increasing losses during the 3rd Succession War. Being given an early commission with the severely depleted Sixth Arcturian Guards, Garrison was sent to Starshine at the age of 21.
- On Starshine he was assigned to be First Leutnant of a Support Lance where he was able to make excellent use of his academy training against pirate raiders and Free Worlds League units. Where is Starshine you may ask? Well, don't bother looking for it on star maps, its a dead world now. What about the Sixth Arcturian Guards? They no longer show on the rolls of active units for the Commonwealth - yet Garrison was there at the end of both.
- Barely a year into his new assignment, Garrison was thrust right into action. During the Marik Civil War of 3014 (also known as Anton's Revolt), the Commonwealth decided to take advantage of the situation and sent the Sixth in to raid Griffith. With the chaos of Anton's Revolt, the 1st Fusiliers of Oriente were slow to respond and the Sixth's raid was considered a rousing success. During the fighting Garrison would bait the enemy into terrain of his choosing to allow his support lance to pepper the opposing force with indirect fire while performing slow withdrawals toward the other lances in his company. The Hauptmann of the company took to saying the OpFor got 'Garrisoned' and it wasn't long before it stuck as his call sign.
- Returning to their post at Starshine, the Sixth was celebrating their victory in one of the larger domed habitats when the Fusiliers got their revenge. Performing a Hover-Drop, a mobile force of Fusiliers attacked, catching the Sixth completely unaware. Scrambling to get back to his 'Mech, Garrison found he was cut off by the Fusiliers' forces. Over the next few days he bided his time until opportunity knocked in he form of a Fusiliers Hunchback 4P that was left in the old Sixth depot area for repairs. Subduing the technicians, Garrison took control of the 'Mech and made to escape the depot. There are many stories about what happened next, but the one thing every story has in common is that the depot was set off, causing a chain reaction that destroyed the Star League era air purifying system that kept the planetary domes habitable. This ultimately led to the world being abandoned of the next few years, another casualty of the Succession Wars.
- While the 1st Fusiliers of Oriente made it off world mostly intact, the same could not be said for the Sixth, between their losses during the surprise assault, and the destruction of the depot - the Sixth ceased to be a solvent unit. Garrsioned was one of the few to escape with his life and his new 'Mech. But, even this bit of luck didn't last. While in transit to the Jump Point, the Black Raiders pirates took advantage of the chaos and attempted to capture the DropShip ferrying Garrison and his 'Mech. During a strafing run by a Black Raider AeroSpace Fighter, a freak accident occurred with the restraint system in the MechBay and the LRM pods in the Hunchback triggered, and it seemed that the techs had forgotten to remove the load during the frenzy to get off world. The explosion caused a systematic failure resulting in the loading bay door opening, and all unsecured equipment was blown into space, including Garrison's HBK-4P. While the DropShip was able to escape, Garrison was now without a unit, without a world and without a 'Mech.
- Considering his past and knowing that both the world and unit he last served on have passed from existence, many believe Garrison to be jinxed, and considering how he wound up dispossessed and in the hiring halls, maybe there is something to it. But Garrisoned is a skilled Tactician and he has a plan to get back in the game, even if he has had to take his lumps as a merc for nearly a decade.</t>
-  </si>
-  <si>
     <t>pilot_jk_Garrisoned.Description.FirstName</t>
   </si>
   <si>
@@ -1374,26 +1101,13 @@
     <t>pilot_jk_Haree.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">Originally a ground-pounder NCO for a support unit in the 2nd Robinson Rangers, Paul was stationed on Breed for garrison duty, along with an up-and-coming mercenary unit called the Steel Jaguars. Part of what made the Jaguars stand out was their rigorous training regimen which involved a lot of wargames. During the time stationed on Breed, the Rangers and Jaguars participate in multiple exercises, at first pitting each unit against each other and later performing mixed unit operations. It was during one of these exercises that Paul's life would take an unexpected turn.
- During an exercise, Paul's Company lost their Command Squad, but he was unwilling to concede defeat and Paul organized a trap to even the score. Luring the Jaguar scout lance into a geothermal valley, Paul's squad signaled the mock trigger for his unit's SRM Inferno rounds, which had been placed along the most likely trail the OpFor lance would take - the combination heat overload of the geysers and Infernos shut down 3 of the 4 'Mechs, with the final 'Mech being dispatched with overlapping fire from Paul's 2 remaining squads. The mercenary Command staff were so impressed with Paul that their CO, Doyle, offered him a billet in the Steel Jaguars when his tour with the Rangers was complete. It was at this point that he took on the nickname Haree, some say it is because no mater how hairy the situation gets, he can turn it around and make it hairier for the enemy.
- Despite having very little BattleMech experience, Haree joined up with the Jaguars a year later and quickly adapted to the life of a MechWarrior. His natural combat and leadership abilities helping to propel him through the ranks and it seemed like Haree had barely moved into his locker before he was granted command of a scout lance and then the company, which was expedited somewhat by his predecessor taking an AC/10 round through the cockpit.
- Under Haree's guidance, he helped the Steel Jaguar Battalion become one of the premiere units to hire if you absolutely had to get the job done. During his tenure as Captain his company had failed a contract only once, just prior to Haree retiring his mantle. Despite appearances to the contrary, it wasn't this failure that made him stand down though. Rather, it was the draw of his life long dream to take the money he had earned and settle down on his home world of Robinson. Haree yearned to feel the grass between his toes instead of the burn of melting BattleMech armor in his nostrils.
- Recently Haree has seen his savings become just another casualty of the Succession Wars and has been drawn into trying to find an employer, with one eye on the dream he still holds on to.
----
-Originally a ground-pounder NCO for a support unit in the 2nd Robinson Rangers, Paul was stationed on Breed for garrison duty, along with an up-and-coming mercenary unit called the Steel Jaguars.  Part of what made the Jaguars stand out was their rigorous training regimen which involved a lot of wargames.  During the time stationed on Breed, the Rangers and Jaguars participate in multiple exercises, at first pitting each unit against each other and later performing mixed unit operations.  It was during one of these exercises that Paul's life would take an unexpected turn.
+    <t xml:space="preserve">Originally a ground-pounder NCO for a support unit in the 2nd Robinson Rangers, Paul was stationed on Breed for garrison duty, along with an up-and-coming mercenary unit called the Steel Jaguars.  Part of what made the Jaguars stand out was their rigorous training regimen which involved a lot of wargames.  During the time stationed on Breed, the Rangers and Jaguars participate in multiple exercises, at first pitting each unit against each other and later performing mixed unit operations.  It was during one of these exercises that Paul's life would take an unexpected turn.
 During an exercise, Paul's Company lost their Command Squad, but he was unwilling to concede defeat and Paul organized a trap to even the score.  Luring the Jaguar scout lance into a geothermal valley, Paul's squad signaled the mock trigger for his unit's SRM Inferno rounds, which had been placed along the most likely trail the OpFor lance would take - the combination heat overload of the geysers and Infernos shut down 3 of the 4 'Mechs, with the final 'Mech being dispatched with overlapping fire from Paul's 2 remaining squads.  The mercenary Command staff were so impressed with Paul that their CO, Doyle, offered him a billet in the Steel Jaguars when his tour with the Rangers was complete.  It was at this point that he took on the nickname Haree, some say it is because no mater how hairy the situation gets, he can turn it around and make it hairier for the enemy.
 Despite having very little BattleMech experience, Haree joined up with the Jaguars a year later and quickly adapted to the life of a MechWarrior.  His natural combat and leadership abilities helping to propel him through the ranks and it seemed like Haree had barely moved into his locker before he was granted command of a scout lance and then the company, which was expedited somewhat by his predecessor taking an AC/10 round through the cockpit.
 Under Haree's guidance, he helped the Steel Jaguar Battalion become one of the premiere units to hire if you absolutely had to get the job done.  During his tenure as Captain his company had failed a contract only once, just prior to Haree retiring his mantle.  Despite appearances to the contrary, it wasn't this failure that made him stand down though.  Rather, it was the draw of his life long dream to take the money he had earned and settle down on his home world of Robinson.  Haree yearned to feel the grass between his toes instead of the burn of melting BattleMech armor in his nostrils.
 Recently Haree has seen his savings become just another casualty of the Succession Wars and has been drawn into trying to find an employer, with one eye on the dream he still holds on to.</t>
   </si>
   <si>
-    <t xml:space="preserve">Originally a ground-pounder NCO for a support unit in the 2nd Robinson Rangers, Paul was stationed on Breed for garrison duty, along with an up-and-coming mercenary unit called the Steel Jaguars. Part of what made the Jaguars stand out was their rigorous training regimen which involved a lot of wargames. During the time stationed on Breed, the Rangers and Jaguars participate in multiple exercises, at first pitting each unit against each other and later performing mixed unit operations. It was during one of these exercises that Paul's life would take an unexpected turn.
- During an exercise, Paul's Company lost their Command Squad, but he was unwilling to concede defeat and Paul organized a trap to even the score. Luring the Jaguar scout lance into a geothermal valley, Paul's squad signaled the mock trigger for his unit's SRM Inferno rounds, which had been placed along the most likely trail the OpFor lance would take - the combination heat overload of the geysers and Infernos shut down 3 of the 4 'Mechs, with the final 'Mech being dispatched with overlapping fire from Paul's 2 remaining squads. The mercenary Command staff were so impressed with Paul that their CO, Doyle, offered him a billet in the Steel Jaguars when his tour with the Rangers was complete. It was at this point that he took on the nickname Haree, some say it is because no mater how hairy the situation gets, he can turn it around and make it hairier for the enemy.
- Despite having very little BattleMech experience, Haree joined up with the Jaguars a year later and quickly adapted to the life of a MechWarrior. His natural combat and leadership abilities helping to propel him through the ranks and it seemed like Haree had barely moved into his locker before he was granted command of a scout lance and then the company, which was expedited somewhat by his predecessor taking an AC/10 round through the cockpit.
- Under Haree's guidance, he helped the Steel Jaguar Battalion become one of the premiere units to hire if you absolutely had to get the job done. During his tenure as Captain his company had failed a contract only once, just prior to Haree retiring his mantle. Despite appearances to the contrary, it wasn't this failure that made him stand down though. Rather, it was the draw of his life long dream to take the money he had earned and settle down on his home world of Robinson. Haree yearned to feel the grass between his toes instead of the burn of melting BattleMech armor in his nostrils.
- Recently Haree has seen his savings become just another casualty of the Succession Wars and has been drawn into trying to find an employer, with one eye on the dream he still holds on to.</t>
-  </si>
-  <si>
     <t>pilot_jk_Haree.Description.FirstName</t>
   </si>
   <si>
@@ -1418,23 +1132,12 @@
     <t>pilot_jk_HBFT.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">Having grown up on All Dawn (a backwater agricultural world), Nathan worked on a farm raising Dutch Pygmy Rabbits and knew nothing of combat. That is not to say he wasn't familiar with the violence of living on the fringes of the Inner Sphere. With All Dawn being on the outskirts of Steiner-controlled territory, he was no stranger to regular harassment from pirates.
- After a series of increasingly brutal raids on their settlement, Nathan finally worked up the courage to defend his home. Rallying together a local militia, they managed to give the raiders a taste of their own medicine with improvised explosives made from one of the most ready resources on the world, fertilizer. But victory would prove to be pyrrhic. Upon returning to his farm he found that the pirates had set fire to his farmhouse with all of his little fuzzy friends inside.
- In light of such a loss, Nathan picked up what few belongings remained to him and left to join a small-time mercenary outfit where he endeavored to shape himself into the bulwark upon which Hell itself would break.
- In memoriam of his lost friends and the hope and joy that Nathan believed they brought to the world, he took on the callsign: HBFT (Happy Bunny Fluffy Toes.
----
-Having grown up on All Dawn (a backwater agricultural world), Nathan worked on a farm raising Dutch Pygmy Rabbits and knew nothing of combat.  That is not to say he wasn't familiar with the violence of living on the fringes of the Inner Sphere. With All Dawn being on the outskirts of Steiner-controlled territory, he was no stranger to regular harassment from pirates.
+    <t xml:space="preserve">Having grown up on All Dawn (a backwater agricultural world), Nathan worked on a farm raising Dutch Pygmy Rabbits and knew nothing of combat.  That is not to say he wasn't familiar with the violence of living on the fringes of the Inner Sphere. With All Dawn being on the outskirts of Steiner-controlled territory, he was no stranger to regular harassment from pirates.
 After a series of increasingly brutal raids on their settlement, Nathan finally worked up the courage to defend his home.  Rallying together a local militia, they managed to give the raiders a taste of their own medicine with improvised explosives made from one of the most ready resources on the world, fertilizer.  But victory would prove to be pyrrhic.  Upon returning to his farm he found that the pirates had set fire to his farmhouse with all of his little fuzzy friends inside.
 In light of such a loss, Nathan picked up what few belongings remained to him and left to join a small-time mercenary outfit where he endeavored to shape himself into the bulwark upon which Hell itself would break.
 In memoriam of his lost friends and the hope and joy that Nathan  believed they brought to the world, he took on the callsign: HBFT (Happy Bunny Fluffy Toes.</t>
   </si>
   <si>
-    <t xml:space="preserve">Having grown up on All Dawn (a backwater agricultural world), Nathan worked on a farm raising Dutch Pygmy Rabbits and knew nothing of combat. That is not to say he wasn't familiar with the violence of living on the fringes of the Inner Sphere. With All Dawn being on the outskirts of Steiner-controlled territory, he was no stranger to regular harassment from pirates.
- After a series of increasingly brutal raids on their settlement, Nathan finally worked up the courage to defend his home. Rallying together a local militia, they managed to give the raiders a taste of their own medicine with improvised explosives made from one of the most ready resources on the world, fertilizer. But victory would prove to be pyrrhic. Upon returning to his farm he found that the pirates had set fire to his farmhouse with all of his little fuzzy friends inside.
- In light of such a loss, Nathan picked up what few belongings remained to him and left to join a small-time mercenary outfit where he endeavored to shape himself into the bulwark upon which Hell itself would break.
- In memoriam of his lost friends and the hope and joy that Nathan believed they brought to the world, he took on the callsign: HBFT (Happy Bunny Fluffy Toes.</t>
-  </si>
-  <si>
     <t>pilot_jk_HBFT.Description.FirstName</t>
   </si>
   <si>
@@ -1459,23 +1162,12 @@
     <t>pilot_jk_LordDakky.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">Dakotah, was the son of a noble-baron of a small city in the Fronc System. While life was hard on the frontier, the support given to the colonists by both the Magistracy and Taurians gave them hope of a prosperous future. Dakky's father was a retired Taurian MechCommander who had been gifted the posting to Fronc, with the understanding that he was to form the nucleus of that province's militia. Lord Brumagin sadly passed under mysterious circumstances and the young master Dakotah was suddenly thrust into the hereditary position of Lord.
- Surprising everyone (aside from himself) Dakotah took to the role adeptly and made great strides towards stabilizing the province, leading by example. This Lordling was not afraid to get his hands dirty, willing to work the fields, taking his turns on patrol and not shirking any responsibilities passed his way. But his greatest love was working on the family 'Mech, and he spent many hours working with the MechTechs learning their trade.
- It was near his coming to age that he met the woman that would become his wife, but their wedding was both the best and worst day of their lives. On the day of the ceremony, a pirate band stuck, killing most of Dakotah's family, sacking the city and stealing his family 'Mech. With the city in ruins, many of the survivors moved to other provinces or returned to their homeworlds. But the young Lord had a thirst for vengeance. Setting off on the first JumpShip offworld with his new wife, he took to the life of a mercenary to build up his coffers so he can one day hunt down and wipe out the pirates that attacked his home.
- Now, though, he is out of c-bills and is looking for work.
----
-Dakotah, was the son of a noble-baron of a small city in the Fronc System.  While life was hard on the frontier, the support given to the colonists by both the Magistracy and Taurians gave them hope of a prosperous future.  Dakky's father was a retired Taurian MechCommander who had been gifted the posting to Fronc, with the understanding that he was to form the nucleus of that province's militia.  Lord Brumagin sadly passed under mysterious circumstances and the young master Dakotah was suddenly thrust into the hereditary position of Lord.
+    <t xml:space="preserve">Dakotah, was the son of a noble-baron of a small city in the Fronc System.  While life was hard on the frontier, the support given to the colonists by both the Magistracy and Taurians gave them hope of a prosperous future.  Dakky's father was a retired Taurian MechCommander who had been gifted the posting to Fronc, with the understanding that he was to form the nucleus of that province's militia.  Lord Brumagin sadly passed under mysterious circumstances and the young master Dakotah was suddenly thrust into the hereditary position of Lord.
 Surprising everyone (aside from himself) Dakotah took to the role adeptly and made great strides towards stabilizing the province, leading by example.  This Lordling was not afraid to get his hands dirty, willing to work the fields, taking his turns on patrol and not shirking any responsibilities passed his way.  But his greatest love was working on the family 'Mech, and he spent many hours working with the MechTechs learning their trade.
 It was near his coming to age that he met the woman that would become his wife, but their wedding was both the best and worst day of their lives.  On the day of the ceremony, a pirate band stuck, killing most of Dakotah's family, sacking the city and stealing his family 'Mech.  With the city in ruins, many of the survivors moved to other provinces or returned to their homeworlds.  But the young Lord had a thirst for vengeance.  Setting off on the first JumpShip offworld with his new wife, he took to the life of a mercenary to build up his coffers so he can one day hunt down and wipe out the pirates that attacked his home.
 Now, though, he is out of c-bills and is looking for work.</t>
   </si>
   <si>
-    <t xml:space="preserve">Dakotah, was the son of a noble-baron of a small city in the Fronc System. While life was hard on the frontier, the support given to the colonists by both the Magistracy and Taurians gave them hope of a prosperous future. Dakky's father was a retired Taurian MechCommander who had been gifted the posting to Fronc, with the understanding that he was to form the nucleus of that province's militia. Lord Brumagin sadly passed under mysterious circumstances and the young master Dakotah was suddenly thrust into the hereditary position of Lord.
- Surprising everyone (aside from himself) Dakotah took to the role adeptly and made great strides towards stabilizing the province, leading by example. This Lordling was not afraid to get his hands dirty, willing to work the fields, taking his turns on patrol and not shirking any responsibilities passed his way. But his greatest love was working on the family 'Mech, and he spent many hours working with the MechTechs learning their trade.
- It was near his coming to age that he met the woman that would become his wife, but their wedding was both the best and worst day of their lives. On the day of the ceremony, a pirate band stuck, killing most of Dakotah's family, sacking the city and stealing his family 'Mech. With the city in ruins, many of the survivors moved to other provinces or returned to their homeworlds. But the young Lord had a thirst for vengeance. Setting off on the first JumpShip offworld with his new wife, he took to the life of a mercenary to build up his coffers so he can one day hunt down and wipe out the pirates that attacked his home.
- Now, though, he is out of c-bills and is looking for work.</t>
-  </si>
-  <si>
     <t>pilot_jk_LordDakky.Description.FirstName</t>
   </si>
   <si>
@@ -1497,26 +1189,13 @@
     <t>pilot_jk_PasiFist.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">Born on Atreus, the capital world of the Federated Suns, Evan had a complicated history from day one. His father was a noble diplomat from the Lyran Commonwealth and his mother a prominent officer in the New Avalon Crucis March Militia. Their relationship was initially viewed with suspicion by factions within both Houses and life was difficult for Evan as he grew up between worlds. Ironically, years later his family would be lauded as an important step in the improving relations between the two realms. But this would not be in time to make Evan's life any easier.
- From a very early age Evan showed an aptitude for VR combat simulation games, often taking units known to be under powered, yet somehow finessing them to victory. This eventually led him to seek a career with the military much to his mother's delight and father's grudging tolerance. He was soon enrolled at the newly formed NAIS, but life there was no picnic, as all his classmates believed him to be there on his parent's accomplishments and not his own merits. Never the less, Evan was determined to prove himself, and would never back down from a challenge.
- After graduating, his mother offered to help him gain a position in the March Militia, but Evan continued to want to forge his own destiny. Accepting a junior officer position with the 33rd Avalon Hussars, he left New Avalon behind, yet the spectre of his family continued to follow him.
- Always a risk taker, Evan found he much preferred the role of scout, both for the solitude and the opportunities it provided him to show what he could accomplish. Through sheer determination he rose to the rank of Leftenant, but he still wanted a chance to step out from his parent's shadow. Soon he would have his chance in spades.
- In 3022 the 33rd was part of an expedition to retake Galtor III from the Draconis Combine, in what became known as one of the bloodiest campaigns in the later part of the 3rd Succession War. During that campaign, Leftenant Zanos' lance was instrumental in scouting out the enemy forces, helping the Federated Suns to eventually retake Galtor. However, during the campaign, Evan felt for the people of Galtor III, who were suffering horrendous loses. It was during a information gathering mission that Evan saw the atrocities being committed by the Combine Troops on the citizenry, and despite orders not to reveal themselves, Evan took maters into his own hands, attacking the DCMS forces. The sheer bravado and wildness of the attack threw the Combine Soldiery into disarray, and believing that Lt. Zanos' lance was a spearhead for a larger force they withdrew. While he had saved these poor souls, what he saw that day caused him to resign his commission and seek ways to help the people.
----
-Born on Atreus, the capital world of the Federated Suns, Evan had a complicated history from day one.  His father was a noble diplomat from the Lyran Commonwealth and his mother a prominent officer in the New Avalon Crucis March Militia.  Their relationship was initially viewed with suspicion by factions within both Houses and life was difficult for Evan as he grew up between worlds.  Ironically, years later his family would be lauded as an important step in the improving relations between the two realms.  But this would not be in time to make Evan's life any easier.
+    <t xml:space="preserve">Born on Atreus, the capital world of the Federated Suns, Evan had a complicated history from day one.  His father was a noble diplomat from the Lyran Commonwealth and his mother a prominent officer in the New Avalon Crucis March Militia.  Their relationship was initially viewed with suspicion by factions within both Houses and life was difficult for Evan as he grew up between worlds.  Ironically, years later his family would be lauded as an important step in the improving relations between the two realms.  But this would not be in time to make Evan's life any easier.
 From a very early age Evan showed an aptitude for VR combat simulation games, often taking units known to be under powered, yet somehow finessing them to victory.  This eventually led him to seek a career with the military much to his mother's delight and father's grudging tolerance.  He was soon enrolled at the newly formed NAIS, but life there was no picnic, as all his classmates believed him to be there on his parent's accomplishments and not his own merits.  Never the less, Evan was determined to prove himself, and would never back down from a challenge.
 After graduating, his mother offered to help him gain a position in the March Militia, but Evan continued to want to forge his own destiny.  Accepting a junior officer position with the 33rd Avalon Hussars, he left New Avalon behind, yet the spectre of his family continued to follow him.
 Always a risk taker, Evan found he much preferred the role of scout, both for the solitude and the opportunities it provided him to show what he could accomplish.  Through sheer determination he rose to the rank of Leftenant, but he still wanted a chance to step out from his parent's shadow.  Soon he would have his chance in spades.
 In 3022 the 33rd was part of an expedition to retake Galtor III from the Draconis Combine, in what became known as one of the bloodiest campaigns in the later part of the 3rd Succession War.  During that campaign, Leftenant Zanos' lance was instrumental in scouting out the enemy forces, helping the Federated Suns to eventually retake Galtor.  However, during the campaign, Evan felt for the people of Galtor III, who were suffering horrendous loses.  It was during a information gathering mission that Evan saw the atrocities being committed by the Combine Troops on the citizenry, and despite orders not to reveal themselves, Evan took maters into his own hands, attacking the DCMS forces.  The sheer bravado and wildness of the attack threw the Combine Soldiery into disarray, and believing that Lt. Zanos' lance was a spearhead for a larger force they withdrew.  While he had saved these poor souls, what he saw that day caused him to resign his commission and seek ways to help the people.</t>
   </si>
   <si>
-    <t xml:space="preserve">Born on Atreus, the capital world of the Federated Suns, Evan had a complicated history from day one. His father was a noble diplomat from the Lyran Commonwealth and his mother a prominent officer in the New Avalon Crucis March Militia. Their relationship was initially viewed with suspicion by factions within both Houses and life was difficult for Evan as he grew up between worlds. Ironically, years later his family would be lauded as an important step in the improving relations between the two realms. But this would not be in time to make Evan's life any easier.
- From a very early age Evan showed an aptitude for VR combat simulation games, often taking units known to be under powered, yet somehow finessing them to victory. This eventually led him to seek a career with the military much to his mother's delight and father's grudging tolerance. He was soon enrolled at the newly formed NAIS, but life there was no picnic, as all his classmates believed him to be there on his parent's accomplishments and not his own merits. Never the less, Evan was determined to prove himself, and would never back down from a challenge.
- After graduating, his mother offered to help him gain a position in the March Militia, but Evan continued to want to forge his own destiny. Accepting a junior officer position with the 33rd Avalon Hussars, he left New Avalon behind, yet the spectre of his family continued to follow him.
- Always a risk taker, Evan found he much preferred the role of scout, both for the solitude and the opportunities it provided him to show what he could accomplish. Through sheer determination he rose to the rank of Leftenant, but he still wanted a chance to step out from his parent's shadow. Soon he would have his chance in spades.
- In 3022 the 33rd was part of an expedition to retake Galtor III from the Draconis Combine, in what became known as one of the bloodiest campaigns in the later part of the 3rd Succession War. During that campaign, Leftenant Zanos' lance was instrumental in scouting out the enemy forces, helping the Federated Suns to eventually retake Galtor. However, during the campaign, Evan felt for the people of Galtor III, who were suffering horrendous loses. It was during a information gathering mission that Evan saw the atrocities being committed by the Combine Troops on the citizenry, and despite orders not to reveal themselves, Evan took maters into his own hands, attacking the DCMS forces. The sheer bravado and wildness of the attack threw the Combine Soldiery into disarray, and believing that Lt. Zanos' lance was a spearhead for a larger force they withdrew. While he had saved these poor souls, what he saw that day caused him to resign his commission and seek ways to help the people.</t>
-  </si>
-  <si>
     <t>pilot_jk_PasiFist.Description.FirstName</t>
   </si>
   <si>
@@ -1553,26 +1232,13 @@
     <t>pilot_jk_Stryker.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">Born on New Avalon, the capital world of the Federated Suns, Evan had a complicated history from day one. His father was a noble diplomat from the Lyran Commonwealth and his mother a prominent officer in the New Avalon Crucis March Militia. Their relationship was initially viewed with suspicion by factions within both Houses and life was difficult for Evan as he grew up between worlds. Ironically, years later his family would be lauded as an important step in the improving relations between the two realms. But this would not be in time to make Evan's life any easier.
- From a very early age Evan showed an aptitude for VR combat simulation games, often taking units known to be under powered, yet somehow finessing them to victory. This eventually led him to seek a career with the military much to his mother's delight and father's grudging tolerance. He was soon enrolled at the newly formed NAIS, but life there was no picnic, as all his classmates believed him to be there on his parent's accomplishments and not his own merits. Never the less, Evan was determined to prove himself, and would never back down from a challenge.
- After graduating, his mother offered to help him gain a position in the March Militia, but Evan continued to want to forge his own destiny. Accepting a junior officer position with the 33rd Avalon Hussars, he left New Avalon behind, yet the spectre of his family continued to follow him.
- Always a risk taker, Evan found he much preferred the role of scout, both for the solitude and the opportunities it provided him to show what he could accomplish. Through sheer determination he rose to the rank of Leftenant, but he still wanted a chance to step out from his parent's shadow. Soon he would have his chance in spades.
- In 3022 the 33rd was part of an expedition to retake Galtor III from the Draconis Combine, in what became known as one of the bloodiest campaigns in the later part of the 3rd Succession War. During that campaign, Leftenant Zanos' lance was instrumental in scouting out the enemy forces, helping the Federated Suns to eventually retake Galtor. However, during the campaign, Evan felt for the people of Galtor III, who were suffering horrendous loses. It was during a information gathering mission that Evan saw the atrocities being committed by the Combine Troops on the citizenry, and despite orders not to reveal themselves, Evan took maters into his own hands, attacking the DCMS forces. The sheer bravado and wildness of the attack threw the Combine Soldiery into disarray, and believing that Lt. Zanos' lance was a spearhead for a larger force they withdrew. While he had saved these poor souls, what he saw that day caused him to resign his commission and seek ways to help the people.
----
-Born on New Avalon, the capital world of the Federated Suns, Evan had a complicated history from day one.  His father was a noble diplomat from the Lyran Commonwealth and his mother a prominent officer in the New Avalon Crucis March Militia.  Their relationship was initially viewed with suspicion by factions within both Houses and life was difficult for Evan as he grew up between worlds.  Ironically, years later his family would be lauded as an important step in the improving relations between the two realms.  But this would not be in time to make Evan's life any easier.
+    <t xml:space="preserve">Born on New Avalon, the capital world of the Federated Suns, Evan had a complicated history from day one.  His father was a noble diplomat from the Lyran Commonwealth and his mother a prominent officer in the New Avalon Crucis March Militia.  Their relationship was initially viewed with suspicion by factions within both Houses and life was difficult for Evan as he grew up between worlds.  Ironically, years later his family would be lauded as an important step in the improving relations between the two realms.  But this would not be in time to make Evan's life any easier.
 From a very early age Evan showed an aptitude for VR combat simulation games, often taking units known to be under powered, yet somehow finessing them to victory.  This eventually led him to seek a career with the military much to his mother's delight and father's grudging tolerance.  He was soon enrolled at the newly formed NAIS, but life there was no picnic, as all his classmates believed him to be there on his parent's accomplishments and not his own merits.  Never the less, Evan was determined to prove himself, and would never back down from a challenge.
 After graduating, his mother offered to help him gain a position in the March Militia, but Evan continued to want to forge his own destiny.  Accepting a junior officer position with the 33rd Avalon Hussars, he left New Avalon behind, yet the spectre of his family continued to follow him.
 Always a risk taker, Evan found he much preferred the role of scout, both for the solitude and the opportunities it provided him to show what he could accomplish.  Through sheer determination he rose to the rank of Leftenant, but he still wanted a chance to step out from his parent's shadow.  Soon he would have his chance in spades.
 In 3022 the 33rd was part of an expedition to retake Galtor III from the Draconis Combine, in what became known as one of the bloodiest campaigns in the later part of the 3rd Succession War.  During that campaign, Leftenant Zanos' lance was instrumental in scouting out the enemy forces, helping the Federated Suns to eventually retake Galtor.  However, during the campaign, Evan felt for the people of Galtor III, who were suffering horrendous loses.  It was during a information gathering mission that Evan saw the atrocities being committed by the Combine Troops on the citizenry, and despite orders not to reveal themselves, Evan took maters into his own hands, attacking the DCMS forces.  The sheer bravado and wildness of the attack threw the Combine Soldiery into disarray, and believing that Lt. Zanos' lance was a spearhead for a larger force they withdrew.  While he had saved these poor souls, what he saw that day caused him to resign his commission and seek ways to help the people.</t>
   </si>
   <si>
-    <t xml:space="preserve">Born on New Avalon, the capital world of the Federated Suns, Evan had a complicated history from day one. His father was a noble diplomat from the Lyran Commonwealth and his mother a prominent officer in the New Avalon Crucis March Militia. Their relationship was initially viewed with suspicion by factions within both Houses and life was difficult for Evan as he grew up between worlds. Ironically, years later his family would be lauded as an important step in the improving relations between the two realms. But this would not be in time to make Evan's life any easier.
- From a very early age Evan showed an aptitude for VR combat simulation games, often taking units known to be under powered, yet somehow finessing them to victory. This eventually led him to seek a career with the military much to his mother's delight and father's grudging tolerance. He was soon enrolled at the newly formed NAIS, but life there was no picnic, as all his classmates believed him to be there on his parent's accomplishments and not his own merits. Never the less, Evan was determined to prove himself, and would never back down from a challenge.
- After graduating, his mother offered to help him gain a position in the March Militia, but Evan continued to want to forge his own destiny. Accepting a junior officer position with the 33rd Avalon Hussars, he left New Avalon behind, yet the spectre of his family continued to follow him.
- Always a risk taker, Evan found he much preferred the role of scout, both for the solitude and the opportunities it provided him to show what he could accomplish. Through sheer determination he rose to the rank of Leftenant, but he still wanted a chance to step out from his parent's shadow. Soon he would have his chance in spades.
- In 3022 the 33rd was part of an expedition to retake Galtor III from the Draconis Combine, in what became known as one of the bloodiest campaigns in the later part of the 3rd Succession War. During that campaign, Leftenant Zanos' lance was instrumental in scouting out the enemy forces, helping the Federated Suns to eventually retake Galtor. However, during the campaign, Evan felt for the people of Galtor III, who were suffering horrendous loses. It was during a information gathering mission that Evan saw the atrocities being committed by the Combine Troops on the citizenry, and despite orders not to reveal themselves, Evan took maters into his own hands, attacking the DCMS forces. The sheer bravado and wildness of the attack threw the Combine Soldiery into disarray, and believing that Lt. Zanos' lance was a spearhead for a larger force they withdrew. While he had saved these poor souls, what he saw that day caused him to resign his commission and seek ways to help the people.</t>
-  </si>
-  <si>
     <t>pilot_jk_Stryker.Description.FirstName</t>
   </si>
   <si>
@@ -1678,20 +1344,11 @@
     <t>pilot_tl_TaintedLoki.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">Artemus left his birthplace as a young man to pursue life a mercenary. He spent years going traveling around the Inner Sphere seeing combat against various engagements facing mostly pirates with a few against the Clans.
- When the hostilities cooled, Artemus took the opportunity to travel to Canopian space to relax for a few years. It didn't take long, for things to heat backup during a pirate raid, he fired up a nearby battlemech to take the fight back against the local pirates.
- Now traveling the stars once again as a merc, occasionally designing new mech variants for clients and looking for interesting times.
----
-Artemus left his birthplace as a young man to pursue life a mercenary.  He spent years going traveling around the Inner Sphere seeing combat against various engagements facing mostly pirates with a few against the Clans.
+    <t xml:space="preserve">Artemus left his birthplace as a young man to pursue life a mercenary.  He spent years going traveling around the Inner Sphere seeing combat against various engagements facing mostly pirates with a few against the Clans.
 When the hostilities cooled, Artemus took the opportunity to travel to Canopian space to relax for a few years. It didn't take long, for things to heat backup during a pirate raid, he fired up a nearby battlemech to take the fight back against the local pirates.
 Now traveling the stars once again as a merc, occasionally designing new mech variants for clients and looking for interesting times.</t>
   </si>
   <si>
-    <t xml:space="preserve">Artemus left his birthplace as a young man to pursue life a mercenary. He spent years going traveling around the Inner Sphere seeing combat against various engagements facing mostly pirates with a few against the Clans.
- When the hostilities cooled, Artemus took the opportunity to travel to Canopian space to relax for a few years. It didn't take long, for things to heat backup during a pirate raid, he fired up a nearby battlemech to take the fight back against the local pirates.
- Now traveling the stars once again as a merc, occasionally designing new mech variants for clients and looking for interesting times.</t>
-  </si>
-  <si>
     <t>pilot_tl_TaintedLoki.Description.FirstName</t>
   </si>
   <si>
@@ -1717,19 +1374,10 @@
   </si>
   <si>
     <t xml:space="preserve">"To achieve victory we must make the enemy blind and deaf by sealing his eyes and ears."
- Raised on the Periphery world of Fronc, Sam spent many years serving as infantry in the Colonial Marshals defending colonists from pirates. When his promotion finally went through he was shipped off to the Institute of War in Canopus for Mechwarrior training where he specialized in signals warfare and developed a fascination with cat ears.
- Sam's time in the Institute was cut short however, when the news reported that back home a group of Colonial Marshals had taken hostages and demanded independence for the colonies. Rather than wait to see if he'd be declared guilty by association, Sam took the first jump ship out of system and struck out on his own, offering his skills to mercenary outfits throughout the Periphery.
----
-"To achieve victory we must make the enemy blind and deaf by sealing his eyes and ears."
 Raised on the Periphery world of Fronc, Sam spent many years serving as infantry in the Colonial Marshals defending colonists from pirates. When his promotion finally went through he was shipped off to the Institute of War in Canopus for Mechwarrior training where he specialized in signals warfare and developed a fascination with cat ears.
 Sam's time in the Institute was cut short however, when the news reported that back home a group of Colonial Marshals had taken hostages and demanded independence for the colonies. Rather than wait to see if he'd be declared guilty by association, Sam took the first jump ship out of system and struck out on his own, offering his skills to mercenary outfits throughout the Periphery.</t>
   </si>
   <si>
-    <t xml:space="preserve">"To achieve victory we must make the enemy blind and deaf by sealing his eyes and ears."
- Raised on the Periphery world of Fronc, Sam spent many years serving as infantry in the Colonial Marshals defending colonists from pirates. When his promotion finally went through he was shipped off to the Institute of War in Canopus for Mechwarrior training where he specialized in signals warfare and developed a fascination with cat ears.
- Sam's time in the Institute was cut short however, when the news reported that back home a group of Colonial Marshals had taken hostages and demanded independence for the colonies. Rather than wait to see if he'd be declared guilty by association, Sam took the first jump ship out of system and struck out on his own, offering his skills to mercenary outfits throughout the Periphery.</t>
-  </si>
-  <si>
     <t>pilot_tr_Turtrus.Description.FirstName</t>
   </si>
   <si>
@@ -1754,15 +1402,8 @@
     <t>pilot_wb_Wulfbanes.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">Wulf Hardy is Draconis affiliated, sporting a rough past from the Kesai liberation. While sporting a weak constitution and bad allergies, he is dependable and overall uplifting to be around. The accent of his homeworld leads him to insist it should be spelled Wulf or not at all. He's picked a moniker coring WFH and WVR infidels of all makes.
- Wulfbanes adopts cats when planetbound. There may have been an incident with SRMs when there was a chase in the cockpit. He likes naps, going fast, and hearing the cacophony after missiles take flight. He doesn't like plant life, getting hit, or anything that messes with the gyro. Nobody wants to disturb a lounging cat, and nobody wants a repeat misfire.
----
-Wulf Hardy is Draconis affiliated, sporting a rough past from the Kesai liberation. While sporting a weak constitution and bad allergies, he is dependable and overall uplifting to be around.  The accent of his homeworld leads him to insist it should be spelled Wulf or not at all.  He's picked a moniker coring WFH and WVR infidels of all makes.
+    <t xml:space="preserve">Wulf Hardy is Draconis affiliated, sporting a rough past from the Kesai liberation. While sporting a weak constitution and bad allergies, he is dependable and overall uplifting to be around.  The accent of his homeworld leads him to insist it should be spelled Wulf or not at all.  He's picked a moniker coring WFH and WVR infidels of all makes.
 Wulfbanes adopts cats when planetbound.  There may have been an incident with SRMs when there was a chase in the cockpit.  He likes naps, going fast, and hearing the cacophony after missiles take flight.  He doesn't like plant life, getting hit, or anything that messes with the gyro.  Nobody wants to disturb a lounging cat, and nobody wants a repeat misfire.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wulf Hardy is Draconis affiliated, sporting a rough past from the Kesai liberation. While sporting a weak constitution and bad allergies, he is dependable and overall uplifting to be around. The accent of his homeworld leads him to insist it should be spelled Wulf or not at all. He's picked a moniker coring WFH and WVR infidels of all makes.
- Wulfbanes adopts cats when planetbound. There may have been an incident with SRMs when there was a chase in the cockpit. He likes naps, going fast, and hearing the cacophony after missiles take flight. He doesn't like plant life, getting hit, or anything that messes with the gyro. Nobody wants to disturb a lounging cat, and nobody wants a repeat misfire.</t>
   </si>
   <si>
     <t>pilot_wb_Wulfbanes.Description.FirstName</t>
@@ -1791,17 +1432,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000" tint="0"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1816,11 +1452,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2115,15 +1750,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C253"/>
+  <dimension ref="A1:E253"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C253"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="B245" sqref="B245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="1" max="2" width="85.42578125" customWidth="1" style="2"/>
+    <col min="3" max="3" width="73.85546875" customWidth="1" style="2"/>
+    <col min="4" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2136,16 +1773,28 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" s="3" customFormat="1">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2158,6 +1807,12 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -2169,6 +1824,12 @@
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -2180,6 +1841,12 @@
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -2191,43 +1858,67 @@
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" s="3" customFormat="1">
-      <c r="A7" s="3" t="s">
+      <c r="D6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>11</v>
@@ -2235,2678 +1926,4142 @@
       <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" s="3" customFormat="1">
-      <c r="A12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>24</v>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" s="3" customFormat="1">
-      <c r="A17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>34</v>
+      <c r="D17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" s="3" customFormat="1">
-      <c r="A22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>44</v>
+      <c r="C22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>22</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2">
+        <v>23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2">
+        <v>24</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="2">
+        <v>25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" s="3" customFormat="1">
-      <c r="A27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2">
+        <v>27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="2">
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="2">
+        <v>29</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="2">
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" s="3" customFormat="1">
-      <c r="A32" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="2">
+        <v>32</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="2">
+        <v>33</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="2">
+        <v>34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="2">
+        <v>35</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" s="3" customFormat="1">
-      <c r="A37" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="2">
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="2">
+        <v>39</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="2">
+        <v>40</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="2">
+        <v>41</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="2">
+        <v>42</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" s="2">
+        <v>43</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="2">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" s="3" customFormat="1">
-      <c r="A47" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>93</v>
+        <v>83</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="2">
+        <v>47</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="2">
+        <v>48</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="2">
+        <v>49</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="2">
+        <v>50</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" s="3" customFormat="1">
-      <c r="A52" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>103</v>
+        <v>92</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="2">
+        <v>52</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" s="2">
+        <v>53</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="2">
+        <v>54</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" s="2">
+        <v>55</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" s="3" customFormat="1">
-      <c r="A57" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" s="2">
+        <v>57</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" s="2">
+        <v>58</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59" s="2">
+        <v>59</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="2">
+        <v>60</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="62" s="3" customFormat="1">
-      <c r="A62" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>123</v>
+        <v>110</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62" s="2">
+        <v>62</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>125</v>
+        <v>114</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="2">
+        <v>63</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>127</v>
+        <v>116</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" s="2">
+        <v>64</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65" s="2">
+        <v>65</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="67" s="3" customFormat="1">
-      <c r="A67" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>133</v>
+        <v>119</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" s="2">
+        <v>67</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>135</v>
+        <v>123</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" s="2">
+        <v>68</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69" s="2">
+        <v>69</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>130</v>
+        <v>119</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E70" s="2">
+        <v>70</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="72" s="3" customFormat="1">
-      <c r="A72" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>143</v>
+        <v>128</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E74" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E75" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="77" s="3" customFormat="1">
-      <c r="A77" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>153</v>
+        <v>137</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E76" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E77" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>155</v>
+        <v>141</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E78" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>157</v>
+        <v>143</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E79" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>150</v>
+        <v>137</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E80" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="82" s="3" customFormat="1">
-      <c r="A82" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>163</v>
+        <v>146</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E81" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E82" s="2">
+        <v>82</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>165</v>
+        <v>150</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E83" s="2">
+        <v>83</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>167</v>
+        <v>152</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E84" s="2">
+        <v>84</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E85" s="2">
+        <v>85</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="87" s="3" customFormat="1">
-      <c r="A87" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>173</v>
+        <v>155</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E86" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E87" s="2">
+        <v>87</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>175</v>
+        <v>159</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E88" s="2">
+        <v>88</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>177</v>
+        <v>161</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E89" s="2">
+        <v>89</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>170</v>
+        <v>155</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E90" s="2">
+        <v>90</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="92" s="3" customFormat="1">
-      <c r="A92" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>183</v>
+        <v>164</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E91" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E92" s="2">
+        <v>92</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>185</v>
+        <v>168</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E93" s="2">
+        <v>93</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>187</v>
+        <v>170</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E94" s="2">
+        <v>94</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>180</v>
+        <v>164</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E95" s="2">
+        <v>95</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="97" s="3" customFormat="1">
-      <c r="A97" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>193</v>
+        <v>173</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E97" s="2">
+        <v>97</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>195</v>
+        <v>177</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" s="2">
+        <v>98</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>197</v>
+        <v>179</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E99" s="2">
+        <v>99</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>190</v>
+        <v>173</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="102" s="3" customFormat="1">
-      <c r="A102" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>203</v>
+        <v>182</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E101" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E102" s="2">
+        <v>102</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>205</v>
+        <v>186</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E103" s="2">
+        <v>103</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>207</v>
+        <v>188</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E104" s="2">
+        <v>104</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>200</v>
+        <v>182</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E105" s="2">
+        <v>105</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="107" s="3" customFormat="1">
-      <c r="A107" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>213</v>
+        <v>191</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E106" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E107" s="2">
+        <v>107</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>215</v>
+        <v>195</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E108" s="2">
+        <v>108</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>217</v>
+        <v>197</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E109" s="2">
+        <v>109</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>210</v>
+        <v>191</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E110" s="2">
+        <v>110</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="112" s="3" customFormat="1">
-      <c r="A112" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>223</v>
+        <v>200</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E111" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E112" s="2">
+        <v>112</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>225</v>
+        <v>204</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E113" s="2">
+        <v>113</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>227</v>
+        <v>206</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E114" s="2">
+        <v>114</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>220</v>
+        <v>200</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E115" s="2">
+        <v>115</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="117" s="3" customFormat="1">
-      <c r="A117" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>233</v>
+        <v>209</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E116" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E117" s="2">
+        <v>117</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>235</v>
+        <v>213</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E118" s="2">
+        <v>118</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>237</v>
+        <v>215</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E119" s="2">
+        <v>119</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>230</v>
+        <v>209</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E120" s="2">
+        <v>120</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="122" s="3" customFormat="1">
-      <c r="A122" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>243</v>
+        <v>218</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E121" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E122" s="2">
+        <v>122</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>245</v>
+        <v>222</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E123" s="2">
+        <v>123</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>247</v>
+        <v>224</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E124" s="2">
+        <v>124</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>240</v>
+        <v>218</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E125" s="2">
+        <v>125</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="127" s="3" customFormat="1">
-      <c r="A127" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>253</v>
+        <v>227</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E126" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E127" s="2">
+        <v>127</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>255</v>
+        <v>231</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E128" s="2">
+        <v>128</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>257</v>
+        <v>233</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E129" s="2">
+        <v>129</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>250</v>
+        <v>227</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E130" s="2">
+        <v>130</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="132" s="3" customFormat="1">
-      <c r="A132" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>263</v>
+        <v>236</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E131" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E132" s="2">
+        <v>132</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>265</v>
+        <v>240</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E133" s="2">
+        <v>133</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>267</v>
+        <v>242</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E134" s="2">
+        <v>134</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>260</v>
+        <v>236</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E135" s="2">
+        <v>135</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="137" s="3" customFormat="1">
-      <c r="A137" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>273</v>
+        <v>245</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E136" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E137" s="2">
+        <v>137</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>275</v>
+        <v>249</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E138" s="2">
+        <v>138</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>270</v>
+        <v>245</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E139" s="2">
+        <v>139</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="141" s="3" customFormat="1">
-      <c r="A141" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>281</v>
+        <v>252</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E140" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E141" s="2">
+        <v>141</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>283</v>
+        <v>256</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E142" s="2">
+        <v>142</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>285</v>
+        <v>258</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E143" s="2">
+        <v>143</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>278</v>
+        <v>252</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E144" s="2">
+        <v>144</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>288</v>
+        <v>261</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E145" s="2">
+        <v>145</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>290</v>
+        <v>263</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E146" s="2">
+        <v>146</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>292</v>
+        <v>265</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E147" s="2">
+        <v>147</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>294</v>
+        <v>267</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E148" s="2">
+        <v>148</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>288</v>
+        <v>261</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E149" s="2">
+        <v>149</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="151" s="3" customFormat="1">
-      <c r="A151" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>300</v>
+        <v>270</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E150" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E151" s="2">
+        <v>151</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>302</v>
+        <v>274</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E152" s="2">
+        <v>152</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>304</v>
+        <v>276</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E153" s="2">
+        <v>153</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>306</v>
+        <v>278</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E154" s="2">
+        <v>154</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>308</v>
+        <v>280</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E155" s="2">
+        <v>155</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>310</v>
+        <v>282</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E156" s="2">
+        <v>156</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>312</v>
+        <v>284</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E157" s="2">
+        <v>157</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>314</v>
+        <v>286</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E158" s="2">
+        <v>158</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>308</v>
+        <v>280</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E159" s="2">
+        <v>159</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="161" s="3" customFormat="1">
-      <c r="A161" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>320</v>
+        <v>289</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E160" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E161" s="2">
+        <v>161</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>322</v>
+        <v>293</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E162" s="2">
+        <v>162</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>324</v>
+        <v>295</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E163" s="2">
+        <v>163</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>317</v>
+        <v>289</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E164" s="2">
+        <v>164</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="166" s="3" customFormat="1">
-      <c r="A166" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>330</v>
+        <v>298</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E165" s="2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E166" s="2">
+        <v>166</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>332</v>
+        <v>302</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E167" s="2">
+        <v>167</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>334</v>
+        <v>304</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E168" s="2">
+        <v>168</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>335</v>
+        <v>305</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>327</v>
+        <v>298</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E169" s="2">
+        <v>169</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>336</v>
+        <v>306</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="171" s="3" customFormat="1">
-      <c r="A171" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>340</v>
+        <v>307</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E170" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E171" s="2">
+        <v>171</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>342</v>
+        <v>311</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E172" s="2">
+        <v>172</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>343</v>
+        <v>312</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>344</v>
+        <v>313</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E173" s="2">
+        <v>173</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>337</v>
+        <v>307</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E174" s="2">
+        <v>174</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>347</v>
+        <v>316</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E175" s="2">
+        <v>175</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>349</v>
+        <v>318</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>349</v>
+        <v>318</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E176" s="2">
+        <v>176</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>350</v>
+        <v>319</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>351</v>
+        <v>320</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E177" s="2">
+        <v>177</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>353</v>
+        <v>322</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E178" s="2">
+        <v>178</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>354</v>
+        <v>323</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>347</v>
+        <v>316</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E179" s="2">
+        <v>179</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="181" s="3" customFormat="1">
-      <c r="A181" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>358</v>
+        <v>107</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E180" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E181" s="2">
+        <v>181</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>360</v>
+        <v>328</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E182" s="2">
+        <v>182</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>362</v>
+        <v>330</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E183" s="2">
+        <v>183</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E184" s="2">
+        <v>184</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="186" s="3" customFormat="1">
-      <c r="A186" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>368</v>
+        <v>333</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E185" s="2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E186" s="2">
+        <v>186</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>370</v>
+        <v>337</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>370</v>
+        <v>337</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E187" s="2">
+        <v>187</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>372</v>
+        <v>339</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>372</v>
+        <v>339</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E188" s="2">
+        <v>188</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>365</v>
+        <v>333</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E189" s="2">
+        <v>189</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>374</v>
+        <v>341</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>375</v>
+        <v>342</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="191" s="3" customFormat="1">
-      <c r="A191" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>378</v>
+        <v>342</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E190" s="2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E191" s="2">
+        <v>191</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>379</v>
+        <v>345</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>380</v>
+        <v>346</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>380</v>
+        <v>346</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E192" s="2">
+        <v>192</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>381</v>
+        <v>347</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>382</v>
+        <v>348</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E193" s="2">
+        <v>193</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>375</v>
+        <v>342</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>375</v>
+        <v>342</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E194" s="2">
+        <v>194</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>384</v>
+        <v>350</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>385</v>
+        <v>351</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="196" s="3" customFormat="1">
-      <c r="A196" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>388</v>
+        <v>351</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E195" s="2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E196" s="2">
+        <v>196</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>389</v>
+        <v>354</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>390</v>
+        <v>355</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>390</v>
+        <v>355</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E197" s="2">
+        <v>197</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>391</v>
+        <v>356</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>392</v>
+        <v>357</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>392</v>
+        <v>357</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E198" s="2">
+        <v>198</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>393</v>
+        <v>358</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>385</v>
+        <v>351</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>385</v>
+        <v>351</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E199" s="2">
+        <v>199</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>394</v>
+        <v>359</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>395</v>
+        <v>360</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="201" s="3" customFormat="1">
-      <c r="A201" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="B201" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>398</v>
+        <v>360</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E200" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E201" s="2">
+        <v>201</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>399</v>
+        <v>363</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>400</v>
+        <v>364</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>400</v>
+        <v>364</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E202" s="2">
+        <v>202</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>401</v>
+        <v>365</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>402</v>
+        <v>366</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>402</v>
+        <v>366</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E203" s="2">
+        <v>203</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>403</v>
+        <v>367</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>395</v>
+        <v>360</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>395</v>
+        <v>360</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E204" s="2">
+        <v>204</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="206" s="3" customFormat="1">
-      <c r="A206" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="C206" s="3" t="s">
-        <v>407</v>
+        <v>316</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E205" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E206" s="2">
+        <v>206</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>408</v>
+        <v>371</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>351</v>
+        <v>320</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E207" s="2">
+        <v>207</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>409</v>
+        <v>372</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>353</v>
+        <v>322</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E208" s="2">
+        <v>208</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>410</v>
+        <v>373</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>347</v>
+        <v>316</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E209" s="2">
+        <v>209</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>411</v>
+        <v>374</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>230</v>
+        <v>209</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E210" s="2">
+        <v>210</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>412</v>
+        <v>375</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>413</v>
+        <v>376</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>413</v>
+        <v>376</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E211" s="2">
+        <v>211</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>414</v>
+        <v>377</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>415</v>
+        <v>378</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>415</v>
+        <v>378</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E212" s="2">
+        <v>212</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>416</v>
+        <v>379</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>230</v>
+        <v>209</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E213" s="2">
+        <v>213</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>417</v>
+        <v>380</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>418</v>
+        <v>381</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="215" s="3" customFormat="1">
-      <c r="A215" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="B215" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="C215" s="3" t="s">
-        <v>421</v>
+        <v>381</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E214" s="2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E215" s="2">
+        <v>215</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>422</v>
+        <v>384</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>423</v>
+        <v>385</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>423</v>
+        <v>385</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E216" s="2">
+        <v>216</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>424</v>
+        <v>386</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>425</v>
+        <v>387</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>425</v>
+        <v>387</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E217" s="2">
+        <v>217</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>426</v>
+        <v>388</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>418</v>
+        <v>381</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>418</v>
+        <v>381</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E218" s="2">
+        <v>218</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>427</v>
+        <v>389</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>347</v>
+        <v>316</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E219" s="2">
+        <v>219</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>428</v>
+        <v>390</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>349</v>
+        <v>318</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>349</v>
+        <v>318</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E220" s="2">
+        <v>220</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>429</v>
+        <v>391</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>351</v>
+        <v>320</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E221" s="2">
+        <v>221</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>430</v>
+        <v>392</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>353</v>
+        <v>322</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E222" s="2">
+        <v>222</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>431</v>
+        <v>393</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>347</v>
+        <v>316</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E223" s="2">
+        <v>223</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>432</v>
+        <v>394</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="225" s="3" customFormat="1">
-      <c r="A225" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="B225" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="C225" s="3" t="s">
-        <v>421</v>
+        <v>395</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E224" s="2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E225" s="2">
+        <v>225</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>435</v>
+        <v>397</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>436</v>
+        <v>398</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>436</v>
+        <v>398</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E226" s="2">
+        <v>226</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>437</v>
+        <v>399</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>438</v>
+        <v>400</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E227" s="2">
+        <v>227</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>439</v>
+        <v>401</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>433</v>
+        <v>395</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E228" s="2">
+        <v>228</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>440</v>
+        <v>402</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>347</v>
+        <v>316</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E229" s="2">
+        <v>229</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>441</v>
+        <v>403</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>349</v>
+        <v>318</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>349</v>
+        <v>318</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E230" s="2">
+        <v>230</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>442</v>
+        <v>404</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>351</v>
+        <v>320</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E231" s="2">
+        <v>231</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>443</v>
+        <v>405</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>353</v>
+        <v>322</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E232" s="2">
+        <v>232</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>444</v>
+        <v>406</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>347</v>
+        <v>316</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E233" s="2">
+        <v>233</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>445</v>
+        <v>407</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>446</v>
+        <v>408</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>446</v>
+        <v>408</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E234" s="2">
+        <v>234</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>447</v>
+        <v>409</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>448</v>
+        <v>410</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>448</v>
+        <v>410</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E235" s="2">
+        <v>235</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>449</v>
+        <v>411</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>450</v>
+        <v>412</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>450</v>
+        <v>412</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E236" s="2">
+        <v>236</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>451</v>
+        <v>413</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>452</v>
+        <v>414</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>452</v>
+        <v>414</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E237" s="2">
+        <v>237</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>453</v>
+        <v>415</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>446</v>
+        <v>408</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>446</v>
+        <v>408</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E238" s="2">
+        <v>238</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>454</v>
+        <v>416</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>455</v>
+        <v>417</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="240" s="3" customFormat="1">
-      <c r="A240" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="B240" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="C240" s="3" t="s">
-        <v>458</v>
+        <v>417</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E239" s="2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E240" s="2">
+        <v>240</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>459</v>
+        <v>420</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>460</v>
+        <v>421</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>460</v>
+        <v>421</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E241" s="2">
+        <v>241</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>461</v>
+        <v>422</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>462</v>
+        <v>423</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>462</v>
+        <v>423</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E242" s="2">
+        <v>242</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>463</v>
+        <v>424</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>455</v>
+        <v>417</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>455</v>
+        <v>417</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E243" s="2">
+        <v>243</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>464</v>
+        <v>425</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>465</v>
+        <v>426</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="245" s="3" customFormat="1">
-      <c r="A245" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B245" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="C245" s="3" t="s">
-        <v>468</v>
+        <v>426</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E244" s="2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E245" s="2">
+        <v>245</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>469</v>
+        <v>429</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>470</v>
+        <v>430</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>470</v>
+        <v>430</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E246" s="2">
+        <v>246</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>471</v>
+        <v>431</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>472</v>
+        <v>432</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>472</v>
+        <v>432</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E247" s="2">
+        <v>247</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>473</v>
+        <v>433</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>465</v>
+        <v>426</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>465</v>
+        <v>426</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E248" s="2">
+        <v>248</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>474</v>
+        <v>434</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>475</v>
+        <v>435</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="250" s="3" customFormat="1">
-      <c r="A250" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="B250" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="C250" s="3" t="s">
-        <v>478</v>
+        <v>435</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E249" s="2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E250" s="2">
+        <v>250</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>479</v>
+        <v>438</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>480</v>
+        <v>439</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>480</v>
+        <v>439</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E251" s="2">
+        <v>251</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>481</v>
+        <v>440</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>482</v>
+        <v>441</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>482</v>
+        <v>441</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E252" s="2">
+        <v>252</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>483</v>
+        <v>442</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>475</v>
+        <v>435</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>475</v>
+        <v>435</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E253" s="2">
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/CustomLocalization/Localization/RogueTech/RU/BT_Advanced_Pilots/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/BT_Advanced_Pilots/LocalizationDef.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="454">
   <si>
     <t>pilot_at_Axle.Description.Callsign</t>
   </si>
@@ -33,6 +33,11 @@
  &lt;b&gt;&lt;color=#00ffff&gt;Can Command Tanks and Pilot Mechs.&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">Battlemechs may rule the day in 31st century combat, but the brick and mortar of many a militia and even professional military are the dedicated tread-heads; those men and women who willingly and ably fire up their trusty Vedettes or Galleons in defense of hearth and home, or for the glory of their ruling House. Being part of the conventional side of things is often a thankless, fruitless endeavor that leaves many crews bitter as the Mechwarriors hog the spotlight. But sometimes, tankers get lucky. Sometimes they get the right shot at the right time, winning the salvage lottery, and joining the illustrious ranks of the Mechwarriors; the knights of the modern era. But sometimes weird shit happens and you end up sitting in the cockpit of a Cicada, still wondering how all this could have happened.
+That’s Axle’s story. She was the commander of one of many Vedettes assigned to garrison duty on St. Andre, then in the Chaos March. As is often the case, her company was set to engage raiders who sought to pick at the corpse of an ancient Star League base there called Fort Ravengale. The battle met, and as the chaos set in, she was manning her cupola when an enemy Cicada bore down on her Vedette suddenly, landing a kick and throwing her from her perch while detonating the autocannon ammunition stored inside the tank. Just after, a friendly shot destroyed the head of the marauding ‘Mech, sending it toppling down beside her wrecked tank. The friendly that made the shot was then obliterated by a stray particle cannon bolt, and the rest was a blur as she fell unconscious. When she woke, she was in the hospital with a concussion, broken ribs, a ruptured disc, and the sole remaining professionally trained person within 1000 klicks that had any kind of shot at strapping into and utilizing the 40-ton war machine that had died right next to her. She didn’t have a choice then, and still doesn’t now; the bills won’t pay themselves, and the Capellans didn’t want to keep her, so she struck out to the Periphery to make ends meet. And most Merc outfits are too fancy for treads. 
+&lt;b&gt;&lt;color=#00ffff&gt;Can Command Tanks and Pilot Mechs.&lt;/color&gt;&lt;/b&gt;</t>
+  </si>
+  <si>
     <t>pilot_at_Axle.Description.FirstName</t>
   </si>
   <si>
@@ -510,6 +515,10 @@
 Something troubling seems to follow her, however; she has a mien like a black cat, and she often makes the more superstitious of her colleagues uneasy. It’s hard to say why, but it could be the smile she wears after a particularly eventful day stalking the city, rooting out entrenched opposition.</t>
   </si>
   <si>
+    <t xml:space="preserve">Hannah Yamashita hails from the Draconis Combine, and it shows. She expresses that very Japanese tendency towards perfection in all that she does, from pruning the bonsai she keeps in her very orderly quarters, to negotiating narrow alleyways and streets in her preferred Battlemech, the Firestarter. She has a penchant for urban combat, Light ‘Mechs, and anti-infantry operations, and when given the opportunity, gladly partakes in all three. She also has the habit of writing haikus on the side of her ‘Mech after each engagement; beautiful little poems describing and entire conflict in three simple lines. And many of her mechs have read like compilations.
+Something troubling seems to follow her, however; she has a mien like a black cat, and she often makes the more superstitious of her colleagues uneasy. It’s hard to say why, but it could be the smile she wears after a particularly eventful day stalking the city, rooting out entrenched opposition.</t>
+  </si>
+  <si>
     <t>pilot_at_Panic.Description.FirstName</t>
   </si>
   <si>
@@ -624,6 +633,10 @@
 As he grew up he learned about 'Mech combat, and it took a lot longer for him to get behind the wheel, so to speak, than it did for him to grasp the basics of tactics and strategy, since the latter didn't involve any risks to the outfit's hardware.  His callsign, Rhino, is a bit of an in-joke. Turns out just because he's built like one doesn't mean he's anywhere as tough as one. Bit of a glass jaw. Not that you'd want to let a tactical mind like his get bounced around in his skull in a bar fight, mind.</t>
   </si>
   <si>
+    <t xml:space="preserve">Thiago never set foot in an actual military academy, and he's proud of that fact. He'd hitched a ride as a boy with a rough-and-tumble outfit that'd come in to protect the mining outpost where he was born, and where his parent died. He doesn't seem too broken up about it; his mother was a drunk and his dad was a gambler, and between ol' pops wasting what little money they had left on dicing in the alleyways after his ma drank most of it up, he figures the pirates did him a solid. He'd started in the mess, washing dishes, and as a gofer for the crew. He tried learning from the techs, from the pilots, from the officers... anyone who'd give him a lesson. He had no designs on peeling potatoes and fetching bad coffee for the rest of his life.
+As he grew up he learned about 'Mech combat, and it took a lot longer for him to get behind the wheel, so to speak, than it did for him to grasp the basics of tactics and strategy, since the latter didn't involve any risks to the outfit's hardware. His callsign, Rhino, is a bit of an in-joke. Turns out just because he's built like one doesn't mean he's anywhere as tough as one. Bit of a glass jaw. Not that you'd want to let a tactical mind like his get bounced around in his skull in a bar fight, mind.</t>
+  </si>
+  <si>
     <t>pilot_at_Rhino.Description.FirstName</t>
   </si>
   <si>
@@ -899,6 +912,9 @@
   </si>
   <si>
     <t xml:space="preserve">John was on a fast track to command straight out of Albion Military Academy. Attached to the Ceti Hassars John would be captured by a Cappellan patrol after an intel snafu failed to warn them of recent movements in the area. Beagle was held prisoner for 4 years and was subject to intense interrogation techniques in the early years of his captivity.  On the fourth year Beagle would be sprung from prison by his old unit, now operating as a Mercenary band, and would assist in combat and command of what would later be known as Operation Gatecrasher. John has been running his own Mercenary unit on and off since his new found freedom but has been more recently looking for a company where he can find good return for his skills and experience.</t>
+  </si>
+  <si>
+    <t>John was on a fast track to command straight out of Albion Military Academy. Attached to the Ceti Hassars John would be captured by a Cappellan patrol after an intel snafu failed to warn them of recent movements in the area. Beagle was held prisoner for 4 years and was subject to intense interrogation techniques in the early years of his captivity. On the fourth year Beagle would be sprung from prison by his old unit, now operating as a Mercenary band, and would assist in combat and command of what would later be known as Operation Gatecrasher. John has been running his own Mercenary unit on and off since his new found freedom but has been more recently looking for a company where he can find good return for his skills and experience.</t>
   </si>
   <si>
     <t>pilot_ha_Beagle.Description.FirstName</t>
@@ -961,6 +977,11 @@
 His ability to find work as either MechTech or MechWarrior has granted him freedom to travel around the Rimward Periphery, searching for LosTech - with an eye out for Star League era TTS.  He's heard rumors there was once a totally autonomous BattleMech drone project run in secret but has yet to find any real evidence.  If he were to find such a LosTech cache, it would allow him to establish his own brand of TTS that would rival the best the Inner Sphere has to offer.</t>
   </si>
   <si>
+    <t xml:space="preserve">Originally from the Duchy of Andurien in the Free Worlds League, James Pato grew up tinkering with anything he could get his hands on. He was drawn to an apprenticeship as a MechTech, first for AgroMechs in his local community. Then later to BattleMechs, after being called upon to help the local garrison with a broken 'Mech passing over his family's property.
+Working for the militia, he quickly rose through the ranks and became the local subject matter expert on the coding for 'Mech's Targeting and Tracking Systems (TTS) and internal diagnostic computers. More than once his custom adjustments had led to MechWarriors in his unit nearly dying in the field, which almost cost him his position. He found himself putting in countless hours behind the command couch of BattleMechs in order to understand what his pilots experience, eventually earning his own title as MechWarrior.
+His ability to find work as either MechTech or MechWarrior has granted him freedom to travel around the Rimward Periphery, searching for LosTech - with an eye out for Star League era TTS. He's heard rumors there was once a totally autonomous BattleMech drone project run in secret but has yet to find any real evidence. If he were to find such a LosTech cache, it would allow him to establish his own brand of TTS that would rival the best the Inner Sphere has to offer.</t>
+  </si>
+  <si>
     <t>pilot_jk_AMechWarrior.Description.FirstName</t>
   </si>
   <si>
@@ -988,6 +1009,12 @@
     <t xml:space="preserve">Born on Terra, Adam joined ComStar as an Acolyte at a young age. After years of training on Terra, he then continued to serve the Blessed Blake as a HPG technician on a fairly backwater world in the Taurian Concordat know as Argos (as happens with new acolytes, they have to learn somewhere).  For several years he labored at his duties without much distinction or notice.
 Near the close of the 3rd Succession War, the HPG station was attacked by a group of extremely bold (if not more than a little stupid) pirates.  ComStar put out a call to the local militia while their meager security force held the pirates at bay as best as they could.  However, the pirates soon overwhelmed the ComStar base, and several pirates exited their vehicles to begin looting the compound.  It was at this moment that Adam's life took a turn.  Making a rash decision to do whatever it took to protect the blessed HPG and technology of old, Adam climbed into a vacated 'Mech and powered it up.  Despite a lack of actual training, he found that the controls matched the simulation pods that he enjoyed playing with in his off hours.  With his purloined 'Mech lurching into motion he managed some lucky shots, destroying a pirate APC Transport and crippling two tanks.  He even managed to knock over one of their Stinger Light 'Mechs as he careened off the side in an ungainly attempt at a charge.  Between this unexpected resistance, and the sudden appearance of the local militia, the tide was turned and the pirates were soon in full retreat.
 With the battle over, the Precentor in charge of the HPG noted Adam's deeds and encouraged him to walk the missionary's path, believing that Blessed Blake had a higher purpose in mind for him.  Adam was to learn the way of the MechWarrior, while also spreading the Word of Blake amongst the stars and searching out other like minded warriors of faith.  Calling in some old favors, the Precentor sponsored Adam and had him sent to a Concordat training academy.  Wishing him well, the Precentor gifted Adam with a rare printed copy of Jerome Blake's writings, to help guide him through this new future and keep him on the path - this was to become one of Adam's most cherished of possessions over the following years.
+Adam now travels the stars, preaching the good word of Blake and fighting for good causes that champion the little folk who so often get forgotten by the larger powers, but not the little mercenaries.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Born on Terra, Adam joined ComStar as an Acolyte at a young age. After years of training on Terra, he then continued to serve the Blessed Blake as a HPG technician on a fairly backwater world in the Taurian Concordat know as Argos (as happens with new acolytes, they have to learn somewhere). For several years he labored at his duties without much distinction or notice.
+Near the close of the 3rd Succession War, the HPG station was attacked by a group of extremely bold (if not more than a little stupid) pirates. ComStar put out a call to the local militia while their meager security force held the pirates at bay as best as they could. However, the pirates soon overwhelmed the ComStar base, and several pirates exited their vehicles to begin looting the compound. It was at this moment that Adam's life took a turn. Making a rash decision to do whatever it took to protect the blessed HPG and technology of old, Adam climbed into a vacated 'Mech and powered it up. Despite a lack of actual training, he found that the controls matched the simulation pods that he enjoyed playing with in his off hours. With his purloined 'Mech lurching into motion he managed some lucky shots, destroying a pirate APC Transport and crippling two tanks. He even managed to knock over one of their Stinger Light 'Mechs as he careened off the side in an ungainly attempt at a charge. Between this unexpected resistance, and the sudden appearance of the local militia, the tide was turned and the pirates were soon in full retreat.
+With the battle over, the Precentor in charge of the HPG noted Adam's deeds and encouraged him to walk the missionary's path, believing that Blessed Blake had a higher purpose in mind for him. Adam was to learn the way of the MechWarrior, while also spreading the Word of Blake amongst the stars and searching out other like minded warriors of faith. Calling in some old favors, the Precentor sponsored Adam and had him sent to a Concordat training academy. Wishing him well, the Precentor gifted Adam with a rare printed copy of Jerome Blake's writings, to help guide him through this new future and keep him on the path - this was to become one of Adam's most cherished of possessions over the following years.
 Adam now travels the stars, preaching the good word of Blake and fighting for good causes that champion the little folk who so often get forgotten by the larger powers, but not the little mercenaries.</t>
   </si>
   <si>
@@ -1077,6 +1104,14 @@
 Considering his past and knowing that both the world and unit he last served on have passed from existence, many believe Garrison to be jinxed, and considering how he wound up dispossessed and in the hiring halls, maybe there is something to it.  But Garrisoned is a skilled Tactician and he has a plan to get back in the game, even if he has had to take his lumps as a merc for nearly a decade.</t>
   </si>
   <si>
+    <t xml:space="preserve">Garrison is a true son of Arcturus, the one time capital system of the Lyran Commonwealth and like any good citizen of the Commonwealth, he joined the military as soon as he was of age. He tested well in the VR-pods and was promptly sent to Coventry Military Academy. There he excelled in his tactics classes and was put on a fast track for being assigned to a line unit to replace the ever increasing losses during the 3rd Succession War. Being given an early commission with the severely depleted Sixth Arcturian Guards, Garrison was sent to Starshine at the age of 21.
+On Starshine he was assigned to be First Leutnant of a Support Lance where he was able to make excellent use of his academy training against pirate raiders and Free Worlds League units. Where is Starshine you may ask? Well, don't bother looking for it on star maps, its a dead world now. What about the Sixth Arcturian Guards? They no longer show on the rolls of active units for the Commonwealth - yet Garrison was there at the end of both.
+Barely a year into his new assignment, Garrison was thrust right into action. During the Marik Civil War of 3014 (also known as Anton's Revolt), the Commonwealth decided to take advantage of the situation and sent the Sixth in to raid Griffith. With the chaos of Anton's Revolt, the 1st Fusiliers of Oriente were slow to respond and the Sixth's raid was considered a rousing success. During the fighting Garrison would bait the enemy into terrain of his choosing to allow his support lance to pepper the opposing force with indirect fire while performing slow withdrawals toward the other lances in his company. The Hauptmann of the company took to saying the OpFor got 'Garrisoned' and it wasn't long before it stuck as his call sign.
+Returning to their post at Starshine, the Sixth was celebrating their victory in one of the larger domed habitats when the Fusiliers got their revenge. Performing a Hover-Drop, a mobile force of Fusiliers attacked, catching the Sixth completely unaware. Scrambling to get back to his 'Mech, Garrison found he was cut off by the Fusiliers' forces. Over the next few days he bided his time until opportunity knocked in he form of a Fusiliers Hunchback 4P that was left in the old Sixth depot area for repairs. Subduing the technicians, Garrison took control of the 'Mech and made to escape the depot. There are many stories about what happened next, but the one thing every story has in common is that the depot was set off, causing a chain reaction that destroyed the Star League era air purifying system that kept the planetary domes habitable. This ultimately led to the world being abandoned of the next few years, another casualty of the Succession Wars.
+While the 1st Fusiliers of Oriente made it off world mostly intact, the same could not be said for the Sixth, between their losses during the surprise assault, and the destruction of the depot - the Sixth ceased to be a solvent unit. Garrsioned was one of the few to escape with his life and his new 'Mech. But, even this bit of luck didn't last. While in transit to the Jump Point, the Black Raiders pirates took advantage of the chaos and attempted to capture the DropShip ferrying Garrison and his 'Mech. During a strafing run by a Black Raider AeroSpace Fighter, a freak accident occurred with the restraint system in the MechBay and the LRM pods in the Hunchback triggered, and it seemed that the techs had forgotten to remove the load during the frenzy to get off world. The explosion caused a systematic failure resulting in the loading bay door opening, and all unsecured equipment was blown into space, including Garrison's HBK-4P. While the DropShip was able to escape, Garrison was now without a unit, without a world and without a 'Mech.
+Considering his past and knowing that both the world and unit he last served on have passed from existence, many believe Garrison to be jinxed, and considering how he wound up dispossessed and in the hiring halls, maybe there is something to it. But Garrisoned is a skilled Tactician and he has a plan to get back in the game, even if he has had to take his lumps as a merc for nearly a decade.</t>
+  </si>
+  <si>
     <t>pilot_jk_Garrisoned.Description.FirstName</t>
   </si>
   <si>
@@ -1168,6 +1203,12 @@
 Now, though, he is out of c-bills and is looking for work.</t>
   </si>
   <si>
+    <t xml:space="preserve">Dakotah, was the son of a noble-baron of a small city in the Fronc System. While life was hard on the frontier, the support given to the colonists by both the Magistracy and Taurians gave them hope of a prosperous future. Dakky's father was a retired Taurian MechCommander who had been gifted the posting to Fronc, with the understanding that he was to form the nucleus of that province's militia. Lord Brumagin sadly passed under mysterious circumstances and the young master Dakotah was suddenly thrust into the hereditary position of Lord.
+Surprising everyone (aside from himself) Dakotah took to the role adeptly and made great strides towards stabilizing the province, leading by example. This Lordling was not afraid to get his hands dirty, willing to work the fields, taking his turns on patrol and not shirking any responsibilities passed his way. But his greatest love was working on the family 'Mech, and he spent many hours working with the MechTechs learning their trade.
+It was near his coming to age that he met the woman that would become his wife, but their wedding was both the best and worst day of their lives. On the day of the ceremony, a pirate band stuck, killing most of Dakotah's family, sacking the city and stealing his family 'Mech. With the city in ruins, many of the survivors moved to other provinces or returned to their homeworlds. But the young Lord had a thirst for vengeance. Setting off on the first JumpShip offworld with his new wife, he took to the life of a mercenary to build up his coffers so he can one day hunt down and wipe out the pirates that attacked his home.
+Now, though, he is out of c-bills and is looking for work.</t>
+  </si>
+  <si>
     <t>pilot_jk_LordDakky.Description.FirstName</t>
   </si>
   <si>
@@ -1239,6 +1280,13 @@
 In 3022 the 33rd was part of an expedition to retake Galtor III from the Draconis Combine, in what became known as one of the bloodiest campaigns in the later part of the 3rd Succession War.  During that campaign, Leftenant Zanos' lance was instrumental in scouting out the enemy forces, helping the Federated Suns to eventually retake Galtor.  However, during the campaign, Evan felt for the people of Galtor III, who were suffering horrendous loses.  It was during a information gathering mission that Evan saw the atrocities being committed by the Combine Troops on the citizenry, and despite orders not to reveal themselves, Evan took maters into his own hands, attacking the DCMS forces.  The sheer bravado and wildness of the attack threw the Combine Soldiery into disarray, and believing that Lt. Zanos' lance was a spearhead for a larger force they withdrew.  While he had saved these poor souls, what he saw that day caused him to resign his commission and seek ways to help the people.</t>
   </si>
   <si>
+    <t xml:space="preserve">Born on New Avalon, the capital world of the Federated Suns, Evan had a complicated history from day one. His father was a noble diplomat from the Lyran Commonwealth and his mother a prominent officer in the New Avalon Crucis March Militia. Their relationship was initially viewed with suspicion by factions within both Houses and life was difficult for Evan as he grew up between worlds. Ironically, years later his family would be lauded as an important step in the improving relations between the two realms. But this would not be in time to make Evan's life any easier.
+From a very early age Evan showed an aptitude for VR combat simulation games, often taking units known to be under powered, yet somehow finessing them to victory. This eventually led him to seek a career with the military much to his mother's delight and father's grudging tolerance. He was soon enrolled at the newly formed NAIS, but life there was no picnic, as all his classmates believed him to be there on his parent's accomplishments and not his own merits. Never the less, Evan was determined to prove himself, and would never back down from a challenge.
+After graduating, his mother offered to help him gain a position in the March Militia, but Evan continued to want to forge his own destiny. Accepting a junior officer position with the 33rd Avalon Hussars, he left New Avalon behind, yet the spectre of his family continued to follow him.
+Always a risk taker, Evan found he much preferred the role of scout, both for the solitude and the opportunities it provided him to show what he could accomplish. Through sheer determination he rose to the rank of Leftenant, but he still wanted a chance to step out from his parent's shadow. Soon he would have his chance in spades.
+In 3022 the 33rd was part of an expedition to retake Galtor III from the Draconis Combine, in what became known as one of the bloodiest campaigns in the later part of the 3rd Succession War. During that campaign, Leftenant Zanos' lance was instrumental in scouting out the enemy forces, helping the Federated Suns to eventually retake Galtor. However, during the campaign, Evan felt for the people of Galtor III, who were suffering horrendous loses. It was during a information gathering mission that Evan saw the atrocities being committed by the Combine Troops on the citizenry, and despite orders not to reveal themselves, Evan took maters into his own hands, attacking the DCMS forces. The sheer bravado and wildness of the attack threw the Combine Soldiery into disarray, and believing that Lt. Zanos' lance was a spearhead for a larger force they withdrew. While he had saved these poor souls, what he saw that day caused him to resign his commission and seek ways to help the people.</t>
+  </si>
+  <si>
     <t>pilot_jk_Stryker.Description.FirstName</t>
   </si>
   <si>
@@ -1349,6 +1397,11 @@
 Now traveling the stars once again as a merc, occasionally designing new mech variants for clients and looking for interesting times.</t>
   </si>
   <si>
+    <t xml:space="preserve">Artemus left his birthplace as a young man to pursue life a mercenary. He spent years going traveling around the Inner Sphere seeing combat against various engagements facing mostly pirates with a few against the Clans.
+When the hostilities cooled, Artemus took the opportunity to travel to Canopian space to relax for a few years. It didn't take long, for things to heat backup during a pirate raid, he fired up a nearby battlemech to take the fight back against the local pirates.
+Now traveling the stars once again as a merc, occasionally designing new mech variants for clients and looking for interesting times.</t>
+  </si>
+  <si>
     <t>pilot_tl_TaintedLoki.Description.FirstName</t>
   </si>
   <si>
@@ -1404,6 +1457,10 @@
   <si>
     <t xml:space="preserve">Wulf Hardy is Draconis affiliated, sporting a rough past from the Kesai liberation. While sporting a weak constitution and bad allergies, he is dependable and overall uplifting to be around.  The accent of his homeworld leads him to insist it should be spelled Wulf or not at all.  He's picked a moniker coring WFH and WVR infidels of all makes.
 Wulfbanes adopts cats when planetbound.  There may have been an incident with SRMs when there was a chase in the cockpit.  He likes naps, going fast, and hearing the cacophony after missiles take flight.  He doesn't like plant life, getting hit, or anything that messes with the gyro.  Nobody wants to disturb a lounging cat, and nobody wants a repeat misfire.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wulf Hardy is Draconis affiliated, sporting a rough past from the Kesai liberation. While sporting a weak constitution and bad allergies, he is dependable and overall uplifting to be around. The accent of his homeworld leads him to insist it should be spelled Wulf or not at all. He's picked a moniker coring WFH and WVR infidels of all makes.
+Wulfbanes adopts cats when planetbound. There may have been an incident with SRMs when there was a chase in the cockpit. He likes naps, going fast, and hearing the cacophony after missiles take flight. He doesn't like plant life, getting hit, or anything that messes with the gyro. Nobody wants to disturb a lounging cat, and nobody wants a repeat misfire.</t>
   </si>
   <si>
     <t>pilot_wb_Wulfbanes.Description.FirstName</t>
@@ -1452,7 +1509,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -1752,15 +1810,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="B245" sqref="B245"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="85.42578125" customWidth="1" style="2"/>
     <col min="3" max="3" width="73.85546875" customWidth="1" style="2"/>
-    <col min="4" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="4" max="4" width="9.140625" customWidth="1" style="2"/>
+    <col min="5" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1770,7 +1829,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1787,8 +1846,8 @@
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
@@ -1799,13 +1858,13 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
@@ -1816,13 +1875,13 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>2</v>
@@ -1833,12 +1892,12 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1850,13 +1909,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>2</v>
@@ -1867,13 +1926,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>2</v>
@@ -1884,13 +1943,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>2</v>
@@ -1901,13 +1960,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>2</v>
@@ -1918,13 +1977,13 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>2</v>
@@ -1935,13 +1994,13 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>2</v>
@@ -1952,13 +2011,13 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>2</v>
@@ -1969,13 +2028,13 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>2</v>
@@ -1986,13 +2045,13 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>2</v>
@@ -2003,13 +2062,13 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>2</v>
@@ -2020,13 +2079,13 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>2</v>
@@ -2037,13 +2096,13 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>2</v>
@@ -2054,13 +2113,13 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>2</v>
@@ -2071,13 +2130,13 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>2</v>
@@ -2088,13 +2147,13 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>2</v>
@@ -2105,13 +2164,13 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>2</v>
@@ -2122,13 +2181,13 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>2</v>
@@ -2139,13 +2198,13 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>2</v>
@@ -2156,13 +2215,13 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>2</v>
@@ -2173,13 +2232,13 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>2</v>
@@ -2190,13 +2249,13 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>2</v>
@@ -2207,13 +2266,13 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>2</v>
@@ -2224,13 +2283,13 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>2</v>
@@ -2241,13 +2300,13 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>2</v>
@@ -2258,13 +2317,13 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>2</v>
@@ -2275,13 +2334,13 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>2</v>
@@ -2292,13 +2351,13 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>2</v>
@@ -2309,13 +2368,13 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>2</v>
@@ -2326,13 +2385,13 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>2</v>
@@ -2343,13 +2402,13 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>2</v>
@@ -2360,13 +2419,13 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>2</v>
@@ -2377,13 +2436,13 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>2</v>
@@ -2394,13 +2453,13 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>2</v>
@@ -2411,13 +2470,13 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>2</v>
@@ -2428,13 +2487,13 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>2</v>
@@ -2445,13 +2504,13 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>2</v>
@@ -2462,13 +2521,13 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>2</v>
@@ -2479,13 +2538,13 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>2</v>
@@ -2496,13 +2555,13 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>2</v>
@@ -2513,13 +2572,13 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>2</v>
@@ -2530,13 +2589,13 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>2</v>
@@ -2547,13 +2606,13 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>2</v>
@@ -2564,13 +2623,13 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>2</v>
@@ -2581,13 +2640,13 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>2</v>
@@ -2598,13 +2657,13 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>2</v>
@@ -2615,13 +2674,13 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>2</v>
@@ -2632,13 +2691,13 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>2</v>
@@ -2649,13 +2708,13 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>2</v>
@@ -2666,13 +2725,13 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>2</v>
@@ -2683,13 +2742,13 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>2</v>
@@ -2700,13 +2759,13 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>2</v>
@@ -2717,13 +2776,13 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>2</v>
@@ -2734,13 +2793,13 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>2</v>
@@ -2751,13 +2810,13 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>2</v>
@@ -2768,13 +2827,13 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>2</v>
@@ -2785,13 +2844,13 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>2</v>
@@ -2802,13 +2861,13 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>2</v>
@@ -2819,13 +2878,13 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>2</v>
@@ -2836,13 +2895,13 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>2</v>
@@ -2853,13 +2912,13 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>2</v>
@@ -2870,13 +2929,13 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>2</v>
@@ -2887,13 +2946,13 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>2</v>
@@ -2904,13 +2963,13 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>2</v>
@@ -2921,13 +2980,13 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>2</v>
@@ -2938,13 +2997,13 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>2</v>
@@ -2955,13 +3014,13 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>2</v>
@@ -2972,13 +3031,13 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>2</v>
@@ -2989,13 +3048,13 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>2</v>
@@ -3006,13 +3065,13 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>2</v>
@@ -3023,13 +3082,13 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>2</v>
@@ -3040,13 +3099,13 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>2</v>
@@ -3057,13 +3116,13 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>2</v>
@@ -3074,13 +3133,13 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>2</v>
@@ -3091,13 +3150,13 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>2</v>
@@ -3108,13 +3167,13 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>2</v>
@@ -3125,13 +3184,13 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>2</v>
@@ -3142,13 +3201,13 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>2</v>
@@ -3159,13 +3218,13 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>2</v>
@@ -3176,13 +3235,13 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>2</v>
@@ -3193,13 +3252,13 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>2</v>
@@ -3210,13 +3269,13 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>2</v>
@@ -3227,13 +3286,13 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>2</v>
@@ -3244,13 +3303,13 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>2</v>
@@ -3261,13 +3320,13 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>2</v>
@@ -3278,13 +3337,13 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>2</v>
@@ -3295,13 +3354,13 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>2</v>
@@ -3312,13 +3371,13 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>2</v>
@@ -3329,13 +3388,13 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>2</v>
@@ -3346,13 +3405,13 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>2</v>
@@ -3363,13 +3422,13 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>2</v>
@@ -3380,13 +3439,13 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>2</v>
@@ -3397,13 +3456,13 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>2</v>
@@ -3414,13 +3473,13 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>2</v>
@@ -3431,13 +3490,13 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>2</v>
@@ -3448,13 +3507,13 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>2</v>
@@ -3465,13 +3524,13 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>2</v>
@@ -3482,13 +3541,13 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>2</v>
@@ -3499,13 +3558,13 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>2</v>
@@ -3516,13 +3575,13 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>2</v>
@@ -3533,13 +3592,13 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>2</v>
@@ -3550,13 +3609,13 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>2</v>
@@ -3567,13 +3626,13 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>2</v>
@@ -3584,13 +3643,13 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>2</v>
@@ -3601,13 +3660,13 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>2</v>
@@ -3618,13 +3677,13 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>2</v>
@@ -3635,13 +3694,13 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>2</v>
@@ -3652,13 +3711,13 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>2</v>
@@ -3669,13 +3728,13 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>2</v>
@@ -3686,13 +3745,13 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>2</v>
@@ -3703,13 +3762,13 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>2</v>
@@ -3720,13 +3779,13 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>2</v>
@@ -3737,13 +3796,13 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>2</v>
@@ -3754,13 +3813,13 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>2</v>
@@ -3771,13 +3830,13 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>2</v>
@@ -3788,13 +3847,13 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>2</v>
@@ -3805,13 +3864,13 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>2</v>
@@ -3822,13 +3881,13 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>2</v>
@@ -3839,13 +3898,13 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>2</v>
@@ -3856,13 +3915,13 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>2</v>
@@ -3873,13 +3932,13 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>2</v>
@@ -3890,13 +3949,13 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>230</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>2</v>
@@ -3907,13 +3966,13 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>2</v>
@@ -3924,13 +3983,13 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>234</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>2</v>
@@ -3941,13 +4000,13 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>2</v>
@@ -3958,13 +4017,13 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>230</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>2</v>
@@ -3975,13 +4034,13 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>2</v>
@@ -3992,13 +4051,13 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>2</v>
@@ -4009,13 +4068,13 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>243</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>2</v>
@@ -4026,13 +4085,13 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>245</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>2</v>
@@ -4043,13 +4102,13 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>2</v>
@@ -4060,13 +4119,13 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>2</v>
@@ -4077,13 +4136,13 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>2</v>
@@ -4094,13 +4153,13 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>2</v>
@@ -4111,13 +4170,13 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>2</v>
@@ -4128,13 +4187,13 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>255</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>2</v>
@@ -4145,13 +4204,13 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>257</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>2</v>
@@ -4162,13 +4221,13 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>2</v>
@@ -4179,13 +4238,13 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>2</v>
@@ -4196,13 +4255,13 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>255</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>2</v>
@@ -4213,13 +4272,13 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>2</v>
@@ -4230,13 +4289,13 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>266</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>2</v>
@@ -4247,13 +4306,13 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>268</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>2</v>
@@ -4264,13 +4323,13 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>270</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>2</v>
@@ -4281,13 +4340,13 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>2</v>
@@ -4298,13 +4357,13 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>2</v>
@@ -4315,13 +4374,13 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>275</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>2</v>
@@ -4332,13 +4391,13 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>274</v>
+        <v>277</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>277</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>2</v>
@@ -4349,13 +4408,13 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>279</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>2</v>
@@ -4366,13 +4425,13 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>278</v>
+        <v>281</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>281</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>2</v>
@@ -4383,13 +4442,13 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>283</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>2</v>
@@ -4400,13 +4459,13 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>2</v>
@@ -4417,13 +4476,13 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>288</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>2</v>
@@ -4434,13 +4493,13 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>290</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>2</v>
@@ -4451,13 +4510,13 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>283</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>2</v>
@@ -4468,13 +4527,13 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>293</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>2</v>
@@ -4485,13 +4544,13 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>295</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>2</v>
@@ -4502,13 +4561,13 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>297</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>2</v>
@@ -4519,13 +4578,13 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>299</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>2</v>
@@ -4536,13 +4595,13 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>293</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>2</v>
@@ -4553,13 +4612,13 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>302</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>2</v>
@@ -4570,13 +4629,13 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>2</v>
@@ -4587,13 +4646,13 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>302</v>
+        <v>307</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>2</v>
@@ -4604,13 +4663,13 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>304</v>
+        <v>309</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>309</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>2</v>
@@ -4621,13 +4680,13 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>302</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>2</v>
@@ -4638,13 +4697,13 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>307</v>
+        <v>312</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>312</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>2</v>
@@ -4655,13 +4714,13 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>309</v>
+        <v>314</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>315</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>2</v>
@@ -4672,13 +4731,13 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>311</v>
+        <v>317</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>317</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>2</v>
@@ -4689,13 +4748,13 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>313</v>
+        <v>319</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>319</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>2</v>
@@ -4706,13 +4765,13 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>307</v>
+        <v>312</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>312</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>2</v>
@@ -4723,13 +4782,13 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>316</v>
+        <v>322</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>2</v>
@@ -4740,13 +4799,13 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>318</v>
+        <v>324</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>324</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>2</v>
@@ -4757,13 +4816,13 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>320</v>
+        <v>326</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>2</v>
@@ -4774,13 +4833,13 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>322</v>
+        <v>328</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>2</v>
@@ -4791,13 +4850,13 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>316</v>
+        <v>322</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>2</v>
@@ -4808,13 +4867,13 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>2</v>
@@ -4825,13 +4884,13 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>326</v>
+        <v>332</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>332</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>2</v>
@@ -4842,13 +4901,13 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>328</v>
+        <v>334</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>334</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>2</v>
@@ -4859,13 +4918,13 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>330</v>
+        <v>336</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>336</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>2</v>
@@ -4876,13 +4935,13 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>2</v>
@@ -4893,13 +4952,13 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>333</v>
+        <v>339</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>2</v>
@@ -4910,13 +4969,13 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>335</v>
+        <v>341</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>342</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>2</v>
@@ -4927,13 +4986,13 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>337</v>
+        <v>344</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>2</v>
@@ -4944,13 +5003,13 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>339</v>
+        <v>346</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>346</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>2</v>
@@ -4961,13 +5020,13 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>333</v>
+        <v>339</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>2</v>
@@ -4978,13 +5037,13 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>342</v>
+        <v>349</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>349</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>2</v>
@@ -4995,13 +5054,13 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>2</v>
@@ -5012,13 +5071,13 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>346</v>
+        <v>353</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>353</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>2</v>
@@ -5029,13 +5088,13 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>348</v>
+        <v>355</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>355</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>2</v>
@@ -5046,13 +5105,13 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B194" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B194" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>342</v>
+      <c r="C194" s="3" t="s">
+        <v>349</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>2</v>
@@ -5063,13 +5122,13 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>351</v>
+        <v>358</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>2</v>
@@ -5080,13 +5139,13 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>2</v>
@@ -5097,13 +5156,13 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>355</v>
+        <v>362</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>362</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>2</v>
@@ -5114,13 +5173,13 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>357</v>
+        <v>364</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>364</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>2</v>
@@ -5131,13 +5190,13 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B199" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="B199" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>351</v>
+      <c r="C199" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>2</v>
@@ -5148,13 +5207,13 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>360</v>
+        <v>367</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>367</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>2</v>
@@ -5165,13 +5224,13 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>362</v>
+        <v>369</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>370</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>2</v>
@@ -5182,13 +5241,13 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>364</v>
+        <v>372</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>372</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>2</v>
@@ -5199,13 +5258,13 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>366</v>
+        <v>374</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>374</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>2</v>
@@ -5216,13 +5275,13 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B204" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>360</v>
+      <c r="C204" s="3" t="s">
+        <v>367</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>2</v>
@@ -5233,13 +5292,13 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>316</v>
+        <v>322</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>2</v>
@@ -5250,13 +5309,13 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>2</v>
@@ -5267,13 +5326,13 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>320</v>
+        <v>326</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>2</v>
@@ -5284,13 +5343,13 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>322</v>
+        <v>328</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>2</v>
@@ -5301,13 +5360,13 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>316</v>
+        <v>322</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>2</v>
@@ -5318,13 +5377,13 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>2</v>
@@ -5335,13 +5394,13 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>376</v>
+        <v>384</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>384</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>2</v>
@@ -5352,13 +5411,13 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>378</v>
+        <v>386</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>386</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>2</v>
@@ -5369,13 +5428,13 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>2</v>
@@ -5386,13 +5445,13 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>381</v>
+        <v>389</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>389</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>2</v>
@@ -5403,13 +5462,13 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>383</v>
+        <v>391</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>392</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>2</v>
@@ -5420,13 +5479,13 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>385</v>
+        <v>394</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>394</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>2</v>
@@ -5437,13 +5496,13 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>387</v>
+        <v>396</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>396</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>2</v>
@@ -5454,13 +5513,13 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>381</v>
+        <v>389</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>389</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>2</v>
@@ -5471,13 +5530,13 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>316</v>
+        <v>322</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>2</v>
@@ -5488,13 +5547,13 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>318</v>
+        <v>324</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>324</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>2</v>
@@ -5505,13 +5564,13 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>320</v>
+        <v>326</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>2</v>
@@ -5522,13 +5581,13 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>322</v>
+        <v>328</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>2</v>
@@ -5539,13 +5598,13 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>316</v>
+        <v>322</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>2</v>
@@ -5556,13 +5615,13 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>395</v>
+        <v>404</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>404</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>2</v>
@@ -5573,13 +5632,13 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>383</v>
+        <v>391</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>392</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>2</v>
@@ -5590,13 +5649,13 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>398</v>
+        <v>407</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>407</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>2</v>
@@ -5607,13 +5666,13 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>400</v>
+        <v>409</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>409</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>2</v>
@@ -5624,13 +5683,13 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>395</v>
+        <v>404</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>404</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>2</v>
@@ -5641,13 +5700,13 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>316</v>
+        <v>322</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>2</v>
@@ -5658,13 +5717,13 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>318</v>
+        <v>324</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>324</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>2</v>
@@ -5675,13 +5734,13 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>320</v>
+        <v>326</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>2</v>
@@ -5692,13 +5751,13 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>322</v>
+        <v>328</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>2</v>
@@ -5709,13 +5768,13 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>316</v>
+        <v>322</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>2</v>
@@ -5726,13 +5785,13 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>408</v>
+        <v>417</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>417</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>2</v>
@@ -5743,13 +5802,13 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>410</v>
+        <v>419</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>419</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>2</v>
@@ -5760,13 +5819,13 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>412</v>
+        <v>421</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>421</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>2</v>
@@ -5777,13 +5836,13 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>414</v>
+        <v>423</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>423</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>2</v>
@@ -5794,13 +5853,13 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>408</v>
+        <v>417</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>417</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>2</v>
@@ -5811,13 +5870,13 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>417</v>
+        <v>426</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>426</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>2</v>
@@ -5828,13 +5887,13 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>419</v>
+        <v>428</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>429</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>2</v>
@@ -5845,13 +5904,13 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>421</v>
+        <v>431</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>431</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>2</v>
@@ -5862,13 +5921,13 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>423</v>
+        <v>433</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>433</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>2</v>
@@ -5879,13 +5938,13 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>417</v>
+        <v>426</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>426</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>2</v>
@@ -5896,13 +5955,13 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>426</v>
+        <v>436</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>436</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>2</v>
@@ -5913,13 +5972,13 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>428</v>
+        <v>438</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>2</v>
@@ -5930,13 +5989,13 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>430</v>
+        <v>440</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>440</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>2</v>
@@ -5947,13 +6006,13 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>432</v>
+        <v>442</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>442</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>2</v>
@@ -5964,13 +6023,13 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>426</v>
+        <v>436</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>436</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>2</v>
@@ -5981,13 +6040,13 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>435</v>
+        <v>445</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>445</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>2</v>
@@ -5998,13 +6057,13 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>437</v>
+        <v>447</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>448</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>2</v>
@@ -6015,13 +6074,13 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>439</v>
+        <v>450</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>450</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>2</v>
@@ -6032,13 +6091,13 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>441</v>
+        <v>452</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>452</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>2</v>
@@ -6049,13 +6108,13 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>435</v>
+        <v>445</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>445</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>2</v>
@@ -6066,6 +6125,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/CustomLocalization/Localization/RogueTech/RU/BT_Advanced_Pilots/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/BT_Advanced_Pilots/LocalizationDef.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="457">
   <si>
     <t>pilot_at_Axle.Description.Callsign</t>
   </si>
@@ -1143,6 +1143,13 @@
 Recently Haree has seen his savings become just another casualty of the Succession Wars and has been drawn into trying to find an employer, with one eye on the dream he still holds on to.</t>
   </si>
   <si>
+    <t xml:space="preserve">Originally a ground-pounder NCO for a support unit in the 2nd Robinson Rangers, Paul was stationed on Breed for garrison duty, along with an up-and-coming mercenary unit called the Steel Jaguars. Part of what made the Jaguars stand out was their rigorous training regimen which involved a lot of wargames. During the time stationed on Breed, the Rangers and Jaguars participate in multiple exercises, at first pitting each unit against each other and later performing mixed unit operations. It was during one of these exercises that Paul's life would take an unexpected turn.
+During an exercise, Paul's Company lost their Command Squad, but he was unwilling to concede defeat and Paul organized a trap to even the score. Luring the Jaguar scout lance into a geothermal valley, Paul's squad signaled the mock trigger for his unit's SRM Inferno rounds, which had been placed along the most likely trail the OpFor lance would take - the combination heat overload of the geysers and Infernos shut down 3 of the 4 'Mechs, with the final 'Mech being dispatched with overlapping fire from Paul's 2 remaining squads. The mercenary Command staff were so impressed with Paul that their CO, Doyle, offered him a billet in the Steel Jaguars when his tour with the Rangers was complete. It was at this point that he took on the nickname Haree, some say it is because no mater how hairy the situation gets, he can turn it around and make it hairier for the enemy.
+Despite having very little BattleMech experience, Haree joined up with the Jaguars a year later and quickly adapted to the life of a MechWarrior. His natural combat and leadership abilities helping to propel him through the ranks and it seemed like Haree had barely moved into his locker before he was granted command of a scout lance and then the company, which was expedited somewhat by his predecessor taking an AC/10 round through the cockpit.
+Under Haree's guidance, he helped the Steel Jaguar Battalion become one of the premiere units to hire if you absolutely had to get the job done. During his tenure as Captain his company had failed a contract only once, just prior to Haree retiring his mantle. Despite appearances to the contrary, it wasn't this failure that made him stand down though. Rather, it was the draw of his life long dream to take the money he had earned and settle down on his home world of Robinson. Haree yearned to feel the grass between his toes instead of the burn of melting BattleMech armor in his nostrils.
+Recently Haree has seen his savings become just another casualty of the Succession Wars and has been drawn into trying to find an employer, with one eye on the dream he still holds on to.</t>
+  </si>
+  <si>
     <t>pilot_jk_Haree.Description.FirstName</t>
   </si>
   <si>
@@ -1171,6 +1178,12 @@
 After a series of increasingly brutal raids on their settlement, Nathan finally worked up the courage to defend his home.  Rallying together a local militia, they managed to give the raiders a taste of their own medicine with improvised explosives made from one of the most ready resources on the world, fertilizer.  But victory would prove to be pyrrhic.  Upon returning to his farm he found that the pirates had set fire to his farmhouse with all of his little fuzzy friends inside.
 In light of such a loss, Nathan picked up what few belongings remained to him and left to join a small-time mercenary outfit where he endeavored to shape himself into the bulwark upon which Hell itself would break.
 In memoriam of his lost friends and the hope and joy that Nathan  believed they brought to the world, he took on the callsign: HBFT (Happy Bunny Fluffy Toes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Having grown up on All Dawn (a backwater agricultural world), Nathan worked on a farm raising Dutch Pygmy Rabbits and knew nothing of combat. That is not to say he wasn't familiar with the violence of living on the fringes of the Inner Sphere. With All Dawn being on the outskirts of Steiner-controlled territory, he was no stranger to regular harassment from pirates.
+After a series of increasingly brutal raids on their settlement, Nathan finally worked up the courage to defend his home. Rallying together a local militia, they managed to give the raiders a taste of their own medicine with improvised explosives made from one of the most ready resources on the world, fertilizer. But victory would prove to be pyrrhic. Upon returning to his farm he found that the pirates had set fire to his farmhouse with all of his little fuzzy friends inside.
+In light of such a loss, Nathan picked up what few belongings remained to him and left to join a small-time mercenary outfit where he endeavored to shape himself into the bulwark upon which Hell itself would break.
+In memoriam of his lost friends and the hope and joy that Nathan believed they brought to the world, he took on the callsign: HBFT (Happy Bunny Fluffy Toes.</t>
   </si>
   <si>
     <t>pilot_jk_HBFT.Description.FirstName</t>
@@ -1235,6 +1248,13 @@
 After graduating, his mother offered to help him gain a position in the March Militia, but Evan continued to want to forge his own destiny.  Accepting a junior officer position with the 33rd Avalon Hussars, he left New Avalon behind, yet the spectre of his family continued to follow him.
 Always a risk taker, Evan found he much preferred the role of scout, both for the solitude and the opportunities it provided him to show what he could accomplish.  Through sheer determination he rose to the rank of Leftenant, but he still wanted a chance to step out from his parent's shadow.  Soon he would have his chance in spades.
 In 3022 the 33rd was part of an expedition to retake Galtor III from the Draconis Combine, in what became known as one of the bloodiest campaigns in the later part of the 3rd Succession War.  During that campaign, Leftenant Zanos' lance was instrumental in scouting out the enemy forces, helping the Federated Suns to eventually retake Galtor.  However, during the campaign, Evan felt for the people of Galtor III, who were suffering horrendous loses.  It was during a information gathering mission that Evan saw the atrocities being committed by the Combine Troops on the citizenry, and despite orders not to reveal themselves, Evan took maters into his own hands, attacking the DCMS forces.  The sheer bravado and wildness of the attack threw the Combine Soldiery into disarray, and believing that Lt. Zanos' lance was a spearhead for a larger force they withdrew.  While he had saved these poor souls, what he saw that day caused him to resign his commission and seek ways to help the people.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Born on Atreus, the capital world of the Federated Suns, Evan had a complicated history from day one. His father was a noble diplomat from the Lyran Commonwealth and his mother a prominent officer in the New Avalon Crucis March Militia. Their relationship was initially viewed with suspicion by factions within both Houses and life was difficult for Evan as he grew up between worlds. Ironically, years later his family would be lauded as an important step in the improving relations between the two realms. But this would not be in time to make Evan's life any easier.
+From a very early age Evan showed an aptitude for VR combat simulation games, often taking units known to be under powered, yet somehow finessing them to victory. This eventually led him to seek a career with the military much to his mother's delight and father's grudging tolerance. He was soon enrolled at the newly formed NAIS, but life there was no picnic, as all his classmates believed him to be there on his parent's accomplishments and not his own merits. Never the less, Evan was determined to prove himself, and would never back down from a challenge.
+After graduating, his mother offered to help him gain a position in the March Militia, but Evan continued to want to forge his own destiny. Accepting a junior officer position with the 33rd Avalon Hussars, he left New Avalon behind, yet the spectre of his family continued to follow him.
+Always a risk taker, Evan found he much preferred the role of scout, both for the solitude and the opportunities it provided him to show what he could accomplish. Through sheer determination he rose to the rank of Leftenant, but he still wanted a chance to step out from his parent's shadow. Soon he would have his chance in spades.
+In 3022 the 33rd was part of an expedition to retake Galtor III from the Draconis Combine, in what became known as one of the bloodiest campaigns in the later part of the 3rd Succession War. During that campaign, Leftenant Zanos' lance was instrumental in scouting out the enemy forces, helping the Federated Suns to eventually retake Galtor. However, during the campaign, Evan felt for the people of Galtor III, who were suffering horrendous loses. It was during a information gathering mission that Evan saw the atrocities being committed by the Combine Troops on the citizenry, and despite orders not to reveal themselves, Evan took maters into his own hands, attacking the DCMS forces. The sheer bravado and wildness of the attack threw the Combine Soldiery into disarray, and believing that Lt. Zanos' lance was a spearhead for a larger force they withdrew. While he had saved these poor souls, what he saw that day caused him to resign his commission and seek ways to help the people.</t>
   </si>
   <si>
     <t>pilot_jk_PasiFist.Description.FirstName</t>
@@ -1810,16 +1830,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E253"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
+      <selection activeCell="C261" sqref="C261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="85.42578125" customWidth="1" style="2"/>
     <col min="3" max="3" width="73.85546875" customWidth="1" style="2"/>
-    <col min="4" max="4" width="9.140625" customWidth="1" style="2"/>
-    <col min="5" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="4" max="5" width="9.140625" customWidth="1" style="2"/>
+    <col min="6" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5059,8 +5079,8 @@
       <c r="B191" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>351</v>
+      <c r="C191" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>2</v>
@@ -5071,13 +5091,13 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>2</v>
@@ -5088,13 +5108,13 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>2</v>
@@ -5105,7 +5125,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>349</v>
@@ -5122,13 +5142,13 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>2</v>
@@ -5139,13 +5159,13 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>362</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>2</v>
@@ -5156,13 +5176,13 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>2</v>
@@ -5173,13 +5193,13 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>2</v>
@@ -5190,13 +5210,13 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>2</v>
@@ -5207,13 +5227,13 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>2</v>
@@ -5224,13 +5244,13 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>2</v>
@@ -5241,13 +5261,13 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>2</v>
@@ -5258,13 +5278,13 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>2</v>
@@ -5275,13 +5295,13 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>2</v>
@@ -5292,7 +5312,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>322</v>
@@ -5309,13 +5329,13 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>381</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>2</v>
@@ -5326,7 +5346,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>326</v>
@@ -5343,7 +5363,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>328</v>
@@ -5360,7 +5380,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>322</v>
@@ -5377,7 +5397,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>212</v>
@@ -5394,13 +5414,13 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>2</v>
@@ -5411,13 +5431,13 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>2</v>
@@ -5428,7 +5448,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>212</v>
@@ -5445,13 +5465,13 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>2</v>
@@ -5462,13 +5482,13 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>2</v>
@@ -5479,13 +5499,13 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>2</v>
@@ -5496,13 +5516,13 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>2</v>
@@ -5513,13 +5533,13 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>2</v>
@@ -5530,7 +5550,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>322</v>
@@ -5547,7 +5567,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>324</v>
@@ -5564,7 +5584,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>326</v>
@@ -5581,7 +5601,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>328</v>
@@ -5598,7 +5618,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>322</v>
@@ -5615,13 +5635,13 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>2</v>
@@ -5632,13 +5652,13 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>2</v>
@@ -5649,13 +5669,13 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>2</v>
@@ -5666,13 +5686,13 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>2</v>
@@ -5683,13 +5703,13 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>2</v>
@@ -5700,7 +5720,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>322</v>
@@ -5717,7 +5737,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>324</v>
@@ -5734,7 +5754,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>326</v>
@@ -5751,7 +5771,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>328</v>
@@ -5768,7 +5788,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>322</v>
@@ -5785,13 +5805,13 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>2</v>
@@ -5802,13 +5822,13 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>2</v>
@@ -5819,13 +5839,13 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>2</v>
@@ -5836,13 +5856,13 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>2</v>
@@ -5853,13 +5873,13 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>2</v>
@@ -5870,13 +5890,13 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>2</v>
@@ -5887,13 +5907,13 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>2</v>
@@ -5904,13 +5924,13 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>2</v>
@@ -5921,13 +5941,13 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>2</v>
@@ -5938,13 +5958,13 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>2</v>
@@ -5955,13 +5975,13 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>2</v>
@@ -5972,13 +5992,13 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>2</v>
@@ -5989,13 +6009,13 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>2</v>
@@ -6006,13 +6026,13 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>2</v>
@@ -6023,13 +6043,13 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>2</v>
@@ -6040,13 +6060,13 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>2</v>
@@ -6057,13 +6077,13 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>2</v>
@@ -6074,13 +6094,13 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>2</v>
@@ -6091,13 +6111,13 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>2</v>
@@ -6108,13 +6128,13 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>2</v>
